--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -15,8 +15,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario</author>
+  </authors>
+  <commentList>
+    <comment ref="D191" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sueldo variable Mensual Para el año1
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="89">
   <si>
     <t>Demanda</t>
   </si>
@@ -226,13 +261,70 @@
   </si>
   <si>
     <t>Calculo Valor Libro</t>
+  </si>
+  <si>
+    <t>Balance Personal</t>
+  </si>
+  <si>
+    <t>Operador Maquina Lavadora</t>
+  </si>
+  <si>
+    <t>Operador Maquina Llenadora</t>
+  </si>
+  <si>
+    <t>Operador Maquina Etiquetadora</t>
+  </si>
+  <si>
+    <t>Operador Maquina Empacadora</t>
+  </si>
+  <si>
+    <t>Operador Maquina Paletizadora</t>
+  </si>
+  <si>
+    <t>Ayudantes</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Remuneraciones</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <t>Sueldos Variables x Produccion</t>
+  </si>
+  <si>
+    <t>Sueldo Fijo</t>
+  </si>
+  <si>
+    <t>Mensual/Año 1</t>
+  </si>
+  <si>
+    <t>Mensual/Año 2</t>
+  </si>
+  <si>
+    <t>Mensual/Año 3</t>
+  </si>
+  <si>
+    <t>Mensual/Año 4</t>
+  </si>
+  <si>
+    <t>Mensual/Año 5</t>
+  </si>
+  <si>
+    <t>Sueldo variable calculado según 12% del sueldo del año 1, y calculado con regla de 3</t>
+  </si>
+  <si>
+    <t>Produccion del Año * Sueldo Variable Año Anterior / Produccion Año Anterior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +339,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -616,11 +721,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -686,42 +828,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -753,6 +859,60 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R172"/>
+  <dimension ref="B2:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1510,10 +1670,10 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="87"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="34" t="s">
@@ -1652,10 +1812,10 @@
       <c r="H34" s="45"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="87"/>
       <c r="H35" s="45"/>
     </row>
     <row r="36" spans="2:8">
@@ -1799,10 +1959,10 @@
       <c r="H41" s="46"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="87"/>
       <c r="H42" s="45"/>
     </row>
     <row r="43" spans="2:8">
@@ -1943,10 +2103,10 @@
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="72"/>
+      <c r="C50" s="87"/>
       <c r="H50" s="45"/>
     </row>
     <row r="51" spans="2:8">
@@ -2087,10 +2247,10 @@
       <c r="H57" s="45"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="72"/>
+      <c r="C58" s="87"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="2:8">
@@ -2226,35 +2386,35 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="66" t="s">
+      <c r="C67" s="97"/>
+      <c r="D67" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="63" t="s">
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="64"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="63" t="s">
+      <c r="K67" s="91"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="64"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="63" t="s">
+      <c r="N67" s="91"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="65"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="92"/>
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="29" t="s">
@@ -2532,38 +2692,38 @@
       </c>
     </row>
     <row r="73" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="66" t="s">
+      <c r="C73" s="94"/>
+      <c r="D73" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66" t="str">
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88" t="str">
         <f>G67</f>
         <v>Año 2</v>
       </c>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66" t="s">
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66" t="str">
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88" t="str">
         <f>M67</f>
         <v>Año 4</v>
       </c>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66" t="str">
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88" t="str">
         <f>P67</f>
         <v>Año 5</v>
       </c>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="66"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="29" t="s">
@@ -2841,38 +3001,38 @@
       </c>
     </row>
     <row r="79" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="63" t="s">
+      <c r="C79" s="95"/>
+      <c r="D79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="63" t="str">
+      <c r="E79" s="91"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="90" t="str">
         <f>G73</f>
         <v>Año 2</v>
       </c>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66" t="s">
+      <c r="H79" s="91"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="66"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="66" t="str">
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88" t="str">
         <f>M67</f>
         <v>Año 4</v>
       </c>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66" t="str">
+      <c r="N79" s="88"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="88" t="str">
         <f>P67</f>
         <v>Año 5</v>
       </c>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
+      <c r="Q79" s="88"/>
+      <c r="R79" s="88"/>
     </row>
     <row r="80" spans="2:18">
       <c r="B80" s="29" t="s">
@@ -3150,38 +3310,38 @@
       </c>
     </row>
     <row r="85" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="66" t="s">
+      <c r="C85" s="94"/>
+      <c r="D85" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="63" t="str">
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="90" t="str">
         <f>G79</f>
         <v>Año 2</v>
       </c>
-      <c r="H85" s="64"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="66" t="s">
+      <c r="H85" s="91"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
-      <c r="M85" s="66" t="str">
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88" t="str">
         <f>M67</f>
         <v>Año 4</v>
       </c>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="66" t="str">
+      <c r="N85" s="88"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="88" t="str">
         <f>P67</f>
         <v>Año 5</v>
       </c>
-      <c r="Q85" s="66"/>
-      <c r="R85" s="66"/>
+      <c r="Q85" s="88"/>
+      <c r="R85" s="88"/>
     </row>
     <row r="86" spans="2:18">
       <c r="B86" s="29" t="s">
@@ -3459,39 +3619,39 @@
       </c>
     </row>
     <row r="91" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="66" t="s">
+      <c r="C91" s="94"/>
+      <c r="D91" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="63" t="str">
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="90" t="str">
         <f>G85</f>
         <v>Año 2</v>
       </c>
-      <c r="H91" s="64"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="63" t="str">
+      <c r="H91" s="91"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="90" t="str">
         <f>J85</f>
         <v>Año 3</v>
       </c>
-      <c r="K91" s="64"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="63" t="str">
+      <c r="K91" s="91"/>
+      <c r="L91" s="92"/>
+      <c r="M91" s="90" t="str">
         <f>M85</f>
         <v>Año 4</v>
       </c>
-      <c r="N91" s="64"/>
-      <c r="O91" s="65"/>
-      <c r="P91" s="63" t="str">
+      <c r="N91" s="91"/>
+      <c r="O91" s="92"/>
+      <c r="P91" s="90" t="str">
         <f>P85</f>
         <v>Año 5</v>
       </c>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="65"/>
+      <c r="Q91" s="91"/>
+      <c r="R91" s="92"/>
     </row>
     <row r="92" spans="2:18">
       <c r="B92" s="29" t="s">
@@ -3769,34 +3929,34 @@
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="54"/>
@@ -4463,7 +4623,7 @@
         <v>48</v>
       </c>
       <c r="C144" s="45"/>
-      <c r="H144" s="81">
+      <c r="H144" s="69">
         <v>15</v>
       </c>
     </row>
@@ -4488,7 +4648,7 @@
       </c>
     </row>
     <row r="146" spans="2:9">
-      <c r="B146" s="77" t="s">
+      <c r="B146" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="30"/>
@@ -4515,7 +4675,7 @@
       </c>
     </row>
     <row r="147" spans="2:9">
-      <c r="B147" s="78" t="s">
+      <c r="B147" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="32"/>
@@ -4542,7 +4702,7 @@
       </c>
     </row>
     <row r="148" spans="2:9">
-      <c r="B148" s="78" t="s">
+      <c r="B148" s="66" t="s">
         <v>24</v>
       </c>
       <c r="C148" s="32"/>
@@ -4569,7 +4729,7 @@
       </c>
     </row>
     <row r="149" spans="2:9">
-      <c r="B149" s="78" t="s">
+      <c r="B149" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C149" s="32"/>
@@ -4596,7 +4756,7 @@
       </c>
     </row>
     <row r="150" spans="2:9">
-      <c r="B150" s="78" t="s">
+      <c r="B150" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C150" s="32"/>
@@ -4623,7 +4783,7 @@
       </c>
     </row>
     <row r="151" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B151" s="82" t="s">
+      <c r="B151" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C151" s="32"/>
@@ -4661,28 +4821,28 @@
         <v>1330000000</v>
       </c>
       <c r="G152" s="60"/>
-      <c r="H152" s="84">
+      <c r="H152" s="72">
         <f>SUM(H146:H151)</f>
         <v>199500000</v>
       </c>
-      <c r="I152" s="83" t="s">
+      <c r="I152" s="71" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="153" spans="2:9">
-      <c r="H153" s="80">
+      <c r="H153" s="68">
         <v>0</v>
       </c>
-      <c r="I153" s="75" t="s">
+      <c r="I153" s="63" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="15.75" thickBot="1">
-      <c r="H154" s="85">
+      <c r="H154" s="73">
         <f>(H152+H153)</f>
         <v>199500000</v>
       </c>
-      <c r="I154" s="76"/>
+      <c r="I154" s="64"/>
     </row>
     <row r="155" spans="2:9" ht="15.75" thickBot="1">
       <c r="E155" t="s">
@@ -4711,14 +4871,14 @@
         <f>SUM($I$146:$I$151)</f>
         <v>61483333.333333328</v>
       </c>
-      <c r="E157" s="77" t="s">
+      <c r="E157" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F157" s="92">
+      <c r="F157" s="80">
         <f>G157*I146</f>
         <v>85000000</v>
       </c>
-      <c r="G157" s="93">
+      <c r="G157" s="81">
         <v>10</v>
       </c>
     </row>
@@ -4730,10 +4890,10 @@
         <f t="shared" ref="C158:C161" si="61">SUM($I$146:$I$151)</f>
         <v>61483333.333333328</v>
       </c>
-      <c r="E158" s="78" t="s">
+      <c r="E158" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F158" s="94">
+      <c r="F158" s="82">
         <f t="shared" ref="F158:F162" si="62">G158*I147</f>
         <v>141666666.66666666</v>
       </c>
@@ -4749,10 +4909,10 @@
         <f t="shared" si="61"/>
         <v>61483333.333333328</v>
       </c>
-      <c r="E159" s="78" t="s">
+      <c r="E159" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F159" s="94">
+      <c r="F159" s="82">
         <f t="shared" si="62"/>
         <v>73666666.666666672</v>
       </c>
@@ -4768,10 +4928,10 @@
         <f t="shared" si="61"/>
         <v>61483333.333333328</v>
       </c>
-      <c r="E160" s="78" t="s">
+      <c r="E160" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F160" s="94">
+      <c r="F160" s="82">
         <f t="shared" si="62"/>
         <v>204000000</v>
       </c>
@@ -4787,10 +4947,10 @@
         <f t="shared" si="61"/>
         <v>61483333.333333328</v>
       </c>
-      <c r="E161" s="78" t="s">
+      <c r="E161" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F161" s="94">
+      <c r="F161" s="82">
         <f t="shared" si="62"/>
         <v>51000000</v>
       </c>
@@ -4801,10 +4961,10 @@
     <row r="162" spans="2:9" ht="15.75" thickBot="1">
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
-      <c r="E162" s="79" t="s">
+      <c r="E162" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="F162" s="95">
+      <c r="F162" s="83">
         <f t="shared" si="62"/>
         <v>267750000</v>
       </c>
@@ -4813,10 +4973,10 @@
       </c>
     </row>
     <row r="163" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E163" s="96" t="s">
+      <c r="E163" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="F163" s="97">
+      <c r="F163" s="85">
         <f>SUM(F157:F162)</f>
         <v>823083333.33333325</v>
       </c>
@@ -4827,160 +4987,813 @@
       </c>
     </row>
     <row r="165" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D165" s="86" t="s">
+      <c r="D165" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E165" s="87" t="s">
+      <c r="E165" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="87" t="s">
+      <c r="F165" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G165" s="87" t="s">
+      <c r="G165" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H165" s="87" t="s">
+      <c r="H165" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I165" s="87" t="s">
+      <c r="I165" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="166" spans="2:9">
-      <c r="B166" s="77" t="s">
+      <c r="B166" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C166" s="30"/>
       <c r="D166" s="5">
         <v>150000000</v>
       </c>
-      <c r="E166" s="88"/>
-      <c r="F166" s="88"/>
-      <c r="G166" s="88"/>
-      <c r="H166" s="88">
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="76">
         <f>D166</f>
         <v>150000000</v>
       </c>
-      <c r="I166" s="88"/>
+      <c r="I166" s="76"/>
     </row>
     <row r="167" spans="2:9">
-      <c r="B167" s="78" t="s">
+      <c r="B167" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C167" s="32"/>
       <c r="D167" s="5">
         <v>250000000</v>
       </c>
-      <c r="E167" s="88"/>
-      <c r="F167" s="88"/>
-      <c r="G167" s="88"/>
-      <c r="H167" s="88">
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="76">
         <f>D167</f>
         <v>250000000</v>
       </c>
-      <c r="I167" s="88"/>
+      <c r="I167" s="76"/>
     </row>
     <row r="168" spans="2:9">
-      <c r="B168" s="78" t="s">
+      <c r="B168" s="66" t="s">
         <v>24</v>
       </c>
       <c r="C168" s="32"/>
       <c r="D168" s="5">
         <v>130000000</v>
       </c>
-      <c r="E168" s="88"/>
-      <c r="F168" s="88"/>
-      <c r="G168" s="88">
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="76">
         <f>D168</f>
         <v>130000000</v>
       </c>
-      <c r="H168" s="88"/>
-      <c r="I168" s="88"/>
+      <c r="H168" s="76"/>
+      <c r="I168" s="76"/>
     </row>
     <row r="169" spans="2:9">
-      <c r="B169" s="78" t="s">
+      <c r="B169" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C169" s="32"/>
       <c r="D169" s="5">
         <v>180000000</v>
       </c>
-      <c r="E169" s="88">
+      <c r="E169" s="76">
         <f>D169</f>
         <v>180000000</v>
       </c>
-      <c r="F169" s="88"/>
-      <c r="G169" s="88"/>
-      <c r="H169" s="88"/>
-      <c r="I169" s="88"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="76"/>
+      <c r="I169" s="76"/>
     </row>
     <row r="170" spans="2:9">
-      <c r="B170" s="78" t="s">
+      <c r="B170" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C170" s="32"/>
       <c r="D170" s="5">
         <v>90000000</v>
       </c>
-      <c r="E170" s="88"/>
-      <c r="F170" s="88">
+      <c r="E170" s="76"/>
+      <c r="F170" s="76">
         <f>D170</f>
         <v>90000000</v>
       </c>
-      <c r="G170" s="88"/>
-      <c r="H170" s="88"/>
-      <c r="I170" s="88"/>
+      <c r="G170" s="76"/>
+      <c r="H170" s="76"/>
+      <c r="I170" s="76"/>
     </row>
     <row r="171" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B171" s="79" t="s">
+      <c r="B171" s="67" t="s">
         <v>49</v>
       </c>
       <c r="C171" s="32"/>
       <c r="D171" s="35">
         <v>350000000</v>
       </c>
-      <c r="E171" s="89"/>
-      <c r="F171" s="89"/>
-      <c r="G171" s="89"/>
-      <c r="H171" s="89"/>
-      <c r="I171" s="89"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="77"/>
+      <c r="H171" s="77"/>
+      <c r="I171" s="77"/>
     </row>
     <row r="172" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C172" s="90" t="s">
+      <c r="C172" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D172" s="91">
+      <c r="D172" s="79">
         <f>SUM(D166:D171)</f>
         <v>1150000000</v>
       </c>
-      <c r="E172" s="91">
+      <c r="E172" s="79">
         <f t="shared" ref="E172:I172" si="63">SUM(E166:E171)</f>
         <v>180000000</v>
       </c>
-      <c r="F172" s="91">
+      <c r="F172" s="79">
         <f t="shared" si="63"/>
         <v>90000000</v>
       </c>
-      <c r="G172" s="91">
+      <c r="G172" s="79">
         <f t="shared" si="63"/>
         <v>130000000</v>
       </c>
-      <c r="H172" s="91">
+      <c r="H172" s="79">
         <f t="shared" si="63"/>
         <v>400000000</v>
       </c>
-      <c r="I172" s="91">
+      <c r="I172" s="79">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
+    <row r="177" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B177" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177" s="101"/>
+      <c r="D177" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C178" s="31"/>
+      <c r="D178" s="99">
+        <v>2</v>
+      </c>
+      <c r="E178" s="33">
+        <v>2</v>
+      </c>
+      <c r="F178" s="33">
+        <v>2</v>
+      </c>
+      <c r="G178" s="33">
+        <v>4</v>
+      </c>
+      <c r="H178" s="33">
+        <v>4</v>
+      </c>
+      <c r="I178" s="5">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9">
+      <c r="B179" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" s="63"/>
+      <c r="D179" s="99">
+        <v>2</v>
+      </c>
+      <c r="E179" s="33">
+        <v>2</v>
+      </c>
+      <c r="F179" s="33">
+        <v>2</v>
+      </c>
+      <c r="G179" s="33">
+        <v>4</v>
+      </c>
+      <c r="H179" s="33">
+        <v>4</v>
+      </c>
+      <c r="I179" s="5">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9">
+      <c r="B180" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" s="63"/>
+      <c r="D180" s="99">
+        <v>2</v>
+      </c>
+      <c r="E180" s="33">
+        <v>2</v>
+      </c>
+      <c r="F180" s="33">
+        <v>4</v>
+      </c>
+      <c r="G180" s="33">
+        <v>4</v>
+      </c>
+      <c r="H180" s="33">
+        <v>4</v>
+      </c>
+      <c r="I180" s="5">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C181" s="63"/>
+      <c r="D181" s="99">
+        <v>4</v>
+      </c>
+      <c r="E181" s="33">
+        <v>4</v>
+      </c>
+      <c r="F181" s="33">
+        <v>4</v>
+      </c>
+      <c r="G181" s="33">
+        <v>4</v>
+      </c>
+      <c r="H181" s="33">
+        <v>4</v>
+      </c>
+      <c r="I181" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" s="63"/>
+      <c r="D182" s="99">
+        <v>2</v>
+      </c>
+      <c r="E182" s="33">
+        <v>4</v>
+      </c>
+      <c r="F182" s="33">
+        <v>4</v>
+      </c>
+      <c r="G182" s="33">
+        <v>4</v>
+      </c>
+      <c r="H182" s="33">
+        <v>4</v>
+      </c>
+      <c r="I182" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="63"/>
+      <c r="D183" s="99">
+        <v>6</v>
+      </c>
+      <c r="E183" s="33">
+        <v>6</v>
+      </c>
+      <c r="F183" s="33">
+        <v>6</v>
+      </c>
+      <c r="G183" s="33">
+        <v>6</v>
+      </c>
+      <c r="H183" s="33">
+        <v>6</v>
+      </c>
+      <c r="I183" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B184" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C184" s="64"/>
+      <c r="D184" s="99">
+        <v>2</v>
+      </c>
+      <c r="E184" s="33">
+        <v>2</v>
+      </c>
+      <c r="F184" s="33">
+        <v>2</v>
+      </c>
+      <c r="G184" s="33">
+        <v>2</v>
+      </c>
+      <c r="H184" s="33">
+        <v>2</v>
+      </c>
+      <c r="I184" s="5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" s="36"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="37"/>
+    </row>
+    <row r="186" spans="2:9">
+      <c r="B186" s="36"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="37"/>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="B187" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="37"/>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="B188" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="37"/>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="103"/>
+      <c r="D190">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B191" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" s="101"/>
+      <c r="D191" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E191" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="F191" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G191" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="H191" s="98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C192" s="31"/>
+      <c r="D192" s="107">
+        <f>I178*($D$190/100)</f>
+        <v>36250</v>
+      </c>
+      <c r="E192" s="5">
+        <f>(E$109*D192)/D$109</f>
+        <v>36647.772342675831</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" ref="F192" si="64">(F$109*E192)/E$109</f>
+        <v>37178.135466243613</v>
+      </c>
+      <c r="G192" s="5">
+        <f t="shared" ref="G192:H192" si="65">(G$109*F192)/F$109</f>
+        <v>44338.037634408611</v>
+      </c>
+      <c r="H192" s="5">
+        <f t="shared" si="65"/>
+        <v>44338.037634408611</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8">
+      <c r="B193" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" s="63"/>
+      <c r="D193" s="107">
+        <f t="shared" ref="D193:D196" si="66">I179*($D$190/100)</f>
+        <v>43750</v>
+      </c>
+      <c r="E193" s="5">
+        <f t="shared" ref="E193:F197" si="67">(E$109*D193)/D$109</f>
+        <v>44230.070068746696</v>
+      </c>
+      <c r="F193" s="5">
+        <f t="shared" si="67"/>
+        <v>44870.163493742293</v>
+      </c>
+      <c r="G193" s="5">
+        <f t="shared" ref="G193:H193" si="68">(G$109*F193)/F$109</f>
+        <v>53511.424731182808</v>
+      </c>
+      <c r="H193" s="5">
+        <f t="shared" si="68"/>
+        <v>53511.424731182808</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8">
+      <c r="B194" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" s="63"/>
+      <c r="D194" s="107">
+        <f t="shared" si="66"/>
+        <v>33750</v>
+      </c>
+      <c r="E194" s="5">
+        <f t="shared" si="67"/>
+        <v>34120.339767318881</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" si="67"/>
+        <v>34614.126123744056</v>
+      </c>
+      <c r="G194" s="5">
+        <f t="shared" ref="G194:H194" si="69">(G$109*F194)/F$109</f>
+        <v>41280.241935483878</v>
+      </c>
+      <c r="H194" s="5">
+        <f t="shared" si="69"/>
+        <v>41280.241935483878</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="B195" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="63"/>
+      <c r="D195" s="107">
+        <f t="shared" si="66"/>
+        <v>32500</v>
+      </c>
+      <c r="E195" s="5">
+        <f t="shared" si="67"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="67"/>
+        <v>33332.121452494277</v>
+      </c>
+      <c r="G195" s="5">
+        <f t="shared" ref="G195:H195" si="70">(G$109*F195)/F$109</f>
+        <v>39751.34408602152</v>
+      </c>
+      <c r="H195" s="5">
+        <f t="shared" si="70"/>
+        <v>39751.34408602152</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B196" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="64"/>
+      <c r="D196" s="108">
+        <f t="shared" si="66"/>
+        <v>30000</v>
+      </c>
+      <c r="E196" s="35">
+        <f t="shared" si="67"/>
+        <v>30329.190904283445</v>
+      </c>
+      <c r="F196" s="35">
+        <f t="shared" si="67"/>
+        <v>30768.112109994712</v>
+      </c>
+      <c r="G196" s="35">
+        <f t="shared" ref="G196:H197" si="71">(G$109*F196)/F$109</f>
+        <v>36693.54838709678</v>
+      </c>
+      <c r="H196" s="35">
+        <f t="shared" si="71"/>
+        <v>36693.54838709678</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D197" s="109">
+        <f>SUM(D192:D196)</f>
+        <v>176250</v>
+      </c>
+      <c r="E197" s="110">
+        <f t="shared" si="67"/>
+        <v>178183.99656266527</v>
+      </c>
+      <c r="F197" s="110">
+        <f t="shared" si="67"/>
+        <v>180762.65864621897</v>
+      </c>
+      <c r="G197" s="110">
+        <f t="shared" si="71"/>
+        <v>215574.59677419363</v>
+      </c>
+      <c r="H197" s="111">
+        <f t="shared" si="71"/>
+        <v>215574.59677419363</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B200" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D200" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8">
+      <c r="B201" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="30"/>
+      <c r="D201" s="5">
+        <f>D178*($I178+D192)*12</f>
+        <v>7830000</v>
+      </c>
+      <c r="E201" s="5">
+        <f t="shared" ref="E201:H201" si="72">E178*($I178+E192)*12</f>
+        <v>7839546.5362242199</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" si="72"/>
+        <v>7852275.2511898465</v>
+      </c>
+      <c r="G201" s="5">
+        <f t="shared" si="72"/>
+        <v>16048225.806451615</v>
+      </c>
+      <c r="H201" s="5">
+        <f t="shared" si="72"/>
+        <v>16048225.806451615</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8">
+      <c r="B202" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="32"/>
+      <c r="D202" s="5">
+        <f t="shared" ref="D202:H205" si="73">D179*($I179+D193)*12</f>
+        <v>9450000</v>
+      </c>
+      <c r="E202" s="5">
+        <f t="shared" si="73"/>
+        <v>9461521.6816499196</v>
+      </c>
+      <c r="F202" s="5">
+        <f t="shared" si="73"/>
+        <v>9476883.9238498155</v>
+      </c>
+      <c r="G202" s="5">
+        <f t="shared" si="73"/>
+        <v>19368548.387096774</v>
+      </c>
+      <c r="H202" s="5">
+        <f t="shared" si="73"/>
+        <v>19368548.387096774</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8">
+      <c r="B203" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="32"/>
+      <c r="D203" s="5">
+        <f t="shared" si="73"/>
+        <v>7290000</v>
+      </c>
+      <c r="E203" s="5">
+        <f t="shared" si="73"/>
+        <v>7298888.1544156522</v>
+      </c>
+      <c r="F203" s="5">
+        <f t="shared" si="73"/>
+        <v>14621478.053939715</v>
+      </c>
+      <c r="G203" s="5">
+        <f t="shared" si="73"/>
+        <v>14941451.612903226</v>
+      </c>
+      <c r="H203" s="5">
+        <f t="shared" si="73"/>
+        <v>14941451.612903226</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8">
+      <c r="B204" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C204" s="32"/>
+      <c r="D204" s="5">
+        <f t="shared" si="73"/>
+        <v>14040000</v>
+      </c>
+      <c r="E204" s="5">
+        <f t="shared" si="73"/>
+        <v>14057117.92702274</v>
+      </c>
+      <c r="F204" s="5">
+        <f t="shared" si="73"/>
+        <v>14079941.829719726</v>
+      </c>
+      <c r="G204" s="5">
+        <f t="shared" si="73"/>
+        <v>14388064.516129034</v>
+      </c>
+      <c r="H204" s="5">
+        <f t="shared" si="73"/>
+        <v>14388064.516129034</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
+      <c r="B205" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="32"/>
+      <c r="D205" s="5">
+        <f t="shared" si="73"/>
+        <v>6480000</v>
+      </c>
+      <c r="E205" s="5">
+        <f t="shared" si="73"/>
+        <v>12975801.163405605</v>
+      </c>
+      <c r="F205" s="5">
+        <f t="shared" si="73"/>
+        <v>12996869.381279744</v>
+      </c>
+      <c r="G205" s="5">
+        <f t="shared" si="73"/>
+        <v>13281290.322580647</v>
+      </c>
+      <c r="H205" s="5">
+        <f t="shared" si="73"/>
+        <v>13281290.322580647</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8">
+      <c r="B206" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="32"/>
+      <c r="D206" s="5">
+        <f>D183*$I183*12</f>
+        <v>13680000</v>
+      </c>
+      <c r="E206" s="5">
+        <f>E183*$I183*12</f>
+        <v>13680000</v>
+      </c>
+      <c r="F206" s="5">
+        <f>F183*$I183*12</f>
+        <v>13680000</v>
+      </c>
+      <c r="G206" s="5">
+        <f>G183*$I183*12</f>
+        <v>13680000</v>
+      </c>
+      <c r="H206" s="5">
+        <f>H183*$I183*12</f>
+        <v>13680000</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B207" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C207" s="32"/>
+      <c r="D207" s="35">
+        <f>D184*$I184*12</f>
+        <v>13200000</v>
+      </c>
+      <c r="E207" s="35">
+        <f>E184*$I184*12</f>
+        <v>13200000</v>
+      </c>
+      <c r="F207" s="35">
+        <f>F184*$I184*12</f>
+        <v>13200000</v>
+      </c>
+      <c r="G207" s="35">
+        <f>G184*$I184*12</f>
+        <v>13200000</v>
+      </c>
+      <c r="H207" s="35">
+        <f>H184*$I184*12</f>
+        <v>13200000</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B208" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" s="105"/>
+      <c r="D208" s="106">
+        <f>SUM(D201:D207)</f>
+        <v>71970000</v>
+      </c>
+      <c r="E208" s="106">
+        <f>SUM(E201:E207)</f>
+        <v>78512875.462718129</v>
+      </c>
+      <c r="F208" s="106">
+        <f t="shared" ref="F208:H208" si="74">SUM(F201:F207)</f>
+        <v>85907448.439978838</v>
+      </c>
+      <c r="G208" s="106">
+        <f t="shared" si="74"/>
+        <v>104907580.6451613</v>
+      </c>
+      <c r="H208" s="85">
+        <f t="shared" si="74"/>
+        <v>104907580.6451613</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M91:O91"/>
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="B98:F101"/>
     <mergeCell ref="G67:I67"/>
@@ -4997,23 +5810,15 @@
     <mergeCell ref="D79:F79"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -327,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +356,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -756,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -897,6 +905,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,10 +1200,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R214"/>
+  <dimension ref="A2:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="4875" topLeftCell="A84" activePane="bottomLeft"/>
+      <selection activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2680,7 +2691,7 @@
         <v>26</v>
       </c>
       <c r="C73" s="56"/>
-      <c r="D73" s="102">
+      <c r="D73" s="80">
         <v>2</v>
       </c>
       <c r="E73" s="46">
@@ -3268,6 +3279,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="33">
+        <f>E87+0</f>
         <v>1</v>
       </c>
       <c r="I87" s="105">
@@ -3288,21 +3300,21 @@
         <v>2</v>
       </c>
       <c r="N87" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" s="105">
         <f>$H$32*M87*N87</f>
-        <v>5959388.3799999999</v>
+        <v>11918776.76</v>
       </c>
       <c r="P87" s="80">
         <v>2</v>
       </c>
       <c r="Q87" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R87" s="105">
         <f>$H$32*P87*Q87</f>
-        <v>5959388.3799999999</v>
+        <v>11918776.76</v>
       </c>
     </row>
     <row r="88" spans="2:18">
@@ -3324,6 +3336,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="33">
+        <f t="shared" ref="H88:H91" si="24">E88+0</f>
         <v>1</v>
       </c>
       <c r="I88" s="105">
@@ -3354,11 +3367,11 @@
         <v>2</v>
       </c>
       <c r="Q88" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R88" s="105">
         <f>$H$39*P88*Q88</f>
-        <v>6194627.3949999996</v>
+        <v>12389254.789999999</v>
       </c>
     </row>
     <row r="89" spans="2:18">
@@ -3380,6 +3393,7 @@
         <v>2</v>
       </c>
       <c r="H89" s="33">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I89" s="105">
@@ -3390,31 +3404,31 @@
         <v>2</v>
       </c>
       <c r="K89" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89" s="105">
         <f>$H$46*J89*K89</f>
-        <v>5645736.3600000003</v>
+        <v>11291472.720000001</v>
       </c>
       <c r="M89" s="80">
         <v>2</v>
       </c>
       <c r="N89" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89" s="105">
         <f>$H$46*M89*N89</f>
-        <v>5645736.3600000003</v>
+        <v>11291472.720000001</v>
       </c>
       <c r="P89" s="80">
         <v>2</v>
       </c>
       <c r="Q89" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89" s="105">
         <f>$H$46*P89*Q89</f>
-        <v>5645736.3600000003</v>
+        <v>11291472.720000001</v>
       </c>
     </row>
     <row r="90" spans="2:18">
@@ -3426,51 +3440,52 @@
         <v>2</v>
       </c>
       <c r="E90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="105">
         <f>$H$54*D90*E90</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
       <c r="G90" s="80">
         <v>2</v>
       </c>
       <c r="H90" s="33">
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="I90" s="105">
         <f>$H$54*G90*H90</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
       <c r="J90" s="80">
         <v>2</v>
       </c>
       <c r="K90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" s="105">
         <f>$H$54*J90*K90</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
       <c r="M90" s="80">
         <v>2</v>
       </c>
       <c r="N90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" s="105">
         <f>$H$54*M90*N90</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
       <c r="P90" s="80">
         <v>2</v>
       </c>
       <c r="Q90" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R90" s="105">
         <f>$H$54*P90*Q90</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
     </row>
     <row r="91" spans="2:18" ht="15.75" thickBot="1">
@@ -3491,42 +3506,43 @@
       <c r="G91" s="102">
         <v>2</v>
       </c>
-      <c r="H91" s="46">
-        <v>1</v>
+      <c r="H91" s="33">
+        <f>E91+1</f>
+        <v>2</v>
       </c>
       <c r="I91" s="106">
         <f>$H$62*G91*H91</f>
-        <v>5410497.3449999997</v>
+        <v>10820994.689999999</v>
       </c>
       <c r="J91" s="102">
         <v>2</v>
       </c>
-      <c r="K91" s="46">
-        <v>1</v>
+      <c r="K91" s="33">
+        <v>2</v>
       </c>
       <c r="L91" s="106">
         <f>$H$62*J91*K91</f>
-        <v>5410497.3449999997</v>
+        <v>10820994.689999999</v>
       </c>
       <c r="M91" s="102">
         <v>2</v>
       </c>
       <c r="N91" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O91" s="106">
         <f>$H$62*M91*N91</f>
-        <v>5410497.3449999997</v>
+        <v>10820994.689999999</v>
       </c>
       <c r="P91" s="102">
         <v>2</v>
       </c>
       <c r="Q91" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R91" s="106">
         <f>$H$62*P91*Q91</f>
-        <v>5410497.3449999997</v>
+        <v>10820994.689999999</v>
       </c>
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
@@ -3538,31 +3554,31 @@
       <c r="E92" s="53"/>
       <c r="F92" s="54">
         <f>MIN(F87:F91)</f>
-        <v>5096845.3250000002</v>
+        <v>5410497.3449999997</v>
       </c>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
       <c r="I92" s="54">
         <f>MIN(I87:I91)</f>
-        <v>5096845.3250000002</v>
+        <v>5645736.3600000003</v>
       </c>
       <c r="J92" s="54"/>
       <c r="K92" s="54"/>
       <c r="L92" s="54">
         <f>MIN(L87:L91)</f>
-        <v>5096845.3250000002</v>
+        <v>5959388.3799999999</v>
       </c>
       <c r="M92" s="54"/>
       <c r="N92" s="54"/>
       <c r="O92" s="54">
         <f>MIN(O87:O91)</f>
-        <v>5096845.3250000002</v>
+        <v>6194627.3949999996</v>
       </c>
       <c r="P92" s="54"/>
       <c r="Q92" s="54"/>
       <c r="R92" s="55">
         <f>MIN(R87:R91)</f>
-        <v>5096845.3250000002</v>
+        <v>10193690.65</v>
       </c>
     </row>
     <row r="93" spans="2:18" ht="15.75" thickBot="1"/>
@@ -3704,7 +3720,8 @@
         <v>6390187.54</v>
       </c>
     </row>
-    <row r="97" spans="2:18">
+    <row r="97" spans="1:18">
+      <c r="A97" s="108"/>
       <c r="B97" s="61" t="s">
         <v>23</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>6642431.7850000001</v>
       </c>
     </row>
-    <row r="98" spans="2:18">
+    <row r="98" spans="1:18">
       <c r="B98" s="61" t="s">
         <v>24</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>6053861.8799999999</v>
       </c>
     </row>
-    <row r="99" spans="2:18">
+    <row r="99" spans="1:18">
       <c r="B99" s="61" t="s">
         <v>25</v>
       </c>
@@ -3872,7 +3889,7 @@
         <v>5465291.9749999996</v>
       </c>
     </row>
-    <row r="100" spans="2:18" ht="15.75" thickBot="1">
+    <row r="100" spans="1:18" ht="15.75" thickBot="1">
       <c r="B100" s="61" t="s">
         <v>26</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>5801617.6349999998</v>
       </c>
     </row>
-    <row r="101" spans="2:18" ht="15.75" thickBot="1">
+    <row r="101" spans="1:18" ht="15.75" thickBot="1">
       <c r="B101" s="103" t="s">
         <v>89</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>5465291.9749999996</v>
       </c>
     </row>
-    <row r="104" spans="2:18">
+    <row r="104" spans="1:18">
       <c r="B104" s="97" t="s">
         <v>38</v>
       </c>
@@ -3973,40 +3990,40 @@
       <c r="E104" s="97"/>
       <c r="F104" s="97"/>
     </row>
-    <row r="105" spans="2:18">
+    <row r="105" spans="1:18">
       <c r="B105" s="97"/>
       <c r="C105" s="97"/>
       <c r="D105" s="97"/>
       <c r="E105" s="97"/>
       <c r="F105" s="97"/>
     </row>
-    <row r="106" spans="2:18">
+    <row r="106" spans="1:18">
       <c r="B106" s="97"/>
       <c r="C106" s="97"/>
       <c r="D106" s="97"/>
       <c r="E106" s="97"/>
       <c r="F106" s="97"/>
     </row>
-    <row r="107" spans="2:18">
+    <row r="107" spans="1:18">
       <c r="B107" s="97"/>
       <c r="C107" s="97"/>
       <c r="D107" s="97"/>
       <c r="E107" s="97"/>
       <c r="F107" s="97"/>
     </row>
-    <row r="108" spans="2:18">
+    <row r="108" spans="1:18">
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
       <c r="D108" s="47"/>
       <c r="E108" s="47"/>
       <c r="F108" s="47"/>
     </row>
-    <row r="109" spans="2:18" ht="15.75" thickBot="1">
+    <row r="109" spans="1:18" ht="15.75" thickBot="1">
       <c r="B109" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="2:18">
+    <row r="110" spans="1:18">
       <c r="B110" s="29" t="s">
         <v>27</v>
       </c>
@@ -4027,56 +4044,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:18">
+    <row r="111" spans="1:18">
       <c r="B111" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="5">
-        <f>MIN(F69,F79,F85,F91,F99)</f>
-        <v>5410497.3449999997</v>
+        <f>F$74</f>
+        <v>5219660.875</v>
       </c>
       <c r="E111" s="5">
-        <f>MIN(I69,I79,I85,I91,I99)</f>
-        <v>5410497.3449999997</v>
+        <f>$I$74</f>
+        <v>5219660.875</v>
       </c>
       <c r="F111" s="5">
-        <f>MIN(L69,L79,L85,L91,L99)</f>
-        <v>5410497.3449999997</v>
+        <f>$L$74</f>
+        <v>5219660.875</v>
       </c>
       <c r="G111" s="5">
-        <f>MIN(O69,O79,O85,O91,O99)</f>
-        <v>5410497.3449999997</v>
+        <f>$O$74</f>
+        <v>5219660.875</v>
       </c>
       <c r="H111" s="5">
-        <f>MIN(R69,R79,R85,R91,R99)</f>
-        <v>5410497.3449999997</v>
-      </c>
-    </row>
-    <row r="112" spans="2:18">
+        <f>$R$74</f>
+        <v>5219660.875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="B112" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="5">
-        <f>MIN(F70,F80,F86,F92,F100)</f>
-        <v>5096845.3250000002</v>
+        <f>F83</f>
+        <v>5342476.4249999998</v>
       </c>
       <c r="E112" s="5">
-        <f>MIN(I70,I80,I86,I92,I100)</f>
-        <v>5096845.3250000002</v>
+        <f>$I$83</f>
+        <v>5342476.4249999998</v>
       </c>
       <c r="F112" s="5">
-        <f>MIN(L70,L80,L86,L92,L100)</f>
-        <v>5096845.3250000002</v>
+        <f>$L$83</f>
+        <v>5342476.4249999998</v>
       </c>
       <c r="G112" s="5">
-        <f>MIN(O70,O80,O86,O92,O100)</f>
-        <v>5096845.3250000002</v>
+        <f>$O$83</f>
+        <v>5342476.4249999998</v>
       </c>
       <c r="H112" s="5">
-        <f>MIN(R70,R80,R86,R92,R100)</f>
-        <v>5096845.3250000002</v>
+        <f>$R$83</f>
+        <v>5342476.4249999998</v>
       </c>
     </row>
     <row r="113" spans="2:8">
@@ -4085,24 +4102,24 @@
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="5">
-        <f>MIN(F71,F81,F87,F93,F101)</f>
-        <v>5342476.4249999998</v>
+        <f>F92</f>
+        <v>5410497.3449999997</v>
       </c>
       <c r="E113" s="5">
-        <f>MIN(I71,I81,I87,I93,I101)</f>
-        <v>5342476.4249999998</v>
+        <f>$I$92</f>
+        <v>5645736.3600000003</v>
       </c>
       <c r="F113" s="5">
-        <f>MIN(L71,L81,L87,L93,L101)</f>
-        <v>5342476.4249999998</v>
+        <f>$L$92</f>
+        <v>5959388.3799999999</v>
       </c>
       <c r="G113" s="5">
-        <f>MIN(O71,O81,O87,O93,O101)</f>
-        <v>5342476.4249999998</v>
+        <f>$O$92</f>
+        <v>6194627.3949999996</v>
       </c>
       <c r="H113" s="5">
-        <f>MIN(R71,R81,R87,R93,R101)</f>
-        <v>5342476.4249999998</v>
+        <f>$R$92</f>
+        <v>10193690.65</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="15.75" thickBot="1">
@@ -4111,24 +4128,24 @@
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="35">
-        <f>MIN(F72,F82,F88,F95,F102)</f>
-        <v>5219660.875</v>
-      </c>
-      <c r="E114" s="35">
-        <f>MIN(I72,I82,I88,I95,I102)</f>
-        <v>5219660.875</v>
-      </c>
-      <c r="F114" s="35">
-        <f>MIN(L72,L82,L88,L95,L102)</f>
-        <v>5219660.875</v>
-      </c>
-      <c r="G114" s="35">
-        <f>MIN(O72,O82,O88,O95,O102)</f>
-        <v>5219660.875</v>
-      </c>
-      <c r="H114" s="35">
-        <f>MIN(R72,R82,R88,R95,R102)</f>
-        <v>5219660.875</v>
+        <f>F101</f>
+        <v>5465291.9749999996</v>
+      </c>
+      <c r="E114" s="5">
+        <f>$I$101</f>
+        <v>5465291.9749999996</v>
+      </c>
+      <c r="F114" s="5">
+        <f>$L$101</f>
+        <v>5465291.9749999996</v>
+      </c>
+      <c r="G114" s="5">
+        <f>$O$101</f>
+        <v>5465291.9749999996</v>
+      </c>
+      <c r="H114" s="5">
+        <f>$R$101</f>
+        <v>5465291.9749999996</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="15.75" thickBot="1">
@@ -4138,23 +4155,23 @@
       <c r="C115" s="49"/>
       <c r="D115" s="50">
         <f>SUM(D111:D114)</f>
-        <v>21069479.969999999</v>
+        <v>21437926.619999997</v>
       </c>
       <c r="E115" s="50">
         <f>SUM(E111:E114)</f>
-        <v>21069479.969999999</v>
+        <v>21673165.634999998</v>
       </c>
       <c r="F115" s="50">
         <f>SUM(F111:F114)</f>
-        <v>21069479.969999999</v>
+        <v>21986817.655000001</v>
       </c>
       <c r="G115" s="50">
         <f>SUM(G111:G114)</f>
-        <v>21069479.969999999</v>
+        <v>22222056.670000002</v>
       </c>
       <c r="H115" s="51">
         <f>SUM(H111:H114)</f>
-        <v>21069479.969999999</v>
+        <v>26221119.925000004</v>
       </c>
     </row>
     <row r="118" spans="2:8">
@@ -4213,23 +4230,23 @@
       <c r="C125" s="37"/>
       <c r="D125" s="5">
         <f>(D111*$F4)*($E$123/100)</f>
-        <v>1149730685.8125</v>
+        <v>1109177935.9375</v>
       </c>
       <c r="E125" s="5">
         <f>(E111*$F4)*($E$123/100)</f>
-        <v>1149730685.8125</v>
+        <v>1109177935.9375</v>
       </c>
       <c r="F125" s="5">
         <f>(F111*$F4)*($E$123/100)</f>
-        <v>1149730685.8125</v>
+        <v>1109177935.9375</v>
       </c>
       <c r="G125" s="5">
         <f>(G111*$F4)*($E$123/100)</f>
-        <v>1149730685.8125</v>
+        <v>1109177935.9375</v>
       </c>
       <c r="H125" s="5">
         <f>(H111*$F4)*($E$123/100)</f>
-        <v>1149730685.8125</v>
+        <v>1109177935.9375</v>
       </c>
     </row>
     <row r="126" spans="2:8">
@@ -4239,23 +4256,23 @@
       <c r="C126" s="37"/>
       <c r="D126" s="5">
         <f>(D112*F5)*(E123/100)</f>
-        <v>1083079631.5625</v>
+        <v>1135276240.3125</v>
       </c>
       <c r="E126" s="5">
         <f>(E112*$F5)*($E$123/100)</f>
-        <v>1083079631.5625</v>
+        <v>1135276240.3125</v>
       </c>
       <c r="F126" s="5">
         <f>(F112*$F5)*($E$123/100)</f>
-        <v>1083079631.5625</v>
+        <v>1135276240.3125</v>
       </c>
       <c r="G126" s="5">
         <f>(G112*$F5)*($E$123/100)</f>
-        <v>1083079631.5625</v>
+        <v>1135276240.3125</v>
       </c>
       <c r="H126" s="5">
         <f>(H112*$F5)*($E$123/100)</f>
-        <v>1083079631.5625</v>
+        <v>1135276240.3125</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -4265,23 +4282,23 @@
       <c r="C127" s="37"/>
       <c r="D127" s="5">
         <f>(D113*F6)*(E123/100)</f>
-        <v>1402400061.5625</v>
+        <v>1420255553.0625</v>
       </c>
       <c r="E127" s="5">
         <f>(E113*$F6)*($E$123/100)</f>
-        <v>1402400061.5625</v>
+        <v>1482005794.5</v>
       </c>
       <c r="F127" s="5">
         <f>(F113*$F6)*($E$123/100)</f>
-        <v>1402400061.5625</v>
+        <v>1564339449.75</v>
       </c>
       <c r="G127" s="5">
         <f>(G113*$F6)*($E$123/100)</f>
-        <v>1402400061.5625</v>
+        <v>1626089691.1875</v>
       </c>
       <c r="H127" s="5">
         <f>(H113*$F6)*($E$123/100)</f>
-        <v>1402400061.5625</v>
+        <v>2675843795.625</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="15.75" thickBot="1">
@@ -4291,23 +4308,23 @@
       <c r="C128" s="37"/>
       <c r="D128" s="35">
         <f>(D114*F7)*(E123/100)</f>
-        <v>1370160979.6875</v>
+        <v>1434639143.4375</v>
       </c>
       <c r="E128" s="5">
         <f>(E114*$F7)*($E$123/100)</f>
-        <v>1370160979.6875</v>
+        <v>1434639143.4375</v>
       </c>
       <c r="F128" s="5">
         <f>(F114*$F7)*($E$123/100)</f>
-        <v>1370160979.6875</v>
+        <v>1434639143.4375</v>
       </c>
       <c r="G128" s="5">
         <f>(G114*$F7)*($E$123/100)</f>
-        <v>1370160979.6875</v>
+        <v>1434639143.4375</v>
       </c>
       <c r="H128" s="5">
         <f>(H114*$F7)*($E$123/100)</f>
-        <v>1370160979.6875</v>
+        <v>1434639143.4375</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="15.75" thickBot="1">
@@ -4317,23 +4334,23 @@
       <c r="C129" s="53"/>
       <c r="D129" s="54">
         <f>SUM(D125:D128)</f>
-        <v>5005371358.625</v>
+        <v>5099348872.75</v>
       </c>
       <c r="E129" s="54">
         <f>SUM(E125:E128)</f>
-        <v>5005371358.625</v>
+        <v>5161099114.1875</v>
       </c>
       <c r="F129" s="54">
         <f>SUM(F125:F128)</f>
-        <v>5005371358.625</v>
+        <v>5243432769.4375</v>
       </c>
       <c r="G129" s="54">
         <f>SUM(G125:G128)</f>
-        <v>5005371358.625</v>
+        <v>5305183010.875</v>
       </c>
       <c r="H129" s="55">
         <f>SUM(H125:H128)</f>
-        <v>5005371358.625</v>
+        <v>6354937115.3125</v>
       </c>
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1">
@@ -4397,23 +4414,23 @@
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="5">
-        <f t="shared" ref="D135:H137" si="24">(C21*($E$132/100))</f>
+        <f t="shared" ref="D135:H137" si="25">(C21*($E$132/100))</f>
         <v>367200000</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>376379999.99999994</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>385789499.99999988</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>395434237.49999988</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>405320093.43749982</v>
       </c>
     </row>
@@ -4423,23 +4440,23 @@
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>680400000</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>711018000</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>743013810</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>776449431.44999981</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>811389655.86524987</v>
       </c>
     </row>
@@ -4449,23 +4466,23 @@
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>423360000</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>448761600</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>475687296</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>504228533.76000005</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>534482245.78560013</v>
       </c>
     </row>
@@ -4538,15 +4555,15 @@
         <v>118766249.99999997</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" ref="F143:H143" si="25">(E20*($E$141/100))</f>
+        <f t="shared" ref="F143:H143" si="26">(E20*($E$141/100))</f>
         <v>122923068.74999996</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>127225376.15624996</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>131678264.32171868</v>
       </c>
     </row>
@@ -4556,23 +4573,23 @@
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="5">
-        <f t="shared" ref="D144:H146" si="26">(C21*($E$141/100))</f>
+        <f t="shared" ref="D144:H146" si="27">(C21*($E$141/100))</f>
         <v>137700000</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>141142499.99999997</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>144671062.49999994</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>148287839.06249994</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>151995035.03906244</v>
       </c>
     </row>
@@ -4582,23 +4599,23 @@
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>255150000</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>266631750</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>278630178.75</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>291168536.79374993</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>304271120.94946867</v>
       </c>
     </row>
@@ -4608,23 +4625,23 @@
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>158760000</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>168285600</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>178382736</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>189085700.16000003</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>200430842.16960004</v>
       </c>
     </row>
@@ -4638,19 +4655,19 @@
         <v>666360000</v>
       </c>
       <c r="E147" s="54">
-        <f t="shared" ref="E147:H147" si="27">SUM(E143:E146)</f>
+        <f t="shared" ref="E147:H147" si="28">SUM(E143:E146)</f>
         <v>694826100</v>
       </c>
       <c r="F147" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>724607045.99999988</v>
       </c>
       <c r="G147" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>755767452.1724999</v>
       </c>
       <c r="H147" s="55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>788375262.47984982</v>
       </c>
     </row>
@@ -4722,18 +4739,18 @@
         <v>250000000</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" ref="F153:F157" si="28">(E153*D153)</f>
+        <f t="shared" ref="F153:F157" si="29">(E153*D153)</f>
         <v>250000000</v>
       </c>
       <c r="G153" s="5">
         <v>15</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" ref="H153:H157" si="29">(F153*($H$150/100))</f>
+        <f t="shared" ref="H153:H157" si="30">(F153*($H$150/100))</f>
         <v>37500000</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" ref="I153:I157" si="30">(F153-H153)/G153</f>
+        <f t="shared" ref="I153:I157" si="31">(F153-H153)/G153</f>
         <v>14166666.666666666</v>
       </c>
     </row>
@@ -4749,18 +4766,18 @@
         <v>130000000</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>130000000</v>
       </c>
       <c r="G154" s="5">
         <v>15</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19500000</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7366666.666666667</v>
       </c>
     </row>
@@ -4776,18 +4793,18 @@
         <v>180000000</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>360000000</v>
       </c>
       <c r="G155" s="5">
         <v>15</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>54000000</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>20400000</v>
       </c>
     </row>
@@ -4803,18 +4820,18 @@
         <v>90000000</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>90000000</v>
       </c>
       <c r="G156" s="5">
         <v>15</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13500000</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5100000</v>
       </c>
     </row>
@@ -4830,18 +4847,18 @@
         <v>350000000</v>
       </c>
       <c r="F157" s="35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>350000000</v>
       </c>
       <c r="G157" s="35">
         <v>50</v>
       </c>
       <c r="H157" s="35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>52500000</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5950000</v>
       </c>
     </row>
@@ -4923,14 +4940,14 @@
         <v>10</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" ref="C164:C167" si="31">SUM($I$152:$I$157)</f>
+        <f t="shared" ref="C164:C167" si="32">SUM($I$152:$I$157)</f>
         <v>61483333.333333328</v>
       </c>
       <c r="E164" s="59" t="s">
         <v>65</v>
       </c>
       <c r="F164" s="75">
-        <f t="shared" ref="F164:F168" si="32">G164*I153</f>
+        <f t="shared" ref="F164:F168" si="33">G164*I153</f>
         <v>141666666.66666666</v>
       </c>
       <c r="G164" s="24">
@@ -4942,14 +4959,14 @@
         <v>11</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>61483333.333333328</v>
       </c>
       <c r="E165" s="59" t="s">
         <v>66</v>
       </c>
       <c r="F165" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>73666666.666666672</v>
       </c>
       <c r="G165" s="24">
@@ -4961,14 +4978,14 @@
         <v>12</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>61483333.333333328</v>
       </c>
       <c r="E166" s="59" t="s">
         <v>67</v>
       </c>
       <c r="F166" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>204000000</v>
       </c>
       <c r="G166" s="24">
@@ -4980,14 +4997,14 @@
         <v>13</v>
       </c>
       <c r="C167" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>61483333.333333328</v>
       </c>
       <c r="E167" s="59" t="s">
         <v>68</v>
       </c>
       <c r="F167" s="75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>51000000</v>
       </c>
       <c r="G167" s="24">
@@ -5001,7 +5018,7 @@
         <v>49</v>
       </c>
       <c r="F168" s="76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>267750000</v>
       </c>
       <c r="G168" s="27">
@@ -5150,23 +5167,23 @@
         <v>1150000000</v>
       </c>
       <c r="E178" s="72">
-        <f t="shared" ref="E178:I178" si="33">SUM(E172:E177)</f>
+        <f t="shared" ref="E178:I178" si="34">SUM(E172:E177)</f>
         <v>180000000</v>
       </c>
       <c r="F178" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>90000000</v>
       </c>
       <c r="G178" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>130000000</v>
       </c>
       <c r="H178" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>400000000</v>
       </c>
       <c r="I178" s="72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -5444,19 +5461,19 @@
       </c>
       <c r="E198" s="5">
         <f>(E$115*D198)/D$115</f>
-        <v>36250</v>
+        <v>36647.772342675831</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" ref="F198" si="34">(F$115*E198)/E$115</f>
-        <v>36250</v>
+        <f t="shared" ref="F198" si="35">(F$115*E198)/E$115</f>
+        <v>37178.135466243613</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" ref="G198:H198" si="35">(G$115*F198)/F$115</f>
-        <v>36250</v>
+        <f t="shared" ref="G198:H198" si="36">(G$115*F198)/F$115</f>
+        <v>37575.907808919445</v>
       </c>
       <c r="H198" s="5">
-        <f t="shared" si="35"/>
-        <v>36250</v>
+        <f t="shared" si="36"/>
+        <v>44338.037634408611</v>
       </c>
     </row>
     <row r="199" spans="2:9">
@@ -5465,24 +5482,24 @@
       </c>
       <c r="C199" s="56"/>
       <c r="D199" s="88">
-        <f t="shared" ref="D199:D202" si="36">I185*($D$196/100)</f>
+        <f t="shared" ref="D199:D202" si="37">I185*($D$196/100)</f>
         <v>43750</v>
       </c>
       <c r="E199" s="5">
-        <f t="shared" ref="E199:F203" si="37">(E$115*D199)/D$115</f>
-        <v>43750</v>
+        <f t="shared" ref="E199:F203" si="38">(E$115*D199)/D$115</f>
+        <v>44230.070068746696</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="37"/>
-        <v>43750</v>
+        <f t="shared" si="38"/>
+        <v>44870.163493742293</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" ref="G199:H199" si="38">(G$115*F199)/F$115</f>
-        <v>43750</v>
+        <f t="shared" ref="G199:H199" si="39">(G$115*F199)/F$115</f>
+        <v>45350.233562488989</v>
       </c>
       <c r="H199" s="5">
-        <f t="shared" si="38"/>
-        <v>43750</v>
+        <f t="shared" si="39"/>
+        <v>53511.424731182808</v>
       </c>
     </row>
     <row r="200" spans="2:9">
@@ -5491,24 +5508,24 @@
       </c>
       <c r="C200" s="56"/>
       <c r="D200" s="88">
-        <f t="shared" si="36"/>
-        <v>33750</v>
-      </c>
-      <c r="E200" s="5">
         <f t="shared" si="37"/>
         <v>33750</v>
       </c>
+      <c r="E200" s="5">
+        <f t="shared" si="38"/>
+        <v>34120.339767318881</v>
+      </c>
       <c r="F200" s="5">
-        <f t="shared" si="37"/>
-        <v>33750</v>
+        <f t="shared" si="38"/>
+        <v>34614.126123744056</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" ref="G200:H200" si="39">(G$115*F200)/F$115</f>
-        <v>33750</v>
+        <f t="shared" ref="G200:H200" si="40">(G$115*F200)/F$115</f>
+        <v>34984.465891062937</v>
       </c>
       <c r="H200" s="5">
-        <f t="shared" si="39"/>
-        <v>33750</v>
+        <f t="shared" si="40"/>
+        <v>41280.241935483886</v>
       </c>
     </row>
     <row r="201" spans="2:9">
@@ -5517,24 +5534,24 @@
       </c>
       <c r="C201" s="56"/>
       <c r="D201" s="88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>32500</v>
       </c>
       <c r="E201" s="5">
-        <f t="shared" si="37"/>
-        <v>32500.000000000004</v>
+        <f t="shared" si="38"/>
+        <v>32856.623479640402</v>
       </c>
       <c r="F201" s="5">
-        <f t="shared" si="37"/>
-        <v>32500.000000000004</v>
+        <f t="shared" si="38"/>
+        <v>33332.121452494277</v>
       </c>
       <c r="G201" s="5">
-        <f t="shared" ref="G201:H201" si="40">(G$115*F201)/F$115</f>
-        <v>32500.000000000004</v>
+        <f t="shared" ref="G201:H201" si="41">(G$115*F201)/F$115</f>
+        <v>33688.744932134679</v>
       </c>
       <c r="H201" s="5">
-        <f t="shared" si="40"/>
-        <v>32500.000000000004</v>
+        <f t="shared" si="41"/>
+        <v>39751.34408602152</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="15.75" thickBot="1">
@@ -5543,24 +5560,24 @@
       </c>
       <c r="C202" s="57"/>
       <c r="D202" s="89">
-        <f t="shared" si="36"/>
-        <v>30000</v>
-      </c>
-      <c r="E202" s="35">
         <f t="shared" si="37"/>
         <v>30000</v>
       </c>
+      <c r="E202" s="35">
+        <f t="shared" si="38"/>
+        <v>30329.190904283445</v>
+      </c>
       <c r="F202" s="35">
-        <f t="shared" si="37"/>
-        <v>30000</v>
+        <f t="shared" si="38"/>
+        <v>30768.112109994712</v>
       </c>
       <c r="G202" s="35">
-        <f t="shared" ref="G202:H203" si="41">(G$115*F202)/F$115</f>
-        <v>30000</v>
+        <f t="shared" ref="G202:H203" si="42">(G$115*F202)/F$115</f>
+        <v>31097.303014278161</v>
       </c>
       <c r="H202" s="35">
-        <f t="shared" si="41"/>
-        <v>30000</v>
+        <f t="shared" si="42"/>
+        <v>36693.54838709678</v>
       </c>
     </row>
     <row r="203" spans="2:9" ht="15.75" thickBot="1">
@@ -5569,20 +5586,20 @@
         <v>176250</v>
       </c>
       <c r="E203" s="91">
-        <f t="shared" si="37"/>
-        <v>176250</v>
+        <f t="shared" si="38"/>
+        <v>178183.99656266527</v>
       </c>
       <c r="F203" s="91">
-        <f t="shared" si="37"/>
-        <v>176250</v>
+        <f t="shared" si="38"/>
+        <v>180762.65864621897</v>
       </c>
       <c r="G203" s="91">
-        <f t="shared" si="41"/>
-        <v>176250</v>
+        <f t="shared" si="42"/>
+        <v>182696.65520888424</v>
       </c>
       <c r="H203" s="92">
-        <f t="shared" si="41"/>
-        <v>176250</v>
+        <f t="shared" si="42"/>
+        <v>215574.59677419363</v>
       </c>
     </row>
     <row r="206" spans="2:9" ht="15.75" thickBot="1">
@@ -5615,20 +5632,20 @@
         <v>7830000</v>
       </c>
       <c r="E207" s="5">
-        <f t="shared" ref="E207:H207" si="42">E184*($I184+E198)*12</f>
-        <v>7830000</v>
+        <f t="shared" ref="E207:H207" si="43">E184*($I184+E198)*12</f>
+        <v>7839546.5362242199</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="42"/>
-        <v>7830000</v>
+        <f t="shared" si="43"/>
+        <v>7852275.2511898465</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="42"/>
-        <v>15660000</v>
+        <f t="shared" si="43"/>
+        <v>15723643.574828133</v>
       </c>
       <c r="H207" s="5">
-        <f t="shared" si="42"/>
-        <v>15660000</v>
+        <f t="shared" si="43"/>
+        <v>16048225.806451615</v>
       </c>
     </row>
     <row r="208" spans="2:9">
@@ -5637,24 +5654,24 @@
       </c>
       <c r="C208" s="32"/>
       <c r="D208" s="5">
-        <f t="shared" ref="D208:H211" si="43">D185*($I185+D199)*12</f>
+        <f t="shared" ref="D208:H211" si="44">D185*($I185+D199)*12</f>
         <v>9450000</v>
       </c>
       <c r="E208" s="5">
-        <f t="shared" si="43"/>
-        <v>9450000</v>
+        <f t="shared" si="44"/>
+        <v>9461521.6816499196</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="43"/>
-        <v>9450000</v>
+        <f t="shared" si="44"/>
+        <v>9476883.9238498155</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="43"/>
-        <v>18900000</v>
+        <f t="shared" si="44"/>
+        <v>18976811.21099947</v>
       </c>
       <c r="H208" s="5">
-        <f t="shared" si="43"/>
-        <v>18900000</v>
+        <f t="shared" si="44"/>
+        <v>19368548.387096774</v>
       </c>
     </row>
     <row r="209" spans="2:8">
@@ -5663,24 +5680,24 @@
       </c>
       <c r="C209" s="32"/>
       <c r="D209" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7290000</v>
       </c>
       <c r="E209" s="5">
-        <f t="shared" si="43"/>
-        <v>7290000</v>
+        <f t="shared" si="44"/>
+        <v>7298888.1544156522</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="43"/>
-        <v>14580000</v>
+        <f t="shared" si="44"/>
+        <v>14621478.053939715</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" si="43"/>
-        <v>14580000</v>
+        <f t="shared" si="44"/>
+        <v>14639254.362771019</v>
       </c>
       <c r="H209" s="5">
-        <f t="shared" si="43"/>
-        <v>14580000</v>
+        <f t="shared" si="44"/>
+        <v>14941451.612903226</v>
       </c>
     </row>
     <row r="210" spans="2:8">
@@ -5689,24 +5706,24 @@
       </c>
       <c r="C210" s="32"/>
       <c r="D210" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14040000</v>
       </c>
       <c r="E210" s="5">
-        <f t="shared" si="43"/>
-        <v>14040000</v>
+        <f t="shared" si="44"/>
+        <v>14057117.92702274</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" si="43"/>
-        <v>14040000</v>
+        <f t="shared" si="44"/>
+        <v>14079941.829719726</v>
       </c>
       <c r="G210" s="5">
-        <f t="shared" si="43"/>
-        <v>14040000</v>
+        <f t="shared" si="44"/>
+        <v>14097059.756742466</v>
       </c>
       <c r="H210" s="5">
-        <f t="shared" si="43"/>
-        <v>14040000</v>
+        <f t="shared" si="44"/>
+        <v>14388064.516129034</v>
       </c>
     </row>
     <row r="211" spans="2:8">
@@ -5715,24 +5732,24 @@
       </c>
       <c r="C211" s="32"/>
       <c r="D211" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6480000</v>
       </c>
       <c r="E211" s="5">
-        <f t="shared" si="43"/>
-        <v>12960000</v>
+        <f t="shared" si="44"/>
+        <v>12975801.163405605</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="43"/>
-        <v>12960000</v>
+        <f t="shared" si="44"/>
+        <v>12996869.381279744</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="43"/>
-        <v>12960000</v>
+        <f t="shared" si="44"/>
+        <v>13012670.544685353</v>
       </c>
       <c r="H211" s="5">
-        <f t="shared" si="43"/>
-        <v>12960000</v>
+        <f t="shared" si="44"/>
+        <v>13281290.322580647</v>
       </c>
     </row>
     <row r="212" spans="2:8">
@@ -5741,23 +5758,23 @@
       </c>
       <c r="C212" s="32"/>
       <c r="D212" s="5">
-        <f t="shared" ref="D212:H213" si="44">D189*$I189*12</f>
+        <f t="shared" ref="D212:H213" si="45">D189*$I189*12</f>
         <v>13680000</v>
       </c>
       <c r="E212" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
       <c r="H212" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
     </row>
@@ -5767,23 +5784,23 @@
       </c>
       <c r="C213" s="32"/>
       <c r="D213" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
       <c r="E213" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
       <c r="F213" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
       <c r="G213" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
       <c r="H213" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
     </row>
@@ -5798,19 +5815,19 @@
       </c>
       <c r="E214" s="87">
         <f>SUM(E207:E213)</f>
-        <v>78450000</v>
+        <v>78512875.462718129</v>
       </c>
       <c r="F214" s="87">
-        <f t="shared" ref="F214:H214" si="45">SUM(F207:F213)</f>
-        <v>85740000</v>
+        <f t="shared" ref="F214:H214" si="46">SUM(F207:F213)</f>
+        <v>85907448.439978838</v>
       </c>
       <c r="G214" s="87">
-        <f t="shared" si="45"/>
-        <v>103020000</v>
+        <f t="shared" si="46"/>
+        <v>103329439.45002644</v>
       </c>
       <c r="H214" s="78">
-        <f t="shared" si="45"/>
-        <v>103020000</v>
+        <f t="shared" si="46"/>
+        <v>104907580.6451613</v>
       </c>
     </row>
   </sheetData>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="D197" authorId="0">
+    <comment ref="D198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="91">
   <si>
     <t>Demanda</t>
   </si>
@@ -182,9 +182,6 @@
     <t>3er Año se compro una nueva maquina etiquetadora y aumenta 2 operadores uno para cada turno. Solo se usará para la linea de producción BFNRPL que requiere mayor demanda</t>
   </si>
   <si>
-    <t>4to Año se compro una nueva maquina  lavadora y llenadora  y aumentan 4 operadores dos para cada turno.Solo se usará para la linea de producción BFNRPL que requiere la mayor demanda</t>
-  </si>
-  <si>
     <t>Costos por producción 25 % de la producción total</t>
   </si>
   <si>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>Total Produccion</t>
+  </si>
+  <si>
+    <t>4to Año se compro una nueva maquina  lavadora y 2 operadores uno para cada turno.Solo se usará para la linea de producción BFNRPL que requiere la mayor demanda</t>
+  </si>
+  <si>
+    <t>5to Año se compro una nueva maquina  llenadora y 2 operadores uno para cada turno. Solo se usará para la linea de producción BFNRPL que requiere la mayor demanda</t>
   </si>
 </sst>
 </file>
@@ -872,6 +875,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,16 +891,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -899,13 +906,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,12 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R214"/>
+  <dimension ref="A2:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="4875" topLeftCell="A84" activePane="bottomLeft"/>
-      <selection activeCell="G12" sqref="G12"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1665,10 +1666,10 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="107"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="34" t="s">
@@ -1807,10 +1808,10 @@
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="107"/>
       <c r="H35" s="42"/>
     </row>
     <row r="36" spans="2:8">
@@ -1954,10 +1955,10 @@
       <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="107"/>
       <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8">
@@ -2098,10 +2099,10 @@
       <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="107"/>
       <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8">
@@ -2242,10 +2243,10 @@
       <c r="H57" s="42"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="101"/>
+      <c r="C58" s="107"/>
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="2:8">
@@ -2381,42 +2382,42 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="96" t="s">
+      <c r="C67" s="104"/>
+      <c r="D67" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96" t="s">
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="93" t="s">
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="94"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="93" t="s">
+      <c r="K67" s="101"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="94"/>
-      <c r="O67" s="95"/>
-      <c r="P67" s="93" t="s">
+      <c r="N67" s="101"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="95"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="102"/>
     </row>
     <row r="68" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B68" s="103" t="s">
+      <c r="B68" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="104"/>
-      <c r="D68" s="107" t="s">
+      <c r="C68" s="95"/>
+      <c r="D68" s="98" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="44" t="s">
@@ -2473,7 +2474,7 @@
       <c r="E69" s="33">
         <v>1</v>
       </c>
-      <c r="F69" s="105">
+      <c r="F69" s="96">
         <f>$H$30*D69*E69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2483,7 +2484,7 @@
       <c r="H69" s="33">
         <v>1</v>
       </c>
-      <c r="I69" s="105">
+      <c r="I69" s="96">
         <f>$H$30*G69*H69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2493,7 +2494,7 @@
       <c r="K69" s="33">
         <v>1</v>
       </c>
-      <c r="L69" s="105">
+      <c r="L69" s="96">
         <f>$H$30*J69*K69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2503,7 +2504,7 @@
       <c r="N69" s="33">
         <v>1</v>
       </c>
-      <c r="O69" s="105">
+      <c r="O69" s="96">
         <f>$H$30*M69*N69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="Q69" s="33">
         <v>1</v>
       </c>
-      <c r="R69" s="105">
+      <c r="R69" s="96">
         <f>$H$30*P69*Q69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2529,7 +2530,7 @@
       <c r="E70" s="33">
         <v>1</v>
       </c>
-      <c r="F70" s="105">
+      <c r="F70" s="96">
         <f>$H$37*D70*E70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2539,7 +2540,7 @@
       <c r="H70" s="33">
         <v>1</v>
       </c>
-      <c r="I70" s="105">
+      <c r="I70" s="96">
         <f>$H$37*G70*H70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2549,7 +2550,7 @@
       <c r="K70" s="33">
         <v>1</v>
       </c>
-      <c r="L70" s="105">
+      <c r="L70" s="96">
         <f>$H$37*J70*K70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2559,7 +2560,7 @@
       <c r="N70" s="33">
         <v>1</v>
       </c>
-      <c r="O70" s="105">
+      <c r="O70" s="96">
         <f>$H$37*M70*N70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2569,7 +2570,7 @@
       <c r="Q70" s="33">
         <v>1</v>
       </c>
-      <c r="R70" s="105">
+      <c r="R70" s="96">
         <f>$H$37*P70*Q70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2585,7 +2586,7 @@
       <c r="E71" s="33">
         <v>1</v>
       </c>
-      <c r="F71" s="105">
+      <c r="F71" s="96">
         <f>$H$44*D71*E71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2595,7 +2596,7 @@
       <c r="H71" s="33">
         <v>1</v>
       </c>
-      <c r="I71" s="105">
+      <c r="I71" s="96">
         <f>$H$44*G71*H71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2605,7 +2606,7 @@
       <c r="K71" s="33">
         <v>1</v>
       </c>
-      <c r="L71" s="105">
+      <c r="L71" s="96">
         <f>$H$44*J71*K71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="N71" s="33">
         <v>1</v>
       </c>
-      <c r="O71" s="105">
+      <c r="O71" s="96">
         <f>$H$44*M71*N71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2625,7 +2626,7 @@
       <c r="Q71" s="33">
         <v>1</v>
       </c>
-      <c r="R71" s="105">
+      <c r="R71" s="96">
         <f>$H$44*P71*Q71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2641,7 +2642,7 @@
       <c r="E72" s="33">
         <v>1</v>
       </c>
-      <c r="F72" s="105">
+      <c r="F72" s="96">
         <f>$H$52*D72*E72</f>
         <v>5219660.875</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="H72" s="33">
         <v>1</v>
       </c>
-      <c r="I72" s="105">
+      <c r="I72" s="96">
         <f>$H$52*G72*H72</f>
         <v>5219660.875</v>
       </c>
@@ -2661,7 +2662,7 @@
       <c r="K72" s="33">
         <v>1</v>
       </c>
-      <c r="L72" s="105">
+      <c r="L72" s="96">
         <f>$H$52*J72*K72</f>
         <v>5219660.875</v>
       </c>
@@ -2671,7 +2672,7 @@
       <c r="N72" s="33">
         <v>1</v>
       </c>
-      <c r="O72" s="105">
+      <c r="O72" s="96">
         <f>$H$52*M72*N72</f>
         <v>5219660.875</v>
       </c>
@@ -2681,7 +2682,7 @@
       <c r="Q72" s="33">
         <v>1</v>
       </c>
-      <c r="R72" s="105">
+      <c r="R72" s="96">
         <f>$H$52*P72*Q72</f>
         <v>5219660.875</v>
       </c>
@@ -2697,7 +2698,7 @@
       <c r="E73" s="46">
         <v>1</v>
       </c>
-      <c r="F73" s="106">
+      <c r="F73" s="97">
         <f>$H$60*D73*E73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="H73" s="46">
         <v>1</v>
       </c>
-      <c r="I73" s="106">
+      <c r="I73" s="97">
         <f>$H$60*G73*H73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2717,7 +2718,7 @@
       <c r="K73" s="46">
         <v>1</v>
       </c>
-      <c r="L73" s="106">
+      <c r="L73" s="97">
         <f>$H$60*J73*K73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="N73" s="46">
         <v>1</v>
       </c>
-      <c r="O73" s="106">
+      <c r="O73" s="97">
         <f>$H$60*M73*N73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2737,14 +2738,14 @@
       <c r="Q73" s="46">
         <v>1</v>
       </c>
-      <c r="R73" s="106">
+      <c r="R73" s="97">
         <f>$H$60*P73*Q73</f>
         <v>5540870.7750000004</v>
       </c>
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B74" s="103" t="s">
-        <v>89</v>
+      <c r="B74" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
@@ -2780,42 +2781,42 @@
     </row>
     <row r="75" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B76" s="98" t="s">
+      <c r="B76" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="96" t="s">
+      <c r="C76" s="104"/>
+      <c r="D76" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96" t="s">
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="93" t="s">
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="94"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="93" t="s">
+      <c r="K76" s="101"/>
+      <c r="L76" s="102"/>
+      <c r="M76" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="94"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="93" t="s">
+      <c r="N76" s="101"/>
+      <c r="O76" s="102"/>
+      <c r="P76" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="94"/>
-      <c r="R76" s="95"/>
+      <c r="Q76" s="101"/>
+      <c r="R76" s="102"/>
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B77" s="103" t="s">
+      <c r="B77" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="107" t="s">
+      <c r="C77" s="95"/>
+      <c r="D77" s="98" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="44" t="s">
@@ -2872,7 +2873,7 @@
       <c r="E78" s="33">
         <v>1</v>
       </c>
-      <c r="F78" s="105">
+      <c r="F78" s="96">
         <f>$H$31*D78*E78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -2882,7 +2883,7 @@
       <c r="H78" s="33">
         <v>1</v>
       </c>
-      <c r="I78" s="105">
+      <c r="I78" s="96">
         <f>$H$31*G78*H78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -2892,7 +2893,7 @@
       <c r="K78" s="33">
         <v>1</v>
       </c>
-      <c r="L78" s="105">
+      <c r="L78" s="96">
         <f>$H$31*J78*K78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -2902,7 +2903,7 @@
       <c r="N78" s="33">
         <v>1</v>
       </c>
-      <c r="O78" s="105">
+      <c r="O78" s="96">
         <f>$H$31*M78*N78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -2912,7 +2913,7 @@
       <c r="Q78" s="33">
         <v>1</v>
       </c>
-      <c r="R78" s="105">
+      <c r="R78" s="96">
         <f>$H$31*P78*Q78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="E79" s="33">
         <v>1</v>
       </c>
-      <c r="F79" s="105">
+      <c r="F79" s="96">
         <f>$H$38*D79*E79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -2938,7 +2939,7 @@
       <c r="H79" s="33">
         <v>1</v>
       </c>
-      <c r="I79" s="105">
+      <c r="I79" s="96">
         <f>$H$38*G79*H79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -2948,7 +2949,7 @@
       <c r="K79" s="33">
         <v>1</v>
       </c>
-      <c r="L79" s="105">
+      <c r="L79" s="96">
         <f>$H$38*J79*K79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -2958,7 +2959,7 @@
       <c r="N79" s="33">
         <v>1</v>
       </c>
-      <c r="O79" s="105">
+      <c r="O79" s="96">
         <f>$H$38*M79*N79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="Q79" s="33">
         <v>1</v>
       </c>
-      <c r="R79" s="105">
+      <c r="R79" s="96">
         <f>$H$38*P79*Q79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -2984,7 +2985,7 @@
       <c r="E80" s="33">
         <v>1</v>
       </c>
-      <c r="F80" s="105">
+      <c r="F80" s="96">
         <f>$H$45*D80*E80</f>
         <v>5917820.04</v>
       </c>
@@ -2994,7 +2995,7 @@
       <c r="H80" s="33">
         <v>1</v>
       </c>
-      <c r="I80" s="105">
+      <c r="I80" s="96">
         <f>$H$45*G80*H80</f>
         <v>5917820.04</v>
       </c>
@@ -3004,7 +3005,7 @@
       <c r="K80" s="33">
         <v>1</v>
       </c>
-      <c r="L80" s="105">
+      <c r="L80" s="96">
         <f>$H$45*J80*K80</f>
         <v>5917820.04</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="N80" s="33">
         <v>1</v>
       </c>
-      <c r="O80" s="105">
+      <c r="O80" s="96">
         <f>$H$45*M80*N80</f>
         <v>5917820.04</v>
       </c>
@@ -3024,7 +3025,7 @@
       <c r="Q80" s="33">
         <v>1</v>
       </c>
-      <c r="R80" s="105">
+      <c r="R80" s="96">
         <f>$H$45*P80*Q80</f>
         <v>5917820.04</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="E81" s="33">
         <v>1</v>
       </c>
-      <c r="F81" s="105">
+      <c r="F81" s="96">
         <f>$H$53*D81*E81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="H81" s="33">
         <v>1</v>
       </c>
-      <c r="I81" s="105">
+      <c r="I81" s="96">
         <f>$H$53*G81*H81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3060,7 +3061,7 @@
       <c r="K81" s="33">
         <v>1</v>
       </c>
-      <c r="L81" s="105">
+      <c r="L81" s="96">
         <f>$H$53*J81*K81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3070,7 +3071,7 @@
       <c r="N81" s="33">
         <v>1</v>
       </c>
-      <c r="O81" s="105">
+      <c r="O81" s="96">
         <f>$H$53*M81*N81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3080,7 +3081,7 @@
       <c r="Q81" s="33">
         <v>1</v>
       </c>
-      <c r="R81" s="105">
+      <c r="R81" s="96">
         <f>$H$53*P81*Q81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3090,60 +3091,60 @@
         <v>26</v>
       </c>
       <c r="C82" s="56"/>
-      <c r="D82" s="102">
+      <c r="D82" s="93">
         <v>2</v>
       </c>
       <c r="E82" s="46">
         <v>1</v>
       </c>
-      <c r="F82" s="106">
+      <c r="F82" s="97">
         <f>$H$61*D82*E82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="G82" s="102">
+      <c r="G82" s="93">
         <v>2</v>
       </c>
       <c r="H82" s="46">
         <v>1</v>
       </c>
-      <c r="I82" s="106">
+      <c r="I82" s="97">
         <f>$H$61*G82*H82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="J82" s="102">
+      <c r="J82" s="93">
         <v>2</v>
       </c>
       <c r="K82" s="46">
         <v>1</v>
       </c>
-      <c r="L82" s="106">
+      <c r="L82" s="97">
         <f>$H$61*J82*K82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="M82" s="102">
+      <c r="M82" s="93">
         <v>2</v>
       </c>
       <c r="N82" s="46">
         <v>1</v>
       </c>
-      <c r="O82" s="106">
+      <c r="O82" s="97">
         <f>$H$61*M82*N82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="P82" s="102">
+      <c r="P82" s="93">
         <v>2</v>
       </c>
       <c r="Q82" s="46">
         <v>1</v>
       </c>
-      <c r="R82" s="106">
+      <c r="R82" s="97">
         <f>$H$61*P82*Q82</f>
         <v>5671244.2050000001</v>
       </c>
     </row>
     <row r="83" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B83" s="103" t="s">
-        <v>89</v>
+      <c r="B83" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -3179,42 +3180,42 @@
     </row>
     <row r="84" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="85" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B85" s="98" t="s">
+      <c r="B85" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="96" t="s">
+      <c r="C85" s="104"/>
+      <c r="D85" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96" t="s">
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="93" t="s">
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="94"/>
-      <c r="L85" s="95"/>
-      <c r="M85" s="93" t="s">
+      <c r="K85" s="101"/>
+      <c r="L85" s="102"/>
+      <c r="M85" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N85" s="94"/>
-      <c r="O85" s="95"/>
-      <c r="P85" s="93" t="s">
+      <c r="N85" s="101"/>
+      <c r="O85" s="102"/>
+      <c r="P85" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q85" s="94"/>
-      <c r="R85" s="95"/>
+      <c r="Q85" s="101"/>
+      <c r="R85" s="102"/>
     </row>
     <row r="86" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B86" s="103" t="s">
+      <c r="B86" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="107" t="s">
+      <c r="C86" s="95"/>
+      <c r="D86" s="98" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="44" t="s">
@@ -3271,7 +3272,7 @@
       <c r="E87" s="33">
         <v>1</v>
       </c>
-      <c r="F87" s="105">
+      <c r="F87" s="96">
         <f>$H$32*D87*E87</f>
         <v>5959388.3799999999</v>
       </c>
@@ -3282,7 +3283,7 @@
         <f>E87+0</f>
         <v>1</v>
       </c>
-      <c r="I87" s="105">
+      <c r="I87" s="96">
         <f>$H$32*G87*H87</f>
         <v>5959388.3799999999</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="K87" s="33">
         <v>1</v>
       </c>
-      <c r="L87" s="105">
+      <c r="L87" s="96">
         <f>$H$32*J87*K87</f>
         <v>5959388.3799999999</v>
       </c>
@@ -3302,7 +3303,7 @@
       <c r="N87" s="33">
         <v>2</v>
       </c>
-      <c r="O87" s="105">
+      <c r="O87" s="96">
         <f>$H$32*M87*N87</f>
         <v>11918776.76</v>
       </c>
@@ -3312,7 +3313,7 @@
       <c r="Q87" s="33">
         <v>2</v>
       </c>
-      <c r="R87" s="105">
+      <c r="R87" s="96">
         <f>$H$32*P87*Q87</f>
         <v>11918776.76</v>
       </c>
@@ -3328,7 +3329,7 @@
       <c r="E88" s="33">
         <v>1</v>
       </c>
-      <c r="F88" s="105">
+      <c r="F88" s="96">
         <f>$H$39*D88*E88</f>
         <v>6194627.3949999996</v>
       </c>
@@ -3336,10 +3337,10 @@
         <v>2</v>
       </c>
       <c r="H88" s="33">
-        <f t="shared" ref="H88:H91" si="24">E88+0</f>
-        <v>1</v>
-      </c>
-      <c r="I88" s="105">
+        <f t="shared" ref="H88:H90" si="24">E88+0</f>
+        <v>1</v>
+      </c>
+      <c r="I88" s="96">
         <f>$H$39*G88*H88</f>
         <v>6194627.3949999996</v>
       </c>
@@ -3349,7 +3350,7 @@
       <c r="K88" s="33">
         <v>1</v>
       </c>
-      <c r="L88" s="105">
+      <c r="L88" s="96">
         <f>$H$39*J88*K88</f>
         <v>6194627.3949999996</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="N88" s="33">
         <v>1</v>
       </c>
-      <c r="O88" s="105">
+      <c r="O88" s="96">
         <f>$H$39*M88*N88</f>
         <v>6194627.3949999996</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="Q88" s="33">
         <v>2</v>
       </c>
-      <c r="R88" s="105">
+      <c r="R88" s="96">
         <f>$H$39*P88*Q88</f>
         <v>12389254.789999999</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="E89" s="33">
         <v>1</v>
       </c>
-      <c r="F89" s="105">
+      <c r="F89" s="96">
         <f>$H$46*D89*E89</f>
         <v>5645736.3600000003</v>
       </c>
@@ -3396,7 +3397,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="I89" s="105">
+      <c r="I89" s="96">
         <f>$H$46*G89*H89</f>
         <v>5645736.3600000003</v>
       </c>
@@ -3406,7 +3407,7 @@
       <c r="K89" s="33">
         <v>2</v>
       </c>
-      <c r="L89" s="105">
+      <c r="L89" s="96">
         <f>$H$46*J89*K89</f>
         <v>11291472.720000001</v>
       </c>
@@ -3416,7 +3417,7 @@
       <c r="N89" s="33">
         <v>2</v>
       </c>
-      <c r="O89" s="105">
+      <c r="O89" s="96">
         <f>$H$46*M89*N89</f>
         <v>11291472.720000001</v>
       </c>
@@ -3426,7 +3427,7 @@
       <c r="Q89" s="33">
         <v>2</v>
       </c>
-      <c r="R89" s="105">
+      <c r="R89" s="96">
         <f>$H$46*P89*Q89</f>
         <v>11291472.720000001</v>
       </c>
@@ -3442,7 +3443,7 @@
       <c r="E90" s="33">
         <v>2</v>
       </c>
-      <c r="F90" s="105">
+      <c r="F90" s="96">
         <f>$H$54*D90*E90</f>
         <v>10193690.65</v>
       </c>
@@ -3453,7 +3454,7 @@
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="I90" s="105">
+      <c r="I90" s="96">
         <f>$H$54*G90*H90</f>
         <v>10193690.65</v>
       </c>
@@ -3463,7 +3464,7 @@
       <c r="K90" s="33">
         <v>2</v>
       </c>
-      <c r="L90" s="105">
+      <c r="L90" s="96">
         <f>$H$54*J90*K90</f>
         <v>10193690.65</v>
       </c>
@@ -3473,7 +3474,7 @@
       <c r="N90" s="33">
         <v>2</v>
       </c>
-      <c r="O90" s="105">
+      <c r="O90" s="96">
         <f>$H$54*M90*N90</f>
         <v>10193690.65</v>
       </c>
@@ -3483,7 +3484,7 @@
       <c r="Q90" s="33">
         <v>2</v>
       </c>
-      <c r="R90" s="105">
+      <c r="R90" s="96">
         <f>$H$54*P90*Q90</f>
         <v>10193690.65</v>
       </c>
@@ -3493,61 +3494,61 @@
         <v>26</v>
       </c>
       <c r="C91" s="56"/>
-      <c r="D91" s="102">
+      <c r="D91" s="93">
         <v>2</v>
       </c>
       <c r="E91" s="46">
         <v>1</v>
       </c>
-      <c r="F91" s="106">
+      <c r="F91" s="97">
         <f>$H$62*D91*E91</f>
         <v>5410497.3449999997</v>
       </c>
-      <c r="G91" s="102">
+      <c r="G91" s="93">
         <v>2</v>
       </c>
       <c r="H91" s="33">
         <f>E91+1</f>
         <v>2</v>
       </c>
-      <c r="I91" s="106">
+      <c r="I91" s="97">
         <f>$H$62*G91*H91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="J91" s="102">
+      <c r="J91" s="93">
         <v>2</v>
       </c>
       <c r="K91" s="33">
         <v>2</v>
       </c>
-      <c r="L91" s="106">
+      <c r="L91" s="97">
         <f>$H$62*J91*K91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="M91" s="102">
+      <c r="M91" s="93">
         <v>2</v>
       </c>
       <c r="N91" s="46">
         <v>2</v>
       </c>
-      <c r="O91" s="106">
+      <c r="O91" s="97">
         <f>$H$62*M91*N91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="P91" s="102">
+      <c r="P91" s="93">
         <v>2</v>
       </c>
       <c r="Q91" s="46">
         <v>2</v>
       </c>
-      <c r="R91" s="106">
+      <c r="R91" s="97">
         <f>$H$62*P91*Q91</f>
         <v>10820994.689999999</v>
       </c>
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B92" s="103" t="s">
-        <v>89</v>
+      <c r="B92" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -3583,42 +3584,42 @@
     </row>
     <row r="93" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="94" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B94" s="98" t="s">
+      <c r="B94" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="99"/>
-      <c r="D94" s="96" t="s">
+      <c r="C94" s="104"/>
+      <c r="D94" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96" t="s">
+      <c r="E94" s="105"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="93" t="s">
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="94"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="93" t="s">
+      <c r="K94" s="101"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N94" s="94"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="93" t="s">
+      <c r="N94" s="101"/>
+      <c r="O94" s="102"/>
+      <c r="P94" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="Q94" s="94"/>
-      <c r="R94" s="95"/>
+      <c r="Q94" s="101"/>
+      <c r="R94" s="102"/>
     </row>
     <row r="95" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B95" s="103" t="s">
+      <c r="B95" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="107" t="s">
+      <c r="C95" s="95"/>
+      <c r="D95" s="98" t="s">
         <v>36</v>
       </c>
       <c r="E95" s="44" t="s">
@@ -3675,7 +3676,7 @@
       <c r="E96" s="33">
         <v>1</v>
       </c>
-      <c r="F96" s="105">
+      <c r="F96" s="96">
         <f>$H$33*D96*E96</f>
         <v>6390187.54</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="H96" s="33">
         <v>1</v>
       </c>
-      <c r="I96" s="105">
+      <c r="I96" s="96">
         <f>$H$33*G96*H96</f>
         <v>6390187.54</v>
       </c>
@@ -3695,7 +3696,7 @@
       <c r="K96" s="33">
         <v>1</v>
       </c>
-      <c r="L96" s="105">
+      <c r="L96" s="96">
         <f>$H$33*J96*K96</f>
         <v>6390187.54</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="N96" s="33">
         <v>1</v>
       </c>
-      <c r="O96" s="105">
+      <c r="O96" s="96">
         <f>$H$33*M96*N96</f>
         <v>6390187.54</v>
       </c>
@@ -3715,13 +3716,13 @@
       <c r="Q96" s="33">
         <v>1</v>
       </c>
-      <c r="R96" s="105">
+      <c r="R96" s="96">
         <f>$H$33*P96*Q96</f>
         <v>6390187.54</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="108"/>
+      <c r="A97" s="99"/>
       <c r="B97" s="61" t="s">
         <v>23</v>
       </c>
@@ -3732,7 +3733,7 @@
       <c r="E97" s="33">
         <v>1</v>
       </c>
-      <c r="F97" s="105">
+      <c r="F97" s="96">
         <f>$H$40*D97*E97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3742,7 +3743,7 @@
       <c r="H97" s="33">
         <v>1</v>
       </c>
-      <c r="I97" s="105">
+      <c r="I97" s="96">
         <f>$H$40*G97*H97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3752,7 +3753,7 @@
       <c r="K97" s="33">
         <v>1</v>
       </c>
-      <c r="L97" s="105">
+      <c r="L97" s="96">
         <f>$H$40*J97*K97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="N97" s="33">
         <v>1</v>
       </c>
-      <c r="O97" s="105">
+      <c r="O97" s="96">
         <f>$H$40*M97*N97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3772,7 +3773,7 @@
       <c r="Q97" s="33">
         <v>1</v>
       </c>
-      <c r="R97" s="105">
+      <c r="R97" s="96">
         <f>$H$40*P97*Q97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="E98" s="33">
         <v>1</v>
       </c>
-      <c r="F98" s="105">
+      <c r="F98" s="96">
         <f>$H$47*D98*E98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3798,7 +3799,7 @@
       <c r="H98" s="33">
         <v>1</v>
       </c>
-      <c r="I98" s="105">
+      <c r="I98" s="96">
         <f>$H$47*G98*H98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="K98" s="33">
         <v>1</v>
       </c>
-      <c r="L98" s="105">
+      <c r="L98" s="96">
         <f>$H$47*J98*K98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3818,7 +3819,7 @@
       <c r="N98" s="33">
         <v>1</v>
       </c>
-      <c r="O98" s="105">
+      <c r="O98" s="96">
         <f>$H$47*M98*N98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="Q98" s="33">
         <v>1</v>
       </c>
-      <c r="R98" s="105">
+      <c r="R98" s="96">
         <f>$H$47*P98*Q98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3844,7 +3845,7 @@
       <c r="E99" s="33">
         <v>1</v>
       </c>
-      <c r="F99" s="105">
+      <c r="F99" s="96">
         <f>$H$55*D99*E99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -3854,7 +3855,7 @@
       <c r="H99" s="33">
         <v>1</v>
       </c>
-      <c r="I99" s="105">
+      <c r="I99" s="96">
         <f>$H$55*G99*H99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -3864,7 +3865,7 @@
       <c r="K99" s="33">
         <v>1</v>
       </c>
-      <c r="L99" s="105">
+      <c r="L99" s="96">
         <f>$H$55*J99*K99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -3874,7 +3875,7 @@
       <c r="N99" s="33">
         <v>1</v>
       </c>
-      <c r="O99" s="105">
+      <c r="O99" s="96">
         <f>$H$55*M99*N99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -3884,7 +3885,7 @@
       <c r="Q99" s="33">
         <v>1</v>
       </c>
-      <c r="R99" s="105">
+      <c r="R99" s="96">
         <f>$H$55*P99*Q99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -3894,60 +3895,60 @@
         <v>26</v>
       </c>
       <c r="C100" s="56"/>
-      <c r="D100" s="102">
+      <c r="D100" s="93">
         <v>2</v>
       </c>
       <c r="E100" s="46">
         <v>1</v>
       </c>
-      <c r="F100" s="106">
+      <c r="F100" s="97">
         <f>$H$63*D100*E100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="G100" s="102">
+      <c r="G100" s="93">
         <v>2</v>
       </c>
       <c r="H100" s="46">
         <v>1</v>
       </c>
-      <c r="I100" s="106">
+      <c r="I100" s="97">
         <f>$H$63*G100*H100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="J100" s="102">
+      <c r="J100" s="93">
         <v>2</v>
       </c>
       <c r="K100" s="46">
         <v>1</v>
       </c>
-      <c r="L100" s="106">
+      <c r="L100" s="97">
         <f>$H$63*J100*K100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="M100" s="102">
+      <c r="M100" s="93">
         <v>2</v>
       </c>
       <c r="N100" s="46">
         <v>1</v>
       </c>
-      <c r="O100" s="106">
+      <c r="O100" s="97">
         <f>$H$63*M100*N100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="P100" s="102">
+      <c r="P100" s="93">
         <v>2</v>
       </c>
       <c r="Q100" s="46">
         <v>1</v>
       </c>
-      <c r="R100" s="106">
+      <c r="R100" s="97">
         <f>$H$63*P100*Q100</f>
         <v>5801617.6349999998</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B101" s="103" t="s">
-        <v>89</v>
+      <c r="B101" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
@@ -3982,34 +3983,34 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="B105" s="97"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="97"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="97"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
     </row>
     <row r="108" spans="1:18">
       <c r="B108" s="47"/>
@@ -4096,7 +4097,7 @@
         <v>5342476.4249999998</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:10">
       <c r="B113" s="39" t="s">
         <v>7</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>10193690.65</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="15.75" thickBot="1">
+    <row r="114" spans="2:10" ht="15.75" thickBot="1">
       <c r="B114" s="39" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>5465291.9749999996</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15.75" thickBot="1">
+    <row r="115" spans="2:10" ht="15.75" thickBot="1">
       <c r="B115" s="48" t="s">
         <v>39</v>
       </c>
@@ -4174,800 +4175,790 @@
         <v>26221119.925000004</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="28" t="s">
+    <row r="117" spans="2:10">
+      <c r="B117" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="118" spans="2:10">
+      <c r="B118" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
       <c r="B119" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
       <c r="B120" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
       <c r="B121" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="99"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="28"/>
+    </row>
+    <row r="124" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B124" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B123" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123">
+      <c r="E124">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="29" t="s">
+    <row r="125" spans="2:10">
+      <c r="B125" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="40" t="s">
+      <c r="C125" s="30"/>
+      <c r="D125" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E125" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="40" t="s">
+      <c r="F125" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G124" s="40" t="s">
+      <c r="G125" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="40" t="s">
+      <c r="H125" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="39" t="s">
+    <row r="126" spans="2:10">
+      <c r="B126" s="39" t="s">
         <v>5</v>
-      </c>
-      <c r="C125" s="37"/>
-      <c r="D125" s="5">
-        <f>(D111*$F4)*($E$123/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="E125" s="5">
-        <f>(E111*$F4)*($E$123/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="F125" s="5">
-        <f>(F111*$F4)*($E$123/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="G125" s="5">
-        <f>(G111*$F4)*($E$123/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="H125" s="5">
-        <f>(H111*$F4)*($E$123/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="39" t="s">
-        <v>6</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="5">
-        <f>(D112*F5)*(E123/100)</f>
-        <v>1135276240.3125</v>
+        <f>(D111*$F4)*($E$124/100)</f>
+        <v>1109177935.9375</v>
       </c>
       <c r="E126" s="5">
-        <f>(E112*$F5)*($E$123/100)</f>
-        <v>1135276240.3125</v>
+        <f>(E111*$F4)*($E$124/100)</f>
+        <v>1109177935.9375</v>
       </c>
       <c r="F126" s="5">
-        <f>(F112*$F5)*($E$123/100)</f>
-        <v>1135276240.3125</v>
+        <f>(F111*$F4)*($E$124/100)</f>
+        <v>1109177935.9375</v>
       </c>
       <c r="G126" s="5">
-        <f>(G112*$F5)*($E$123/100)</f>
-        <v>1135276240.3125</v>
+        <f>(G111*$F4)*($E$124/100)</f>
+        <v>1109177935.9375</v>
       </c>
       <c r="H126" s="5">
-        <f>(H112*$F5)*($E$123/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
+        <f>(H111*$F4)*($E$124/100)</f>
+        <v>1109177935.9375</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
       <c r="B127" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="5">
-        <f>(D113*F6)*(E123/100)</f>
+        <f>(D112*F5)*(E124/100)</f>
+        <v>1135276240.3125</v>
+      </c>
+      <c r="E127" s="5">
+        <f>(E112*$F5)*($E$124/100)</f>
+        <v>1135276240.3125</v>
+      </c>
+      <c r="F127" s="5">
+        <f>(F112*$F5)*($E$124/100)</f>
+        <v>1135276240.3125</v>
+      </c>
+      <c r="G127" s="5">
+        <f>(G112*$F5)*($E$124/100)</f>
+        <v>1135276240.3125</v>
+      </c>
+      <c r="H127" s="5">
+        <f>(H112*$F5)*($E$124/100)</f>
+        <v>1135276240.3125</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="37"/>
+      <c r="D128" s="5">
+        <f>(D113*F6)*(E124/100)</f>
         <v>1420255553.0625</v>
       </c>
-      <c r="E127" s="5">
-        <f>(E113*$F6)*($E$123/100)</f>
+      <c r="E128" s="5">
+        <f>(E113*$F6)*($E$124/100)</f>
         <v>1482005794.5</v>
       </c>
-      <c r="F127" s="5">
-        <f>(F113*$F6)*($E$123/100)</f>
+      <c r="F128" s="5">
+        <f>(F113*$F6)*($E$124/100)</f>
         <v>1564339449.75</v>
       </c>
-      <c r="G127" s="5">
-        <f>(G113*$F6)*($E$123/100)</f>
+      <c r="G128" s="5">
+        <f>(G113*$F6)*($E$124/100)</f>
         <v>1626089691.1875</v>
       </c>
-      <c r="H127" s="5">
-        <f>(H113*$F6)*($E$123/100)</f>
+      <c r="H128" s="5">
+        <f>(H113*$F6)*($E$124/100)</f>
         <v>2675843795.625</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B128" s="39" t="s">
+    <row r="129" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B129" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="35">
-        <f>(D114*F7)*(E123/100)</f>
+      <c r="C129" s="37"/>
+      <c r="D129" s="35">
+        <f>(D114*F7)*(E124/100)</f>
         <v>1434639143.4375</v>
       </c>
-      <c r="E128" s="5">
-        <f>(E114*$F7)*($E$123/100)</f>
+      <c r="E129" s="5">
+        <f>(E114*$F7)*($E$124/100)</f>
         <v>1434639143.4375</v>
       </c>
-      <c r="F128" s="5">
-        <f>(F114*$F7)*($E$123/100)</f>
+      <c r="F129" s="5">
+        <f>(F114*$F7)*($E$124/100)</f>
         <v>1434639143.4375</v>
       </c>
-      <c r="G128" s="5">
-        <f>(G114*$F7)*($E$123/100)</f>
+      <c r="G129" s="5">
+        <f>(G114*$F7)*($E$124/100)</f>
         <v>1434639143.4375</v>
       </c>
-      <c r="H128" s="5">
-        <f>(H114*$F7)*($E$123/100)</f>
+      <c r="H129" s="5">
+        <f>(H114*$F7)*($E$124/100)</f>
         <v>1434639143.4375</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B129" s="52" t="s">
+    <row r="130" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B130" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="53"/>
+      <c r="D130" s="54">
+        <f>SUM(D126:D129)</f>
+        <v>5099348872.75</v>
+      </c>
+      <c r="E130" s="54">
+        <f>SUM(E126:E129)</f>
+        <v>5161099114.1875</v>
+      </c>
+      <c r="F130" s="54">
+        <f>SUM(F126:F129)</f>
+        <v>5243432769.4375</v>
+      </c>
+      <c r="G130" s="54">
+        <f>SUM(G126:G129)</f>
+        <v>5305183010.875</v>
+      </c>
+      <c r="H130" s="55">
+        <f>SUM(H126:H129)</f>
+        <v>6354937115.3125</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B133" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="54">
-        <f>SUM(D125:D128)</f>
-        <v>5099348872.75</v>
-      </c>
-      <c r="E129" s="54">
-        <f>SUM(E125:E128)</f>
-        <v>5161099114.1875</v>
-      </c>
-      <c r="F129" s="54">
-        <f>SUM(F125:F128)</f>
-        <v>5243432769.4375</v>
-      </c>
-      <c r="G129" s="54">
-        <f>SUM(G125:G128)</f>
-        <v>5305183010.875</v>
-      </c>
-      <c r="H129" s="55">
-        <f>SUM(H125:H128)</f>
-        <v>6354937115.3125</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B132" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132">
+      <c r="E133">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="29" t="s">
+    <row r="134" spans="2:8">
+      <c r="B134" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="30"/>
-      <c r="D133" s="40" t="s">
+      <c r="C134" s="30"/>
+      <c r="D134" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="40" t="s">
+      <c r="E134" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="40" t="s">
+      <c r="F134" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="40" t="s">
+      <c r="G134" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="40" t="s">
+      <c r="H134" s="40" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="5">
-        <f>(C20*($E$132/100))</f>
-        <v>306000000</v>
-      </c>
-      <c r="E134" s="5">
-        <f>(D20*($E$132/100))</f>
-        <v>316709999.99999994</v>
-      </c>
-      <c r="F134" s="5">
-        <f>(E20*($E$132/100))</f>
-        <v>327794849.99999988</v>
-      </c>
-      <c r="G134" s="5">
-        <f>(F20*($E$132/100))</f>
-        <v>339267669.74999988</v>
-      </c>
-      <c r="H134" s="5">
-        <f>(G20*($E$132/100))</f>
-        <v>351142038.19124979</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="B135" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="5">
-        <f t="shared" ref="D135:H137" si="25">(C21*($E$132/100))</f>
+        <f>(C20*($E$133/100))</f>
+        <v>306000000</v>
+      </c>
+      <c r="E135" s="5">
+        <f>(D20*($E$133/100))</f>
+        <v>316709999.99999994</v>
+      </c>
+      <c r="F135" s="5">
+        <f>(E20*($E$133/100))</f>
+        <v>327794849.99999988</v>
+      </c>
+      <c r="G135" s="5">
+        <f>(F20*($E$133/100))</f>
+        <v>339267669.74999988</v>
+      </c>
+      <c r="H135" s="5">
+        <f>(G20*($E$133/100))</f>
+        <v>351142038.19124979</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="37"/>
+      <c r="D136" s="5">
+        <f t="shared" ref="D136:H138" si="25">(C21*($E$133/100))</f>
         <v>367200000</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E136" s="5">
         <f t="shared" si="25"/>
         <v>376379999.99999994</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F136" s="5">
         <f t="shared" si="25"/>
         <v>385789499.99999988</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G136" s="5">
         <f t="shared" si="25"/>
         <v>395434237.49999988</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H136" s="5">
         <f t="shared" si="25"/>
         <v>405320093.43749982</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="39" t="s">
+    <row r="137" spans="2:8">
+      <c r="B137" s="39" t="s">
         <v>7</v>
-      </c>
-      <c r="C136" s="37"/>
-      <c r="D136" s="5">
-        <f t="shared" si="25"/>
-        <v>680400000</v>
-      </c>
-      <c r="E136" s="5">
-        <f t="shared" si="25"/>
-        <v>711018000</v>
-      </c>
-      <c r="F136" s="5">
-        <f t="shared" si="25"/>
-        <v>743013810</v>
-      </c>
-      <c r="G136" s="5">
-        <f t="shared" si="25"/>
-        <v>776449431.44999981</v>
-      </c>
-      <c r="H136" s="5">
-        <f t="shared" si="25"/>
-        <v>811389655.86524987</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B137" s="39" t="s">
-        <v>8</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="5">
         <f t="shared" si="25"/>
-        <v>423360000</v>
+        <v>680400000</v>
       </c>
       <c r="E137" s="5">
         <f t="shared" si="25"/>
-        <v>448761600</v>
+        <v>711018000</v>
       </c>
       <c r="F137" s="5">
         <f t="shared" si="25"/>
-        <v>475687296</v>
+        <v>743013810</v>
       </c>
       <c r="G137" s="5">
         <f t="shared" si="25"/>
-        <v>504228533.76000005</v>
+        <v>776449431.44999981</v>
       </c>
       <c r="H137" s="5">
         <f t="shared" si="25"/>
+        <v>811389655.86524987</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B138" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="5">
+        <f t="shared" si="25"/>
+        <v>423360000</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" si="25"/>
+        <v>448761600</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="25"/>
+        <v>475687296</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" si="25"/>
+        <v>504228533.76000005</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="25"/>
         <v>534482245.78560013</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B138" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C138" s="53"/>
-      <c r="D138" s="54">
-        <f>SUM(D134:D137)</f>
+    <row r="139" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B139" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="53"/>
+      <c r="D139" s="54">
+        <f>SUM(D135:D138)</f>
         <v>1776960000</v>
       </c>
-      <c r="E138" s="54">
-        <f>SUM(E134:E137)</f>
+      <c r="E139" s="54">
+        <f>SUM(E135:E138)</f>
         <v>1852869600</v>
       </c>
-      <c r="F138" s="54">
-        <f>SUM(F134:F137)</f>
+      <c r="F139" s="54">
+        <f>SUM(F135:F138)</f>
         <v>1932285455.9999998</v>
       </c>
-      <c r="G138" s="54">
-        <f>SUM(G134:G137)</f>
+      <c r="G139" s="54">
+        <f>SUM(G135:G138)</f>
         <v>2015379872.4599996</v>
       </c>
-      <c r="H138" s="55">
-        <f>SUM(H134:H137)</f>
+      <c r="H139" s="55">
+        <f>SUM(H135:H138)</f>
         <v>2102334033.2795997</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B141" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E141">
+    <row r="142" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B142" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142">
         <v>4.5</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="29" t="s">
+    <row r="143" spans="2:8">
+      <c r="B143" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="30"/>
-      <c r="D142" s="40" t="s">
+      <c r="C143" s="30"/>
+      <c r="D143" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="40" t="s">
+      <c r="E143" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="40" t="s">
+      <c r="F143" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G142" s="40" t="s">
+      <c r="G143" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="40" t="s">
+      <c r="H143" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="39" t="s">
+    <row r="144" spans="2:8">
+      <c r="B144" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="5">
-        <f>(C20*($E$141/100))</f>
+      <c r="C144" s="37"/>
+      <c r="D144" s="5">
+        <f>(C20*($E$142/100))</f>
         <v>114750000</v>
       </c>
-      <c r="E143" s="5">
-        <f>(D20*($E$141/100))</f>
+      <c r="E144" s="5">
+        <f>(D20*($E$142/100))</f>
         <v>118766249.99999997</v>
       </c>
-      <c r="F143" s="5">
-        <f t="shared" ref="F143:H143" si="26">(E20*($E$141/100))</f>
+      <c r="F144" s="5">
+        <f t="shared" ref="F144:H144" si="26">(E20*($E$142/100))</f>
         <v>122923068.74999996</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G144" s="5">
         <f t="shared" si="26"/>
         <v>127225376.15624996</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H144" s="5">
         <f t="shared" si="26"/>
         <v>131678264.32171868</v>
       </c>
     </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="39" t="s">
+    <row r="145" spans="2:9">
+      <c r="B145" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="37"/>
-      <c r="D144" s="5">
-        <f t="shared" ref="D144:H146" si="27">(C21*($E$141/100))</f>
+      <c r="C145" s="37"/>
+      <c r="D145" s="5">
+        <f t="shared" ref="D145:H147" si="27">(C21*($E$142/100))</f>
         <v>137700000</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E145" s="5">
         <f t="shared" si="27"/>
         <v>141142499.99999997</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F145" s="5">
         <f t="shared" si="27"/>
         <v>144671062.49999994</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G145" s="5">
         <f t="shared" si="27"/>
         <v>148287839.06249994</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H145" s="5">
         <f t="shared" si="27"/>
         <v>151995035.03906244</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="39" t="s">
+    <row r="146" spans="2:9">
+      <c r="B146" s="39" t="s">
         <v>7</v>
-      </c>
-      <c r="C145" s="37"/>
-      <c r="D145" s="5">
-        <f t="shared" si="27"/>
-        <v>255150000</v>
-      </c>
-      <c r="E145" s="5">
-        <f t="shared" si="27"/>
-        <v>266631750</v>
-      </c>
-      <c r="F145" s="5">
-        <f t="shared" si="27"/>
-        <v>278630178.75</v>
-      </c>
-      <c r="G145" s="5">
-        <f t="shared" si="27"/>
-        <v>291168536.79374993</v>
-      </c>
-      <c r="H145" s="5">
-        <f t="shared" si="27"/>
-        <v>304271120.94946867</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B146" s="39" t="s">
-        <v>8</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="5">
         <f t="shared" si="27"/>
-        <v>158760000</v>
+        <v>255150000</v>
       </c>
       <c r="E146" s="5">
         <f t="shared" si="27"/>
-        <v>168285600</v>
+        <v>266631750</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="27"/>
-        <v>178382736</v>
+        <v>278630178.75</v>
       </c>
       <c r="G146" s="5">
         <f t="shared" si="27"/>
-        <v>189085700.16000003</v>
+        <v>291168536.79374993</v>
       </c>
       <c r="H146" s="5">
         <f t="shared" si="27"/>
+        <v>304271120.94946867</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B147" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="37"/>
+      <c r="D147" s="5">
+        <f t="shared" si="27"/>
+        <v>158760000</v>
+      </c>
+      <c r="E147" s="5">
+        <f t="shared" si="27"/>
+        <v>168285600</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="27"/>
+        <v>178382736</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" si="27"/>
+        <v>189085700.16000003</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="27"/>
         <v>200430842.16960004</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B147" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C147" s="53"/>
-      <c r="D147" s="54">
-        <f>SUM(D143:D146)</f>
+    <row r="148" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B148" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" s="53"/>
+      <c r="D148" s="54">
+        <f>SUM(D144:D147)</f>
         <v>666360000</v>
       </c>
-      <c r="E147" s="54">
-        <f t="shared" ref="E147:H147" si="28">SUM(E143:E146)</f>
+      <c r="E148" s="54">
+        <f t="shared" ref="E148:H148" si="28">SUM(E144:E147)</f>
         <v>694826100</v>
       </c>
-      <c r="F147" s="54">
+      <c r="F148" s="54">
         <f t="shared" si="28"/>
         <v>724607045.99999988</v>
       </c>
-      <c r="G147" s="54">
+      <c r="G148" s="54">
         <f t="shared" si="28"/>
         <v>755767452.1724999</v>
       </c>
-      <c r="H147" s="55">
+      <c r="H148" s="55">
         <f t="shared" si="28"/>
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C150" s="42"/>
-      <c r="H150" s="62">
+    <row r="151" spans="2:9">
+      <c r="B151" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="42"/>
+      <c r="H151" s="62">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D151" s="40" t="s">
+    <row r="152" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D152" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E151" s="40" t="s">
+      <c r="E152" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="40" t="s">
+      <c r="G152" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G151" s="40" t="s">
+      <c r="H152" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I152" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H151" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I151" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="58" t="s">
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C152" s="30"/>
-      <c r="D152" s="5">
-        <v>1</v>
-      </c>
-      <c r="E152" s="5">
+      <c r="C153" s="30"/>
+      <c r="D153" s="5">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5">
         <v>150000000</v>
       </c>
-      <c r="F152" s="5">
-        <f>(E152*D152)</f>
+      <c r="F153" s="5">
+        <f>(E153*D153)</f>
         <v>150000000</v>
-      </c>
-      <c r="G152" s="5">
-        <v>15</v>
-      </c>
-      <c r="H152" s="5">
-        <f>(F152*($H$150/100))</f>
-        <v>22500000</v>
-      </c>
-      <c r="I152" s="5">
-        <f>(F152-H152)/G152</f>
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" s="32"/>
-      <c r="D153" s="5">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" ref="F153:F157" si="29">(E153*D153)</f>
-        <v>250000000</v>
       </c>
       <c r="G153" s="5">
         <v>15</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" ref="H153:H157" si="30">(F153*($H$150/100))</f>
-        <v>37500000</v>
+        <f>(F153*($H$151/100))</f>
+        <v>22500000</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" ref="I153:I157" si="31">(F153-H153)/G153</f>
-        <v>14166666.666666666</v>
+        <f>(F153-H153)/G153</f>
+        <v>8500000</v>
       </c>
     </row>
     <row r="154" spans="2:9">
       <c r="B154" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154" s="32"/>
       <c r="D154" s="5">
         <v>1</v>
       </c>
       <c r="E154" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" ref="F154:F158" si="29">(E154*D154)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G154" s="5">
+        <v>15</v>
+      </c>
+      <c r="H154" s="5">
+        <f t="shared" ref="H154:H158" si="30">(F154*($H$151/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" ref="I154:I158" si="31">(F154-H154)/G154</f>
+        <v>14166666.666666666</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="D155" s="5">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5">
         <v>130000000</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F155" s="5">
         <f t="shared" si="29"/>
         <v>130000000</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G155" s="5">
         <v>15</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H155" s="5">
         <f t="shared" si="30"/>
         <v>19500000</v>
       </c>
-      <c r="I154" s="5">
+      <c r="I155" s="5">
         <f t="shared" si="31"/>
         <v>7366666.666666667</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="59" t="s">
+    <row r="156" spans="2:9">
+      <c r="B156" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C155" s="32"/>
-      <c r="D155" s="5">
-        <v>2</v>
-      </c>
-      <c r="E155" s="5">
+      <c r="C156" s="32"/>
+      <c r="D156" s="5">
+        <v>2</v>
+      </c>
+      <c r="E156" s="5">
         <v>180000000</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F156" s="5">
         <f t="shared" si="29"/>
         <v>360000000</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G156" s="5">
         <v>15</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H156" s="5">
         <f t="shared" si="30"/>
         <v>54000000</v>
       </c>
-      <c r="I155" s="5">
+      <c r="I156" s="5">
         <f t="shared" si="31"/>
         <v>20400000</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="59" t="s">
+    <row r="157" spans="2:9">
+      <c r="B157" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="5">
-        <v>1</v>
-      </c>
-      <c r="E156" s="5">
+      <c r="C157" s="32"/>
+      <c r="D157" s="5">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5">
         <v>90000000</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F157" s="5">
         <f t="shared" si="29"/>
         <v>90000000</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G157" s="5">
         <v>15</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H157" s="5">
         <f t="shared" si="30"/>
         <v>13500000</v>
       </c>
-      <c r="I156" s="5">
+      <c r="I157" s="5">
         <f t="shared" si="31"/>
         <v>5100000</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B157" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="35">
-        <v>1</v>
-      </c>
-      <c r="E157" s="35">
+    <row r="158" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B158" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="D158" s="35">
+        <v>1</v>
+      </c>
+      <c r="E158" s="35">
         <v>350000000</v>
       </c>
-      <c r="F157" s="35">
+      <c r="F158" s="35">
         <f t="shared" si="29"/>
         <v>350000000</v>
       </c>
-      <c r="G157" s="35">
+      <c r="G158" s="35">
         <v>50</v>
       </c>
-      <c r="H157" s="35">
+      <c r="H158" s="35">
         <f t="shared" si="30"/>
         <v>52500000</v>
       </c>
-      <c r="I157" s="5">
+      <c r="I158" s="5">
         <f t="shared" si="31"/>
         <v>5950000</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B158" s="52"/>
-      <c r="C158" s="53" t="s">
+    <row r="159" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B159" s="52"/>
+      <c r="C159" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="53"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="54">
+        <f>SUM(F153:F158)</f>
+        <v>1330000000</v>
+      </c>
+      <c r="G159" s="53"/>
+      <c r="H159" s="65">
+        <f>SUM(H153:H158)</f>
+        <v>199500000</v>
+      </c>
+      <c r="I159" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="54">
-        <f>SUM(F152:F157)</f>
-        <v>1330000000</v>
-      </c>
-      <c r="G158" s="53"/>
-      <c r="H158" s="65">
-        <f>SUM(H152:H157)</f>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="H160" s="61">
+        <v>0</v>
+      </c>
+      <c r="I160" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="15.75" thickBot="1">
+      <c r="H161" s="66">
+        <f>(H159+H160)</f>
         <v>199500000</v>
       </c>
-      <c r="I158" s="64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="H159" s="61">
-        <v>0</v>
-      </c>
-      <c r="I159" s="56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" ht="15.75" thickBot="1">
-      <c r="H160" s="66">
-        <f>(H158+H159)</f>
-        <v>199500000</v>
-      </c>
-      <c r="I160" s="57"/>
-    </row>
-    <row r="161" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E161" t="s">
-        <v>69</v>
-      </c>
+      <c r="I161" s="57"/>
     </row>
     <row r="162" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B162" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C162" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B163" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F163" t="s">
+        <v>61</v>
+      </c>
+      <c r="G163" t="s">
         <v>62</v>
-      </c>
-      <c r="G162" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="5">
-        <f>SUM($I$152:$I$157)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E163" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F163" s="73">
-        <f>G163*I152</f>
-        <v>85000000</v>
-      </c>
-      <c r="G163" s="74">
-        <v>10</v>
       </c>
     </row>
     <row r="164" spans="2:9">
       <c r="B164" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" ref="C164:C167" si="32">SUM($I$152:$I$157)</f>
+        <f>SUM($I$153:$I$158)</f>
         <v>61483333.333333328</v>
       </c>
-      <c r="E164" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F164" s="75">
-        <f t="shared" ref="F164:F168" si="33">G164*I153</f>
-        <v>141666666.66666666</v>
-      </c>
-      <c r="G164" s="24">
+      <c r="E164" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F164" s="73">
+        <f>G164*I153</f>
+        <v>85000000</v>
+      </c>
+      <c r="G164" s="74">
         <v>10</v>
       </c>
     </row>
     <row r="165" spans="2:9">
       <c r="B165" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="C165:C168" si="32">SUM($I$153:$I$158)</f>
         <v>61483333.333333328</v>
       </c>
       <c r="E165" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F165" s="75">
-        <f t="shared" si="33"/>
-        <v>73666666.666666672</v>
+        <f t="shared" ref="F165:F169" si="33">G165*I154</f>
+        <v>141666666.66666666</v>
       </c>
       <c r="G165" s="24">
         <v>10</v>
@@ -4975,18 +4966,18 @@
     </row>
     <row r="166" spans="2:9">
       <c r="B166" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C166" s="5">
         <f t="shared" si="32"/>
         <v>61483333.333333328</v>
       </c>
       <c r="E166" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F166" s="75">
         <f t="shared" si="33"/>
-        <v>204000000</v>
+        <v>73666666.666666672</v>
       </c>
       <c r="G166" s="24">
         <v>10</v>
@@ -4994,252 +4985,247 @@
     </row>
     <row r="167" spans="2:9">
       <c r="B167" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" s="5">
         <f t="shared" si="32"/>
         <v>61483333.333333328</v>
       </c>
       <c r="E167" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F167" s="75">
         <f t="shared" si="33"/>
-        <v>51000000</v>
+        <v>204000000</v>
       </c>
       <c r="G167" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="E168" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="76">
+    <row r="168" spans="2:9">
+      <c r="B168" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="5">
+        <f t="shared" si="32"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E168" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F168" s="75">
+        <f t="shared" si="33"/>
+        <v>51000000</v>
+      </c>
+      <c r="G168" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="E169" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F169" s="76">
         <f t="shared" si="33"/>
         <v>267750000</v>
       </c>
-      <c r="G168" s="27">
+      <c r="G169" s="27">
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E169" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F169" s="78">
-        <f>SUM(F163:F168)</f>
+    <row r="170" spans="2:9" ht="15.75" thickBot="1">
+      <c r="E170" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F170" s="78">
+        <f>SUM(F164:F169)</f>
         <v>823083333.33333325</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
-      <c r="B170" t="s">
+    <row r="171" spans="2:9">
+      <c r="B171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D172" s="67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D171" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="E171" s="68" t="s">
+      <c r="E172" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F171" s="68" t="s">
+      <c r="F172" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="G171" s="68" t="s">
+      <c r="G172" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H171" s="68" t="s">
+      <c r="H172" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I171" s="68" t="s">
+      <c r="I172" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
-      <c r="B172" s="58" t="s">
+    <row r="173" spans="2:9">
+      <c r="B173" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="5">
+      <c r="C173" s="30"/>
+      <c r="D173" s="5">
         <v>150000000</v>
-      </c>
-      <c r="E172" s="69"/>
-      <c r="F172" s="69"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="69">
-        <f>D172</f>
-        <v>150000000</v>
-      </c>
-      <c r="I172" s="69"/>
-    </row>
-    <row r="173" spans="2:9">
-      <c r="B173" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="D173" s="5">
-        <v>250000000</v>
       </c>
       <c r="E173" s="69"/>
       <c r="F173" s="69"/>
       <c r="G173" s="69"/>
       <c r="H173" s="69">
         <f>D173</f>
-        <v>250000000</v>
+        <v>150000000</v>
       </c>
       <c r="I173" s="69"/>
     </row>
     <row r="174" spans="2:9">
       <c r="B174" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="5">
-        <v>130000000</v>
+        <v>250000000</v>
       </c>
       <c r="E174" s="69"/>
       <c r="F174" s="69"/>
-      <c r="G174" s="69">
+      <c r="G174" s="69"/>
+      <c r="H174" s="69">
         <f>D174</f>
-        <v>130000000</v>
-      </c>
-      <c r="H174" s="69"/>
+        <v>250000000</v>
+      </c>
       <c r="I174" s="69"/>
     </row>
     <row r="175" spans="2:9">
       <c r="B175" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="E175" s="69">
+        <v>130000000</v>
+      </c>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69">
         <f>D175</f>
-        <v>180000000</v>
-      </c>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
+        <v>130000000</v>
+      </c>
       <c r="H175" s="69"/>
       <c r="I175" s="69"/>
     </row>
     <row r="176" spans="2:9">
       <c r="B176" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C176" s="32"/>
       <c r="D176" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="E176" s="69"/>
-      <c r="F176" s="69">
+        <v>180000000</v>
+      </c>
+      <c r="E176" s="69">
         <f>D176</f>
-        <v>90000000</v>
-      </c>
+        <v>180000000</v>
+      </c>
+      <c r="F176" s="69"/>
       <c r="G176" s="69"/>
       <c r="H176" s="69"/>
       <c r="I176" s="69"/>
     </row>
-    <row r="177" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B177" s="60" t="s">
-        <v>49</v>
+    <row r="177" spans="2:9">
+      <c r="B177" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="C177" s="32"/>
-      <c r="D177" s="35">
+      <c r="D177" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="E177" s="69"/>
+      <c r="F177" s="69">
+        <f>D177</f>
+        <v>90000000</v>
+      </c>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+    </row>
+    <row r="178" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B178" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="D178" s="35">
         <v>350000000</v>
       </c>
-      <c r="E177" s="70"/>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="70"/>
-    </row>
-    <row r="178" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C178" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D178" s="72">
-        <f>SUM(D172:D177)</f>
+      <c r="E178" s="70"/>
+      <c r="F178" s="70"/>
+      <c r="G178" s="70"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="70"/>
+    </row>
+    <row r="179" spans="2:9" ht="15.75" thickBot="1">
+      <c r="C179" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179" s="72">
+        <f>SUM(D173:D178)</f>
         <v>1150000000</v>
       </c>
-      <c r="E178" s="72">
-        <f t="shared" ref="E178:I178" si="34">SUM(E172:E177)</f>
+      <c r="E179" s="72">
+        <f t="shared" ref="E179:I179" si="34">SUM(E173:E178)</f>
         <v>180000000</v>
       </c>
-      <c r="F178" s="72">
+      <c r="F179" s="72">
         <f t="shared" si="34"/>
         <v>90000000</v>
       </c>
-      <c r="G178" s="72">
+      <c r="G179" s="72">
         <f t="shared" si="34"/>
         <v>130000000</v>
       </c>
-      <c r="H178" s="72">
+      <c r="H179" s="72">
         <f t="shared" si="34"/>
         <v>400000000</v>
       </c>
-      <c r="I178" s="72">
+      <c r="I179" s="72">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B183" s="81" t="s">
+    <row r="184" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B184" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="82"/>
+      <c r="D184" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="82"/>
-      <c r="D183" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H183" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9">
-      <c r="B184" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C184" s="31"/>
-      <c r="D184" s="80">
-        <v>2</v>
-      </c>
-      <c r="E184" s="33">
-        <v>2</v>
-      </c>
-      <c r="F184" s="33">
-        <v>2</v>
-      </c>
-      <c r="G184" s="33">
-        <v>4</v>
-      </c>
-      <c r="H184" s="33">
-        <v>4</v>
-      </c>
-      <c r="I184" s="5">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9">
-      <c r="B185" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C185" s="56"/>
+      <c r="C185" s="31"/>
       <c r="D185" s="80">
         <v>2</v>
       </c>
@@ -5256,12 +5242,12 @@
         <v>4</v>
       </c>
       <c r="I185" s="5">
-        <v>350000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="186" spans="2:9">
       <c r="B186" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C186" s="56"/>
       <c r="D186" s="80">
@@ -5271,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="F186" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G186" s="33">
         <v>4</v>
@@ -5280,19 +5266,19 @@
         <v>4</v>
       </c>
       <c r="I186" s="5">
-        <v>270000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="187" spans="2:9">
       <c r="B187" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C187" s="56"/>
       <c r="D187" s="80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F187" s="33">
         <v>4</v>
@@ -5304,16 +5290,16 @@
         <v>4</v>
       </c>
       <c r="I187" s="5">
-        <v>260000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="188" spans="2:9">
       <c r="B188" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C188" s="56"/>
       <c r="D188" s="80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E188" s="33">
         <v>4</v>
@@ -5328,66 +5314,80 @@
         <v>4</v>
       </c>
       <c r="I188" s="5">
-        <v>240000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="189" spans="2:9">
       <c r="B189" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C189" s="56"/>
       <c r="D189" s="80">
+        <v>2</v>
+      </c>
+      <c r="E189" s="33">
+        <v>4</v>
+      </c>
+      <c r="F189" s="33">
+        <v>4</v>
+      </c>
+      <c r="G189" s="33">
+        <v>4</v>
+      </c>
+      <c r="H189" s="33">
+        <v>4</v>
+      </c>
+      <c r="I189" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C190" s="56"/>
+      <c r="D190" s="80">
         <v>6</v>
       </c>
-      <c r="E189" s="33">
+      <c r="E190" s="33">
         <v>6</v>
       </c>
-      <c r="F189" s="33">
+      <c r="F190" s="33">
         <v>6</v>
       </c>
-      <c r="G189" s="33">
+      <c r="G190" s="33">
         <v>6</v>
       </c>
-      <c r="H189" s="33">
+      <c r="H190" s="33">
         <v>6</v>
       </c>
-      <c r="I189" s="5">
+      <c r="I190" s="5">
         <v>190000</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B190" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C190" s="57"/>
-      <c r="D190" s="80">
-        <v>2</v>
-      </c>
-      <c r="E190" s="33">
-        <v>2</v>
-      </c>
-      <c r="F190" s="33">
-        <v>2</v>
-      </c>
-      <c r="G190" s="33">
-        <v>2</v>
-      </c>
-      <c r="H190" s="33">
-        <v>2</v>
-      </c>
-      <c r="I190" s="5">
+    <row r="191" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B191" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C191" s="57"/>
+      <c r="D191" s="80">
+        <v>2</v>
+      </c>
+      <c r="E191" s="33">
+        <v>2</v>
+      </c>
+      <c r="F191" s="33">
+        <v>2</v>
+      </c>
+      <c r="G191" s="33">
+        <v>2</v>
+      </c>
+      <c r="H191" s="33">
+        <v>2</v>
+      </c>
+      <c r="I191" s="5">
         <v>550000</v>
       </c>
-    </row>
-    <row r="191" spans="2:9">
-      <c r="B191" s="36"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="37"/>
     </row>
     <row r="192" spans="2:9">
       <c r="B192" s="36"/>
@@ -5400,9 +5400,7 @@
       <c r="I192" s="37"/>
     </row>
     <row r="193" spans="2:9">
-      <c r="B193" s="36" t="s">
-        <v>87</v>
-      </c>
+      <c r="B193" s="36"/>
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
       <c r="E193" s="32"/>
@@ -5413,7 +5411,7 @@
     </row>
     <row r="194" spans="2:9">
       <c r="B194" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
@@ -5423,445 +5421,457 @@
       <c r="H194" s="32"/>
       <c r="I194" s="37"/>
     </row>
-    <row r="196" spans="2:9">
-      <c r="B196" s="84"/>
-      <c r="D196">
+    <row r="195" spans="2:9">
+      <c r="B195" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="37"/>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="B197" s="84"/>
+      <c r="D197">
         <v>12.5</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B197" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C197" s="82"/>
-      <c r="D197" s="79" t="s">
+    <row r="198" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B198" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="82"/>
+      <c r="D198" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E197" s="79" t="s">
+      <c r="F198" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F197" s="79" t="s">
+      <c r="G198" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G197" s="79" t="s">
+      <c r="H198" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="H197" s="79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9">
-      <c r="B198" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C198" s="31"/>
-      <c r="D198" s="88">
-        <f>I184*($D$196/100)</f>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="B199" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C199" s="31"/>
+      <c r="D199" s="88">
+        <f>I185*($D$197/100)</f>
         <v>36250</v>
       </c>
-      <c r="E198" s="5">
-        <f>(E$115*D198)/D$115</f>
+      <c r="E199" s="5">
+        <f>(E$115*D199)/D$115</f>
         <v>36647.772342675831</v>
       </c>
-      <c r="F198" s="5">
-        <f t="shared" ref="F198" si="35">(F$115*E198)/E$115</f>
+      <c r="F199" s="5">
+        <f t="shared" ref="F199" si="35">(F$115*E199)/E$115</f>
         <v>37178.135466243613</v>
       </c>
-      <c r="G198" s="5">
-        <f t="shared" ref="G198:H198" si="36">(G$115*F198)/F$115</f>
+      <c r="G199" s="5">
+        <f t="shared" ref="G199:H199" si="36">(G$115*F199)/F$115</f>
         <v>37575.907808919445</v>
       </c>
-      <c r="H198" s="5">
+      <c r="H199" s="5">
         <f t="shared" si="36"/>
         <v>44338.037634408611</v>
       </c>
     </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C199" s="56"/>
-      <c r="D199" s="88">
-        <f t="shared" ref="D199:D202" si="37">I185*($D$196/100)</f>
+    <row r="200" spans="2:9">
+      <c r="B200" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200" s="56"/>
+      <c r="D200" s="88">
+        <f t="shared" ref="D200:D203" si="37">I186*($D$197/100)</f>
         <v>43750</v>
       </c>
-      <c r="E199" s="5">
-        <f t="shared" ref="E199:F203" si="38">(E$115*D199)/D$115</f>
+      <c r="E200" s="5">
+        <f t="shared" ref="E200:F204" si="38">(E$115*D200)/D$115</f>
         <v>44230.070068746696</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F200" s="5">
         <f t="shared" si="38"/>
         <v>44870.163493742293</v>
       </c>
-      <c r="G199" s="5">
-        <f t="shared" ref="G199:H199" si="39">(G$115*F199)/F$115</f>
+      <c r="G200" s="5">
+        <f t="shared" ref="G200:H200" si="39">(G$115*F200)/F$115</f>
         <v>45350.233562488989</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H200" s="5">
         <f t="shared" si="39"/>
         <v>53511.424731182808</v>
       </c>
     </row>
-    <row r="200" spans="2:9">
-      <c r="B200" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C200" s="56"/>
-      <c r="D200" s="88">
-        <f t="shared" si="37"/>
-        <v>33750</v>
-      </c>
-      <c r="E200" s="5">
-        <f t="shared" si="38"/>
-        <v>34120.339767318881</v>
-      </c>
-      <c r="F200" s="5">
-        <f t="shared" si="38"/>
-        <v>34614.126123744056</v>
-      </c>
-      <c r="G200" s="5">
-        <f t="shared" ref="G200:H200" si="40">(G$115*F200)/F$115</f>
-        <v>34984.465891062937</v>
-      </c>
-      <c r="H200" s="5">
-        <f t="shared" si="40"/>
-        <v>41280.241935483886</v>
-      </c>
-    </row>
     <row r="201" spans="2:9">
       <c r="B201" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C201" s="56"/>
       <c r="D201" s="88">
         <f t="shared" si="37"/>
-        <v>32500</v>
+        <v>33750</v>
       </c>
       <c r="E201" s="5">
         <f t="shared" si="38"/>
-        <v>32856.623479640402</v>
+        <v>34120.339767318881</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="38"/>
+        <v>34614.126123744056</v>
+      </c>
+      <c r="G201" s="5">
+        <f t="shared" ref="G201:H201" si="40">(G$115*F201)/F$115</f>
+        <v>34984.465891062937</v>
+      </c>
+      <c r="H201" s="5">
+        <f t="shared" si="40"/>
+        <v>41280.241935483886</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9">
+      <c r="B202" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" s="56"/>
+      <c r="D202" s="88">
+        <f t="shared" si="37"/>
+        <v>32500</v>
+      </c>
+      <c r="E202" s="5">
+        <f t="shared" si="38"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F202" s="5">
+        <f t="shared" si="38"/>
         <v>33332.121452494277</v>
       </c>
-      <c r="G201" s="5">
-        <f t="shared" ref="G201:H201" si="41">(G$115*F201)/F$115</f>
+      <c r="G202" s="5">
+        <f t="shared" ref="G202:H202" si="41">(G$115*F202)/F$115</f>
         <v>33688.744932134679</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H202" s="5">
         <f t="shared" si="41"/>
         <v>39751.34408602152</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B202" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C202" s="57"/>
-      <c r="D202" s="89">
+    <row r="203" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B203" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="57"/>
+      <c r="D203" s="89">
         <f t="shared" si="37"/>
         <v>30000</v>
       </c>
-      <c r="E202" s="35">
+      <c r="E203" s="35">
         <f t="shared" si="38"/>
         <v>30329.190904283445</v>
       </c>
-      <c r="F202" s="35">
+      <c r="F203" s="35">
         <f t="shared" si="38"/>
         <v>30768.112109994712</v>
       </c>
-      <c r="G202" s="35">
-        <f t="shared" ref="G202:H203" si="42">(G$115*F202)/F$115</f>
+      <c r="G203" s="35">
+        <f t="shared" ref="G203:H204" si="42">(G$115*F203)/F$115</f>
         <v>31097.303014278161</v>
       </c>
-      <c r="H202" s="35">
+      <c r="H203" s="35">
         <f t="shared" si="42"/>
         <v>36693.54838709678</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D203" s="90">
-        <f>SUM(D198:D202)</f>
+    <row r="204" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D204" s="90">
+        <f>SUM(D199:D203)</f>
         <v>176250</v>
       </c>
-      <c r="E203" s="91">
+      <c r="E204" s="91">
         <f t="shared" si="38"/>
         <v>178183.99656266527</v>
       </c>
-      <c r="F203" s="91">
+      <c r="F204" s="91">
         <f t="shared" si="38"/>
         <v>180762.65864621897</v>
       </c>
-      <c r="G203" s="91">
+      <c r="G204" s="91">
         <f t="shared" si="42"/>
         <v>182696.65520888424</v>
       </c>
-      <c r="H203" s="92">
+      <c r="H204" s="92">
         <f t="shared" si="42"/>
         <v>215574.59677419363</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B206" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D206" s="79" t="s">
+    <row r="207" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B207" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D207" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E206" s="79" t="s">
+      <c r="E207" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F206" s="79" t="s">
+      <c r="F207" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G206" s="79" t="s">
+      <c r="G207" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="79" t="s">
+      <c r="H207" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:9">
-      <c r="B207" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C207" s="30"/>
-      <c r="D207" s="5">
-        <f>D184*($I184+D198)*12</f>
+    <row r="208" spans="2:9">
+      <c r="B208" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C208" s="30"/>
+      <c r="D208" s="5">
+        <f>D185*($I185+D199)*12</f>
         <v>7830000</v>
       </c>
-      <c r="E207" s="5">
-        <f t="shared" ref="E207:H207" si="43">E184*($I184+E198)*12</f>
+      <c r="E208" s="5">
+        <f t="shared" ref="E208:H208" si="43">E185*($I185+E199)*12</f>
         <v>7839546.5362242199</v>
       </c>
-      <c r="F207" s="5">
+      <c r="F208" s="5">
         <f t="shared" si="43"/>
         <v>7852275.2511898465</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G208" s="5">
         <f t="shared" si="43"/>
         <v>15723643.574828133</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H208" s="5">
         <f t="shared" si="43"/>
         <v>16048225.806451615</v>
       </c>
     </row>
-    <row r="208" spans="2:9">
-      <c r="B208" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C208" s="32"/>
-      <c r="D208" s="5">
-        <f t="shared" ref="D208:H211" si="44">D185*($I185+D199)*12</f>
+    <row r="209" spans="2:8">
+      <c r="B209" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209" s="32"/>
+      <c r="D209" s="5">
+        <f t="shared" ref="D209:H212" si="44">D186*($I186+D200)*12</f>
         <v>9450000</v>
       </c>
-      <c r="E208" s="5">
+      <c r="E209" s="5">
         <f t="shared" si="44"/>
         <v>9461521.6816499196</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F209" s="5">
         <f t="shared" si="44"/>
         <v>9476883.9238498155</v>
       </c>
-      <c r="G208" s="5">
+      <c r="G209" s="5">
         <f t="shared" si="44"/>
         <v>18976811.21099947</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H209" s="5">
         <f t="shared" si="44"/>
         <v>19368548.387096774</v>
       </c>
     </row>
-    <row r="209" spans="2:8">
-      <c r="B209" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C209" s="32"/>
-      <c r="D209" s="5">
-        <f t="shared" si="44"/>
-        <v>7290000</v>
-      </c>
-      <c r="E209" s="5">
-        <f t="shared" si="44"/>
-        <v>7298888.1544156522</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="44"/>
-        <v>14621478.053939715</v>
-      </c>
-      <c r="G209" s="5">
-        <f t="shared" si="44"/>
-        <v>14639254.362771019</v>
-      </c>
-      <c r="H209" s="5">
-        <f t="shared" si="44"/>
-        <v>14941451.612903226</v>
-      </c>
-    </row>
     <row r="210" spans="2:8">
       <c r="B210" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C210" s="32"/>
       <c r="D210" s="5">
         <f t="shared" si="44"/>
-        <v>14040000</v>
+        <v>7290000</v>
       </c>
       <c r="E210" s="5">
         <f t="shared" si="44"/>
-        <v>14057117.92702274</v>
+        <v>7298888.1544156522</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="44"/>
-        <v>14079941.829719726</v>
+        <v>14621478.053939715</v>
       </c>
       <c r="G210" s="5">
         <f t="shared" si="44"/>
-        <v>14097059.756742466</v>
+        <v>14639254.362771019</v>
       </c>
       <c r="H210" s="5">
         <f t="shared" si="44"/>
-        <v>14388064.516129034</v>
+        <v>14941451.612903226</v>
       </c>
     </row>
     <row r="211" spans="2:8">
       <c r="B211" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C211" s="32"/>
       <c r="D211" s="5">
         <f t="shared" si="44"/>
-        <v>6480000</v>
+        <v>14040000</v>
       </c>
       <c r="E211" s="5">
         <f t="shared" si="44"/>
-        <v>12975801.163405605</v>
+        <v>14057117.92702274</v>
       </c>
       <c r="F211" s="5">
         <f t="shared" si="44"/>
-        <v>12996869.381279744</v>
+        <v>14079941.829719726</v>
       </c>
       <c r="G211" s="5">
         <f t="shared" si="44"/>
-        <v>13012670.544685353</v>
+        <v>14097059.756742466</v>
       </c>
       <c r="H211" s="5">
         <f t="shared" si="44"/>
-        <v>13281290.322580647</v>
+        <v>14388064.516129034</v>
       </c>
     </row>
     <row r="212" spans="2:8">
       <c r="B212" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C212" s="32"/>
       <c r="D212" s="5">
-        <f t="shared" ref="D212:H213" si="45">D189*$I189*12</f>
+        <f t="shared" si="44"/>
+        <v>6480000</v>
+      </c>
+      <c r="E212" s="5">
+        <f t="shared" si="44"/>
+        <v>12975801.163405605</v>
+      </c>
+      <c r="F212" s="5">
+        <f t="shared" si="44"/>
+        <v>12996869.381279744</v>
+      </c>
+      <c r="G212" s="5">
+        <f t="shared" si="44"/>
+        <v>13012670.544685353</v>
+      </c>
+      <c r="H212" s="5">
+        <f t="shared" si="44"/>
+        <v>13281290.322580647</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C213" s="32"/>
+      <c r="D213" s="5">
+        <f t="shared" ref="D213:H214" si="45">D190*$I190*12</f>
         <v>13680000</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E213" s="5">
         <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
-      <c r="F212" s="5">
+      <c r="F213" s="5">
         <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G213" s="5">
         <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H213" s="5">
         <f t="shared" si="45"/>
         <v>13680000</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B213" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C213" s="32"/>
-      <c r="D213" s="35">
+    <row r="214" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B214" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="D214" s="35">
         <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
-      <c r="E213" s="35">
+      <c r="E214" s="35">
         <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
-      <c r="F213" s="35">
+      <c r="F214" s="35">
         <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
-      <c r="G213" s="35">
+      <c r="G214" s="35">
         <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
-      <c r="H213" s="35">
+      <c r="H214" s="35">
         <f t="shared" si="45"/>
         <v>13200000</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B214" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C214" s="86"/>
-      <c r="D214" s="87">
-        <f>SUM(D207:D213)</f>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B215" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" s="86"/>
+      <c r="D215" s="87">
+        <f>SUM(D208:D214)</f>
         <v>71970000</v>
       </c>
-      <c r="E214" s="87">
-        <f>SUM(E207:E213)</f>
+      <c r="E215" s="87">
+        <f>SUM(E208:E214)</f>
         <v>78512875.462718129</v>
       </c>
-      <c r="F214" s="87">
-        <f t="shared" ref="F214:H214" si="46">SUM(F207:F213)</f>
+      <c r="F215" s="87">
+        <f t="shared" ref="F215:H215" si="46">SUM(F208:F214)</f>
         <v>85907448.439978838</v>
       </c>
-      <c r="G214" s="87">
+      <c r="G215" s="87">
         <f t="shared" si="46"/>
         <v>103329439.45002644</v>
       </c>
-      <c r="H214" s="78">
+      <c r="H215" s="78">
         <f t="shared" si="46"/>
         <v>104907580.6451613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="B104:F107"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:O85"/>
     <mergeCell ref="P94:R94"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="G94:I94"/>
     <mergeCell ref="J94:L94"/>
     <mergeCell ref="M94:O94"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B104:F107"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="P85:R85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="D198" authorId="0">
+    <comment ref="D205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
   <si>
     <t>Demanda</t>
   </si>
@@ -182,9 +182,6 @@
     <t>3er Año se compro una nueva maquina etiquetadora y aumenta 2 operadores uno para cada turno. Solo se usará para la linea de producción BFNRPL que requiere mayor demanda</t>
   </si>
   <si>
-    <t>Costos por producción 25 % de la producción total</t>
-  </si>
-  <si>
     <t>Costo Total</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>5to Año se compro una nueva maquina  llenadora y 2 operadores uno para cada turno. Solo se usará para la linea de producción BFNRPL que requiere la mayor demanda</t>
+  </si>
+  <si>
+    <t>Costos por almacenaje 12% de las ventas</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -763,11 +763,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -891,13 +942,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -906,9 +960,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R215"/>
+  <dimension ref="A2:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1666,10 +1725,10 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="107"/>
+      <c r="C28" s="108"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="34" t="s">
@@ -1808,10 +1867,10 @@
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="H35" s="42"/>
     </row>
     <row r="36" spans="2:8">
@@ -1955,10 +2014,10 @@
       <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="107"/>
+      <c r="C42" s="108"/>
       <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8">
@@ -2099,10 +2158,10 @@
       <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="108"/>
       <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8">
@@ -2243,10 +2302,10 @@
       <c r="H57" s="42"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="107"/>
+      <c r="C58" s="108"/>
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="2:8">
@@ -2382,20 +2441,20 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105" t="s">
+      <c r="C67" s="106"/>
+      <c r="D67" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105" t="s">
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
       <c r="J67" s="100" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2804,7 @@
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
       <c r="B74" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
@@ -2781,20 +2840,20 @@
     </row>
     <row r="75" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B76" s="103" t="s">
+      <c r="B76" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="104"/>
-      <c r="D76" s="105" t="s">
+      <c r="C76" s="106"/>
+      <c r="D76" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105" t="s">
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
       <c r="J76" s="100" t="s">
         <v>11</v>
       </c>
@@ -3144,7 +3203,7 @@
     </row>
     <row r="83" spans="2:18" ht="15.75" thickBot="1">
       <c r="B83" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -3180,20 +3239,20 @@
     </row>
     <row r="84" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="85" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B85" s="103" t="s">
+      <c r="B85" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="105" t="s">
+      <c r="C85" s="106"/>
+      <c r="D85" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105" t="s">
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
       <c r="J85" s="100" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3607,7 @@
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
       <c r="B92" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -3584,20 +3643,20 @@
     </row>
     <row r="93" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="94" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B94" s="103" t="s">
+      <c r="B94" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="105" t="s">
+      <c r="C94" s="106"/>
+      <c r="D94" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105" t="s">
+      <c r="E94" s="104"/>
+      <c r="F94" s="104"/>
+      <c r="G94" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="105"/>
-      <c r="I94" s="105"/>
+      <c r="H94" s="104"/>
+      <c r="I94" s="104"/>
       <c r="J94" s="100" t="s">
         <v>11</v>
       </c>
@@ -3948,7 +4007,7 @@
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
       <c r="B101" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
@@ -3983,34 +4042,34 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="108" t="s">
+      <c r="B104" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="108"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
+      <c r="B105" s="103"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="B106" s="108"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
+      <c r="B107" s="103"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
     </row>
     <row r="108" spans="1:18">
       <c r="B108" s="47"/>
@@ -4192,1656 +4251,1623 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J121" s="99"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="28"/>
     </row>
-    <row r="124" spans="2:10" ht="15.75" thickBot="1">
+    <row r="124" spans="2:10">
       <c r="B124" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="28"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="30"/>
-      <c r="D125" s="40" t="s">
+      <c r="C126" s="93"/>
+      <c r="D126" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E126" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="40" t="s">
+      <c r="F126" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G125" s="40" t="s">
+      <c r="G126" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="40" t="s">
+      <c r="H126" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="39" t="s">
+    <row r="127" spans="2:10">
+      <c r="B127" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="5">
-        <f>(D111*$F4)*($E$124/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="E126" s="5">
-        <f>(E111*$F4)*($E$124/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="F126" s="5">
-        <f>(F111*$F4)*($E$124/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="G126" s="5">
-        <f>(G111*$F4)*($E$124/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-      <c r="H126" s="5">
-        <f>(H111*$F4)*($E$124/100)</f>
-        <v>1109177935.9375</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="39" t="s">
+      <c r="C127" s="93"/>
+      <c r="D127" s="5">
+        <f>(D111-C12)*F4</f>
+        <v>1886711743.75</v>
+      </c>
+      <c r="E127" s="5">
+        <f>(E111-D12)*F4</f>
+        <v>1797461743.7500005</v>
+      </c>
+      <c r="F127" s="5">
+        <f>(F111-E12)*F4</f>
+        <v>1705087993.7500007</v>
+      </c>
+      <c r="G127" s="116">
+        <f>(G111-F20)*F4</f>
+        <v>-2398709282318.749</v>
+      </c>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="5">
-        <f>(D112*F5)*(E124/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-      <c r="E127" s="5">
-        <f>(E112*$F5)*($E$124/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-      <c r="F127" s="5">
-        <f>(F112*$F5)*($E$124/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-      <c r="G127" s="5">
-        <f>(G112*$F5)*($E$124/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-      <c r="H127" s="5">
-        <f>(H112*$F5)*($E$124/100)</f>
-        <v>1135276240.3125</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="39" t="s">
+      <c r="C128" s="111"/>
+      <c r="D128" s="5">
+        <f>(D112-C13)*F5</f>
+        <v>1481104961.2499998</v>
+      </c>
+      <c r="E128" s="5">
+        <f>(E112-D13)*F5</f>
+        <v>1404604961.2500002</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" ref="F128:F130" si="25">(F112-E13)*F5</f>
+        <v>1326192461.2500007</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="5">
-        <f>(D113*F6)*(E124/100)</f>
-        <v>1420255553.0625</v>
-      </c>
-      <c r="E128" s="5">
-        <f>(E113*$F6)*($E$124/100)</f>
-        <v>1482005794.5</v>
-      </c>
-      <c r="F128" s="5">
-        <f>(F113*$F6)*($E$124/100)</f>
-        <v>1564339449.75</v>
-      </c>
-      <c r="G128" s="5">
-        <f>(G113*$F6)*($E$124/100)</f>
-        <v>1626089691.1875</v>
-      </c>
-      <c r="H128" s="5">
-        <f>(H113*$F6)*($E$124/100)</f>
-        <v>2675843795.625</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B129" s="39" t="s">
+      <c r="C129" s="111"/>
+      <c r="D129" s="5">
+        <f>(D113-C14)*F6</f>
+        <v>11022212.249999726</v>
+      </c>
+      <c r="E129" s="5">
+        <f>(E113-D14)*F6</f>
+        <v>2873178.000000352</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="25"/>
+        <v>65576048.999999881</v>
+      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="37"/>
-      <c r="D129" s="35">
-        <f>(D114*F7)*(E124/100)</f>
-        <v>1434639143.4375</v>
-      </c>
-      <c r="E129" s="5">
-        <f>(E114*$F7)*($E$124/100)</f>
-        <v>1434639143.4375</v>
-      </c>
-      <c r="F129" s="5">
-        <f>(F114*$F7)*($E$124/100)</f>
-        <v>1434639143.4375</v>
-      </c>
-      <c r="G129" s="5">
-        <f>(G114*$F7)*($E$124/100)</f>
-        <v>1434639143.4375</v>
-      </c>
-      <c r="H129" s="5">
-        <f>(H114*$F7)*($E$124/100)</f>
-        <v>1434639143.4375</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B130" s="52" t="s">
+      <c r="C130" s="113"/>
+      <c r="D130" s="5">
+        <f>(D114-C15)*F7</f>
+        <v>2210556573.7499995</v>
+      </c>
+      <c r="E130" s="5">
+        <f>(E114-D15)*F7</f>
+        <v>1998876573.7499995</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" si="25"/>
+        <v>1774495773.7499995</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B140" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="53"/>
-      <c r="D130" s="54">
-        <f>SUM(D126:D129)</f>
-        <v>5099348872.75</v>
-      </c>
-      <c r="E130" s="54">
-        <f>SUM(E126:E129)</f>
-        <v>5161099114.1875</v>
-      </c>
-      <c r="F130" s="54">
-        <f>SUM(F126:F129)</f>
-        <v>5243432769.4375</v>
-      </c>
-      <c r="G130" s="54">
-        <f>SUM(G126:G129)</f>
-        <v>5305183010.875</v>
-      </c>
-      <c r="H130" s="55">
-        <f>SUM(H126:H129)</f>
-        <v>6354937115.3125</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B133" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E133">
+      <c r="E140">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="29" t="s">
+    <row r="141" spans="2:8">
+      <c r="B141" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="30"/>
-      <c r="D134" s="40" t="s">
+      <c r="C141" s="30"/>
+      <c r="D141" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="40" t="s">
+      <c r="E141" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="40" t="s">
+      <c r="F141" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G134" s="40" t="s">
+      <c r="G141" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="40" t="s">
+      <c r="H141" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="39" t="s">
+    <row r="142" spans="2:8">
+      <c r="B142" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="37"/>
-      <c r="D135" s="5">
-        <f>(C20*($E$133/100))</f>
+      <c r="C142" s="37"/>
+      <c r="D142" s="5">
+        <f>(C20*($E$140/100))</f>
         <v>306000000</v>
       </c>
-      <c r="E135" s="5">
-        <f>(D20*($E$133/100))</f>
+      <c r="E142" s="5">
+        <f>(D20*($E$140/100))</f>
         <v>316709999.99999994</v>
       </c>
-      <c r="F135" s="5">
-        <f>(E20*($E$133/100))</f>
+      <c r="F142" s="5">
+        <f>(E20*($E$140/100))</f>
         <v>327794849.99999988</v>
       </c>
-      <c r="G135" s="5">
-        <f>(F20*($E$133/100))</f>
+      <c r="G142" s="5">
+        <f>(F20*($E$140/100))</f>
         <v>339267669.74999988</v>
       </c>
-      <c r="H135" s="5">
-        <f>(G20*($E$133/100))</f>
+      <c r="H142" s="5">
+        <f>(G20*($E$140/100))</f>
         <v>351142038.19124979</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="39" t="s">
+    <row r="143" spans="2:8">
+      <c r="B143" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="37"/>
-      <c r="D136" s="5">
-        <f t="shared" ref="D136:H138" si="25">(C21*($E$133/100))</f>
+      <c r="C143" s="37"/>
+      <c r="D143" s="5">
+        <f t="shared" ref="D143:H145" si="26">(C21*($E$140/100))</f>
         <v>367200000</v>
       </c>
-      <c r="E136" s="5">
-        <f t="shared" si="25"/>
+      <c r="E143" s="5">
+        <f t="shared" si="26"/>
         <v>376379999.99999994</v>
       </c>
-      <c r="F136" s="5">
-        <f t="shared" si="25"/>
+      <c r="F143" s="5">
+        <f t="shared" si="26"/>
         <v>385789499.99999988</v>
       </c>
-      <c r="G136" s="5">
-        <f t="shared" si="25"/>
+      <c r="G143" s="5">
+        <f t="shared" si="26"/>
         <v>395434237.49999988</v>
       </c>
-      <c r="H136" s="5">
-        <f t="shared" si="25"/>
+      <c r="H143" s="5">
+        <f t="shared" si="26"/>
         <v>405320093.43749982</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="37"/>
-      <c r="D137" s="5">
-        <f t="shared" si="25"/>
-        <v>680400000</v>
-      </c>
-      <c r="E137" s="5">
-        <f t="shared" si="25"/>
-        <v>711018000</v>
-      </c>
-      <c r="F137" s="5">
-        <f t="shared" si="25"/>
-        <v>743013810</v>
-      </c>
-      <c r="G137" s="5">
-        <f t="shared" si="25"/>
-        <v>776449431.44999981</v>
-      </c>
-      <c r="H137" s="5">
-        <f t="shared" si="25"/>
-        <v>811389655.86524987</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B138" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="37"/>
-      <c r="D138" s="5">
-        <f t="shared" si="25"/>
-        <v>423360000</v>
-      </c>
-      <c r="E138" s="5">
-        <f t="shared" si="25"/>
-        <v>448761600</v>
-      </c>
-      <c r="F138" s="5">
-        <f t="shared" si="25"/>
-        <v>475687296</v>
-      </c>
-      <c r="G138" s="5">
-        <f t="shared" si="25"/>
-        <v>504228533.76000005</v>
-      </c>
-      <c r="H138" s="5">
-        <f t="shared" si="25"/>
-        <v>534482245.78560013</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B139" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" s="53"/>
-      <c r="D139" s="54">
-        <f>SUM(D135:D138)</f>
-        <v>1776960000</v>
-      </c>
-      <c r="E139" s="54">
-        <f>SUM(E135:E138)</f>
-        <v>1852869600</v>
-      </c>
-      <c r="F139" s="54">
-        <f>SUM(F135:F138)</f>
-        <v>1932285455.9999998</v>
-      </c>
-      <c r="G139" s="54">
-        <f>SUM(G135:G138)</f>
-        <v>2015379872.4599996</v>
-      </c>
-      <c r="H139" s="55">
-        <f>SUM(H135:H138)</f>
-        <v>2102334033.2795997</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B142" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="30"/>
-      <c r="D143" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="40" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="5">
-        <f>(C20*($E$142/100))</f>
-        <v>114750000</v>
+        <f t="shared" si="26"/>
+        <v>680400000</v>
       </c>
       <c r="E144" s="5">
-        <f>(D20*($E$142/100))</f>
-        <v>118766249.99999997</v>
+        <f t="shared" si="26"/>
+        <v>711018000</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" ref="F144:H144" si="26">(E20*($E$142/100))</f>
-        <v>122923068.74999996</v>
+        <f t="shared" si="26"/>
+        <v>743013810</v>
       </c>
       <c r="G144" s="5">
         <f t="shared" si="26"/>
-        <v>127225376.15624996</v>
+        <v>776449431.44999981</v>
       </c>
       <c r="H144" s="5">
         <f t="shared" si="26"/>
-        <v>131678264.32171868</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
+        <v>811389655.86524987</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15.75" thickBot="1">
       <c r="B145" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="5">
-        <f t="shared" ref="D145:H147" si="27">(C21*($E$142/100))</f>
+        <f t="shared" si="26"/>
+        <v>423360000</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="26"/>
+        <v>448761600</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="26"/>
+        <v>475687296</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" si="26"/>
+        <v>504228533.76000005</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="26"/>
+        <v>534482245.78560013</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B146" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54">
+        <f>SUM(D142:D145)</f>
+        <v>1776960000</v>
+      </c>
+      <c r="E146" s="54">
+        <f>SUM(E142:E145)</f>
+        <v>1852869600</v>
+      </c>
+      <c r="F146" s="54">
+        <f>SUM(F142:F145)</f>
+        <v>1932285455.9999998</v>
+      </c>
+      <c r="G146" s="54">
+        <f>SUM(G142:G145)</f>
+        <v>2015379872.4599996</v>
+      </c>
+      <c r="H146" s="55">
+        <f>SUM(H142:H145)</f>
+        <v>2102334033.2795997</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B149" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="30"/>
+      <c r="D150" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151" s="5">
+        <f>(C20*($E$149/100))</f>
+        <v>114750000</v>
+      </c>
+      <c r="E151" s="5">
+        <f>(D20*($E$149/100))</f>
+        <v>118766249.99999997</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" ref="F151:H151" si="27">(E20*($E$149/100))</f>
+        <v>122923068.74999996</v>
+      </c>
+      <c r="G151" s="5">
+        <f t="shared" si="27"/>
+        <v>127225376.15624996</v>
+      </c>
+      <c r="H151" s="5">
+        <f t="shared" si="27"/>
+        <v>131678264.32171868</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152" s="5">
+        <f t="shared" ref="D152:H154" si="28">(C21*($E$149/100))</f>
         <v>137700000</v>
       </c>
-      <c r="E145" s="5">
-        <f t="shared" si="27"/>
+      <c r="E152" s="5">
+        <f t="shared" si="28"/>
         <v>141142499.99999997</v>
       </c>
-      <c r="F145" s="5">
-        <f t="shared" si="27"/>
+      <c r="F152" s="5">
+        <f t="shared" si="28"/>
         <v>144671062.49999994</v>
       </c>
-      <c r="G145" s="5">
-        <f t="shared" si="27"/>
+      <c r="G152" s="5">
+        <f t="shared" si="28"/>
         <v>148287839.06249994</v>
       </c>
-      <c r="H145" s="5">
-        <f t="shared" si="27"/>
+      <c r="H152" s="5">
+        <f t="shared" si="28"/>
         <v>151995035.03906244</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="39" t="s">
+    <row r="153" spans="2:9">
+      <c r="B153" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="37"/>
-      <c r="D146" s="5">
-        <f t="shared" si="27"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="5">
+        <f t="shared" si="28"/>
         <v>255150000</v>
       </c>
-      <c r="E146" s="5">
-        <f t="shared" si="27"/>
+      <c r="E153" s="5">
+        <f t="shared" si="28"/>
         <v>266631750</v>
       </c>
-      <c r="F146" s="5">
-        <f t="shared" si="27"/>
+      <c r="F153" s="5">
+        <f t="shared" si="28"/>
         <v>278630178.75</v>
       </c>
-      <c r="G146" s="5">
-        <f t="shared" si="27"/>
+      <c r="G153" s="5">
+        <f t="shared" si="28"/>
         <v>291168536.79374993</v>
       </c>
-      <c r="H146" s="5">
-        <f t="shared" si="27"/>
+      <c r="H153" s="5">
+        <f t="shared" si="28"/>
         <v>304271120.94946867</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B147" s="39" t="s">
+    <row r="154" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B154" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="37"/>
-      <c r="D147" s="5">
-        <f t="shared" si="27"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="5">
+        <f t="shared" si="28"/>
         <v>158760000</v>
       </c>
-      <c r="E147" s="5">
-        <f t="shared" si="27"/>
+      <c r="E154" s="5">
+        <f t="shared" si="28"/>
         <v>168285600</v>
       </c>
-      <c r="F147" s="5">
-        <f t="shared" si="27"/>
+      <c r="F154" s="5">
+        <f t="shared" si="28"/>
         <v>178382736</v>
       </c>
-      <c r="G147" s="5">
-        <f t="shared" si="27"/>
+      <c r="G154" s="5">
+        <f t="shared" si="28"/>
         <v>189085700.16000003</v>
       </c>
-      <c r="H147" s="5">
-        <f t="shared" si="27"/>
+      <c r="H154" s="5">
+        <f t="shared" si="28"/>
         <v>200430842.16960004</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B148" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C148" s="53"/>
-      <c r="D148" s="54">
-        <f>SUM(D144:D147)</f>
+    <row r="155" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B155" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54">
+        <f>SUM(D151:D154)</f>
         <v>666360000</v>
       </c>
-      <c r="E148" s="54">
-        <f t="shared" ref="E148:H148" si="28">SUM(E144:E147)</f>
+      <c r="E155" s="54">
+        <f t="shared" ref="E155:H155" si="29">SUM(E151:E154)</f>
         <v>694826100</v>
       </c>
-      <c r="F148" s="54">
-        <f t="shared" si="28"/>
+      <c r="F155" s="54">
+        <f t="shared" si="29"/>
         <v>724607045.99999988</v>
       </c>
-      <c r="G148" s="54">
-        <f t="shared" si="28"/>
+      <c r="G155" s="54">
+        <f t="shared" si="29"/>
         <v>755767452.1724999</v>
       </c>
-      <c r="H148" s="55">
-        <f t="shared" si="28"/>
+      <c r="H155" s="55">
+        <f t="shared" si="29"/>
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="42" t="s">
+    <row r="158" spans="2:9">
+      <c r="B158" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="42"/>
+      <c r="H158" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D159" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H159" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I159" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="30"/>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F160" s="5">
+        <f>(E160*D160)</f>
+        <v>150000000</v>
+      </c>
+      <c r="G160" s="5">
+        <v>15</v>
+      </c>
+      <c r="H160" s="5">
+        <f>(F160*($H$158/100))</f>
+        <v>22500000</v>
+      </c>
+      <c r="I160" s="5">
+        <f>(F160-H160)/G160</f>
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="D161" s="5">
+        <v>1</v>
+      </c>
+      <c r="E161" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" ref="F161:F165" si="30">(E161*D161)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G161" s="5">
+        <v>15</v>
+      </c>
+      <c r="H161" s="5">
+        <f t="shared" ref="H161:H165" si="31">(F161*($H$158/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" ref="I161:I165" si="32">(F161-H161)/G161</f>
+        <v>14166666.666666666</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="D162" s="5">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="30"/>
+        <v>130000000</v>
+      </c>
+      <c r="G162" s="5">
+        <v>15</v>
+      </c>
+      <c r="H162" s="5">
+        <f t="shared" si="31"/>
+        <v>19500000</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="32"/>
+        <v>7366666.666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="D163" s="5">
+        <v>2</v>
+      </c>
+      <c r="E163" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="30"/>
+        <v>360000000</v>
+      </c>
+      <c r="G163" s="5">
+        <v>15</v>
+      </c>
+      <c r="H163" s="5">
+        <f t="shared" si="31"/>
+        <v>54000000</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="32"/>
+        <v>20400000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="32"/>
+      <c r="D164" s="5">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="30"/>
+        <v>90000000</v>
+      </c>
+      <c r="G164" s="5">
+        <v>15</v>
+      </c>
+      <c r="H164" s="5">
+        <f t="shared" si="31"/>
+        <v>13500000</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="32"/>
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B165" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C151" s="42"/>
-      <c r="H151" s="62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D152" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F152" s="40" t="s">
+      <c r="C165" s="32"/>
+      <c r="D165" s="35">
+        <v>1</v>
+      </c>
+      <c r="E165" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F165" s="35">
+        <f t="shared" si="30"/>
+        <v>350000000</v>
+      </c>
+      <c r="G165" s="35">
         <v>50</v>
       </c>
-      <c r="G152" s="40" t="s">
+      <c r="H165" s="35">
+        <f t="shared" si="31"/>
+        <v>52500000</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="32"/>
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B166" s="52"/>
+      <c r="C166" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="54">
+        <f>SUM(F160:F165)</f>
+        <v>1330000000</v>
+      </c>
+      <c r="G166" s="53"/>
+      <c r="H166" s="65">
+        <f>SUM(H160:H165)</f>
+        <v>199500000</v>
+      </c>
+      <c r="I166" s="64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9">
+      <c r="H167" s="61">
+        <v>0</v>
+      </c>
+      <c r="I167" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="15.75" thickBot="1">
+      <c r="H168" s="66">
+        <f>(H166+H167)</f>
+        <v>199500000</v>
+      </c>
+      <c r="I168" s="57"/>
+    </row>
+    <row r="169" spans="2:9" ht="15.75" thickBot="1">
+      <c r="E169" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B170" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H152" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I152" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="58" t="s">
+      <c r="F170" t="s">
+        <v>60</v>
+      </c>
+      <c r="G170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9">
+      <c r="B171" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="5">
+        <f>SUM($I$160:$I$165)</f>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E171" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F171" s="73">
+        <f>G171*I160</f>
+        <v>85000000</v>
+      </c>
+      <c r="G171" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="5">
+        <f t="shared" ref="C172:C175" si="33">SUM($I$160:$I$165)</f>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E172" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F172" s="75">
+        <f t="shared" ref="F172:F176" si="34">G172*I161</f>
+        <v>141666666.66666666</v>
+      </c>
+      <c r="G172" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="5">
+        <f t="shared" si="33"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E173" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F173" s="75">
+        <f t="shared" si="34"/>
+        <v>73666666.666666672</v>
+      </c>
+      <c r="G173" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="5">
+        <f t="shared" si="33"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E174" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F174" s="75">
+        <f t="shared" si="34"/>
+        <v>204000000</v>
+      </c>
+      <c r="G174" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="5">
+        <f t="shared" si="33"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E175" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F175" s="75">
+        <f t="shared" si="34"/>
+        <v>51000000</v>
+      </c>
+      <c r="G175" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="E176" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" s="76">
+        <f t="shared" si="34"/>
+        <v>267750000</v>
+      </c>
+      <c r="G176" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="15.75" thickBot="1">
+      <c r="E177" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F177" s="78">
+        <f>SUM(F171:F176)</f>
+        <v>823083333.33333325</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D179" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9">
+      <c r="B180" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="5">
-        <v>1</v>
-      </c>
-      <c r="E153" s="5">
+      <c r="C180" s="30"/>
+      <c r="D180" s="5">
         <v>150000000</v>
       </c>
-      <c r="F153" s="5">
-        <f>(E153*D153)</f>
+      <c r="E180" s="69"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69">
+        <f>D180</f>
         <v>150000000</v>
       </c>
-      <c r="G153" s="5">
-        <v>15</v>
-      </c>
-      <c r="H153" s="5">
-        <f>(F153*($H$151/100))</f>
-        <v>22500000</v>
-      </c>
-      <c r="I153" s="5">
-        <f>(F153-H153)/G153</f>
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="59" t="s">
+      <c r="I180" s="69"/>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C154" s="32"/>
-      <c r="D154" s="5">
-        <v>1</v>
-      </c>
-      <c r="E154" s="5">
+      <c r="C181" s="32"/>
+      <c r="D181" s="5">
         <v>250000000</v>
       </c>
-      <c r="F154" s="5">
-        <f t="shared" ref="F154:F158" si="29">(E154*D154)</f>
+      <c r="E181" s="69"/>
+      <c r="F181" s="69"/>
+      <c r="G181" s="69"/>
+      <c r="H181" s="69">
+        <f>D181</f>
         <v>250000000</v>
       </c>
-      <c r="G154" s="5">
-        <v>15</v>
-      </c>
-      <c r="H154" s="5">
-        <f t="shared" ref="H154:H158" si="30">(F154*($H$151/100))</f>
-        <v>37500000</v>
-      </c>
-      <c r="I154" s="5">
-        <f t="shared" ref="I154:I158" si="31">(F154-H154)/G154</f>
-        <v>14166666.666666666</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="59" t="s">
+      <c r="I181" s="69"/>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C155" s="32"/>
-      <c r="D155" s="5">
-        <v>1</v>
-      </c>
-      <c r="E155" s="5">
+      <c r="C182" s="32"/>
+      <c r="D182" s="5">
         <v>130000000</v>
       </c>
-      <c r="F155" s="5">
-        <f t="shared" si="29"/>
+      <c r="E182" s="69"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69">
+        <f>D182</f>
         <v>130000000</v>
       </c>
-      <c r="G155" s="5">
-        <v>15</v>
-      </c>
-      <c r="H155" s="5">
-        <f t="shared" si="30"/>
-        <v>19500000</v>
-      </c>
-      <c r="I155" s="5">
-        <f t="shared" si="31"/>
-        <v>7366666.666666667</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="59" t="s">
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C156" s="32"/>
-      <c r="D156" s="5">
-        <v>2</v>
-      </c>
-      <c r="E156" s="5">
+      <c r="C183" s="32"/>
+      <c r="D183" s="5">
         <v>180000000</v>
       </c>
-      <c r="F156" s="5">
-        <f t="shared" si="29"/>
-        <v>360000000</v>
-      </c>
-      <c r="G156" s="5">
-        <v>15</v>
-      </c>
-      <c r="H156" s="5">
-        <f t="shared" si="30"/>
-        <v>54000000</v>
-      </c>
-      <c r="I156" s="5">
-        <f t="shared" si="31"/>
-        <v>20400000</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="59" t="s">
+      <c r="E183" s="69">
+        <f>D183</f>
+        <v>180000000</v>
+      </c>
+      <c r="F183" s="69"/>
+      <c r="G183" s="69"/>
+      <c r="H183" s="69"/>
+      <c r="I183" s="69"/>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="5">
-        <v>1</v>
-      </c>
-      <c r="E157" s="5">
+      <c r="C184" s="32"/>
+      <c r="D184" s="5">
         <v>90000000</v>
       </c>
-      <c r="F157" s="5">
-        <f t="shared" si="29"/>
+      <c r="E184" s="69"/>
+      <c r="F184" s="69">
+        <f>D184</f>
         <v>90000000</v>
       </c>
-      <c r="G157" s="5">
-        <v>15</v>
-      </c>
-      <c r="H157" s="5">
-        <f t="shared" si="30"/>
-        <v>13500000</v>
-      </c>
-      <c r="I157" s="5">
-        <f t="shared" si="31"/>
-        <v>5100000</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B158" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C158" s="32"/>
-      <c r="D158" s="35">
-        <v>1</v>
-      </c>
-      <c r="E158" s="35">
+      <c r="G184" s="69"/>
+      <c r="H184" s="69"/>
+      <c r="I184" s="69"/>
+    </row>
+    <row r="185" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B185" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" s="32"/>
+      <c r="D185" s="35">
         <v>350000000</v>
       </c>
-      <c r="F158" s="35">
-        <f t="shared" si="29"/>
-        <v>350000000</v>
-      </c>
-      <c r="G158" s="35">
-        <v>50</v>
-      </c>
-      <c r="H158" s="35">
-        <f t="shared" si="30"/>
-        <v>52500000</v>
-      </c>
-      <c r="I158" s="5">
-        <f t="shared" si="31"/>
-        <v>5950000</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B159" s="52"/>
-      <c r="C159" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="54">
-        <f>SUM(F153:F158)</f>
-        <v>1330000000</v>
-      </c>
-      <c r="G159" s="53"/>
-      <c r="H159" s="65">
-        <f>SUM(H153:H158)</f>
-        <v>199500000</v>
-      </c>
-      <c r="I159" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="H160" s="61">
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
+    </row>
+    <row r="186" spans="2:9" ht="15.75" thickBot="1">
+      <c r="C186" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D186" s="72">
+        <f>SUM(D180:D185)</f>
+        <v>1150000000</v>
+      </c>
+      <c r="E186" s="72">
+        <f t="shared" ref="E186:I186" si="35">SUM(E180:E185)</f>
+        <v>180000000</v>
+      </c>
+      <c r="F186" s="72">
+        <f t="shared" si="35"/>
+        <v>90000000</v>
+      </c>
+      <c r="G186" s="72">
+        <f t="shared" si="35"/>
+        <v>130000000</v>
+      </c>
+      <c r="H186" s="72">
+        <f t="shared" si="35"/>
+        <v>400000000</v>
+      </c>
+      <c r="I186" s="72">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I160" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" ht="15.75" thickBot="1">
-      <c r="H161" s="66">
-        <f>(H159+H160)</f>
-        <v>199500000</v>
-      </c>
-      <c r="I161" s="57"/>
-    </row>
-    <row r="162" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E162" t="s">
+    </row>
+    <row r="191" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B191" s="81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B163" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C163" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F163" t="s">
-        <v>61</v>
-      </c>
-      <c r="G163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="33" t="s">
+      <c r="C191" s="82"/>
+      <c r="D191" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="5">
-        <f>SUM($I$153:$I$158)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E164" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F164" s="73">
-        <f>G164*I153</f>
-        <v>85000000</v>
-      </c>
-      <c r="G164" s="74">
+      <c r="E191" s="79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="5">
-        <f t="shared" ref="C165:C168" si="32">SUM($I$153:$I$158)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E165" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F165" s="75">
-        <f t="shared" ref="F165:F169" si="33">G165*I154</f>
-        <v>141666666.66666666</v>
-      </c>
-      <c r="G165" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9">
-      <c r="B166" s="33" t="s">
+      <c r="F191" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="5">
-        <f t="shared" si="32"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E166" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F166" s="75">
-        <f t="shared" si="33"/>
-        <v>73666666.666666672</v>
-      </c>
-      <c r="G166" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="B167" s="33" t="s">
+      <c r="G191" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C167" s="5">
-        <f t="shared" si="32"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E167" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F167" s="75">
-        <f t="shared" si="33"/>
-        <v>204000000</v>
-      </c>
-      <c r="G167" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="33" t="s">
+      <c r="H191" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="5">
-        <f t="shared" si="32"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E168" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F168" s="75">
-        <f t="shared" si="33"/>
-        <v>51000000</v>
-      </c>
-      <c r="G168" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="E169" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F169" s="76">
-        <f t="shared" si="33"/>
-        <v>267750000</v>
-      </c>
-      <c r="G169" s="27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E170" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F170" s="78">
-        <f>SUM(F164:F169)</f>
-        <v>823083333.33333325</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9">
-      <c r="B171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D172" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I172" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9">
-      <c r="B173" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="30"/>
-      <c r="D173" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="69">
-        <f>D173</f>
-        <v>150000000</v>
-      </c>
-      <c r="I173" s="69"/>
-    </row>
-    <row r="174" spans="2:9">
-      <c r="B174" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="E174" s="69"/>
-      <c r="F174" s="69"/>
-      <c r="G174" s="69"/>
-      <c r="H174" s="69">
-        <f>D174</f>
-        <v>250000000</v>
-      </c>
-      <c r="I174" s="69"/>
-    </row>
-    <row r="175" spans="2:9">
-      <c r="B175" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69">
-        <f>D175</f>
-        <v>130000000</v>
-      </c>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
-    </row>
-    <row r="176" spans="2:9">
-      <c r="B176" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C176" s="32"/>
-      <c r="D176" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="E176" s="69">
-        <f>D176</f>
-        <v>180000000</v>
-      </c>
-      <c r="F176" s="69"/>
-      <c r="G176" s="69"/>
-      <c r="H176" s="69"/>
-      <c r="I176" s="69"/>
-    </row>
-    <row r="177" spans="2:9">
-      <c r="B177" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C177" s="32"/>
-      <c r="D177" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="E177" s="69"/>
-      <c r="F177" s="69">
-        <f>D177</f>
-        <v>90000000</v>
-      </c>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
-    </row>
-    <row r="178" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B178" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C178" s="32"/>
-      <c r="D178" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="E178" s="70"/>
-      <c r="F178" s="70"/>
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="70"/>
-    </row>
-    <row r="179" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C179" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D179" s="72">
-        <f>SUM(D173:D178)</f>
-        <v>1150000000</v>
-      </c>
-      <c r="E179" s="72">
-        <f t="shared" ref="E179:I179" si="34">SUM(E173:E178)</f>
-        <v>180000000</v>
-      </c>
-      <c r="F179" s="72">
-        <f t="shared" si="34"/>
-        <v>90000000</v>
-      </c>
-      <c r="G179" s="72">
-        <f t="shared" si="34"/>
-        <v>130000000</v>
-      </c>
-      <c r="H179" s="72">
-        <f t="shared" si="34"/>
-        <v>400000000</v>
-      </c>
-      <c r="I179" s="72">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B184" s="81" t="s">
+      <c r="I191" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C184" s="82"/>
-      <c r="D184" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" s="85" t="s">
+      <c r="C192" s="31"/>
+      <c r="D192" s="80">
+        <v>2</v>
+      </c>
+      <c r="E192" s="33">
+        <v>2</v>
+      </c>
+      <c r="F192" s="33">
+        <v>2</v>
+      </c>
+      <c r="G192" s="33">
+        <v>4</v>
+      </c>
+      <c r="H192" s="33">
+        <v>4</v>
+      </c>
+      <c r="I192" s="5">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="B193" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193" s="56"/>
+      <c r="D193" s="80">
+        <v>2</v>
+      </c>
+      <c r="E193" s="33">
+        <v>2</v>
+      </c>
+      <c r="F193" s="33">
+        <v>2</v>
+      </c>
+      <c r="G193" s="33">
+        <v>4</v>
+      </c>
+      <c r="H193" s="33">
+        <v>4</v>
+      </c>
+      <c r="I193" s="5">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9">
+      <c r="B194" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C194" s="56"/>
+      <c r="D194" s="80">
+        <v>2</v>
+      </c>
+      <c r="E194" s="33">
+        <v>2</v>
+      </c>
+      <c r="F194" s="33">
+        <v>4</v>
+      </c>
+      <c r="G194" s="33">
+        <v>4</v>
+      </c>
+      <c r="H194" s="33">
+        <v>4</v>
+      </c>
+      <c r="I194" s="5">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="56"/>
+      <c r="D195" s="80">
+        <v>4</v>
+      </c>
+      <c r="E195" s="33">
+        <v>4</v>
+      </c>
+      <c r="F195" s="33">
+        <v>4</v>
+      </c>
+      <c r="G195" s="33">
+        <v>4</v>
+      </c>
+      <c r="H195" s="33">
+        <v>4</v>
+      </c>
+      <c r="I195" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C196" s="56"/>
+      <c r="D196" s="80">
+        <v>2</v>
+      </c>
+      <c r="E196" s="33">
+        <v>4</v>
+      </c>
+      <c r="F196" s="33">
+        <v>4</v>
+      </c>
+      <c r="G196" s="33">
+        <v>4</v>
+      </c>
+      <c r="H196" s="33">
+        <v>4</v>
+      </c>
+      <c r="I196" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="B197" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C197" s="56"/>
+      <c r="D197" s="80">
+        <v>6</v>
+      </c>
+      <c r="E197" s="33">
+        <v>6</v>
+      </c>
+      <c r="F197" s="33">
+        <v>6</v>
+      </c>
+      <c r="G197" s="33">
+        <v>6</v>
+      </c>
+      <c r="H197" s="33">
+        <v>6</v>
+      </c>
+      <c r="I197" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B198" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C198" s="57"/>
+      <c r="D198" s="80">
+        <v>2</v>
+      </c>
+      <c r="E198" s="33">
+        <v>2</v>
+      </c>
+      <c r="F198" s="33">
+        <v>2</v>
+      </c>
+      <c r="G198" s="33">
+        <v>2</v>
+      </c>
+      <c r="H198" s="33">
+        <v>2</v>
+      </c>
+      <c r="I198" s="5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="B199" s="36"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="37"/>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="B200" s="36"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="37"/>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="B201" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="37"/>
+    </row>
+    <row r="202" spans="2:9">
+      <c r="B202" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="37"/>
+    </row>
+    <row r="204" spans="2:9">
+      <c r="B204" s="84"/>
+      <c r="D204">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B205" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="82"/>
+      <c r="D205" s="79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="185" spans="2:9">
-      <c r="B185" s="58" t="s">
+      <c r="E205" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F205" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G205" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H205" s="79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9">
+      <c r="B206" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C206" s="31"/>
+      <c r="D206" s="88">
+        <f>I192*($D$204/100)</f>
+        <v>36250</v>
+      </c>
+      <c r="E206" s="5">
+        <f>(E$115*D206)/D$115</f>
+        <v>36647.772342675831</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" ref="F206" si="36">(F$115*E206)/E$115</f>
+        <v>37178.135466243613</v>
+      </c>
+      <c r="G206" s="5">
+        <f t="shared" ref="G206:H206" si="37">(G$115*F206)/F$115</f>
+        <v>37575.907808919445</v>
+      </c>
+      <c r="H206" s="5">
+        <f t="shared" si="37"/>
+        <v>44338.037634408611</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9">
+      <c r="B207" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C185" s="31"/>
-      <c r="D185" s="80">
-        <v>2</v>
-      </c>
-      <c r="E185" s="33">
-        <v>2</v>
-      </c>
-      <c r="F185" s="33">
-        <v>2</v>
-      </c>
-      <c r="G185" s="33">
-        <v>4</v>
-      </c>
-      <c r="H185" s="33">
-        <v>4</v>
-      </c>
-      <c r="I185" s="5">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9">
-      <c r="B186" s="59" t="s">
+      <c r="C207" s="56"/>
+      <c r="D207" s="88">
+        <f t="shared" ref="D207:D210" si="38">I193*($D$204/100)</f>
+        <v>43750</v>
+      </c>
+      <c r="E207" s="5">
+        <f t="shared" ref="E207:F211" si="39">(E$115*D207)/D$115</f>
+        <v>44230.070068746696</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="39"/>
+        <v>44870.163493742293</v>
+      </c>
+      <c r="G207" s="5">
+        <f t="shared" ref="G207:H207" si="40">(G$115*F207)/F$115</f>
+        <v>45350.233562488989</v>
+      </c>
+      <c r="H207" s="5">
+        <f t="shared" si="40"/>
+        <v>53511.424731182808</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="B208" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C186" s="56"/>
-      <c r="D186" s="80">
-        <v>2</v>
-      </c>
-      <c r="E186" s="33">
-        <v>2</v>
-      </c>
-      <c r="F186" s="33">
-        <v>2</v>
-      </c>
-      <c r="G186" s="33">
-        <v>4</v>
-      </c>
-      <c r="H186" s="33">
-        <v>4</v>
-      </c>
-      <c r="I186" s="5">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9">
-      <c r="B187" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C187" s="56"/>
-      <c r="D187" s="80">
-        <v>2</v>
-      </c>
-      <c r="E187" s="33">
-        <v>2</v>
-      </c>
-      <c r="F187" s="33">
-        <v>4</v>
-      </c>
-      <c r="G187" s="33">
-        <v>4</v>
-      </c>
-      <c r="H187" s="33">
-        <v>4</v>
-      </c>
-      <c r="I187" s="5">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9">
-      <c r="B188" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C188" s="56"/>
-      <c r="D188" s="80">
-        <v>4</v>
-      </c>
-      <c r="E188" s="33">
-        <v>4</v>
-      </c>
-      <c r="F188" s="33">
-        <v>4</v>
-      </c>
-      <c r="G188" s="33">
-        <v>4</v>
-      </c>
-      <c r="H188" s="33">
-        <v>4</v>
-      </c>
-      <c r="I188" s="5">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9">
-      <c r="B189" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C189" s="56"/>
-      <c r="D189" s="80">
-        <v>2</v>
-      </c>
-      <c r="E189" s="33">
-        <v>4</v>
-      </c>
-      <c r="F189" s="33">
-        <v>4</v>
-      </c>
-      <c r="G189" s="33">
-        <v>4</v>
-      </c>
-      <c r="H189" s="33">
-        <v>4</v>
-      </c>
-      <c r="I189" s="5">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9">
-      <c r="B190" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C190" s="56"/>
-      <c r="D190" s="80">
-        <v>6</v>
-      </c>
-      <c r="E190" s="33">
-        <v>6</v>
-      </c>
-      <c r="F190" s="33">
-        <v>6</v>
-      </c>
-      <c r="G190" s="33">
-        <v>6</v>
-      </c>
-      <c r="H190" s="33">
-        <v>6</v>
-      </c>
-      <c r="I190" s="5">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B191" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C191" s="57"/>
-      <c r="D191" s="80">
-        <v>2</v>
-      </c>
-      <c r="E191" s="33">
-        <v>2</v>
-      </c>
-      <c r="F191" s="33">
-        <v>2</v>
-      </c>
-      <c r="G191" s="33">
-        <v>2</v>
-      </c>
-      <c r="H191" s="33">
-        <v>2</v>
-      </c>
-      <c r="I191" s="5">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9">
-      <c r="B192" s="36"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="37"/>
-    </row>
-    <row r="193" spans="2:9">
-      <c r="B193" s="36"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="37"/>
-    </row>
-    <row r="194" spans="2:9">
-      <c r="B194" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="37"/>
-    </row>
-    <row r="195" spans="2:9">
-      <c r="B195" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="37"/>
-    </row>
-    <row r="197" spans="2:9">
-      <c r="B197" s="84"/>
-      <c r="D197">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B198" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C198" s="82"/>
-      <c r="D198" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="E198" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F198" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G198" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H198" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C199" s="31"/>
-      <c r="D199" s="88">
-        <f>I185*($D$197/100)</f>
-        <v>36250</v>
-      </c>
-      <c r="E199" s="5">
-        <f>(E$115*D199)/D$115</f>
-        <v>36647.772342675831</v>
-      </c>
-      <c r="F199" s="5">
-        <f t="shared" ref="F199" si="35">(F$115*E199)/E$115</f>
-        <v>37178.135466243613</v>
-      </c>
-      <c r="G199" s="5">
-        <f t="shared" ref="G199:H199" si="36">(G$115*F199)/F$115</f>
-        <v>37575.907808919445</v>
-      </c>
-      <c r="H199" s="5">
-        <f t="shared" si="36"/>
-        <v>44338.037634408611</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9">
-      <c r="B200" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C200" s="56"/>
-      <c r="D200" s="88">
-        <f t="shared" ref="D200:D203" si="37">I186*($D$197/100)</f>
-        <v>43750</v>
-      </c>
-      <c r="E200" s="5">
-        <f t="shared" ref="E200:F204" si="38">(E$115*D200)/D$115</f>
-        <v>44230.070068746696</v>
-      </c>
-      <c r="F200" s="5">
+      <c r="C208" s="56"/>
+      <c r="D208" s="88">
         <f t="shared" si="38"/>
-        <v>44870.163493742293</v>
-      </c>
-      <c r="G200" s="5">
-        <f t="shared" ref="G200:H200" si="39">(G$115*F200)/F$115</f>
-        <v>45350.233562488989</v>
-      </c>
-      <c r="H200" s="5">
+        <v>33750</v>
+      </c>
+      <c r="E208" s="5">
         <f t="shared" si="39"/>
-        <v>53511.424731182808</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9">
-      <c r="B201" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C201" s="56"/>
-      <c r="D201" s="88">
-        <f t="shared" si="37"/>
-        <v>33750</v>
-      </c>
-      <c r="E201" s="5">
-        <f t="shared" si="38"/>
         <v>34120.339767318881</v>
       </c>
-      <c r="F201" s="5">
-        <f t="shared" si="38"/>
+      <c r="F208" s="5">
+        <f t="shared" si="39"/>
         <v>34614.126123744056</v>
       </c>
-      <c r="G201" s="5">
-        <f t="shared" ref="G201:H201" si="40">(G$115*F201)/F$115</f>
+      <c r="G208" s="5">
+        <f t="shared" ref="G208:H208" si="41">(G$115*F208)/F$115</f>
         <v>34984.465891062937</v>
       </c>
-      <c r="H201" s="5">
-        <f t="shared" si="40"/>
+      <c r="H208" s="5">
+        <f t="shared" si="41"/>
         <v>41280.241935483886</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9">
-      <c r="B202" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C202" s="56"/>
-      <c r="D202" s="88">
-        <f t="shared" si="37"/>
-        <v>32500</v>
-      </c>
-      <c r="E202" s="5">
-        <f t="shared" si="38"/>
-        <v>32856.623479640402</v>
-      </c>
-      <c r="F202" s="5">
-        <f t="shared" si="38"/>
-        <v>33332.121452494277</v>
-      </c>
-      <c r="G202" s="5">
-        <f t="shared" ref="G202:H202" si="41">(G$115*F202)/F$115</f>
-        <v>33688.744932134679</v>
-      </c>
-      <c r="H202" s="5">
-        <f t="shared" si="41"/>
-        <v>39751.34408602152</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B203" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C203" s="57"/>
-      <c r="D203" s="89">
-        <f t="shared" si="37"/>
-        <v>30000</v>
-      </c>
-      <c r="E203" s="35">
-        <f t="shared" si="38"/>
-        <v>30329.190904283445</v>
-      </c>
-      <c r="F203" s="35">
-        <f t="shared" si="38"/>
-        <v>30768.112109994712</v>
-      </c>
-      <c r="G203" s="35">
-        <f t="shared" ref="G203:H204" si="42">(G$115*F203)/F$115</f>
-        <v>31097.303014278161</v>
-      </c>
-      <c r="H203" s="35">
-        <f t="shared" si="42"/>
-        <v>36693.54838709678</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D204" s="90">
-        <f>SUM(D199:D203)</f>
-        <v>176250</v>
-      </c>
-      <c r="E204" s="91">
-        <f t="shared" si="38"/>
-        <v>178183.99656266527</v>
-      </c>
-      <c r="F204" s="91">
-        <f t="shared" si="38"/>
-        <v>180762.65864621897</v>
-      </c>
-      <c r="G204" s="91">
-        <f t="shared" si="42"/>
-        <v>182696.65520888424</v>
-      </c>
-      <c r="H204" s="92">
-        <f t="shared" si="42"/>
-        <v>215574.59677419363</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B207" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="D207" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F207" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9">
-      <c r="B208" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C208" s="30"/>
-      <c r="D208" s="5">
-        <f>D185*($I185+D199)*12</f>
-        <v>7830000</v>
-      </c>
-      <c r="E208" s="5">
-        <f t="shared" ref="E208:H208" si="43">E185*($I185+E199)*12</f>
-        <v>7839546.5362242199</v>
-      </c>
-      <c r="F208" s="5">
-        <f t="shared" si="43"/>
-        <v>7852275.2511898465</v>
-      </c>
-      <c r="G208" s="5">
-        <f t="shared" si="43"/>
-        <v>15723643.574828133</v>
-      </c>
-      <c r="H208" s="5">
-        <f t="shared" si="43"/>
-        <v>16048225.806451615</v>
       </c>
     </row>
     <row r="209" spans="2:8">
       <c r="B209" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" s="56"/>
+      <c r="D209" s="88">
+        <f t="shared" si="38"/>
+        <v>32500</v>
+      </c>
+      <c r="E209" s="5">
+        <f t="shared" si="39"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F209" s="5">
+        <f t="shared" si="39"/>
+        <v>33332.121452494277</v>
+      </c>
+      <c r="G209" s="5">
+        <f t="shared" ref="G209:H209" si="42">(G$115*F209)/F$115</f>
+        <v>33688.744932134679</v>
+      </c>
+      <c r="H209" s="5">
+        <f t="shared" si="42"/>
+        <v>39751.34408602152</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B210" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C210" s="57"/>
+      <c r="D210" s="89">
+        <f t="shared" si="38"/>
+        <v>30000</v>
+      </c>
+      <c r="E210" s="35">
+        <f t="shared" si="39"/>
+        <v>30329.190904283445</v>
+      </c>
+      <c r="F210" s="35">
+        <f t="shared" si="39"/>
+        <v>30768.112109994712</v>
+      </c>
+      <c r="G210" s="35">
+        <f t="shared" ref="G210:H211" si="43">(G$115*F210)/F$115</f>
+        <v>31097.303014278161</v>
+      </c>
+      <c r="H210" s="35">
+        <f t="shared" si="43"/>
+        <v>36693.54838709678</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D211" s="90">
+        <f>SUM(D206:D210)</f>
+        <v>176250</v>
+      </c>
+      <c r="E211" s="91">
+        <f t="shared" si="39"/>
+        <v>178183.99656266527</v>
+      </c>
+      <c r="F211" s="91">
+        <f t="shared" si="39"/>
+        <v>180762.65864621897</v>
+      </c>
+      <c r="G211" s="91">
+        <f t="shared" si="43"/>
+        <v>182696.65520888424</v>
+      </c>
+      <c r="H211" s="92">
+        <f t="shared" si="43"/>
+        <v>215574.59677419363</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B214" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D214" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" s="79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="B215" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C215" s="30"/>
+      <c r="D215" s="5">
+        <f>D192*($I192+D206)*12</f>
+        <v>7830000</v>
+      </c>
+      <c r="E215" s="5">
+        <f t="shared" ref="E215:H215" si="44">E192*($I192+E206)*12</f>
+        <v>7839546.5362242199</v>
+      </c>
+      <c r="F215" s="5">
+        <f t="shared" si="44"/>
+        <v>7852275.2511898465</v>
+      </c>
+      <c r="G215" s="5">
+        <f t="shared" si="44"/>
+        <v>15723643.574828133</v>
+      </c>
+      <c r="H215" s="5">
+        <f t="shared" si="44"/>
+        <v>16048225.806451615</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="B216" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C216" s="32"/>
+      <c r="D216" s="5">
+        <f t="shared" ref="D216:H219" si="45">D193*($I193+D207)*12</f>
+        <v>9450000</v>
+      </c>
+      <c r="E216" s="5">
+        <f t="shared" si="45"/>
+        <v>9461521.6816499196</v>
+      </c>
+      <c r="F216" s="5">
+        <f t="shared" si="45"/>
+        <v>9476883.9238498155</v>
+      </c>
+      <c r="G216" s="5">
+        <f t="shared" si="45"/>
+        <v>18976811.21099947</v>
+      </c>
+      <c r="H216" s="5">
+        <f t="shared" si="45"/>
+        <v>19368548.387096774</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8">
+      <c r="B217" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C209" s="32"/>
-      <c r="D209" s="5">
-        <f t="shared" ref="D209:H212" si="44">D186*($I186+D200)*12</f>
-        <v>9450000</v>
-      </c>
-      <c r="E209" s="5">
-        <f t="shared" si="44"/>
-        <v>9461521.6816499196</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="44"/>
-        <v>9476883.9238498155</v>
-      </c>
-      <c r="G209" s="5">
-        <f t="shared" si="44"/>
-        <v>18976811.21099947</v>
-      </c>
-      <c r="H209" s="5">
-        <f t="shared" si="44"/>
-        <v>19368548.387096774</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8">
-      <c r="B210" s="59" t="s">
+      <c r="C217" s="32"/>
+      <c r="D217" s="5">
+        <f t="shared" si="45"/>
+        <v>7290000</v>
+      </c>
+      <c r="E217" s="5">
+        <f t="shared" si="45"/>
+        <v>7298888.1544156522</v>
+      </c>
+      <c r="F217" s="5">
+        <f t="shared" si="45"/>
+        <v>14621478.053939715</v>
+      </c>
+      <c r="G217" s="5">
+        <f t="shared" si="45"/>
+        <v>14639254.362771019</v>
+      </c>
+      <c r="H217" s="5">
+        <f t="shared" si="45"/>
+        <v>14941451.612903226</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="B218" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C210" s="32"/>
-      <c r="D210" s="5">
-        <f t="shared" si="44"/>
-        <v>7290000</v>
-      </c>
-      <c r="E210" s="5">
-        <f t="shared" si="44"/>
-        <v>7298888.1544156522</v>
-      </c>
-      <c r="F210" s="5">
-        <f t="shared" si="44"/>
-        <v>14621478.053939715</v>
-      </c>
-      <c r="G210" s="5">
-        <f t="shared" si="44"/>
-        <v>14639254.362771019</v>
-      </c>
-      <c r="H210" s="5">
-        <f t="shared" si="44"/>
-        <v>14941451.612903226</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8">
-      <c r="B211" s="59" t="s">
+      <c r="C218" s="32"/>
+      <c r="D218" s="5">
+        <f t="shared" si="45"/>
+        <v>14040000</v>
+      </c>
+      <c r="E218" s="5">
+        <f t="shared" si="45"/>
+        <v>14057117.92702274</v>
+      </c>
+      <c r="F218" s="5">
+        <f t="shared" si="45"/>
+        <v>14079941.829719726</v>
+      </c>
+      <c r="G218" s="5">
+        <f t="shared" si="45"/>
+        <v>14097059.756742466</v>
+      </c>
+      <c r="H218" s="5">
+        <f t="shared" si="45"/>
+        <v>14388064.516129034</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="B219" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C211" s="32"/>
-      <c r="D211" s="5">
-        <f t="shared" si="44"/>
-        <v>14040000</v>
-      </c>
-      <c r="E211" s="5">
-        <f t="shared" si="44"/>
-        <v>14057117.92702274</v>
-      </c>
-      <c r="F211" s="5">
-        <f t="shared" si="44"/>
-        <v>14079941.829719726</v>
-      </c>
-      <c r="G211" s="5">
-        <f t="shared" si="44"/>
-        <v>14097059.756742466</v>
-      </c>
-      <c r="H211" s="5">
-        <f t="shared" si="44"/>
-        <v>14388064.516129034</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8">
-      <c r="B212" s="59" t="s">
+      <c r="C219" s="32"/>
+      <c r="D219" s="5">
+        <f t="shared" si="45"/>
+        <v>6480000</v>
+      </c>
+      <c r="E219" s="5">
+        <f t="shared" si="45"/>
+        <v>12975801.163405605</v>
+      </c>
+      <c r="F219" s="5">
+        <f t="shared" si="45"/>
+        <v>12996869.381279744</v>
+      </c>
+      <c r="G219" s="5">
+        <f t="shared" si="45"/>
+        <v>13012670.544685353</v>
+      </c>
+      <c r="H219" s="5">
+        <f t="shared" si="45"/>
+        <v>13281290.322580647</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="B220" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C212" s="32"/>
-      <c r="D212" s="5">
-        <f t="shared" si="44"/>
-        <v>6480000</v>
-      </c>
-      <c r="E212" s="5">
-        <f t="shared" si="44"/>
-        <v>12975801.163405605</v>
-      </c>
-      <c r="F212" s="5">
-        <f t="shared" si="44"/>
-        <v>12996869.381279744</v>
-      </c>
-      <c r="G212" s="5">
-        <f t="shared" si="44"/>
-        <v>13012670.544685353</v>
-      </c>
-      <c r="H212" s="5">
-        <f t="shared" si="44"/>
-        <v>13281290.322580647</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8">
-      <c r="B213" s="59" t="s">
+      <c r="C220" s="32"/>
+      <c r="D220" s="5">
+        <f t="shared" ref="D220:H221" si="46">D197*$I197*12</f>
+        <v>13680000</v>
+      </c>
+      <c r="E220" s="5">
+        <f t="shared" si="46"/>
+        <v>13680000</v>
+      </c>
+      <c r="F220" s="5">
+        <f t="shared" si="46"/>
+        <v>13680000</v>
+      </c>
+      <c r="G220" s="5">
+        <f t="shared" si="46"/>
+        <v>13680000</v>
+      </c>
+      <c r="H220" s="5">
+        <f t="shared" si="46"/>
+        <v>13680000</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B221" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C213" s="32"/>
-      <c r="D213" s="5">
-        <f t="shared" ref="D213:H214" si="45">D190*$I190*12</f>
-        <v>13680000</v>
-      </c>
-      <c r="E213" s="5">
-        <f t="shared" si="45"/>
-        <v>13680000</v>
-      </c>
-      <c r="F213" s="5">
-        <f t="shared" si="45"/>
-        <v>13680000</v>
-      </c>
-      <c r="G213" s="5">
-        <f t="shared" si="45"/>
-        <v>13680000</v>
-      </c>
-      <c r="H213" s="5">
-        <f t="shared" si="45"/>
-        <v>13680000</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B214" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C214" s="32"/>
-      <c r="D214" s="35">
-        <f t="shared" si="45"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="35">
+        <f t="shared" si="46"/>
         <v>13200000</v>
       </c>
-      <c r="E214" s="35">
-        <f t="shared" si="45"/>
+      <c r="E221" s="35">
+        <f t="shared" si="46"/>
         <v>13200000</v>
       </c>
-      <c r="F214" s="35">
-        <f t="shared" si="45"/>
+      <c r="F221" s="35">
+        <f t="shared" si="46"/>
         <v>13200000</v>
       </c>
-      <c r="G214" s="35">
-        <f t="shared" si="45"/>
+      <c r="G221" s="35">
+        <f t="shared" si="46"/>
         <v>13200000</v>
       </c>
-      <c r="H214" s="35">
-        <f t="shared" si="45"/>
+      <c r="H221" s="35">
+        <f t="shared" si="46"/>
         <v>13200000</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B215" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C215" s="86"/>
-      <c r="D215" s="87">
-        <f>SUM(D208:D214)</f>
+    <row r="222" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B222" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C222" s="86"/>
+      <c r="D222" s="87">
+        <f>SUM(D215:D221)</f>
         <v>71970000</v>
       </c>
-      <c r="E215" s="87">
-        <f>SUM(E208:E214)</f>
+      <c r="E222" s="87">
+        <f>SUM(E215:E221)</f>
         <v>78512875.462718129</v>
       </c>
-      <c r="F215" s="87">
-        <f t="shared" ref="F215:H215" si="46">SUM(F208:F214)</f>
+      <c r="F222" s="87">
+        <f t="shared" ref="F222:H222" si="47">SUM(F215:F221)</f>
         <v>85907448.439978838</v>
       </c>
-      <c r="G215" s="87">
-        <f t="shared" si="46"/>
+      <c r="G222" s="87">
+        <f t="shared" si="47"/>
         <v>103329439.45002644</v>
       </c>
-      <c r="H215" s="78">
-        <f t="shared" si="46"/>
+      <c r="H222" s="78">
+        <f t="shared" si="47"/>
         <v>104907580.6451613</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="P67:R67"/>
     <mergeCell ref="P76:R76"/>
     <mergeCell ref="P85:R85"/>
@@ -5851,11 +5877,6 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="M67:O67"/>
     <mergeCell ref="J67:L67"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="D76:F76"/>
     <mergeCell ref="G76:I76"/>
@@ -5863,15 +5884,6 @@
     <mergeCell ref="M76:O76"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:O94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="D205" authorId="0">
+    <comment ref="D196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
   <si>
     <t>Demanda</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Costo Total</t>
   </si>
   <si>
-    <t>Costos por Almacenaje 12 % de las ventas totales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Costos de Energia y Combustible 4,5 % de las ventas </t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Calculo Valor Libro</t>
   </si>
   <si>
-    <t>Balance Personal</t>
-  </si>
-  <si>
     <t>Operador Maquina Lavadora</t>
   </si>
   <si>
@@ -308,12 +302,6 @@
     <t>Mensual/Año 5</t>
   </si>
   <si>
-    <t>Sueldo variable calculado según 12% del sueldo del año 1, y calculado con regla de 3</t>
-  </si>
-  <si>
-    <t>Produccion del Año * Sueldo Variable Año Anterior / Produccion Año Anterior</t>
-  </si>
-  <si>
     <t>Total Produccion</t>
   </si>
   <si>
@@ -323,7 +311,46 @@
     <t>5to Año se compro una nueva maquina  llenadora y 2 operadores uno para cada turno. Solo se usará para la linea de producción BFNRPL que requiere la mayor demanda</t>
   </si>
   <si>
-    <t>Costos por almacenaje 12% de las ventas</t>
+    <t>Costos por almacenaje 12%</t>
+  </si>
+  <si>
+    <t>Valor Venta Bebidas Almacenadas</t>
+  </si>
+  <si>
+    <t>Turnos</t>
+  </si>
+  <si>
+    <t>Cada Linea de produccion y turno tiene 1 supervisor</t>
+  </si>
+  <si>
+    <t>Cada Supervisor 3 ayudantes</t>
+  </si>
+  <si>
+    <t>Lineas de Produccion</t>
+  </si>
+  <si>
+    <t>Lineas De Produccion</t>
+  </si>
+  <si>
+    <t>Balance Personal Total x Maq</t>
+  </si>
+  <si>
+    <t>Costos Produccion</t>
+  </si>
+  <si>
+    <t>Costos Almacenaje</t>
+  </si>
+  <si>
+    <t>Costos Energia Combustibles</t>
+  </si>
+  <si>
+    <t>Costo Mano de Obra</t>
+  </si>
+  <si>
+    <t>Costos de Produccion</t>
+  </si>
+  <si>
+    <t>Costos Totales</t>
   </si>
 </sst>
 </file>
@@ -818,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -933,6 +960,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,14 +996,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,8 +1294,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane ySplit="5775" topLeftCell="A213" activePane="bottomLeft"/>
+      <selection activeCell="A199" sqref="A199"/>
+      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1725,10 +1757,10 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="117"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="34" t="s">
@@ -1867,10 +1899,10 @@
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="108"/>
+      <c r="C35" s="117"/>
       <c r="H35" s="42"/>
     </row>
     <row r="36" spans="2:8">
@@ -2014,10 +2046,10 @@
       <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="108"/>
+      <c r="C42" s="117"/>
       <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8">
@@ -2158,10 +2190,10 @@
       <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="108"/>
+      <c r="C50" s="117"/>
       <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8">
@@ -2302,10 +2334,10 @@
       <c r="H57" s="42"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="108"/>
+      <c r="C58" s="117"/>
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="2:8">
@@ -2441,35 +2473,35 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="106"/>
-      <c r="D67" s="104" t="s">
+      <c r="C67" s="115"/>
+      <c r="D67" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104" t="s">
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="100" t="s">
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="101"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="100" t="s">
+      <c r="K67" s="110"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="101"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="100" t="s">
+      <c r="N67" s="110"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="102"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="111"/>
     </row>
     <row r="68" spans="2:18" ht="15.75" thickBot="1">
       <c r="B68" s="94" t="s">
@@ -2804,7 +2836,7 @@
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
       <c r="B74" s="94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
@@ -2840,35 +2872,35 @@
     </row>
     <row r="75" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B76" s="105" t="s">
+      <c r="B76" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="106"/>
-      <c r="D76" s="104" t="s">
+      <c r="C76" s="115"/>
+      <c r="D76" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104" t="s">
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="100" t="s">
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="101"/>
-      <c r="L76" s="102"/>
-      <c r="M76" s="100" t="s">
+      <c r="K76" s="110"/>
+      <c r="L76" s="111"/>
+      <c r="M76" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="101"/>
-      <c r="O76" s="102"/>
-      <c r="P76" s="100" t="s">
+      <c r="N76" s="110"/>
+      <c r="O76" s="111"/>
+      <c r="P76" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="101"/>
-      <c r="R76" s="102"/>
+      <c r="Q76" s="110"/>
+      <c r="R76" s="111"/>
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1">
       <c r="B77" s="94" t="s">
@@ -3203,7 +3235,7 @@
     </row>
     <row r="83" spans="2:18" ht="15.75" thickBot="1">
       <c r="B83" s="94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -3239,35 +3271,35 @@
     </row>
     <row r="84" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="85" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B85" s="105" t="s">
+      <c r="B85" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="106"/>
-      <c r="D85" s="104" t="s">
+      <c r="C85" s="115"/>
+      <c r="D85" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104" t="s">
+      <c r="E85" s="113"/>
+      <c r="F85" s="113"/>
+      <c r="G85" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="100" t="s">
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="101"/>
-      <c r="L85" s="102"/>
-      <c r="M85" s="100" t="s">
+      <c r="K85" s="110"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="N85" s="101"/>
-      <c r="O85" s="102"/>
-      <c r="P85" s="100" t="s">
+      <c r="N85" s="110"/>
+      <c r="O85" s="111"/>
+      <c r="P85" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="Q85" s="101"/>
-      <c r="R85" s="102"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="111"/>
     </row>
     <row r="86" spans="2:18" ht="15.75" thickBot="1">
       <c r="B86" s="94" t="s">
@@ -3607,7 +3639,7 @@
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
       <c r="B92" s="94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -3643,35 +3675,35 @@
     </row>
     <row r="93" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="94" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B94" s="105" t="s">
+      <c r="B94" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="106"/>
-      <c r="D94" s="104" t="s">
+      <c r="C94" s="115"/>
+      <c r="D94" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="104"/>
-      <c r="F94" s="104"/>
-      <c r="G94" s="104" t="s">
+      <c r="E94" s="113"/>
+      <c r="F94" s="113"/>
+      <c r="G94" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="104"/>
-      <c r="I94" s="104"/>
-      <c r="J94" s="100" t="s">
+      <c r="H94" s="113"/>
+      <c r="I94" s="113"/>
+      <c r="J94" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="101"/>
-      <c r="L94" s="102"/>
-      <c r="M94" s="100" t="s">
+      <c r="K94" s="110"/>
+      <c r="L94" s="111"/>
+      <c r="M94" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="N94" s="101"/>
-      <c r="O94" s="102"/>
-      <c r="P94" s="100" t="s">
+      <c r="N94" s="110"/>
+      <c r="O94" s="111"/>
+      <c r="P94" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="Q94" s="101"/>
-      <c r="R94" s="102"/>
+      <c r="Q94" s="110"/>
+      <c r="R94" s="111"/>
     </row>
     <row r="95" spans="2:18" ht="15.75" thickBot="1">
       <c r="B95" s="94" t="s">
@@ -4007,7 +4039,7 @@
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
       <c r="B101" s="94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
@@ -4042,34 +4074,34 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="103" t="s">
+      <c r="B104" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="103"/>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="B105" s="103"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="112"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="B107" s="103"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
+      <c r="B107" s="112"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
     </row>
     <row r="108" spans="1:18">
       <c r="B108" s="47"/>
@@ -4251,32 +4283,53 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J121" s="99"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="28"/>
     </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40">
+        <v>4</v>
+      </c>
+      <c r="E123" s="40">
+        <v>4</v>
+      </c>
+      <c r="F123" s="40">
+        <v>4</v>
+      </c>
+      <c r="G123" s="40">
+        <v>4</v>
+      </c>
+      <c r="H123" s="40">
+        <v>5</v>
+      </c>
+    </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="B124" s="28"/>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="28"/>
+      <c r="B125" s="28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="115" t="s">
+      <c r="B126" s="106" t="s">
         <v>27</v>
       </c>
       <c r="C126" s="93"/>
-      <c r="D126" s="114" t="s">
+      <c r="D126" s="105" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="40" t="s">
@@ -4293,1563 +4346,1807 @@
       </c>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="109" t="s">
+      <c r="B127" s="100" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="93"/>
       <c r="D127" s="5">
-        <f>(D111-C12)*F4</f>
+        <f>(D$111-C$12)*$F$4</f>
         <v>1886711743.75</v>
       </c>
       <c r="E127" s="5">
-        <f>(E111-D12)*F4</f>
+        <f t="shared" ref="E127:H127" si="25">(E$111-D$12)*$F$4</f>
         <v>1797461743.7500005</v>
       </c>
       <c r="F127" s="5">
-        <f>(F111-E12)*F4</f>
+        <f t="shared" si="25"/>
         <v>1705087993.7500007</v>
       </c>
-      <c r="G127" s="116">
-        <f>(G111-F20)*F4</f>
-        <v>-2398709282318.749</v>
-      </c>
-      <c r="H127" s="5"/>
+      <c r="G127" s="5">
+        <f t="shared" si="25"/>
+        <v>1609481162.5000012</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="25"/>
+        <v>1510528092.1562514</v>
+      </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="110" t="s">
+      <c r="B128" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="111"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="5">
-        <f>(D112-C13)*F5</f>
+        <f>(D$112-C$13)*$F$5</f>
         <v>1481104961.2499998</v>
       </c>
       <c r="E128" s="5">
-        <f>(E112-D13)*F5</f>
+        <f t="shared" ref="E128:H128" si="26">(E$112-D$13)*$F$5</f>
         <v>1404604961.2500002</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" ref="F128:F130" si="25">(F112-E13)*F5</f>
+        <f t="shared" si="26"/>
         <v>1326192461.2500007</v>
       </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="G128" s="5">
+        <f t="shared" si="26"/>
+        <v>1245819648.750001</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="26"/>
+        <v>1163437515.9375014</v>
+      </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="110" t="s">
+      <c r="B129" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="111"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="5">
-        <f>(D113-C14)*F6</f>
+        <f>(D$113-C$14)*$F$6</f>
         <v>11022212.249999726</v>
       </c>
       <c r="E129" s="5">
-        <f>(E113-D14)*F6</f>
+        <f t="shared" ref="E129:H129" si="27">(E$113-D$14)*$F$6</f>
         <v>2873178.000000352</v>
       </c>
       <c r="F129" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>65576048.999999881</v>
       </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
+      <c r="G129" s="5">
+        <f t="shared" si="27"/>
+        <v>33946836.000000313</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="27"/>
+        <v>3941794716.9562516</v>
+      </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="112" t="s">
+      <c r="B130" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="113"/>
+      <c r="C130" s="104"/>
       <c r="D130" s="5">
-        <f>(D114-C15)*F7</f>
+        <f>(D$114-C$15)*$F$7</f>
         <v>2210556573.7499995</v>
       </c>
       <c r="E130" s="5">
-        <f>(E114-D15)*F7</f>
+        <f t="shared" ref="E130:H130" si="28">(E$114-D$15)*$F$7</f>
         <v>1998876573.7499995</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1774495773.7499995</v>
       </c>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="140" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B140" s="28" t="s">
+      <c r="G130" s="5">
+        <f t="shared" si="28"/>
+        <v>1536652125.7499993</v>
+      </c>
+      <c r="H130" s="5">
+        <f t="shared" si="28"/>
+        <v>1284537858.8699987</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="D131" s="107">
+        <f>SUM(D127:D130)</f>
+        <v>5589395490.999999</v>
+      </c>
+      <c r="E131" s="107">
+        <f>SUM(E127:E130)</f>
+        <v>5203816456.750001</v>
+      </c>
+      <c r="F131" s="107">
+        <f>SUM(F127:F130)</f>
+        <v>4871352277.750001</v>
+      </c>
+      <c r="G131" s="107">
+        <f>SUM(G127:G130)</f>
+        <v>4425899773.0000019</v>
+      </c>
+      <c r="H131" s="107">
+        <f>SUM(H127:H130)</f>
+        <v>7900298183.9200039</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="93"/>
+      <c r="D134" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="93"/>
+      <c r="D135" s="5">
+        <f>$D127*($D$133/100)</f>
+        <v>226405409.25</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" ref="E135:H135" si="29">E$127*($D$133/100)</f>
+        <v>215695409.25000006</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="29"/>
+        <v>204610559.25000009</v>
+      </c>
+      <c r="G135" s="5">
+        <f t="shared" si="29"/>
+        <v>193137739.50000015</v>
+      </c>
+      <c r="H135" s="5">
+        <f t="shared" si="29"/>
+        <v>181263371.05875015</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="102"/>
+      <c r="D136" s="5">
+        <f>D$128*($D$133/100)</f>
+        <v>177732595.34999996</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" ref="E136:H136" si="30">E$128*($D$133/100)</f>
+        <v>168552595.35000002</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="30"/>
+        <v>159143095.35000008</v>
+      </c>
+      <c r="G136" s="5">
+        <f t="shared" si="30"/>
+        <v>149498357.85000011</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="30"/>
+        <v>139612501.91250017</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="102"/>
+      <c r="D137" s="5">
+        <f>D$129*($D$133/100)</f>
+        <v>1322665.4699999671</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" ref="E137:H137" si="31">E$129*($D$133/100)</f>
+        <v>344781.36000004224</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" si="31"/>
+        <v>7869125.879999985</v>
+      </c>
+      <c r="G137" s="5">
+        <f t="shared" si="31"/>
+        <v>4073620.3200000376</v>
+      </c>
+      <c r="H137" s="5">
+        <f t="shared" si="31"/>
+        <v>473015366.03475016</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="104"/>
+      <c r="D138" s="5">
+        <f>D$130*($D$133/100)</f>
+        <v>265266788.84999993</v>
+      </c>
+      <c r="E138" s="5">
+        <f t="shared" ref="E138:H138" si="32">E$130*($D$133/100)</f>
+        <v>239865188.84999993</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="32"/>
+        <v>212939492.84999993</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" si="32"/>
+        <v>184398255.08999991</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="32"/>
+        <v>154144543.06439984</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="D139" s="37">
+        <f>SUM(D135:D138)</f>
+        <v>670727458.91999984</v>
+      </c>
+      <c r="E139" s="37">
+        <f t="shared" ref="E139:H139" si="33">SUM(E135:E138)</f>
+        <v>624457974.81000006</v>
+      </c>
+      <c r="F139" s="37">
+        <f t="shared" si="33"/>
+        <v>584562273.33000004</v>
+      </c>
+      <c r="G139" s="37">
+        <f t="shared" si="33"/>
+        <v>531107972.76000023</v>
+      </c>
+      <c r="H139" s="37">
+        <f t="shared" si="33"/>
+        <v>948035782.07040036</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="38"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B143" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E140">
+      <c r="E143">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="30"/>
+      <c r="D144" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="30"/>
-      <c r="D141" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="40" t="s">
+      <c r="H144" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
-      <c r="B142" s="39" t="s">
+    <row r="145" spans="2:9">
+      <c r="B145" s="39" t="s">
         <v>5</v>
-      </c>
-      <c r="C142" s="37"/>
-      <c r="D142" s="5">
-        <f>(C20*($E$140/100))</f>
-        <v>306000000</v>
-      </c>
-      <c r="E142" s="5">
-        <f>(D20*($E$140/100))</f>
-        <v>316709999.99999994</v>
-      </c>
-      <c r="F142" s="5">
-        <f>(E20*($E$140/100))</f>
-        <v>327794849.99999988</v>
-      </c>
-      <c r="G142" s="5">
-        <f>(F20*($E$140/100))</f>
-        <v>339267669.74999988</v>
-      </c>
-      <c r="H142" s="5">
-        <f>(G20*($E$140/100))</f>
-        <v>351142038.19124979</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="5">
-        <f t="shared" ref="D143:H145" si="26">(C21*($E$140/100))</f>
-        <v>367200000</v>
-      </c>
-      <c r="E143" s="5">
-        <f t="shared" si="26"/>
-        <v>376379999.99999994</v>
-      </c>
-      <c r="F143" s="5">
-        <f t="shared" si="26"/>
-        <v>385789499.99999988</v>
-      </c>
-      <c r="G143" s="5">
-        <f t="shared" si="26"/>
-        <v>395434237.49999988</v>
-      </c>
-      <c r="H143" s="5">
-        <f t="shared" si="26"/>
-        <v>405320093.43749982</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8">
-      <c r="B144" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="37"/>
-      <c r="D144" s="5">
-        <f t="shared" si="26"/>
-        <v>680400000</v>
-      </c>
-      <c r="E144" s="5">
-        <f t="shared" si="26"/>
-        <v>711018000</v>
-      </c>
-      <c r="F144" s="5">
-        <f t="shared" si="26"/>
-        <v>743013810</v>
-      </c>
-      <c r="G144" s="5">
-        <f t="shared" si="26"/>
-        <v>776449431.44999981</v>
-      </c>
-      <c r="H144" s="5">
-        <f t="shared" si="26"/>
-        <v>811389655.86524987</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B145" s="39" t="s">
-        <v>8</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="5">
-        <f t="shared" si="26"/>
-        <v>423360000</v>
+        <f>(C20*($E$143/100))</f>
+        <v>114750000</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="26"/>
-        <v>448761600</v>
+        <f>(D20*($E$143/100))</f>
+        <v>118766249.99999997</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="26"/>
-        <v>475687296</v>
+        <f t="shared" ref="F145:H145" si="34">(E20*($E$143/100))</f>
+        <v>122923068.74999996</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="26"/>
-        <v>504228533.76000005</v>
+        <f t="shared" si="34"/>
+        <v>127225376.15624996</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="26"/>
-        <v>534482245.78560013</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B146" s="52" t="s">
+        <f t="shared" si="34"/>
+        <v>131678264.32171868</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="37"/>
+      <c r="D146" s="5">
+        <f t="shared" ref="D146:H148" si="35">(C21*($E$143/100))</f>
+        <v>137700000</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="35"/>
+        <v>141142499.99999997</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="35"/>
+        <v>144671062.49999994</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" si="35"/>
+        <v>148287839.06249994</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="35"/>
+        <v>151995035.03906244</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="37"/>
+      <c r="D147" s="5">
+        <f t="shared" si="35"/>
+        <v>255150000</v>
+      </c>
+      <c r="E147" s="5">
+        <f t="shared" si="35"/>
+        <v>266631750</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="35"/>
+        <v>278630178.75</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" si="35"/>
+        <v>291168536.79374993</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="35"/>
+        <v>304271120.94946867</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B148" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="37"/>
+      <c r="D148" s="5">
+        <f t="shared" si="35"/>
+        <v>158760000</v>
+      </c>
+      <c r="E148" s="5">
+        <f t="shared" si="35"/>
+        <v>168285600</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="35"/>
+        <v>178382736</v>
+      </c>
+      <c r="G148" s="5">
+        <f t="shared" si="35"/>
+        <v>189085700.16000003</v>
+      </c>
+      <c r="H148" s="5">
+        <f t="shared" si="35"/>
+        <v>200430842.16960004</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B149" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C146" s="53"/>
-      <c r="D146" s="54">
-        <f>SUM(D142:D145)</f>
-        <v>1776960000</v>
-      </c>
-      <c r="E146" s="54">
-        <f>SUM(E142:E145)</f>
-        <v>1852869600</v>
-      </c>
-      <c r="F146" s="54">
-        <f>SUM(F142:F145)</f>
-        <v>1932285455.9999998</v>
-      </c>
-      <c r="G146" s="54">
-        <f>SUM(G142:G145)</f>
-        <v>2015379872.4599996</v>
-      </c>
-      <c r="H146" s="55">
-        <f>SUM(H142:H145)</f>
-        <v>2102334033.2795997</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B149" s="28" t="s">
+      <c r="C149" s="53"/>
+      <c r="D149" s="54">
+        <f>SUM(D145:D148)</f>
+        <v>666360000</v>
+      </c>
+      <c r="E149" s="54">
+        <f t="shared" ref="E149:H149" si="36">SUM(E145:E148)</f>
+        <v>694826100</v>
+      </c>
+      <c r="F149" s="54">
+        <f t="shared" si="36"/>
+        <v>724607045.99999988</v>
+      </c>
+      <c r="G149" s="54">
+        <f t="shared" si="36"/>
+        <v>755767452.1724999</v>
+      </c>
+      <c r="H149" s="55">
+        <f t="shared" si="36"/>
+        <v>788375262.47984982</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E149">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="30"/>
-      <c r="D150" s="40" t="s">
+      <c r="C152" s="42"/>
+      <c r="H152" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D153" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H153" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I153" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="30"/>
+      <c r="D154" s="5">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F154" s="5">
+        <f>(E154*D154)</f>
+        <v>150000000</v>
+      </c>
+      <c r="G154" s="5">
+        <v>15</v>
+      </c>
+      <c r="H154" s="5">
+        <f>(F154*($H$152/100))</f>
+        <v>22500000</v>
+      </c>
+      <c r="I154" s="5">
+        <f>(F154-H154)/G154</f>
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="D155" s="5">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" ref="F155:F159" si="37">(E155*D155)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G155" s="5">
+        <v>15</v>
+      </c>
+      <c r="H155" s="5">
+        <f t="shared" ref="H155:H159" si="38">(F155*($H$152/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" ref="I155:I159" si="39">(F155-H155)/G155</f>
+        <v>14166666.666666666</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="32"/>
+      <c r="D156" s="5">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="37"/>
+        <v>130000000</v>
+      </c>
+      <c r="G156" s="5">
+        <v>15</v>
+      </c>
+      <c r="H156" s="5">
+        <f t="shared" si="38"/>
+        <v>19500000</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="39"/>
+        <v>7366666.666666667</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="32"/>
+      <c r="D157" s="5">
+        <v>2</v>
+      </c>
+      <c r="E157" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="37"/>
+        <v>360000000</v>
+      </c>
+      <c r="G157" s="5">
+        <v>15</v>
+      </c>
+      <c r="H157" s="5">
+        <f t="shared" si="38"/>
+        <v>54000000</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="39"/>
+        <v>20400000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="D158" s="5">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="37"/>
+        <v>90000000</v>
+      </c>
+      <c r="G158" s="5">
+        <v>15</v>
+      </c>
+      <c r="H158" s="5">
+        <f t="shared" si="38"/>
+        <v>13500000</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="39"/>
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B159" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" s="32"/>
+      <c r="D159" s="35">
+        <v>1</v>
+      </c>
+      <c r="E159" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F159" s="35">
+        <f t="shared" si="37"/>
+        <v>350000000</v>
+      </c>
+      <c r="G159" s="35">
+        <v>50</v>
+      </c>
+      <c r="H159" s="35">
+        <f t="shared" si="38"/>
+        <v>52500000</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="39"/>
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B160" s="52"/>
+      <c r="C160" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" s="53"/>
+      <c r="E160" s="53"/>
+      <c r="F160" s="54">
+        <f>SUM(F154:F159)</f>
+        <v>1330000000</v>
+      </c>
+      <c r="G160" s="53"/>
+      <c r="H160" s="65">
+        <f>SUM(H154:H159)</f>
+        <v>199500000</v>
+      </c>
+      <c r="I160" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="H161" s="61">
+        <v>0</v>
+      </c>
+      <c r="I161" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="15.75" thickBot="1">
+      <c r="H162" s="66">
+        <f>(H160+H161)</f>
+        <v>199500000</v>
+      </c>
+      <c r="I162" s="57"/>
+    </row>
+    <row r="163" spans="2:9" ht="15.75" thickBot="1">
+      <c r="E163" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B164" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F164" t="s">
+        <v>59</v>
+      </c>
+      <c r="G164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E150" s="40" t="s">
+      <c r="C165" s="5">
+        <f>SUM($I$154:$I$159)</f>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E165" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165" s="73">
+        <f>G165*I154</f>
+        <v>85000000</v>
+      </c>
+      <c r="G165" s="74">
         <v>10</v>
       </c>
-      <c r="F150" s="40" t="s">
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="5">
+        <f t="shared" ref="C166:C169" si="40">SUM($I$154:$I$159)</f>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E166" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F166" s="75">
+        <f t="shared" ref="F166:F170" si="41">G166*I155</f>
+        <v>141666666.66666666</v>
+      </c>
+      <c r="G166" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9">
+      <c r="B167" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G150" s="40" t="s">
+      <c r="C167" s="5">
+        <f t="shared" si="40"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E167" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F167" s="75">
+        <f t="shared" si="41"/>
+        <v>73666666.666666672</v>
+      </c>
+      <c r="G167" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H150" s="40" t="s">
+      <c r="C168" s="5">
+        <f t="shared" si="40"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E168" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" s="75">
+        <f t="shared" si="41"/>
+        <v>204000000</v>
+      </c>
+      <c r="G168" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9">
+      <c r="B169" s="33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="5">
-        <f>(C20*($E$149/100))</f>
-        <v>114750000</v>
-      </c>
-      <c r="E151" s="5">
-        <f>(D20*($E$149/100))</f>
-        <v>118766249.99999997</v>
-      </c>
-      <c r="F151" s="5">
-        <f t="shared" ref="F151:H151" si="27">(E20*($E$149/100))</f>
-        <v>122923068.74999996</v>
-      </c>
-      <c r="G151" s="5">
-        <f t="shared" si="27"/>
-        <v>127225376.15624996</v>
-      </c>
-      <c r="H151" s="5">
-        <f t="shared" si="27"/>
-        <v>131678264.32171868</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="37"/>
-      <c r="D152" s="5">
-        <f t="shared" ref="D152:H154" si="28">(C21*($E$149/100))</f>
-        <v>137700000</v>
-      </c>
-      <c r="E152" s="5">
-        <f t="shared" si="28"/>
-        <v>141142499.99999997</v>
-      </c>
-      <c r="F152" s="5">
-        <f t="shared" si="28"/>
-        <v>144671062.49999994</v>
-      </c>
-      <c r="G152" s="5">
-        <f t="shared" si="28"/>
-        <v>148287839.06249994</v>
-      </c>
-      <c r="H152" s="5">
-        <f t="shared" si="28"/>
-        <v>151995035.03906244</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="5">
-        <f t="shared" si="28"/>
-        <v>255150000</v>
-      </c>
-      <c r="E153" s="5">
-        <f t="shared" si="28"/>
-        <v>266631750</v>
-      </c>
-      <c r="F153" s="5">
-        <f t="shared" si="28"/>
-        <v>278630178.75</v>
-      </c>
-      <c r="G153" s="5">
-        <f t="shared" si="28"/>
-        <v>291168536.79374993</v>
-      </c>
-      <c r="H153" s="5">
-        <f t="shared" si="28"/>
-        <v>304271120.94946867</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B154" s="39" t="s">
+      <c r="C169" s="5">
+        <f t="shared" si="40"/>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="E169" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F169" s="75">
+        <f t="shared" si="41"/>
+        <v>51000000</v>
+      </c>
+      <c r="G169" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="E170" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" s="76">
+        <f t="shared" si="41"/>
+        <v>267750000</v>
+      </c>
+      <c r="G170" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15.75" thickBot="1">
+      <c r="E171" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" s="78">
+        <f>SUM(F165:F170)</f>
+        <v>823083333.33333325</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D173" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="30"/>
+      <c r="D174" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="E174" s="69"/>
+      <c r="F174" s="69"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="69">
+        <f>D174</f>
+        <v>150000000</v>
+      </c>
+      <c r="I174" s="69"/>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="32"/>
+      <c r="D175" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69">
+        <f>D175</f>
+        <v>250000000</v>
+      </c>
+      <c r="I175" s="69"/>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="B176" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="D176" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="E176" s="69"/>
+      <c r="F176" s="69"/>
+      <c r="G176" s="69">
+        <f>D176</f>
+        <v>130000000</v>
+      </c>
+      <c r="H176" s="69"/>
+      <c r="I176" s="69"/>
+    </row>
+    <row r="177" spans="2:9">
+      <c r="B177" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="32"/>
+      <c r="D177" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="E177" s="69">
+        <f>D177</f>
+        <v>180000000</v>
+      </c>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="D178" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="E178" s="69"/>
+      <c r="F178" s="69">
+        <f>D178</f>
+        <v>90000000</v>
+      </c>
+      <c r="G178" s="69"/>
+      <c r="H178" s="69"/>
+      <c r="I178" s="69"/>
+    </row>
+    <row r="179" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B179" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="D179" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="E179" s="70"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
+    </row>
+    <row r="180" spans="2:9" ht="15.75" thickBot="1">
+      <c r="C180" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="72">
+        <f>SUM(D174:D179)</f>
+        <v>1150000000</v>
+      </c>
+      <c r="E180" s="72">
+        <f t="shared" ref="E180:I180" si="42">SUM(E174:E179)</f>
+        <v>180000000</v>
+      </c>
+      <c r="F180" s="72">
+        <f t="shared" si="42"/>
+        <v>90000000</v>
+      </c>
+      <c r="G180" s="72">
+        <f t="shared" si="42"/>
+        <v>130000000</v>
+      </c>
+      <c r="H180" s="72">
+        <f t="shared" si="42"/>
+        <v>400000000</v>
+      </c>
+      <c r="I180" s="72">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184" t="s">
+        <v>90</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B186" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C186" s="82"/>
+      <c r="D186" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G186" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="B187" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" s="31"/>
+      <c r="D187" s="80">
+        <f>$C$185*SUM(E69,E78,E87,E96)</f>
         <v>8</v>
       </c>
-      <c r="C154" s="37"/>
-      <c r="D154" s="5">
-        <f t="shared" si="28"/>
-        <v>158760000</v>
-      </c>
-      <c r="E154" s="5">
-        <f t="shared" si="28"/>
-        <v>168285600</v>
-      </c>
-      <c r="F154" s="5">
-        <f t="shared" si="28"/>
-        <v>178382736</v>
-      </c>
-      <c r="G154" s="5">
-        <f t="shared" si="28"/>
-        <v>189085700.16000003</v>
-      </c>
-      <c r="H154" s="5">
-        <f t="shared" si="28"/>
-        <v>200430842.16960004</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B155" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C155" s="53"/>
-      <c r="D155" s="54">
-        <f>SUM(D151:D154)</f>
-        <v>666360000</v>
-      </c>
-      <c r="E155" s="54">
-        <f t="shared" ref="E155:H155" si="29">SUM(E151:E154)</f>
-        <v>694826100</v>
-      </c>
-      <c r="F155" s="54">
-        <f t="shared" si="29"/>
-        <v>724607045.99999988</v>
-      </c>
-      <c r="G155" s="54">
-        <f t="shared" si="29"/>
-        <v>755767452.1724999</v>
-      </c>
-      <c r="H155" s="55">
-        <f t="shared" si="29"/>
-        <v>788375262.47984982</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C158" s="42"/>
-      <c r="H158" s="62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D159" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E159" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F159" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G159" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H159" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="5">
-        <v>1</v>
-      </c>
-      <c r="E160" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="F160" s="5">
-        <f>(E160*D160)</f>
-        <v>150000000</v>
-      </c>
-      <c r="G160" s="5">
-        <v>15</v>
-      </c>
-      <c r="H160" s="5">
-        <f>(F160*($H$158/100))</f>
-        <v>22500000</v>
-      </c>
-      <c r="I160" s="5">
-        <f>(F160-H160)/G160</f>
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="5">
-        <v>1</v>
-      </c>
-      <c r="E161" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F161" s="5">
-        <f t="shared" ref="F161:F165" si="30">(E161*D161)</f>
-        <v>250000000</v>
-      </c>
-      <c r="G161" s="5">
-        <v>15</v>
-      </c>
-      <c r="H161" s="5">
-        <f t="shared" ref="H161:H165" si="31">(F161*($H$158/100))</f>
-        <v>37500000</v>
-      </c>
-      <c r="I161" s="5">
-        <f t="shared" ref="I161:I165" si="32">(F161-H161)/G161</f>
-        <v>14166666.666666666</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="59" t="s">
+      <c r="E187" s="80">
+        <f>$C$185*SUM(H69,H78,H87,H96)</f>
+        <v>8</v>
+      </c>
+      <c r="F187" s="80">
+        <f>$C$185*SUM(K69,K78,K87,K96)</f>
+        <v>8</v>
+      </c>
+      <c r="G187" s="80">
+        <f>$C$185*SUM(N69,N78,N87,N96)</f>
+        <v>10</v>
+      </c>
+      <c r="H187" s="80">
+        <f>$C$185*SUM(Q69,Q78,Q87,Q96)</f>
+        <v>10</v>
+      </c>
+      <c r="I187" s="5">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="B188" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188" s="56"/>
+      <c r="D188" s="80">
+        <f>$C$185*SUM(E70,E79,E88,E97)</f>
+        <v>8</v>
+      </c>
+      <c r="E188" s="80">
+        <f t="shared" ref="E188:E191" si="43">$C$185*SUM(H70,H79,H88,H97)</f>
+        <v>8</v>
+      </c>
+      <c r="F188" s="80">
+        <f t="shared" ref="F188:F191" si="44">$C$185*SUM(K70,K79,K88,K97)</f>
+        <v>8</v>
+      </c>
+      <c r="G188" s="80">
+        <f t="shared" ref="G188:G191" si="45">$C$185*SUM(N70,N79,N88,N97)</f>
+        <v>8</v>
+      </c>
+      <c r="H188" s="80">
+        <f>$C$185*SUM(Q70,Q79,Q88,Q97)</f>
+        <v>10</v>
+      </c>
+      <c r="I188" s="5">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9">
+      <c r="B189" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C189" s="56"/>
+      <c r="D189" s="80">
+        <f>$C$185*SUM(E71,E80,E89,E98)</f>
+        <v>8</v>
+      </c>
+      <c r="E189" s="80">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="F189" s="80">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="G189" s="80">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="H189" s="80">
+        <f>$C$185*SUM(Q71,Q80,Q89,Q98)</f>
+        <v>10</v>
+      </c>
+      <c r="I189" s="5">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C190" s="56"/>
+      <c r="D190" s="80">
+        <f>$C$185*SUM(E72,E81,E90,E99)</f>
+        <v>10</v>
+      </c>
+      <c r="E190" s="80">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="F190" s="80">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="G190" s="80">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="H190" s="80">
+        <f>$C$185*SUM(Q72,Q81,Q90,Q99)</f>
+        <v>10</v>
+      </c>
+      <c r="I190" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9">
+      <c r="B191" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="56"/>
+      <c r="D191" s="80">
+        <f>$C$185*SUM(E73,E82,E91,E100)</f>
+        <v>8</v>
+      </c>
+      <c r="E191" s="80">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="F191" s="80">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="G191" s="80">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="H191" s="80">
+        <f>$C$185*SUM(Q73,Q82,Q91,Q100)</f>
+        <v>10</v>
+      </c>
+      <c r="I191" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="56"/>
+      <c r="D192" s="88">
+        <f>D193*$E$184</f>
         <v>24</v>
       </c>
-      <c r="C162" s="32"/>
-      <c r="D162" s="5">
-        <v>1</v>
-      </c>
-      <c r="E162" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="F162" s="5">
-        <f t="shared" si="30"/>
-        <v>130000000</v>
-      </c>
-      <c r="G162" s="5">
-        <v>15</v>
-      </c>
-      <c r="H162" s="5">
-        <f t="shared" si="31"/>
-        <v>19500000</v>
-      </c>
-      <c r="I162" s="5">
-        <f t="shared" si="32"/>
-        <v>7366666.666666667</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C163" s="32"/>
-      <c r="D163" s="5">
-        <v>2</v>
-      </c>
-      <c r="E163" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="F163" s="5">
-        <f t="shared" si="30"/>
-        <v>360000000</v>
-      </c>
-      <c r="G163" s="5">
-        <v>15</v>
-      </c>
-      <c r="H163" s="5">
-        <f t="shared" si="31"/>
-        <v>54000000</v>
-      </c>
-      <c r="I163" s="5">
-        <f t="shared" si="32"/>
-        <v>20400000</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="32"/>
-      <c r="D164" s="5">
-        <v>1</v>
-      </c>
-      <c r="E164" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="F164" s="5">
-        <f t="shared" si="30"/>
-        <v>90000000</v>
-      </c>
-      <c r="G164" s="5">
-        <v>15</v>
-      </c>
-      <c r="H164" s="5">
-        <f t="shared" si="31"/>
-        <v>13500000</v>
-      </c>
-      <c r="I164" s="5">
-        <f t="shared" si="32"/>
-        <v>5100000</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B165" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C165" s="32"/>
-      <c r="D165" s="35">
-        <v>1</v>
-      </c>
-      <c r="E165" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="F165" s="35">
-        <f t="shared" si="30"/>
-        <v>350000000</v>
-      </c>
-      <c r="G165" s="35">
-        <v>50</v>
-      </c>
-      <c r="H165" s="35">
-        <f t="shared" si="31"/>
-        <v>52500000</v>
-      </c>
-      <c r="I165" s="5">
-        <f t="shared" si="32"/>
-        <v>5950000</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B166" s="52"/>
-      <c r="C166" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="54">
-        <f>SUM(F160:F165)</f>
-        <v>1330000000</v>
-      </c>
-      <c r="G166" s="53"/>
-      <c r="H166" s="65">
-        <f>SUM(H160:H165)</f>
-        <v>199500000</v>
-      </c>
-      <c r="I166" s="64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="H167" s="61">
-        <v>0</v>
-      </c>
-      <c r="I167" s="56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" ht="15.75" thickBot="1">
-      <c r="H168" s="66">
-        <f>(H166+H167)</f>
-        <v>199500000</v>
-      </c>
-      <c r="I168" s="57"/>
-    </row>
-    <row r="169" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E169" t="s">
+      <c r="E192" s="88">
+        <f t="shared" ref="E192:H192" si="46">E193*$E$184</f>
+        <v>24</v>
+      </c>
+      <c r="F192" s="88">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="G192" s="88">
+        <f t="shared" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="H192" s="88">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="I192" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B193" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C193" s="57"/>
+      <c r="D193" s="88">
+        <f>$C$185*D123</f>
+        <v>8</v>
+      </c>
+      <c r="E193" s="88">
+        <f t="shared" ref="E193:H193" si="47">$C$185*E123</f>
+        <v>8</v>
+      </c>
+      <c r="F193" s="88">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
+      <c r="G193" s="88">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
+      <c r="H193" s="88">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I193" s="5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9">
+      <c r="B194" s="36"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="37"/>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="84"/>
+      <c r="D195">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B196" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C196" s="82"/>
+      <c r="D196" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E196" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F196" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="G196" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="B197" s="58" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="170" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B170" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C170" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F170" t="s">
-        <v>60</v>
-      </c>
-      <c r="G170" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9">
-      <c r="B171" s="33" t="s">
+      <c r="C197" s="31"/>
+      <c r="D197" s="88">
+        <f>I187*($D$195/100)</f>
+        <v>36250</v>
+      </c>
+      <c r="E197" s="5">
+        <f>(E$115*D197)/D$115</f>
+        <v>36647.772342675831</v>
+      </c>
+      <c r="F197" s="5">
+        <f t="shared" ref="F197" si="48">(F$115*E197)/E$115</f>
+        <v>37178.135466243613</v>
+      </c>
+      <c r="G197" s="5">
+        <f t="shared" ref="G197:H197" si="49">(G$115*F197)/F$115</f>
+        <v>37575.907808919445</v>
+      </c>
+      <c r="H197" s="5">
+        <f t="shared" si="49"/>
+        <v>44338.037634408611</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="B198" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198" s="56"/>
+      <c r="D198" s="88">
+        <f t="shared" ref="D198:D201" si="50">I188*($D$195/100)</f>
+        <v>43750</v>
+      </c>
+      <c r="E198" s="5">
+        <f t="shared" ref="E198:F202" si="51">(E$115*D198)/D$115</f>
+        <v>44230.070068746696</v>
+      </c>
+      <c r="F198" s="5">
+        <f t="shared" si="51"/>
+        <v>44870.163493742293</v>
+      </c>
+      <c r="G198" s="5">
+        <f t="shared" ref="G198:H198" si="52">(G$115*F198)/F$115</f>
+        <v>45350.233562488989</v>
+      </c>
+      <c r="H198" s="5">
+        <f t="shared" si="52"/>
+        <v>53511.424731182808</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="B199" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C199" s="56"/>
+      <c r="D199" s="88">
+        <f t="shared" si="50"/>
+        <v>33750</v>
+      </c>
+      <c r="E199" s="5">
+        <f t="shared" si="51"/>
+        <v>34120.339767318881</v>
+      </c>
+      <c r="F199" s="5">
+        <f t="shared" si="51"/>
+        <v>34614.126123744056</v>
+      </c>
+      <c r="G199" s="5">
+        <f t="shared" ref="G199:H199" si="53">(G$115*F199)/F$115</f>
+        <v>34984.465891062937</v>
+      </c>
+      <c r="H199" s="5">
+        <f t="shared" si="53"/>
+        <v>41280.241935483886</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="B200" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C200" s="56"/>
+      <c r="D200" s="88">
+        <f t="shared" si="50"/>
+        <v>32500</v>
+      </c>
+      <c r="E200" s="5">
+        <f t="shared" si="51"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" si="51"/>
+        <v>33332.121452494277</v>
+      </c>
+      <c r="G200" s="5">
+        <f t="shared" ref="G200:H200" si="54">(G$115*F200)/F$115</f>
+        <v>33688.744932134679</v>
+      </c>
+      <c r="H200" s="5">
+        <f t="shared" si="54"/>
+        <v>39751.34408602152</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B201" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="57"/>
+      <c r="D201" s="89">
+        <f t="shared" si="50"/>
+        <v>30000</v>
+      </c>
+      <c r="E201" s="35">
+        <f t="shared" si="51"/>
+        <v>30329.190904283445</v>
+      </c>
+      <c r="F201" s="35">
+        <f t="shared" si="51"/>
+        <v>30768.112109994712</v>
+      </c>
+      <c r="G201" s="35">
+        <f t="shared" ref="G201:H202" si="55">(G$115*F201)/F$115</f>
+        <v>31097.303014278161</v>
+      </c>
+      <c r="H201" s="35">
+        <f t="shared" si="55"/>
+        <v>36693.54838709678</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D202" s="90">
+        <f>SUM(D197:D201)</f>
+        <v>176250</v>
+      </c>
+      <c r="E202" s="91">
+        <f t="shared" si="51"/>
+        <v>178183.99656266527</v>
+      </c>
+      <c r="F202" s="91">
+        <f t="shared" si="51"/>
+        <v>180762.65864621897</v>
+      </c>
+      <c r="G202" s="91">
+        <f t="shared" si="55"/>
+        <v>182696.65520888424</v>
+      </c>
+      <c r="H202" s="92">
+        <f t="shared" si="55"/>
+        <v>215574.59677419363</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B205" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D205" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="5">
-        <f>SUM($I$160:$I$165)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E171" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F171" s="73">
-        <f>G171*I160</f>
-        <v>85000000</v>
-      </c>
-      <c r="G171" s="74">
+      <c r="E205" s="79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="2:9">
-      <c r="B172" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" s="5">
-        <f t="shared" ref="C172:C175" si="33">SUM($I$160:$I$165)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E172" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="F172" s="75">
-        <f t="shared" ref="F172:F176" si="34">G172*I161</f>
-        <v>141666666.66666666</v>
-      </c>
-      <c r="G172" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9">
-      <c r="B173" s="33" t="s">
+      <c r="F205" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="5">
-        <f t="shared" si="33"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E173" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F173" s="75">
-        <f t="shared" si="34"/>
-        <v>73666666.666666672</v>
-      </c>
-      <c r="G173" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9">
-      <c r="B174" s="33" t="s">
+      <c r="G205" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="5">
-        <f t="shared" si="33"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E174" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F174" s="75">
-        <f t="shared" si="34"/>
-        <v>204000000</v>
-      </c>
-      <c r="G174" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9">
-      <c r="B175" s="33" t="s">
+      <c r="H205" s="79" t="s">
         <v>13</v>
-      </c>
-      <c r="C175" s="5">
-        <f t="shared" si="33"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F175" s="75">
-        <f t="shared" si="34"/>
-        <v>51000000</v>
-      </c>
-      <c r="G175" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="E176" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" s="76">
-        <f t="shared" si="34"/>
-        <v>267750000</v>
-      </c>
-      <c r="G176" s="27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E177" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="F177" s="78">
-        <f>SUM(F171:F176)</f>
-        <v>823083333.33333325</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9">
-      <c r="B178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D179" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E179" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I179" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9">
-      <c r="B180" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="30"/>
-      <c r="D180" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="E180" s="69"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="69">
-        <f>D180</f>
-        <v>150000000</v>
-      </c>
-      <c r="I180" s="69"/>
-    </row>
-    <row r="181" spans="2:9">
-      <c r="B181" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="32"/>
-      <c r="D181" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="E181" s="69"/>
-      <c r="F181" s="69"/>
-      <c r="G181" s="69"/>
-      <c r="H181" s="69">
-        <f>D181</f>
-        <v>250000000</v>
-      </c>
-      <c r="I181" s="69"/>
-    </row>
-    <row r="182" spans="2:9">
-      <c r="B182" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" s="32"/>
-      <c r="D182" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="E182" s="69"/>
-      <c r="F182" s="69"/>
-      <c r="G182" s="69">
-        <f>D182</f>
-        <v>130000000</v>
-      </c>
-      <c r="H182" s="69"/>
-      <c r="I182" s="69"/>
-    </row>
-    <row r="183" spans="2:9">
-      <c r="B183" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="E183" s="69">
-        <f>D183</f>
-        <v>180000000</v>
-      </c>
-      <c r="F183" s="69"/>
-      <c r="G183" s="69"/>
-      <c r="H183" s="69"/>
-      <c r="I183" s="69"/>
-    </row>
-    <row r="184" spans="2:9">
-      <c r="B184" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="32"/>
-      <c r="D184" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="E184" s="69"/>
-      <c r="F184" s="69">
-        <f>D184</f>
-        <v>90000000</v>
-      </c>
-      <c r="G184" s="69"/>
-      <c r="H184" s="69"/>
-      <c r="I184" s="69"/>
-    </row>
-    <row r="185" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B185" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C185" s="32"/>
-      <c r="D185" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="E185" s="70"/>
-      <c r="F185" s="70"/>
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
-    </row>
-    <row r="186" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C186" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D186" s="72">
-        <f>SUM(D180:D185)</f>
-        <v>1150000000</v>
-      </c>
-      <c r="E186" s="72">
-        <f t="shared" ref="E186:I186" si="35">SUM(E180:E185)</f>
-        <v>180000000</v>
-      </c>
-      <c r="F186" s="72">
-        <f t="shared" si="35"/>
-        <v>90000000</v>
-      </c>
-      <c r="G186" s="72">
-        <f t="shared" si="35"/>
-        <v>130000000</v>
-      </c>
-      <c r="H186" s="72">
-        <f t="shared" si="35"/>
-        <v>400000000</v>
-      </c>
-      <c r="I186" s="72">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B191" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C191" s="82"/>
-      <c r="D191" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H191" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9">
-      <c r="B192" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C192" s="31"/>
-      <c r="D192" s="80">
-        <v>2</v>
-      </c>
-      <c r="E192" s="33">
-        <v>2</v>
-      </c>
-      <c r="F192" s="33">
-        <v>2</v>
-      </c>
-      <c r="G192" s="33">
-        <v>4</v>
-      </c>
-      <c r="H192" s="33">
-        <v>4</v>
-      </c>
-      <c r="I192" s="5">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9">
-      <c r="B193" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C193" s="56"/>
-      <c r="D193" s="80">
-        <v>2</v>
-      </c>
-      <c r="E193" s="33">
-        <v>2</v>
-      </c>
-      <c r="F193" s="33">
-        <v>2</v>
-      </c>
-      <c r="G193" s="33">
-        <v>4</v>
-      </c>
-      <c r="H193" s="33">
-        <v>4</v>
-      </c>
-      <c r="I193" s="5">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9">
-      <c r="B194" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C194" s="56"/>
-      <c r="D194" s="80">
-        <v>2</v>
-      </c>
-      <c r="E194" s="33">
-        <v>2</v>
-      </c>
-      <c r="F194" s="33">
-        <v>4</v>
-      </c>
-      <c r="G194" s="33">
-        <v>4</v>
-      </c>
-      <c r="H194" s="33">
-        <v>4</v>
-      </c>
-      <c r="I194" s="5">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9">
-      <c r="B195" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C195" s="56"/>
-      <c r="D195" s="80">
-        <v>4</v>
-      </c>
-      <c r="E195" s="33">
-        <v>4</v>
-      </c>
-      <c r="F195" s="33">
-        <v>4</v>
-      </c>
-      <c r="G195" s="33">
-        <v>4</v>
-      </c>
-      <c r="H195" s="33">
-        <v>4</v>
-      </c>
-      <c r="I195" s="5">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9">
-      <c r="B196" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C196" s="56"/>
-      <c r="D196" s="80">
-        <v>2</v>
-      </c>
-      <c r="E196" s="33">
-        <v>4</v>
-      </c>
-      <c r="F196" s="33">
-        <v>4</v>
-      </c>
-      <c r="G196" s="33">
-        <v>4</v>
-      </c>
-      <c r="H196" s="33">
-        <v>4</v>
-      </c>
-      <c r="I196" s="5">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9">
-      <c r="B197" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C197" s="56"/>
-      <c r="D197" s="80">
-        <v>6</v>
-      </c>
-      <c r="E197" s="33">
-        <v>6</v>
-      </c>
-      <c r="F197" s="33">
-        <v>6</v>
-      </c>
-      <c r="G197" s="33">
-        <v>6</v>
-      </c>
-      <c r="H197" s="33">
-        <v>6</v>
-      </c>
-      <c r="I197" s="5">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B198" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C198" s="57"/>
-      <c r="D198" s="80">
-        <v>2</v>
-      </c>
-      <c r="E198" s="33">
-        <v>2</v>
-      </c>
-      <c r="F198" s="33">
-        <v>2</v>
-      </c>
-      <c r="G198" s="33">
-        <v>2</v>
-      </c>
-      <c r="H198" s="33">
-        <v>2</v>
-      </c>
-      <c r="I198" s="5">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="36"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="32"/>
-      <c r="I199" s="37"/>
-    </row>
-    <row r="200" spans="2:9">
-      <c r="B200" s="36"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="37"/>
-    </row>
-    <row r="201" spans="2:9">
-      <c r="B201" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="32"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="37"/>
-    </row>
-    <row r="202" spans="2:9">
-      <c r="B202" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="32"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="37"/>
-    </row>
-    <row r="204" spans="2:9">
-      <c r="B204" s="84"/>
-      <c r="D204">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B205" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C205" s="82"/>
-      <c r="D205" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="E205" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F205" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G205" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H205" s="79" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="206" spans="2:9">
       <c r="B206" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C206" s="31"/>
-      <c r="D206" s="88">
-        <f>I192*($D$204/100)</f>
-        <v>36250</v>
+        <v>67</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" s="5">
+        <f>D187*($I187+D197)*12</f>
+        <v>31320000</v>
       </c>
       <c r="E206" s="5">
-        <f>(E$115*D206)/D$115</f>
-        <v>36647.772342675831</v>
+        <f>E187*($I187+E197)*12</f>
+        <v>31358186.14489688</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" ref="F206" si="36">(F$115*E206)/E$115</f>
-        <v>37178.135466243613</v>
+        <f>F187*($I187+F197)*12</f>
+        <v>31409101.004759386</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" ref="G206:H206" si="37">(G$115*F206)/F$115</f>
-        <v>37575.907808919445</v>
+        <f>G187*($I187+G197)*12</f>
+        <v>39309108.937070332</v>
       </c>
       <c r="H206" s="5">
-        <f t="shared" si="37"/>
-        <v>44338.037634408611</v>
+        <f>H187*($I187+H197)*12</f>
+        <v>40120564.516129032</v>
       </c>
     </row>
     <row r="207" spans="2:9">
       <c r="B207" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C207" s="56"/>
-      <c r="D207" s="88">
-        <f t="shared" ref="D207:D210" si="38">I193*($D$204/100)</f>
-        <v>43750</v>
+        <v>68</v>
+      </c>
+      <c r="C207" s="32"/>
+      <c r="D207" s="5">
+        <f>D188*($I188+D198)*12</f>
+        <v>37800000</v>
       </c>
       <c r="E207" s="5">
-        <f t="shared" ref="E207:F211" si="39">(E$115*D207)/D$115</f>
-        <v>44230.070068746696</v>
+        <f>E188*($I188+E198)*12</f>
+        <v>37846086.726599678</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="39"/>
-        <v>44870.163493742293</v>
+        <f>F188*($I188+F198)*12</f>
+        <v>37907535.695399262</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" ref="G207:H207" si="40">(G$115*F207)/F$115</f>
-        <v>45350.233562488989</v>
+        <f>G188*($I188+G198)*12</f>
+        <v>37953622.42199894</v>
       </c>
       <c r="H207" s="5">
-        <f t="shared" si="40"/>
-        <v>53511.424731182808</v>
+        <f>H188*($I188+H198)*12</f>
+        <v>48421370.967741936</v>
       </c>
     </row>
     <row r="208" spans="2:9">
       <c r="B208" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C208" s="56"/>
-      <c r="D208" s="88">
-        <f t="shared" si="38"/>
-        <v>33750</v>
+        <v>69</v>
+      </c>
+      <c r="C208" s="32"/>
+      <c r="D208" s="5">
+        <f>D189*($I189+D199)*12</f>
+        <v>29160000</v>
       </c>
       <c r="E208" s="5">
-        <f t="shared" si="39"/>
-        <v>34120.339767318881</v>
+        <f>E189*($I189+E199)*12</f>
+        <v>29195552.617662609</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="39"/>
-        <v>34614.126123744056</v>
+        <f>F189*($I189+F199)*12</f>
+        <v>36553695.134849288</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" ref="G208:H208" si="41">(G$115*F208)/F$115</f>
-        <v>34984.465891062937</v>
+        <f>G189*($I189+G199)*12</f>
+        <v>36598135.906927556</v>
       </c>
       <c r="H208" s="5">
-        <f t="shared" si="41"/>
-        <v>41280.241935483886</v>
+        <f>H189*($I189+H199)*12</f>
+        <v>37353629.032258064</v>
       </c>
     </row>
     <row r="209" spans="2:8">
       <c r="B209" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209" s="32"/>
+      <c r="D209" s="5">
+        <f>D190*($I190+D200)*12</f>
+        <v>35100000</v>
+      </c>
+      <c r="E209" s="5">
+        <f>E190*($I190+E200)*12</f>
+        <v>35142794.817556843</v>
+      </c>
+      <c r="F209" s="5">
+        <f>F190*($I190+F200)*12</f>
+        <v>35199854.574299313</v>
+      </c>
+      <c r="G209" s="5">
+        <f>G190*($I190+G200)*12</f>
+        <v>35242649.391856164</v>
+      </c>
+      <c r="H209" s="5">
+        <f>H190*($I190+H200)*12</f>
+        <v>35970161.290322587</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C210" s="32"/>
+      <c r="D210" s="5">
+        <f>D191*($I191+D201)*12</f>
+        <v>25920000</v>
+      </c>
+      <c r="E210" s="5">
+        <f>E191*($I191+E201)*12</f>
+        <v>32439502.908514012</v>
+      </c>
+      <c r="F210" s="5">
+        <f>F191*($I191+F201)*12</f>
+        <v>32492173.453199364</v>
+      </c>
+      <c r="G210" s="5">
+        <f>G191*($I191+G201)*12</f>
+        <v>32531676.36171338</v>
+      </c>
+      <c r="H210" s="5">
+        <f>H191*($I191+H201)*12</f>
+        <v>33203225.806451611</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="B211" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C209" s="56"/>
-      <c r="D209" s="88">
-        <f t="shared" si="38"/>
-        <v>32500</v>
-      </c>
-      <c r="E209" s="5">
-        <f t="shared" si="39"/>
-        <v>32856.623479640402</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="39"/>
-        <v>33332.121452494277</v>
-      </c>
-      <c r="G209" s="5">
-        <f t="shared" ref="G209:H209" si="42">(G$115*F209)/F$115</f>
-        <v>33688.744932134679</v>
-      </c>
-      <c r="H209" s="5">
-        <f t="shared" si="42"/>
-        <v>39751.34408602152</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B210" s="83" t="s">
+      <c r="C211" s="32"/>
+      <c r="D211" s="5">
+        <f t="shared" ref="D211:H212" si="56">D192*$I192*12</f>
+        <v>54720000</v>
+      </c>
+      <c r="E211" s="5">
+        <f t="shared" si="56"/>
+        <v>54720000</v>
+      </c>
+      <c r="F211" s="5">
+        <f t="shared" si="56"/>
+        <v>54720000</v>
+      </c>
+      <c r="G211" s="5">
+        <f t="shared" si="56"/>
+        <v>54720000</v>
+      </c>
+      <c r="H211" s="5">
+        <f t="shared" si="56"/>
+        <v>68400000</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B212" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C210" s="57"/>
-      <c r="D210" s="89">
-        <f t="shared" si="38"/>
-        <v>30000</v>
-      </c>
-      <c r="E210" s="35">
-        <f t="shared" si="39"/>
-        <v>30329.190904283445</v>
-      </c>
-      <c r="F210" s="35">
-        <f t="shared" si="39"/>
-        <v>30768.112109994712</v>
-      </c>
-      <c r="G210" s="35">
-        <f t="shared" ref="G210:H211" si="43">(G$115*F210)/F$115</f>
-        <v>31097.303014278161</v>
-      </c>
-      <c r="H210" s="35">
-        <f t="shared" si="43"/>
-        <v>36693.54838709678</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D211" s="90">
-        <f>SUM(D206:D210)</f>
-        <v>176250</v>
-      </c>
-      <c r="E211" s="91">
-        <f t="shared" si="39"/>
-        <v>178183.99656266527</v>
-      </c>
-      <c r="F211" s="91">
-        <f t="shared" si="39"/>
-        <v>180762.65864621897</v>
-      </c>
-      <c r="G211" s="91">
-        <f t="shared" si="43"/>
-        <v>182696.65520888424</v>
-      </c>
-      <c r="H211" s="92">
-        <f t="shared" si="43"/>
-        <v>215574.59677419363</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B214" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D214" s="79" t="s">
+      <c r="C212" s="32"/>
+      <c r="D212" s="35">
+        <f t="shared" si="56"/>
+        <v>52800000</v>
+      </c>
+      <c r="E212" s="35">
+        <f t="shared" si="56"/>
+        <v>52800000</v>
+      </c>
+      <c r="F212" s="35">
+        <f t="shared" si="56"/>
+        <v>52800000</v>
+      </c>
+      <c r="G212" s="35">
+        <f t="shared" si="56"/>
+        <v>52800000</v>
+      </c>
+      <c r="H212" s="35">
+        <f t="shared" si="56"/>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B213" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C213" s="86"/>
+      <c r="D213" s="87">
+        <f>SUM(D206:D212)</f>
+        <v>266820000</v>
+      </c>
+      <c r="E213" s="87">
+        <f>SUM(E206:E212)</f>
+        <v>273502123.21522999</v>
+      </c>
+      <c r="F213" s="87">
+        <f t="shared" ref="F213:H213" si="57">SUM(F206:F212)</f>
+        <v>281082359.86250663</v>
+      </c>
+      <c r="G213" s="87">
+        <f t="shared" si="57"/>
+        <v>289155193.01956642</v>
+      </c>
+      <c r="H213" s="78">
+        <f t="shared" si="57"/>
+        <v>329468951.61290324</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" s="63"/>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="B216" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="C216" s="119"/>
+      <c r="D216" s="119">
+        <v>25</v>
+      </c>
+      <c r="E216" s="119"/>
+      <c r="F216" s="119"/>
+      <c r="G216" s="119"/>
+      <c r="H216" s="119"/>
+    </row>
+    <row r="217" spans="2:8">
+      <c r="B217" s="118"/>
+      <c r="C217" s="119"/>
+      <c r="D217" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="79" t="s">
+      <c r="E217" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F214" s="79" t="s">
+      <c r="F217" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="G214" s="79" t="s">
+      <c r="G217" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="79" t="s">
+      <c r="H217" s="119" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="2:8">
-      <c r="B215" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C215" s="30"/>
-      <c r="D215" s="5">
-        <f>D192*($I192+D206)*12</f>
-        <v>7830000</v>
-      </c>
-      <c r="E215" s="5">
-        <f t="shared" ref="E215:H215" si="44">E192*($I192+E206)*12</f>
-        <v>7839546.5362242199</v>
-      </c>
-      <c r="F215" s="5">
-        <f t="shared" si="44"/>
-        <v>7852275.2511898465</v>
-      </c>
-      <c r="G215" s="5">
-        <f t="shared" si="44"/>
-        <v>15723643.574828133</v>
-      </c>
-      <c r="H215" s="5">
-        <f t="shared" si="44"/>
-        <v>16048225.806451615</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8">
-      <c r="B216" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C216" s="32"/>
-      <c r="D216" s="5">
-        <f t="shared" ref="D216:H219" si="45">D193*($I193+D207)*12</f>
-        <v>9450000</v>
-      </c>
-      <c r="E216" s="5">
-        <f t="shared" si="45"/>
-        <v>9461521.6816499196</v>
-      </c>
-      <c r="F216" s="5">
-        <f t="shared" si="45"/>
-        <v>9476883.9238498155</v>
-      </c>
-      <c r="G216" s="5">
-        <f t="shared" si="45"/>
-        <v>18976811.21099947</v>
-      </c>
-      <c r="H216" s="5">
-        <f t="shared" si="45"/>
-        <v>19368548.387096774</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8">
-      <c r="B217" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C217" s="32"/>
-      <c r="D217" s="5">
-        <f t="shared" si="45"/>
-        <v>7290000</v>
-      </c>
-      <c r="E217" s="5">
-        <f t="shared" si="45"/>
-        <v>7298888.1544156522</v>
-      </c>
-      <c r="F217" s="5">
-        <f t="shared" si="45"/>
-        <v>14621478.053939715</v>
-      </c>
-      <c r="G217" s="5">
-        <f t="shared" si="45"/>
-        <v>14639254.362771019</v>
-      </c>
-      <c r="H217" s="5">
-        <f t="shared" si="45"/>
-        <v>14941451.612903226</v>
-      </c>
-    </row>
     <row r="218" spans="2:8">
-      <c r="B218" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C218" s="32"/>
-      <c r="D218" s="5">
-        <f t="shared" si="45"/>
-        <v>14040000</v>
-      </c>
-      <c r="E218" s="5">
-        <f t="shared" si="45"/>
-        <v>14057117.92702274</v>
-      </c>
-      <c r="F218" s="5">
-        <f t="shared" si="45"/>
-        <v>14079941.829719726</v>
-      </c>
-      <c r="G218" s="5">
-        <f t="shared" si="45"/>
-        <v>14097059.756742466</v>
-      </c>
-      <c r="H218" s="5">
-        <f t="shared" si="45"/>
-        <v>14388064.516129034</v>
+      <c r="B218" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C218" s="119"/>
+      <c r="D218" s="96">
+        <f>D139</f>
+        <v>670727458.91999984</v>
+      </c>
+      <c r="E218" s="96">
+        <f t="shared" ref="E218:G218" si="58">E139</f>
+        <v>624457974.81000006</v>
+      </c>
+      <c r="F218" s="96">
+        <f t="shared" si="58"/>
+        <v>584562273.33000004</v>
+      </c>
+      <c r="G218" s="96">
+        <f t="shared" si="58"/>
+        <v>531107972.76000023</v>
+      </c>
+      <c r="H218" s="96">
+        <f>H139</f>
+        <v>948035782.07040036</v>
       </c>
     </row>
     <row r="219" spans="2:8">
-      <c r="B219" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C219" s="32"/>
-      <c r="D219" s="5">
-        <f t="shared" si="45"/>
-        <v>6480000</v>
-      </c>
-      <c r="E219" s="5">
-        <f t="shared" si="45"/>
-        <v>12975801.163405605</v>
-      </c>
-      <c r="F219" s="5">
-        <f t="shared" si="45"/>
-        <v>12996869.381279744</v>
-      </c>
-      <c r="G219" s="5">
-        <f t="shared" si="45"/>
-        <v>13012670.544685353</v>
-      </c>
-      <c r="H219" s="5">
-        <f t="shared" si="45"/>
-        <v>13281290.322580647</v>
+      <c r="B219" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="119"/>
+      <c r="D219" s="96">
+        <f>D149</f>
+        <v>666360000</v>
+      </c>
+      <c r="E219" s="96">
+        <f t="shared" ref="E219:G219" si="59">E149</f>
+        <v>694826100</v>
+      </c>
+      <c r="F219" s="96">
+        <f t="shared" si="59"/>
+        <v>724607045.99999988</v>
+      </c>
+      <c r="G219" s="96">
+        <f t="shared" si="59"/>
+        <v>755767452.1724999</v>
+      </c>
+      <c r="H219" s="96">
+        <f>H149</f>
+        <v>788375262.47984982</v>
       </c>
     </row>
     <row r="220" spans="2:8">
-      <c r="B220" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C220" s="32"/>
-      <c r="D220" s="5">
-        <f t="shared" ref="D220:H221" si="46">D197*$I197*12</f>
-        <v>13680000</v>
-      </c>
-      <c r="E220" s="5">
-        <f t="shared" si="46"/>
-        <v>13680000</v>
-      </c>
-      <c r="F220" s="5">
-        <f t="shared" si="46"/>
-        <v>13680000</v>
-      </c>
-      <c r="G220" s="5">
-        <f t="shared" si="46"/>
-        <v>13680000</v>
-      </c>
-      <c r="H220" s="5">
-        <f t="shared" si="46"/>
-        <v>13680000</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B221" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C221" s="32"/>
-      <c r="D221" s="35">
-        <f t="shared" si="46"/>
-        <v>13200000</v>
-      </c>
-      <c r="E221" s="35">
-        <f t="shared" si="46"/>
-        <v>13200000</v>
-      </c>
-      <c r="F221" s="35">
-        <f t="shared" si="46"/>
-        <v>13200000</v>
-      </c>
-      <c r="G221" s="35">
-        <f t="shared" si="46"/>
-        <v>13200000</v>
-      </c>
-      <c r="H221" s="35">
-        <f t="shared" si="46"/>
-        <v>13200000</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B222" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C222" s="86"/>
-      <c r="D222" s="87">
-        <f>SUM(D215:D221)</f>
-        <v>71970000</v>
-      </c>
-      <c r="E222" s="87">
-        <f>SUM(E215:E221)</f>
-        <v>78512875.462718129</v>
-      </c>
-      <c r="F222" s="87">
-        <f t="shared" ref="F222:H222" si="47">SUM(F215:F221)</f>
-        <v>85907448.439978838</v>
-      </c>
-      <c r="G222" s="87">
-        <f t="shared" si="47"/>
-        <v>103329439.45002644</v>
-      </c>
-      <c r="H222" s="78">
-        <f t="shared" si="47"/>
-        <v>104907580.6451613</v>
+      <c r="B220" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="119"/>
+      <c r="D220" s="96">
+        <f>D213</f>
+        <v>266820000</v>
+      </c>
+      <c r="E220" s="96">
+        <f t="shared" ref="E220:H220" si="60">E213</f>
+        <v>273502123.21522999</v>
+      </c>
+      <c r="F220" s="96">
+        <f t="shared" si="60"/>
+        <v>281082359.86250663</v>
+      </c>
+      <c r="G220" s="96">
+        <f t="shared" si="60"/>
+        <v>289155193.01956642</v>
+      </c>
+      <c r="H220" s="96">
+        <f t="shared" si="60"/>
+        <v>329468951.61290324</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="B221" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="119"/>
+      <c r="D221" s="96">
+        <f>SUM(D218:D220)*($D$216/100)</f>
+        <v>400976864.72999996</v>
+      </c>
+      <c r="E221" s="96">
+        <f t="shared" ref="E221:H221" si="61">SUM(E218:E220)*($D$216/100)</f>
+        <v>398196549.50630748</v>
+      </c>
+      <c r="F221" s="96">
+        <f t="shared" si="61"/>
+        <v>397562919.79812664</v>
+      </c>
+      <c r="G221" s="96">
+        <f t="shared" si="61"/>
+        <v>394007654.48801661</v>
+      </c>
+      <c r="H221" s="96">
+        <f t="shared" si="61"/>
+        <v>516469999.04078829</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="B222" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C222" s="40"/>
+      <c r="D222" s="41">
+        <f>SUM(D218:D221)</f>
+        <v>2004884323.6499999</v>
+      </c>
+      <c r="E222" s="41">
+        <f>SUM(E218:E221)</f>
+        <v>1990982747.5315375</v>
+      </c>
+      <c r="F222" s="41">
+        <f>SUM(F218:F221)</f>
+        <v>1987814598.9906332</v>
+      </c>
+      <c r="G222" s="41">
+        <f>SUM(G218:G221)</f>
+        <v>1970038272.440083</v>
+      </c>
+      <c r="H222" s="41">
+        <f>SUM(H218:H221)</f>
+        <v>2582349995.2039413</v>
       </c>
     </row>
   </sheetData>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="D196" authorId="0">
+    <comment ref="D279" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="105">
   <si>
     <t>Demanda</t>
   </si>
@@ -188,9 +188,6 @@
     <t xml:space="preserve">Costos de Energia y Combustible 4,5 % de las ventas </t>
   </si>
   <si>
-    <t>Calculo de depreciación</t>
-  </si>
-  <si>
     <t>Infraestructura</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Valor Residual 15%</t>
   </si>
   <si>
-    <t xml:space="preserve">Años </t>
-  </si>
-  <si>
     <t>Tabla de Reinversiones</t>
   </si>
   <si>
@@ -351,6 +345,27 @@
   </si>
   <si>
     <t>Costos Totales</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación año 1</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación año 2</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación año 3</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación año 4</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación año 5</t>
+  </si>
+  <si>
+    <t>Depreciacion</t>
+  </si>
+  <si>
+    <t>valor Desecho</t>
   </si>
 </sst>
 </file>
@@ -845,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -998,6 +1013,8 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,12 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R222"/>
+  <dimension ref="A2:R305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane ySplit="5775" topLeftCell="A213" activePane="bottomLeft"/>
-      <selection activeCell="A199" sqref="A199"/>
-      <selection pane="bottomLeft" activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1311,7 +1326,7 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.140625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
@@ -2836,7 +2851,7 @@
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
       <c r="B74" s="94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
@@ -3235,7 +3250,7 @@
     </row>
     <row r="83" spans="2:18" ht="15.75" thickBot="1">
       <c r="B83" s="94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -3639,7 +3654,7 @@
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
       <c r="B92" s="94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -4039,7 +4054,7 @@
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
       <c r="B101" s="94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
@@ -4283,12 +4298,12 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J121" s="99"/>
     </row>
@@ -4297,7 +4312,7 @@
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="108" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C123" s="40"/>
       <c r="D123" s="40">
@@ -4321,7 +4336,7 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="2:10">
@@ -4473,7 +4488,7 @@
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D133">
         <v>12</v>
@@ -4606,7 +4621,7 @@
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C139" s="32"/>
       <c r="D139" s="37">
@@ -4668,7 +4683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:14">
       <c r="B145" s="39" t="s">
         <v>5</v>
       </c>
@@ -4694,7 +4709,7 @@
         <v>131678264.32171868</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:14">
       <c r="B146" s="39" t="s">
         <v>6</v>
       </c>
@@ -4720,7 +4735,7 @@
         <v>151995035.03906244</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:14">
       <c r="B147" s="39" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>304271120.94946867</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15.75" thickBot="1">
+    <row r="148" spans="2:14" ht="15.75" thickBot="1">
       <c r="B148" s="39" t="s">
         <v>8</v>
       </c>
@@ -4772,7 +4787,7 @@
         <v>200430842.16960004</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15.75" thickBot="1">
+    <row r="149" spans="2:14" ht="15.75" thickBot="1">
       <c r="B149" s="52" t="s">
         <v>43</v>
       </c>
@@ -4798,36 +4813,45 @@
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:14">
       <c r="B152" s="42" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C152" s="42"/>
       <c r="H152" s="62">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" ht="15.75" thickBot="1">
+      <c r="L152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" ht="15.75" thickBot="1">
       <c r="D153" s="40" t="s">
         <v>34</v>
       </c>
       <c r="E153" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F153" s="40" t="s">
+      <c r="G153" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G153" s="40" t="s">
+      <c r="H153" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I153" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H153" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I153" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
+      <c r="M153" t="s">
+        <v>57</v>
+      </c>
+      <c r="N153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14">
       <c r="B154" s="58" t="s">
         <v>22</v>
       </c>
@@ -4853,8 +4877,18 @@
         <f>(F154-H154)/G154</f>
         <v>8500000</v>
       </c>
-    </row>
-    <row r="155" spans="2:9">
+      <c r="L154" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M154" s="73">
+        <f>N154*I154</f>
+        <v>85000000</v>
+      </c>
+      <c r="N154" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14">
       <c r="B155" s="59" t="s">
         <v>23</v>
       </c>
@@ -4880,8 +4914,18 @@
         <f t="shared" ref="I155:I159" si="39">(F155-H155)/G155</f>
         <v>14166666.666666666</v>
       </c>
-    </row>
-    <row r="156" spans="2:9">
+      <c r="L155" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="M155" s="75">
+        <f>N155*I155</f>
+        <v>141666666.66666666</v>
+      </c>
+      <c r="N155" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14">
       <c r="B156" s="59" t="s">
         <v>24</v>
       </c>
@@ -4907,8 +4951,18 @@
         <f t="shared" si="39"/>
         <v>7366666.666666667</v>
       </c>
-    </row>
-    <row r="157" spans="2:9">
+      <c r="L156" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M156" s="75">
+        <f>N156*I156</f>
+        <v>73666666.666666672</v>
+      </c>
+      <c r="N156" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14">
       <c r="B157" s="59" t="s">
         <v>25</v>
       </c>
@@ -4934,8 +4988,18 @@
         <f t="shared" si="39"/>
         <v>20400000</v>
       </c>
-    </row>
-    <row r="158" spans="2:9">
+      <c r="L157" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M157" s="75">
+        <f>N157*I157</f>
+        <v>204000000</v>
+      </c>
+      <c r="N157" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14">
       <c r="B158" s="59" t="s">
         <v>26</v>
       </c>
@@ -4961,10 +5025,20 @@
         <f t="shared" si="39"/>
         <v>5100000</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" ht="15.75" thickBot="1">
+      <c r="L158" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M158" s="75">
+        <f>N158*I158</f>
+        <v>51000000</v>
+      </c>
+      <c r="N158" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" ht="15.75" thickBot="1">
       <c r="B159" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C159" s="32"/>
       <c r="D159" s="35">
@@ -4988,11 +5062,21 @@
         <f t="shared" si="39"/>
         <v>5950000</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" ht="15.75" thickBot="1">
+      <c r="L159" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M159" s="76">
+        <f>N159*I159</f>
+        <v>267750000</v>
+      </c>
+      <c r="N159" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" ht="15.75" thickBot="1">
       <c r="B160" s="52"/>
       <c r="C160" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D160" s="53"/>
       <c r="E160" s="53"/>
@@ -5006,1146 +5090,2481 @@
         <v>199500000</v>
       </c>
       <c r="I160" s="64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9">
+        <v>51</v>
+      </c>
+      <c r="L160" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M160" s="78">
+        <f>SUM(M154:M159)</f>
+        <v>823083333.33333325</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14">
       <c r="H161" s="61">
         <v>0</v>
       </c>
       <c r="I161" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="15.75" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" ht="15.75" thickBot="1">
       <c r="H162" s="66">
         <f>(H160+H161)</f>
         <v>199500000</v>
       </c>
       <c r="I162" s="57"/>
     </row>
-    <row r="163" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E163" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B164" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C164" s="31" t="s">
+    <row r="165" spans="2:14">
+      <c r="B165" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C165" s="42"/>
+      <c r="H165" s="62">
+        <v>15</v>
+      </c>
+      <c r="L165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D166" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F166" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G166" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H166" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I166" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="M166" t="s">
+        <v>57</v>
+      </c>
+      <c r="N166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14">
+      <c r="B167" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="30"/>
+      <c r="D167" s="5">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F167" s="5">
+        <f>(E167*D167)</f>
+        <v>150000000</v>
+      </c>
+      <c r="G167" s="5">
+        <v>15</v>
+      </c>
+      <c r="H167" s="5">
+        <f>(F167*($H$152/100))</f>
+        <v>22500000</v>
+      </c>
+      <c r="I167" s="5">
+        <f>(F167-H167)/G167</f>
+        <v>8500000</v>
+      </c>
+      <c r="L167" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M167" s="73"/>
+      <c r="N167" s="74"/>
+    </row>
+    <row r="168" spans="2:14">
+      <c r="B168" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="32"/>
+      <c r="D168" s="5">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F168" s="5">
+        <f t="shared" ref="F168:F172" si="40">(E168*D168)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G168" s="5">
+        <v>15</v>
+      </c>
+      <c r="H168" s="5">
+        <f t="shared" ref="H168:H172" si="41">(F168*($H$152/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I168" s="5">
+        <f t="shared" ref="I168:I172" si="42">(F168-H168)/G168</f>
+        <v>14166666.666666666</v>
+      </c>
+      <c r="L168" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="M168" s="75"/>
+      <c r="N168" s="24"/>
+    </row>
+    <row r="169" spans="2:14">
+      <c r="B169" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="32"/>
+      <c r="D169" s="5">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" si="40"/>
+        <v>130000000</v>
+      </c>
+      <c r="G169" s="5">
+        <v>15</v>
+      </c>
+      <c r="H169" s="5">
+        <f t="shared" si="41"/>
+        <v>19500000</v>
+      </c>
+      <c r="I169" s="5">
+        <f t="shared" si="42"/>
+        <v>7366666.666666667</v>
+      </c>
+      <c r="L169" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M169" s="75"/>
+      <c r="N169" s="24"/>
+    </row>
+    <row r="170" spans="2:14">
+      <c r="B170" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" s="32"/>
+      <c r="D170" s="5">
+        <v>2</v>
+      </c>
+      <c r="E170" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" si="40"/>
+        <v>360000000</v>
+      </c>
+      <c r="G170" s="5">
+        <v>15</v>
+      </c>
+      <c r="H170" s="5">
+        <f t="shared" si="41"/>
+        <v>54000000</v>
+      </c>
+      <c r="I170" s="5">
+        <f t="shared" si="42"/>
+        <v>20400000</v>
+      </c>
+      <c r="L170" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M170" s="75"/>
+      <c r="N170" s="24"/>
+    </row>
+    <row r="171" spans="2:14">
+      <c r="B171" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="32"/>
+      <c r="D171" s="5">
+        <v>2</v>
+      </c>
+      <c r="E171" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="40"/>
+        <v>180000000</v>
+      </c>
+      <c r="G171" s="5">
+        <v>15</v>
+      </c>
+      <c r="H171" s="5">
+        <f t="shared" si="41"/>
+        <v>27000000</v>
+      </c>
+      <c r="I171" s="5">
+        <f t="shared" si="42"/>
+        <v>10200000</v>
+      </c>
+      <c r="L171" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M171" s="75">
+        <f>N171*I171</f>
+        <v>112200000</v>
+      </c>
+      <c r="N171" s="121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B172" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" s="32"/>
+      <c r="D172" s="35">
+        <v>1</v>
+      </c>
+      <c r="E172" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F172" s="35">
+        <f t="shared" si="40"/>
+        <v>350000000</v>
+      </c>
+      <c r="G172" s="35">
         <v>50</v>
       </c>
-      <c r="F164" t="s">
+      <c r="H172" s="35">
+        <f t="shared" si="41"/>
+        <v>52500000</v>
+      </c>
+      <c r="I172" s="5">
+        <f t="shared" si="42"/>
+        <v>5950000</v>
+      </c>
+      <c r="J172" s="107"/>
+      <c r="L172" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M172" s="76"/>
+      <c r="N172" s="27"/>
+    </row>
+    <row r="173" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B173" s="52"/>
+      <c r="C173" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="53"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="54">
+        <f>SUM(F167:F172)</f>
+        <v>1420000000</v>
+      </c>
+      <c r="G173" s="53"/>
+      <c r="H173" s="65">
+        <f>SUM(H167:H172)</f>
+        <v>213000000</v>
+      </c>
+      <c r="I173" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L173" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M173" s="78">
+        <f>SUM(M167:M172)</f>
+        <v>112200000</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14">
+      <c r="H174" s="61">
+        <v>0</v>
+      </c>
+      <c r="I174" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" ht="15.75" thickBot="1">
+      <c r="H175" s="66">
+        <f>(H173+H174)</f>
+        <v>213000000</v>
+      </c>
+      <c r="I175" s="57"/>
+    </row>
+    <row r="176" spans="2:14">
+      <c r="H176" s="37"/>
+      <c r="I176" s="32"/>
+    </row>
+    <row r="177" spans="2:14">
+      <c r="H177" s="37"/>
+      <c r="I177" s="32"/>
+    </row>
+    <row r="178" spans="2:14">
+      <c r="B178" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" s="42"/>
+      <c r="H178" s="62">
+        <v>15</v>
+      </c>
+      <c r="L178" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D179" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F179" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G179" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H179" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I179" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="M179" t="s">
+        <v>57</v>
+      </c>
+      <c r="N179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14">
+      <c r="B180" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="30"/>
+      <c r="D180" s="5">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F180" s="5">
+        <f>(E180*D180)</f>
+        <v>150000000</v>
+      </c>
+      <c r="G180" s="5">
+        <v>15</v>
+      </c>
+      <c r="H180" s="5">
+        <f>(F180*($H$152/100))</f>
+        <v>22500000</v>
+      </c>
+      <c r="I180" s="5">
+        <f>(F180-H180)/G180</f>
+        <v>8500000</v>
+      </c>
+      <c r="L180" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G164" t="s">
+      <c r="M180" s="73"/>
+      <c r="N180" s="74"/>
+    </row>
+    <row r="181" spans="2:14">
+      <c r="B181" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="32"/>
+      <c r="D181" s="5">
+        <v>1</v>
+      </c>
+      <c r="E181" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F181" s="5">
+        <f t="shared" ref="F181:F185" si="43">(E181*D181)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G181" s="5">
+        <v>15</v>
+      </c>
+      <c r="H181" s="5">
+        <f t="shared" ref="H181:H185" si="44">(F181*($H$152/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I181" s="5">
+        <f t="shared" ref="I181:I185" si="45">(F181-H181)/G181</f>
+        <v>14166666.666666666</v>
+      </c>
+      <c r="L181" s="59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="5">
-        <f>SUM($I$154:$I$159)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E165" s="58" t="s">
+      <c r="M181" s="75"/>
+      <c r="N181" s="24"/>
+    </row>
+    <row r="182" spans="2:14">
+      <c r="B182" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="32"/>
+      <c r="D182" s="5">
+        <v>2</v>
+      </c>
+      <c r="E182" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="F182" s="5">
+        <f t="shared" si="43"/>
+        <v>260000000</v>
+      </c>
+      <c r="G182" s="5">
+        <v>15</v>
+      </c>
+      <c r="H182" s="5">
+        <f t="shared" si="44"/>
+        <v>39000000</v>
+      </c>
+      <c r="I182" s="5">
+        <f t="shared" si="45"/>
+        <v>14733333.333333334</v>
+      </c>
+      <c r="L182" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F165" s="73">
-        <f>G165*I154</f>
-        <v>85000000</v>
-      </c>
-      <c r="G165" s="74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9">
-      <c r="B166" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="5">
-        <f t="shared" ref="C166:C169" si="40">SUM($I$154:$I$159)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E166" s="59" t="s">
+      <c r="M182" s="75">
+        <f>N182*I182</f>
+        <v>176800000</v>
+      </c>
+      <c r="N182" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14">
+      <c r="B183" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="D183" s="5">
+        <v>2</v>
+      </c>
+      <c r="E183" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="F183" s="5">
+        <f t="shared" si="43"/>
+        <v>360000000</v>
+      </c>
+      <c r="G183" s="5">
+        <v>15</v>
+      </c>
+      <c r="H183" s="5">
+        <f t="shared" si="44"/>
+        <v>54000000</v>
+      </c>
+      <c r="I183" s="5">
+        <f t="shared" si="45"/>
+        <v>20400000</v>
+      </c>
+      <c r="L183" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F166" s="75">
-        <f t="shared" ref="F166:F170" si="41">G166*I155</f>
-        <v>141666666.66666666</v>
-      </c>
-      <c r="G166" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="B167" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="5">
-        <f t="shared" si="40"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E167" s="59" t="s">
+      <c r="M183" s="75"/>
+      <c r="N183" s="24"/>
+    </row>
+    <row r="184" spans="2:14">
+      <c r="B184" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="D184" s="5">
+        <v>2</v>
+      </c>
+      <c r="E184" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="F184" s="5">
+        <f t="shared" si="43"/>
+        <v>180000000</v>
+      </c>
+      <c r="G184" s="5">
+        <v>15</v>
+      </c>
+      <c r="H184" s="5">
+        <f t="shared" si="44"/>
+        <v>27000000</v>
+      </c>
+      <c r="I184" s="5">
+        <f t="shared" si="45"/>
+        <v>10200000</v>
+      </c>
+      <c r="L184" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F167" s="75">
-        <f t="shared" si="41"/>
-        <v>73666666.666666672</v>
-      </c>
-      <c r="G167" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="5">
-        <f t="shared" si="40"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E168" s="59" t="s">
+      <c r="M184" s="75"/>
+      <c r="N184" s="24"/>
+    </row>
+    <row r="185" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B185" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="32"/>
+      <c r="D185" s="35">
+        <v>1</v>
+      </c>
+      <c r="E185" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F185" s="35">
+        <f t="shared" si="43"/>
+        <v>350000000</v>
+      </c>
+      <c r="G185" s="35">
+        <v>50</v>
+      </c>
+      <c r="H185" s="35">
+        <f t="shared" si="44"/>
+        <v>52500000</v>
+      </c>
+      <c r="I185" s="5">
+        <f t="shared" si="45"/>
+        <v>5950000</v>
+      </c>
+      <c r="L185" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M185" s="76"/>
+      <c r="N185" s="27"/>
+    </row>
+    <row r="186" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B186" s="52"/>
+      <c r="C186" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="54">
+        <f>SUM(F180:F185)</f>
+        <v>1550000000</v>
+      </c>
+      <c r="G186" s="53"/>
+      <c r="H186" s="65">
+        <f>SUM(H180:H185)</f>
+        <v>232500000</v>
+      </c>
+      <c r="I186" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L186" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M186" s="78">
+        <f>SUM(M180:M185)</f>
+        <v>176800000</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14">
+      <c r="H187" s="61">
+        <v>0</v>
+      </c>
+      <c r="I187" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" ht="15.75" thickBot="1">
+      <c r="H188" s="66">
+        <f>(H186+H187)</f>
+        <v>232500000</v>
+      </c>
+      <c r="I188" s="57"/>
+    </row>
+    <row r="189" spans="2:14">
+      <c r="H189" s="37"/>
+      <c r="I189" s="32"/>
+    </row>
+    <row r="190" spans="2:14">
+      <c r="H190" s="37"/>
+      <c r="I190" s="32"/>
+    </row>
+    <row r="191" spans="2:14">
+      <c r="B191" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" s="42"/>
+      <c r="H191" s="62">
+        <v>15</v>
+      </c>
+      <c r="L191" t="s">
         <v>64</v>
       </c>
-      <c r="F168" s="75">
-        <f t="shared" si="41"/>
-        <v>204000000</v>
-      </c>
-      <c r="G168" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="33" t="s">
+    </row>
+    <row r="192" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D192" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H192" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I192" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="M192" t="s">
+        <v>57</v>
+      </c>
+      <c r="N192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14">
+      <c r="B193" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="5">
+        <v>2</v>
+      </c>
+      <c r="E193" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F193" s="5">
+        <f>(E193*D193)</f>
+        <v>300000000</v>
+      </c>
+      <c r="G193" s="5">
+        <v>15</v>
+      </c>
+      <c r="H193" s="5">
+        <f>(F193*($H$152/100))</f>
+        <v>45000000</v>
+      </c>
+      <c r="I193" s="5">
+        <f>(F193-H193)/G193</f>
+        <v>17000000</v>
+      </c>
+      <c r="L193" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M193" s="73">
+        <f>N193*I193</f>
+        <v>221000000</v>
+      </c>
+      <c r="N193" s="74">
         <v>13</v>
       </c>
-      <c r="C169" s="5">
-        <f t="shared" si="40"/>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="E169" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F169" s="75">
-        <f t="shared" si="41"/>
-        <v>51000000</v>
-      </c>
-      <c r="G169" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="E170" s="60" t="s">
+    </row>
+    <row r="194" spans="2:14">
+      <c r="B194" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="32"/>
+      <c r="D194" s="5">
+        <v>1</v>
+      </c>
+      <c r="E194" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" ref="F194:F198" si="46">(E194*D194)</f>
+        <v>250000000</v>
+      </c>
+      <c r="G194" s="5">
+        <v>15</v>
+      </c>
+      <c r="H194" s="5">
+        <f t="shared" ref="H194:H198" si="47">(F194*($H$152/100))</f>
+        <v>37500000</v>
+      </c>
+      <c r="I194" s="5">
+        <f t="shared" ref="I194:I198" si="48">(F194-H194)/G194</f>
+        <v>14166666.666666666</v>
+      </c>
+      <c r="L194" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="M194" s="75"/>
+      <c r="N194" s="24"/>
+    </row>
+    <row r="195" spans="2:14">
+      <c r="B195" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="32"/>
+      <c r="D195" s="5">
+        <v>2</v>
+      </c>
+      <c r="E195" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="46"/>
+        <v>260000000</v>
+      </c>
+      <c r="G195" s="5">
+        <v>15</v>
+      </c>
+      <c r="H195" s="5">
+        <f t="shared" si="47"/>
+        <v>39000000</v>
+      </c>
+      <c r="I195" s="5">
+        <f t="shared" si="48"/>
+        <v>14733333.333333334</v>
+      </c>
+      <c r="L195" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M195" s="75"/>
+      <c r="N195" s="24"/>
+    </row>
+    <row r="196" spans="2:14">
+      <c r="B196" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="32"/>
+      <c r="D196" s="5">
+        <v>2</v>
+      </c>
+      <c r="E196" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="F196" s="5">
+        <f t="shared" si="46"/>
+        <v>360000000</v>
+      </c>
+      <c r="G196" s="5">
+        <v>15</v>
+      </c>
+      <c r="H196" s="5">
+        <f t="shared" si="47"/>
+        <v>54000000</v>
+      </c>
+      <c r="I196" s="5">
+        <f t="shared" si="48"/>
+        <v>20400000</v>
+      </c>
+      <c r="L196" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M196" s="75"/>
+      <c r="N196" s="24"/>
+    </row>
+    <row r="197" spans="2:14">
+      <c r="B197" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="D197" s="5">
+        <v>2</v>
+      </c>
+      <c r="E197" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="F197" s="5">
+        <f t="shared" si="46"/>
+        <v>180000000</v>
+      </c>
+      <c r="G197" s="5">
+        <v>15</v>
+      </c>
+      <c r="H197" s="5">
+        <f t="shared" si="47"/>
+        <v>27000000</v>
+      </c>
+      <c r="I197" s="5">
+        <f t="shared" si="48"/>
+        <v>10200000</v>
+      </c>
+      <c r="L197" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M197" s="75"/>
+      <c r="N197" s="24"/>
+    </row>
+    <row r="198" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B198" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="32"/>
+      <c r="D198" s="35">
+        <v>1</v>
+      </c>
+      <c r="E198" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F198" s="35">
+        <f t="shared" si="46"/>
+        <v>350000000</v>
+      </c>
+      <c r="G198" s="35">
+        <v>50</v>
+      </c>
+      <c r="H198" s="35">
+        <f t="shared" si="47"/>
+        <v>52500000</v>
+      </c>
+      <c r="I198" s="5">
+        <f t="shared" si="48"/>
+        <v>5950000</v>
+      </c>
+      <c r="L198" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M198" s="76"/>
+      <c r="N198" s="27"/>
+    </row>
+    <row r="199" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B199" s="52"/>
+      <c r="C199" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D199" s="53"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="54">
+        <f>SUM(F193:F198)</f>
+        <v>1700000000</v>
+      </c>
+      <c r="G199" s="53"/>
+      <c r="H199" s="65">
+        <f>SUM(H193:H198)</f>
+        <v>255000000</v>
+      </c>
+      <c r="I199" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L199" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M199" s="78">
+        <f>SUM(M193:M198)</f>
+        <v>221000000</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14">
+      <c r="H200" s="61">
+        <v>0</v>
+      </c>
+      <c r="I200" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" ht="15.75" thickBot="1">
+      <c r="H201" s="66">
+        <f>(H199+H200)</f>
+        <v>255000000</v>
+      </c>
+      <c r="I201" s="57"/>
+    </row>
+    <row r="202" spans="2:14">
+      <c r="H202" s="37"/>
+      <c r="I202" s="32"/>
+    </row>
+    <row r="203" spans="2:14">
+      <c r="H203" s="37"/>
+      <c r="I203" s="32"/>
+    </row>
+    <row r="204" spans="2:14">
+      <c r="H204" s="37"/>
+      <c r="I204" s="32"/>
+    </row>
+    <row r="205" spans="2:14">
+      <c r="B205" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C205" s="42"/>
+      <c r="H205" s="62">
+        <v>15</v>
+      </c>
+      <c r="L205" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" ht="15.75" thickBot="1">
+      <c r="D206" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F170" s="76">
-        <f t="shared" si="41"/>
-        <v>267750000</v>
-      </c>
-      <c r="G170" s="27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" ht="15.75" thickBot="1">
-      <c r="E171" s="77" t="s">
+      <c r="F206" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G206" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I206" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="M206" t="s">
+        <v>57</v>
+      </c>
+      <c r="N206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14">
+      <c r="B207" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="5">
+        <v>2</v>
+      </c>
+      <c r="E207" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="F207" s="5">
+        <f>(E207*D207)</f>
+        <v>300000000</v>
+      </c>
+      <c r="G207" s="5">
+        <v>15</v>
+      </c>
+      <c r="H207" s="5">
+        <f>(F207*($H$152/100))</f>
+        <v>45000000</v>
+      </c>
+      <c r="I207" s="5">
+        <f>(F207-H207)/G207</f>
+        <v>17000000</v>
+      </c>
+      <c r="L207" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F171" s="78">
-        <f>SUM(F165:F170)</f>
-        <v>823083333.33333325</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9">
-      <c r="B172" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D173" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I173" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9">
-      <c r="B174" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="30"/>
-      <c r="D174" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="E174" s="69"/>
-      <c r="F174" s="69"/>
-      <c r="G174" s="69"/>
-      <c r="H174" s="69">
-        <f>D174</f>
-        <v>150000000</v>
-      </c>
-      <c r="I174" s="69"/>
-    </row>
-    <row r="175" spans="2:9">
-      <c r="B175" s="59" t="s">
+      <c r="M207" s="73"/>
+      <c r="N207" s="74"/>
+    </row>
+    <row r="208" spans="2:14">
+      <c r="B208" s="59" t="s">
         <v>23</v>
-      </c>
-      <c r="C175" s="32"/>
-      <c r="D175" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69">
-        <f>D175</f>
-        <v>250000000</v>
-      </c>
-      <c r="I175" s="69"/>
-    </row>
-    <row r="176" spans="2:9">
-      <c r="B176" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" s="32"/>
-      <c r="D176" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="E176" s="69"/>
-      <c r="F176" s="69"/>
-      <c r="G176" s="69">
-        <f>D176</f>
-        <v>130000000</v>
-      </c>
-      <c r="H176" s="69"/>
-      <c r="I176" s="69"/>
-    </row>
-    <row r="177" spans="2:9">
-      <c r="B177" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C177" s="32"/>
-      <c r="D177" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="E177" s="69">
-        <f>D177</f>
-        <v>180000000</v>
-      </c>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
-    </row>
-    <row r="178" spans="2:9">
-      <c r="B178" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C178" s="32"/>
-      <c r="D178" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="E178" s="69"/>
-      <c r="F178" s="69">
-        <f>D178</f>
-        <v>90000000</v>
-      </c>
-      <c r="G178" s="69"/>
-      <c r="H178" s="69"/>
-      <c r="I178" s="69"/>
-    </row>
-    <row r="179" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B179" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C179" s="32"/>
-      <c r="D179" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="E179" s="70"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="70"/>
-    </row>
-    <row r="180" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C180" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D180" s="72">
-        <f>SUM(D174:D179)</f>
-        <v>1150000000</v>
-      </c>
-      <c r="E180" s="72">
-        <f t="shared" ref="E180:I180" si="42">SUM(E174:E179)</f>
-        <v>180000000</v>
-      </c>
-      <c r="F180" s="72">
-        <f t="shared" si="42"/>
-        <v>90000000</v>
-      </c>
-      <c r="G180" s="72">
-        <f t="shared" si="42"/>
-        <v>130000000</v>
-      </c>
-      <c r="H180" s="72">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="I180" s="72">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9">
-      <c r="B182" s="84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9">
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9">
-      <c r="B184" t="s">
-        <v>90</v>
-      </c>
-      <c r="E184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9">
-      <c r="B185" t="s">
-        <v>88</v>
-      </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B186" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C186" s="82"/>
-      <c r="D186" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9">
-      <c r="B187" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C187" s="31"/>
-      <c r="D187" s="80">
-        <f>$C$185*SUM(E69,E78,E87,E96)</f>
-        <v>8</v>
-      </c>
-      <c r="E187" s="80">
-        <f>$C$185*SUM(H69,H78,H87,H96)</f>
-        <v>8</v>
-      </c>
-      <c r="F187" s="80">
-        <f>$C$185*SUM(K69,K78,K87,K96)</f>
-        <v>8</v>
-      </c>
-      <c r="G187" s="80">
-        <f>$C$185*SUM(N69,N78,N87,N96)</f>
-        <v>10</v>
-      </c>
-      <c r="H187" s="80">
-        <f>$C$185*SUM(Q69,Q78,Q87,Q96)</f>
-        <v>10</v>
-      </c>
-      <c r="I187" s="5">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9">
-      <c r="B188" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C188" s="56"/>
-      <c r="D188" s="80">
-        <f>$C$185*SUM(E70,E79,E88,E97)</f>
-        <v>8</v>
-      </c>
-      <c r="E188" s="80">
-        <f t="shared" ref="E188:E191" si="43">$C$185*SUM(H70,H79,H88,H97)</f>
-        <v>8</v>
-      </c>
-      <c r="F188" s="80">
-        <f t="shared" ref="F188:F191" si="44">$C$185*SUM(K70,K79,K88,K97)</f>
-        <v>8</v>
-      </c>
-      <c r="G188" s="80">
-        <f t="shared" ref="G188:G191" si="45">$C$185*SUM(N70,N79,N88,N97)</f>
-        <v>8</v>
-      </c>
-      <c r="H188" s="80">
-        <f>$C$185*SUM(Q70,Q79,Q88,Q97)</f>
-        <v>10</v>
-      </c>
-      <c r="I188" s="5">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9">
-      <c r="B189" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C189" s="56"/>
-      <c r="D189" s="80">
-        <f>$C$185*SUM(E71,E80,E89,E98)</f>
-        <v>8</v>
-      </c>
-      <c r="E189" s="80">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-      <c r="F189" s="80">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="G189" s="80">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="H189" s="80">
-        <f>$C$185*SUM(Q71,Q80,Q89,Q98)</f>
-        <v>10</v>
-      </c>
-      <c r="I189" s="5">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9">
-      <c r="B190" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C190" s="56"/>
-      <c r="D190" s="80">
-        <f>$C$185*SUM(E72,E81,E90,E99)</f>
-        <v>10</v>
-      </c>
-      <c r="E190" s="80">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="F190" s="80">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="G190" s="80">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="H190" s="80">
-        <f>$C$185*SUM(Q72,Q81,Q90,Q99)</f>
-        <v>10</v>
-      </c>
-      <c r="I190" s="5">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9">
-      <c r="B191" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C191" s="56"/>
-      <c r="D191" s="80">
-        <f>$C$185*SUM(E73,E82,E91,E100)</f>
-        <v>8</v>
-      </c>
-      <c r="E191" s="80">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="F191" s="80">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="G191" s="80">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="H191" s="80">
-        <f>$C$185*SUM(Q73,Q82,Q91,Q100)</f>
-        <v>10</v>
-      </c>
-      <c r="I191" s="5">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9">
-      <c r="B192" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C192" s="56"/>
-      <c r="D192" s="88">
-        <f>D193*$E$184</f>
-        <v>24</v>
-      </c>
-      <c r="E192" s="88">
-        <f t="shared" ref="E192:H192" si="46">E193*$E$184</f>
-        <v>24</v>
-      </c>
-      <c r="F192" s="88">
-        <f t="shared" si="46"/>
-        <v>24</v>
-      </c>
-      <c r="G192" s="88">
-        <f t="shared" si="46"/>
-        <v>24</v>
-      </c>
-      <c r="H192" s="88">
-        <f t="shared" si="46"/>
-        <v>30</v>
-      </c>
-      <c r="I192" s="5">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B193" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C193" s="57"/>
-      <c r="D193" s="88">
-        <f>$C$185*D123</f>
-        <v>8</v>
-      </c>
-      <c r="E193" s="88">
-        <f t="shared" ref="E193:H193" si="47">$C$185*E123</f>
-        <v>8</v>
-      </c>
-      <c r="F193" s="88">
-        <f t="shared" si="47"/>
-        <v>8</v>
-      </c>
-      <c r="G193" s="88">
-        <f t="shared" si="47"/>
-        <v>8</v>
-      </c>
-      <c r="H193" s="88">
-        <f t="shared" si="47"/>
-        <v>10</v>
-      </c>
-      <c r="I193" s="5">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9">
-      <c r="B194" s="36"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="37"/>
-    </row>
-    <row r="195" spans="2:9">
-      <c r="B195" s="84"/>
-      <c r="D195">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B196" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C196" s="82"/>
-      <c r="D196" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E196" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="F196" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G196" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H196" s="79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9">
-      <c r="B197" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C197" s="31"/>
-      <c r="D197" s="88">
-        <f>I187*($D$195/100)</f>
-        <v>36250</v>
-      </c>
-      <c r="E197" s="5">
-        <f>(E$115*D197)/D$115</f>
-        <v>36647.772342675831</v>
-      </c>
-      <c r="F197" s="5">
-        <f t="shared" ref="F197" si="48">(F$115*E197)/E$115</f>
-        <v>37178.135466243613</v>
-      </c>
-      <c r="G197" s="5">
-        <f t="shared" ref="G197:H197" si="49">(G$115*F197)/F$115</f>
-        <v>37575.907808919445</v>
-      </c>
-      <c r="H197" s="5">
-        <f t="shared" si="49"/>
-        <v>44338.037634408611</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9">
-      <c r="B198" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C198" s="56"/>
-      <c r="D198" s="88">
-        <f t="shared" ref="D198:D201" si="50">I188*($D$195/100)</f>
-        <v>43750</v>
-      </c>
-      <c r="E198" s="5">
-        <f t="shared" ref="E198:F202" si="51">(E$115*D198)/D$115</f>
-        <v>44230.070068746696</v>
-      </c>
-      <c r="F198" s="5">
-        <f t="shared" si="51"/>
-        <v>44870.163493742293</v>
-      </c>
-      <c r="G198" s="5">
-        <f t="shared" ref="G198:H198" si="52">(G$115*F198)/F$115</f>
-        <v>45350.233562488989</v>
-      </c>
-      <c r="H198" s="5">
-        <f t="shared" si="52"/>
-        <v>53511.424731182808</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C199" s="56"/>
-      <c r="D199" s="88">
-        <f t="shared" si="50"/>
-        <v>33750</v>
-      </c>
-      <c r="E199" s="5">
-        <f t="shared" si="51"/>
-        <v>34120.339767318881</v>
-      </c>
-      <c r="F199" s="5">
-        <f t="shared" si="51"/>
-        <v>34614.126123744056</v>
-      </c>
-      <c r="G199" s="5">
-        <f t="shared" ref="G199:H199" si="53">(G$115*F199)/F$115</f>
-        <v>34984.465891062937</v>
-      </c>
-      <c r="H199" s="5">
-        <f t="shared" si="53"/>
-        <v>41280.241935483886</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9">
-      <c r="B200" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C200" s="56"/>
-      <c r="D200" s="88">
-        <f t="shared" si="50"/>
-        <v>32500</v>
-      </c>
-      <c r="E200" s="5">
-        <f t="shared" si="51"/>
-        <v>32856.623479640402</v>
-      </c>
-      <c r="F200" s="5">
-        <f t="shared" si="51"/>
-        <v>33332.121452494277</v>
-      </c>
-      <c r="G200" s="5">
-        <f t="shared" ref="G200:H200" si="54">(G$115*F200)/F$115</f>
-        <v>33688.744932134679</v>
-      </c>
-      <c r="H200" s="5">
-        <f t="shared" si="54"/>
-        <v>39751.34408602152</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B201" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C201" s="57"/>
-      <c r="D201" s="89">
-        <f t="shared" si="50"/>
-        <v>30000</v>
-      </c>
-      <c r="E201" s="35">
-        <f t="shared" si="51"/>
-        <v>30329.190904283445</v>
-      </c>
-      <c r="F201" s="35">
-        <f t="shared" si="51"/>
-        <v>30768.112109994712</v>
-      </c>
-      <c r="G201" s="35">
-        <f t="shared" ref="G201:H202" si="55">(G$115*F201)/F$115</f>
-        <v>31097.303014278161</v>
-      </c>
-      <c r="H201" s="35">
-        <f t="shared" si="55"/>
-        <v>36693.54838709678</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D202" s="90">
-        <f>SUM(D197:D201)</f>
-        <v>176250</v>
-      </c>
-      <c r="E202" s="91">
-        <f t="shared" si="51"/>
-        <v>178183.99656266527</v>
-      </c>
-      <c r="F202" s="91">
-        <f t="shared" si="51"/>
-        <v>180762.65864621897</v>
-      </c>
-      <c r="G202" s="91">
-        <f t="shared" si="55"/>
-        <v>182696.65520888424</v>
-      </c>
-      <c r="H202" s="92">
-        <f t="shared" si="55"/>
-        <v>215574.59677419363</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B205" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D205" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H205" s="79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9">
-      <c r="B206" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C206" s="30"/>
-      <c r="D206" s="5">
-        <f>D187*($I187+D197)*12</f>
-        <v>31320000</v>
-      </c>
-      <c r="E206" s="5">
-        <f>E187*($I187+E197)*12</f>
-        <v>31358186.14489688</v>
-      </c>
-      <c r="F206" s="5">
-        <f>F187*($I187+F197)*12</f>
-        <v>31409101.004759386</v>
-      </c>
-      <c r="G206" s="5">
-        <f>G187*($I187+G197)*12</f>
-        <v>39309108.937070332</v>
-      </c>
-      <c r="H206" s="5">
-        <f>H187*($I187+H197)*12</f>
-        <v>40120564.516129032</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9">
-      <c r="B207" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C207" s="32"/>
-      <c r="D207" s="5">
-        <f>D188*($I188+D198)*12</f>
-        <v>37800000</v>
-      </c>
-      <c r="E207" s="5">
-        <f>E188*($I188+E198)*12</f>
-        <v>37846086.726599678</v>
-      </c>
-      <c r="F207" s="5">
-        <f>F188*($I188+F198)*12</f>
-        <v>37907535.695399262</v>
-      </c>
-      <c r="G207" s="5">
-        <f>G188*($I188+G198)*12</f>
-        <v>37953622.42199894</v>
-      </c>
-      <c r="H207" s="5">
-        <f>H188*($I188+H198)*12</f>
-        <v>48421370.967741936</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9">
-      <c r="B208" s="59" t="s">
-        <v>69</v>
       </c>
       <c r="C208" s="32"/>
       <c r="D208" s="5">
-        <f>D189*($I189+D199)*12</f>
-        <v>29160000</v>
+        <v>2</v>
       </c>
       <c r="E208" s="5">
-        <f>E189*($I189+E199)*12</f>
-        <v>29195552.617662609</v>
+        <v>250000000</v>
       </c>
       <c r="F208" s="5">
-        <f>F189*($I189+F199)*12</f>
-        <v>36553695.134849288</v>
+        <f t="shared" ref="F208:F212" si="49">(E208*D208)</f>
+        <v>500000000</v>
       </c>
       <c r="G208" s="5">
-        <f>G189*($I189+G199)*12</f>
-        <v>36598135.906927556</v>
+        <v>15</v>
       </c>
       <c r="H208" s="5">
-        <f>H189*($I189+H199)*12</f>
-        <v>37353629.032258064</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8">
+        <f t="shared" ref="H208:H212" si="50">(F208*($H$152/100))</f>
+        <v>75000000</v>
+      </c>
+      <c r="I208" s="5">
+        <f t="shared" ref="I208:I212" si="51">(F208-H208)/G208</f>
+        <v>28333333.333333332</v>
+      </c>
+      <c r="L208" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="M208" s="75">
+        <f>N208*I209</f>
+        <v>206266666.66666669</v>
+      </c>
+      <c r="N208" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14">
       <c r="B209" s="59" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C209" s="32"/>
       <c r="D209" s="5">
-        <f>D190*($I190+D200)*12</f>
-        <v>35100000</v>
+        <v>2</v>
       </c>
       <c r="E209" s="5">
-        <f>E190*($I190+E200)*12</f>
-        <v>35142794.817556843</v>
+        <v>130000000</v>
       </c>
       <c r="F209" s="5">
-        <f>F190*($I190+F200)*12</f>
-        <v>35199854.574299313</v>
+        <f t="shared" si="49"/>
+        <v>260000000</v>
       </c>
       <c r="G209" s="5">
-        <f>G190*($I190+G200)*12</f>
-        <v>35242649.391856164</v>
+        <v>15</v>
       </c>
       <c r="H209" s="5">
-        <f>H190*($I190+H200)*12</f>
-        <v>35970161.290322587</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8">
+        <f t="shared" si="50"/>
+        <v>39000000</v>
+      </c>
+      <c r="I209" s="5">
+        <f t="shared" si="51"/>
+        <v>14733333.333333334</v>
+      </c>
+      <c r="L209" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="M209" s="75"/>
+      <c r="N209" s="24"/>
+    </row>
+    <row r="210" spans="2:14">
       <c r="B210" s="59" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C210" s="32"/>
       <c r="D210" s="5">
-        <f>D191*($I191+D201)*12</f>
-        <v>25920000</v>
+        <v>2</v>
       </c>
       <c r="E210" s="5">
-        <f>E191*($I191+E201)*12</f>
-        <v>32439502.908514012</v>
+        <v>180000000</v>
       </c>
       <c r="F210" s="5">
-        <f>F191*($I191+F201)*12</f>
-        <v>32492173.453199364</v>
+        <f t="shared" si="49"/>
+        <v>360000000</v>
       </c>
       <c r="G210" s="5">
-        <f>G191*($I191+G201)*12</f>
-        <v>32531676.36171338</v>
+        <v>15</v>
       </c>
       <c r="H210" s="5">
-        <f>H191*($I191+H201)*12</f>
-        <v>33203225.806451611</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8">
+        <f t="shared" si="50"/>
+        <v>54000000</v>
+      </c>
+      <c r="I210" s="5">
+        <f t="shared" si="51"/>
+        <v>20400000</v>
+      </c>
+      <c r="L210" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M210" s="75"/>
+      <c r="N210" s="24"/>
+    </row>
+    <row r="211" spans="2:14">
       <c r="B211" s="59" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C211" s="32"/>
       <c r="D211" s="5">
-        <f t="shared" ref="D211:H212" si="56">D192*$I192*12</f>
-        <v>54720000</v>
+        <v>2</v>
       </c>
       <c r="E211" s="5">
-        <f t="shared" si="56"/>
-        <v>54720000</v>
+        <v>90000000</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="56"/>
-        <v>54720000</v>
+        <f t="shared" si="49"/>
+        <v>180000000</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="56"/>
-        <v>54720000</v>
+        <v>15</v>
       </c>
       <c r="H211" s="5">
-        <f t="shared" si="56"/>
-        <v>68400000</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B212" s="59" t="s">
-        <v>73</v>
+        <f t="shared" si="50"/>
+        <v>27000000</v>
+      </c>
+      <c r="I211" s="5">
+        <f t="shared" si="51"/>
+        <v>10200000</v>
+      </c>
+      <c r="L211" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M211" s="75"/>
+      <c r="N211" s="24"/>
+    </row>
+    <row r="212" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B212" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="C212" s="32"/>
       <c r="D212" s="35">
+        <v>1</v>
+      </c>
+      <c r="E212" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="F212" s="35">
+        <f t="shared" si="49"/>
+        <v>350000000</v>
+      </c>
+      <c r="G212" s="35">
+        <v>50</v>
+      </c>
+      <c r="H212" s="35">
+        <f t="shared" si="50"/>
+        <v>52500000</v>
+      </c>
+      <c r="I212" s="5">
+        <f t="shared" si="51"/>
+        <v>5950000</v>
+      </c>
+      <c r="L212" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M212" s="76"/>
+      <c r="N212" s="27"/>
+    </row>
+    <row r="213" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B213" s="52"/>
+      <c r="C213" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D213" s="53"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="54">
+        <f>SUM(F207:F212)</f>
+        <v>1950000000</v>
+      </c>
+      <c r="G213" s="53"/>
+      <c r="H213" s="65">
+        <f>SUM(H207:H212)</f>
+        <v>292500000</v>
+      </c>
+      <c r="I213" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="L213" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M213" s="78">
+        <f>SUM(M207:M212)</f>
+        <v>206266666.66666669</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14">
+      <c r="H214" s="61">
+        <v>0</v>
+      </c>
+      <c r="I214" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" ht="15.75" thickBot="1">
+      <c r="H215" s="66">
+        <f>(H213+H214)</f>
+        <v>292500000</v>
+      </c>
+      <c r="I215" s="57"/>
+    </row>
+    <row r="216" spans="2:14">
+      <c r="H216" s="37"/>
+      <c r="I216" s="32"/>
+    </row>
+    <row r="217" spans="2:14">
+      <c r="H217" s="37"/>
+      <c r="I217" s="32"/>
+    </row>
+    <row r="218" spans="2:14">
+      <c r="H218" s="37"/>
+      <c r="I218" s="32"/>
+    </row>
+    <row r="219" spans="2:14">
+      <c r="B219" s="33"/>
+      <c r="C219" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" s="37"/>
+      <c r="I219" s="32"/>
+    </row>
+    <row r="220" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B220" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C220" s="5">
+        <f>SUM(I154:I159)</f>
+        <v>61483333.333333328</v>
+      </c>
+      <c r="D220" s="5">
+        <f>SUM(I167:I172)</f>
+        <v>66583333.333333328</v>
+      </c>
+      <c r="E220" s="5">
+        <f>SUM(I180:I185)</f>
+        <v>73950000</v>
+      </c>
+      <c r="F220" s="5">
+        <f>SUM(I193:I198)</f>
+        <v>82450000</v>
+      </c>
+      <c r="G220" s="5">
+        <f>SUM(I207:I212)</f>
+        <v>96616666.666666657</v>
+      </c>
+      <c r="H220" s="37">
+        <f>SUM(C220:G220)</f>
+        <v>381083333.33333325</v>
+      </c>
+      <c r="I220" s="32"/>
+    </row>
+    <row r="221" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B221" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" s="78">
+        <f>M160</f>
+        <v>823083333.33333325</v>
+      </c>
+      <c r="D221" s="5">
+        <f>M173</f>
+        <v>112200000</v>
+      </c>
+      <c r="E221" s="5">
+        <f>M186</f>
+        <v>176800000</v>
+      </c>
+      <c r="F221" s="5">
+        <f>M199</f>
+        <v>221000000</v>
+      </c>
+      <c r="G221" s="5">
+        <f>M213</f>
+        <v>206266666.66666669</v>
+      </c>
+      <c r="H221" s="37">
+        <f>SUM(C221:G221)</f>
+        <v>1539350000</v>
+      </c>
+      <c r="I221" s="32"/>
+    </row>
+    <row r="222" spans="2:14">
+      <c r="B222" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" s="5">
+        <f>H162</f>
+        <v>199500000</v>
+      </c>
+      <c r="D222" s="5">
+        <f>H175</f>
+        <v>213000000</v>
+      </c>
+      <c r="E222" s="5">
+        <f>H188</f>
+        <v>232500000</v>
+      </c>
+      <c r="F222" s="5">
+        <f>H201</f>
+        <v>255000000</v>
+      </c>
+      <c r="G222" s="5">
+        <f>H215</f>
+        <v>292500000</v>
+      </c>
+      <c r="H222" s="37">
+        <f>SUM(C222:G222)</f>
+        <v>1192500000</v>
+      </c>
+      <c r="I222" s="32"/>
+    </row>
+    <row r="223" spans="2:14">
+      <c r="H223" s="120"/>
+      <c r="I223" s="32"/>
+    </row>
+    <row r="224" spans="2:14">
+      <c r="H224" s="37"/>
+      <c r="I224" s="32"/>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="H225" s="37"/>
+      <c r="I225" s="32"/>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="H226" s="37"/>
+      <c r="I226" s="32"/>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="H227" s="37"/>
+      <c r="I227" s="32"/>
+    </row>
+    <row r="228" spans="2:9">
+      <c r="H228" s="37"/>
+      <c r="I228" s="32"/>
+    </row>
+    <row r="229" spans="2:9">
+      <c r="H229" s="37"/>
+      <c r="I229" s="32"/>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="H230" s="37"/>
+      <c r="I230" s="32"/>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D237" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I237" s="68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="30"/>
+      <c r="D238" s="5">
+        <v>150000000</v>
+      </c>
+      <c r="E238" s="69"/>
+      <c r="F238" s="69"/>
+      <c r="G238" s="69"/>
+      <c r="H238" s="69">
+        <f>D238</f>
+        <v>150000000</v>
+      </c>
+      <c r="I238" s="69"/>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="B239" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="32"/>
+      <c r="D239" s="5">
+        <v>250000000</v>
+      </c>
+      <c r="E239" s="69"/>
+      <c r="F239" s="69"/>
+      <c r="G239" s="69"/>
+      <c r="I239" s="69">
+        <f>D239</f>
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="32"/>
+      <c r="D240" s="5">
+        <v>130000000</v>
+      </c>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69">
+        <f>D240</f>
+        <v>130000000</v>
+      </c>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="32"/>
+      <c r="D241" s="5">
+        <v>180000000</v>
+      </c>
+      <c r="E241" s="69">
+        <f>D241</f>
+        <v>180000000</v>
+      </c>
+      <c r="F241" s="69"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
+      <c r="I241" s="69"/>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="B242" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="32"/>
+      <c r="D242" s="5">
+        <v>90000000</v>
+      </c>
+      <c r="E242" s="69"/>
+      <c r="F242" s="69">
+        <f>D242</f>
+        <v>90000000</v>
+      </c>
+      <c r="G242" s="69"/>
+      <c r="H242" s="69"/>
+      <c r="I242" s="69"/>
+    </row>
+    <row r="243" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B243" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="32"/>
+      <c r="D243" s="35">
+        <v>350000000</v>
+      </c>
+      <c r="E243" s="70"/>
+      <c r="F243" s="70"/>
+      <c r="G243" s="70"/>
+      <c r="H243" s="70"/>
+      <c r="I243" s="70"/>
+    </row>
+    <row r="244" spans="2:9" ht="15.75" thickBot="1">
+      <c r="C244" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D244" s="72">
+        <f>SUM(D238:D243)</f>
+        <v>1150000000</v>
+      </c>
+      <c r="E244" s="72">
+        <f t="shared" ref="E244:I244" si="52">SUM(E238:E243)</f>
+        <v>180000000</v>
+      </c>
+      <c r="F244" s="72">
+        <f t="shared" si="52"/>
+        <v>90000000</v>
+      </c>
+      <c r="G244" s="72">
+        <f t="shared" si="52"/>
+        <v>130000000</v>
+      </c>
+      <c r="H244" s="72">
+        <f t="shared" si="52"/>
+        <v>150000000</v>
+      </c>
+      <c r="I244" s="72">
+        <f t="shared" si="52"/>
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="C245" s="32"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="37"/>
+      <c r="F245" s="37"/>
+      <c r="G245" s="37"/>
+      <c r="H245" s="37"/>
+      <c r="I245" s="37"/>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="C246" s="32"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="37"/>
+      <c r="F246" s="37"/>
+      <c r="G246" s="37"/>
+      <c r="H246" s="37"/>
+      <c r="I246" s="37"/>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="C247" s="32"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="37"/>
+      <c r="F247" s="37"/>
+      <c r="G247" s="37"/>
+      <c r="H247" s="37"/>
+      <c r="I247" s="37"/>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="C248" s="32"/>
+      <c r="D248" s="37"/>
+      <c r="E248" s="37"/>
+      <c r="F248" s="37"/>
+      <c r="G248" s="37"/>
+      <c r="H248" s="37"/>
+      <c r="I248" s="37"/>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="C249" s="32"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="37"/>
+      <c r="F249" s="37"/>
+      <c r="G249" s="37"/>
+      <c r="H249" s="37"/>
+      <c r="I249" s="37"/>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="C250" s="32"/>
+      <c r="D250" s="37"/>
+      <c r="E250" s="37"/>
+      <c r="F250" s="37"/>
+      <c r="G250" s="37"/>
+      <c r="H250" s="37"/>
+      <c r="I250" s="37"/>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="C251" s="32"/>
+      <c r="D251" s="37"/>
+      <c r="E251" s="37"/>
+      <c r="F251" s="37"/>
+      <c r="G251" s="37"/>
+      <c r="H251" s="37"/>
+      <c r="I251" s="37"/>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="C252" s="32"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="37"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="37"/>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="C253" s="32"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="37"/>
+      <c r="G253" s="37"/>
+      <c r="H253" s="37"/>
+      <c r="I253" s="37"/>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="C254" s="32"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
+      <c r="F254" s="37"/>
+      <c r="G254" s="37"/>
+      <c r="H254" s="37"/>
+      <c r="I254" s="37"/>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="C255" s="32"/>
+      <c r="D255" s="37"/>
+      <c r="E255" s="37"/>
+      <c r="F255" s="37"/>
+      <c r="G255" s="37"/>
+      <c r="H255" s="37"/>
+      <c r="I255" s="37"/>
+    </row>
+    <row r="256" spans="2:9">
+      <c r="C256" s="32"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="37"/>
+      <c r="H256" s="37"/>
+      <c r="I256" s="37"/>
+    </row>
+    <row r="257" spans="2:9">
+      <c r="C257" s="32"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
+      <c r="F257" s="37"/>
+      <c r="G257" s="37"/>
+      <c r="H257" s="37"/>
+      <c r="I257" s="37"/>
+    </row>
+    <row r="258" spans="2:9">
+      <c r="C258" s="32"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="37"/>
+      <c r="F258" s="37"/>
+      <c r="G258" s="37"/>
+      <c r="H258" s="37"/>
+      <c r="I258" s="37"/>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="C259" s="32"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="37"/>
+      <c r="F259" s="37"/>
+      <c r="G259" s="37"/>
+      <c r="H259" s="37"/>
+      <c r="I259" s="37"/>
+    </row>
+    <row r="260" spans="2:9">
+      <c r="C260" s="32"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="37"/>
+      <c r="F260" s="37"/>
+      <c r="G260" s="37"/>
+      <c r="H260" s="37"/>
+      <c r="I260" s="37"/>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="C261" s="32"/>
+      <c r="D261" s="37"/>
+      <c r="E261" s="37"/>
+      <c r="F261" s="37"/>
+      <c r="G261" s="37"/>
+      <c r="H261" s="37"/>
+      <c r="I261" s="37"/>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="C262" s="32"/>
+      <c r="D262" s="37"/>
+      <c r="E262" s="37"/>
+      <c r="F262" s="37"/>
+      <c r="G262" s="37"/>
+      <c r="H262" s="37"/>
+      <c r="I262" s="37"/>
+    </row>
+    <row r="263" spans="2:9">
+      <c r="C263" s="32"/>
+      <c r="D263" s="37"/>
+      <c r="E263" s="37"/>
+      <c r="F263" s="37"/>
+      <c r="G263" s="37"/>
+      <c r="H263" s="37"/>
+      <c r="I263" s="37"/>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="B265" s="84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
+      <c r="B266" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
+      <c r="B267" t="s">
+        <v>88</v>
+      </c>
+      <c r="E267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9">
+      <c r="B268" t="s">
+        <v>86</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B269" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" s="82"/>
+      <c r="D269" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G269" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H269" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I269" s="85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="B270" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C270" s="31"/>
+      <c r="D270" s="80">
+        <f>$C$268*SUM(E69,E78,E87,E96)</f>
+        <v>8</v>
+      </c>
+      <c r="E270" s="80">
+        <f>$C$268*SUM(H69,H78,H87,H96)</f>
+        <v>8</v>
+      </c>
+      <c r="F270" s="80">
+        <f>$C$268*SUM(K69,K78,K87,K96)</f>
+        <v>8</v>
+      </c>
+      <c r="G270" s="80">
+        <f>$C$268*SUM(N69,N78,N87,N96)</f>
+        <v>10</v>
+      </c>
+      <c r="H270" s="80">
+        <f>$C$268*SUM(Q69,Q78,Q87,Q96)</f>
+        <v>10</v>
+      </c>
+      <c r="I270" s="5">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
+      <c r="B271" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C271" s="56"/>
+      <c r="D271" s="80">
+        <f>$C$268*SUM(E70,E79,E88,E97)</f>
+        <v>8</v>
+      </c>
+      <c r="E271" s="80">
+        <f t="shared" ref="E271:E274" si="53">$C$268*SUM(H70,H79,H88,H97)</f>
+        <v>8</v>
+      </c>
+      <c r="F271" s="80">
+        <f t="shared" ref="F271:F274" si="54">$C$268*SUM(K70,K79,K88,K97)</f>
+        <v>8</v>
+      </c>
+      <c r="G271" s="80">
+        <f t="shared" ref="G271:G274" si="55">$C$268*SUM(N70,N79,N88,N97)</f>
+        <v>8</v>
+      </c>
+      <c r="H271" s="80">
+        <f>$C$268*SUM(Q70,Q79,Q88,Q97)</f>
+        <v>10</v>
+      </c>
+      <c r="I271" s="5">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9">
+      <c r="B272" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C272" s="56"/>
+      <c r="D272" s="80">
+        <f>$C$268*SUM(E71,E80,E89,E98)</f>
+        <v>8</v>
+      </c>
+      <c r="E272" s="80">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="F272" s="80">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="G272" s="80">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="H272" s="80">
+        <f>$C$268*SUM(Q71,Q80,Q89,Q98)</f>
+        <v>10</v>
+      </c>
+      <c r="I272" s="5">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9">
+      <c r="B273" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C273" s="56"/>
+      <c r="D273" s="80">
+        <f>$C$268*SUM(E72,E81,E90,E99)</f>
+        <v>10</v>
+      </c>
+      <c r="E273" s="80">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="F273" s="80">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="G273" s="80">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="H273" s="80">
+        <f>$C$268*SUM(Q72,Q81,Q90,Q99)</f>
+        <v>10</v>
+      </c>
+      <c r="I273" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9">
+      <c r="B274" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C274" s="56"/>
+      <c r="D274" s="80">
+        <f>$C$268*SUM(E73,E82,E91,E100)</f>
+        <v>8</v>
+      </c>
+      <c r="E274" s="80">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="F274" s="80">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="G274" s="80">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="H274" s="80">
+        <f>$C$268*SUM(Q73,Q82,Q91,Q100)</f>
+        <v>10</v>
+      </c>
+      <c r="I274" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9">
+      <c r="B275" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C275" s="56"/>
+      <c r="D275" s="88">
+        <f>D276*$E$267</f>
+        <v>24</v>
+      </c>
+      <c r="E275" s="88">
+        <f t="shared" ref="E275:H275" si="56">E276*$E$267</f>
+        <v>24</v>
+      </c>
+      <c r="F275" s="88">
         <f t="shared" si="56"/>
+        <v>24</v>
+      </c>
+      <c r="G275" s="88">
+        <f t="shared" si="56"/>
+        <v>24</v>
+      </c>
+      <c r="H275" s="88">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="I275" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B276" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C276" s="57"/>
+      <c r="D276" s="88">
+        <f>$C$268*D123</f>
+        <v>8</v>
+      </c>
+      <c r="E276" s="88">
+        <f t="shared" ref="E276:H276" si="57">$C$268*E123</f>
+        <v>8</v>
+      </c>
+      <c r="F276" s="88">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="G276" s="88">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="H276" s="88">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="I276" s="5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9">
+      <c r="B277" s="36"/>
+      <c r="C277" s="32"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+      <c r="H277" s="32"/>
+      <c r="I277" s="37"/>
+    </row>
+    <row r="278" spans="2:9">
+      <c r="B278" s="84"/>
+      <c r="D278">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B279" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C279" s="82"/>
+      <c r="D279" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E279" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F279" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G279" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H279" s="79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9">
+      <c r="B280" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="31"/>
+      <c r="D280" s="88">
+        <f>I270*($D$278/100)</f>
+        <v>36250</v>
+      </c>
+      <c r="E280" s="5">
+        <f>(E$115*D280)/D$115</f>
+        <v>36647.772342675831</v>
+      </c>
+      <c r="F280" s="5">
+        <f t="shared" ref="F280" si="58">(F$115*E280)/E$115</f>
+        <v>37178.135466243613</v>
+      </c>
+      <c r="G280" s="5">
+        <f t="shared" ref="G280:H280" si="59">(G$115*F280)/F$115</f>
+        <v>37575.907808919445</v>
+      </c>
+      <c r="H280" s="5">
+        <f t="shared" si="59"/>
+        <v>44338.037634408611</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9">
+      <c r="B281" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C281" s="56"/>
+      <c r="D281" s="88">
+        <f t="shared" ref="D281:D284" si="60">I271*($D$278/100)</f>
+        <v>43750</v>
+      </c>
+      <c r="E281" s="5">
+        <f t="shared" ref="E281:F285" si="61">(E$115*D281)/D$115</f>
+        <v>44230.070068746696</v>
+      </c>
+      <c r="F281" s="5">
+        <f t="shared" si="61"/>
+        <v>44870.163493742293</v>
+      </c>
+      <c r="G281" s="5">
+        <f t="shared" ref="G281:H281" si="62">(G$115*F281)/F$115</f>
+        <v>45350.233562488989</v>
+      </c>
+      <c r="H281" s="5">
+        <f t="shared" si="62"/>
+        <v>53511.424731182808</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9">
+      <c r="B282" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C282" s="56"/>
+      <c r="D282" s="88">
+        <f t="shared" si="60"/>
+        <v>33750</v>
+      </c>
+      <c r="E282" s="5">
+        <f t="shared" si="61"/>
+        <v>34120.339767318881</v>
+      </c>
+      <c r="F282" s="5">
+        <f t="shared" si="61"/>
+        <v>34614.126123744056</v>
+      </c>
+      <c r="G282" s="5">
+        <f t="shared" ref="G282:H282" si="63">(G$115*F282)/F$115</f>
+        <v>34984.465891062937</v>
+      </c>
+      <c r="H282" s="5">
+        <f t="shared" si="63"/>
+        <v>41280.241935483886</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
+      <c r="B283" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C283" s="56"/>
+      <c r="D283" s="88">
+        <f t="shared" si="60"/>
+        <v>32500</v>
+      </c>
+      <c r="E283" s="5">
+        <f t="shared" si="61"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F283" s="5">
+        <f t="shared" si="61"/>
+        <v>33332.121452494277</v>
+      </c>
+      <c r="G283" s="5">
+        <f t="shared" ref="G283:H283" si="64">(G$115*F283)/F$115</f>
+        <v>33688.744932134679</v>
+      </c>
+      <c r="H283" s="5">
+        <f t="shared" si="64"/>
+        <v>39751.34408602152</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B284" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C284" s="57"/>
+      <c r="D284" s="89">
+        <f t="shared" si="60"/>
+        <v>30000</v>
+      </c>
+      <c r="E284" s="35">
+        <f t="shared" si="61"/>
+        <v>30329.190904283445</v>
+      </c>
+      <c r="F284" s="35">
+        <f t="shared" si="61"/>
+        <v>30768.112109994712</v>
+      </c>
+      <c r="G284" s="35">
+        <f t="shared" ref="G284:H285" si="65">(G$115*F284)/F$115</f>
+        <v>31097.303014278161</v>
+      </c>
+      <c r="H284" s="35">
+        <f t="shared" si="65"/>
+        <v>36693.54838709678</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="15.75" thickBot="1">
+      <c r="D285" s="90">
+        <f>SUM(D280:D284)</f>
+        <v>176250</v>
+      </c>
+      <c r="E285" s="91">
+        <f t="shared" si="61"/>
+        <v>178183.99656266527</v>
+      </c>
+      <c r="F285" s="91">
+        <f t="shared" si="61"/>
+        <v>180762.65864621897</v>
+      </c>
+      <c r="G285" s="91">
+        <f t="shared" si="65"/>
+        <v>182696.65520888424</v>
+      </c>
+      <c r="H285" s="92">
+        <f t="shared" si="65"/>
+        <v>215574.59677419363</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B288" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D288" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G288" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H288" s="79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8">
+      <c r="B289" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C289" s="30"/>
+      <c r="D289" s="5">
+        <f>D270*($I270+D280)*12</f>
+        <v>31320000</v>
+      </c>
+      <c r="E289" s="5">
+        <f>E270*($I270+E280)*12</f>
+        <v>31358186.14489688</v>
+      </c>
+      <c r="F289" s="5">
+        <f>F270*($I270+F280)*12</f>
+        <v>31409101.004759386</v>
+      </c>
+      <c r="G289" s="5">
+        <f>G270*($I270+G280)*12</f>
+        <v>39309108.937070332</v>
+      </c>
+      <c r="H289" s="5">
+        <f>H270*($I270+H280)*12</f>
+        <v>40120564.516129032</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8">
+      <c r="B290" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C290" s="32"/>
+      <c r="D290" s="5">
+        <f>D271*($I271+D281)*12</f>
+        <v>37800000</v>
+      </c>
+      <c r="E290" s="5">
+        <f>E271*($I271+E281)*12</f>
+        <v>37846086.726599678</v>
+      </c>
+      <c r="F290" s="5">
+        <f>F271*($I271+F281)*12</f>
+        <v>37907535.695399262</v>
+      </c>
+      <c r="G290" s="5">
+        <f>G271*($I271+G281)*12</f>
+        <v>37953622.42199894</v>
+      </c>
+      <c r="H290" s="5">
+        <f>H271*($I271+H281)*12</f>
+        <v>48421370.967741936</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8">
+      <c r="B291" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C291" s="32"/>
+      <c r="D291" s="5">
+        <f>D272*($I272+D282)*12</f>
+        <v>29160000</v>
+      </c>
+      <c r="E291" s="5">
+        <f>E272*($I272+E282)*12</f>
+        <v>29195552.617662609</v>
+      </c>
+      <c r="F291" s="5">
+        <f>F272*($I272+F282)*12</f>
+        <v>36553695.134849288</v>
+      </c>
+      <c r="G291" s="5">
+        <f>G272*($I272+G282)*12</f>
+        <v>36598135.906927556</v>
+      </c>
+      <c r="H291" s="5">
+        <f>H272*($I272+H282)*12</f>
+        <v>37353629.032258064</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8">
+      <c r="B292" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C292" s="32"/>
+      <c r="D292" s="5">
+        <f>D273*($I273+D283)*12</f>
+        <v>35100000</v>
+      </c>
+      <c r="E292" s="5">
+        <f>E273*($I273+E283)*12</f>
+        <v>35142794.817556843</v>
+      </c>
+      <c r="F292" s="5">
+        <f>F273*($I273+F283)*12</f>
+        <v>35199854.574299313</v>
+      </c>
+      <c r="G292" s="5">
+        <f>G273*($I273+G283)*12</f>
+        <v>35242649.391856164</v>
+      </c>
+      <c r="H292" s="5">
+        <f>H273*($I273+H283)*12</f>
+        <v>35970161.290322587</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8">
+      <c r="B293" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C293" s="32"/>
+      <c r="D293" s="5">
+        <f>D274*($I274+D284)*12</f>
+        <v>25920000</v>
+      </c>
+      <c r="E293" s="5">
+        <f>E274*($I274+E284)*12</f>
+        <v>32439502.908514012</v>
+      </c>
+      <c r="F293" s="5">
+        <f>F274*($I274+F284)*12</f>
+        <v>32492173.453199364</v>
+      </c>
+      <c r="G293" s="5">
+        <f>G274*($I274+G284)*12</f>
+        <v>32531676.36171338</v>
+      </c>
+      <c r="H293" s="5">
+        <f>H274*($I274+H284)*12</f>
+        <v>33203225.806451611</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8">
+      <c r="B294" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C294" s="32"/>
+      <c r="D294" s="5">
+        <f t="shared" ref="D294:H295" si="66">D275*$I275*12</f>
+        <v>54720000</v>
+      </c>
+      <c r="E294" s="5">
+        <f t="shared" si="66"/>
+        <v>54720000</v>
+      </c>
+      <c r="F294" s="5">
+        <f t="shared" si="66"/>
+        <v>54720000</v>
+      </c>
+      <c r="G294" s="5">
+        <f t="shared" si="66"/>
+        <v>54720000</v>
+      </c>
+      <c r="H294" s="5">
+        <f t="shared" si="66"/>
+        <v>68400000</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B295" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C295" s="32"/>
+      <c r="D295" s="35">
+        <f t="shared" si="66"/>
         <v>52800000</v>
       </c>
-      <c r="E212" s="35">
-        <f t="shared" si="56"/>
+      <c r="E295" s="35">
+        <f t="shared" si="66"/>
         <v>52800000</v>
       </c>
-      <c r="F212" s="35">
-        <f t="shared" si="56"/>
+      <c r="F295" s="35">
+        <f t="shared" si="66"/>
         <v>52800000</v>
       </c>
-      <c r="G212" s="35">
-        <f t="shared" si="56"/>
+      <c r="G295" s="35">
+        <f t="shared" si="66"/>
         <v>52800000</v>
       </c>
-      <c r="H212" s="35">
-        <f t="shared" si="56"/>
+      <c r="H295" s="35">
+        <f t="shared" si="66"/>
         <v>66000000</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B213" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C213" s="86"/>
-      <c r="D213" s="87">
-        <f>SUM(D206:D212)</f>
+    <row r="296" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B296" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C296" s="86"/>
+      <c r="D296" s="87">
+        <f>SUM(D289:D295)</f>
         <v>266820000</v>
       </c>
-      <c r="E213" s="87">
-        <f>SUM(E206:E212)</f>
+      <c r="E296" s="87">
+        <f>SUM(E289:E295)</f>
         <v>273502123.21522999</v>
       </c>
-      <c r="F213" s="87">
-        <f t="shared" ref="F213:H213" si="57">SUM(F206:F212)</f>
+      <c r="F296" s="87">
+        <f t="shared" ref="F296:H296" si="67">SUM(F289:F295)</f>
         <v>281082359.86250663</v>
       </c>
-      <c r="G213" s="87">
-        <f t="shared" si="57"/>
+      <c r="G296" s="87">
+        <f t="shared" si="67"/>
         <v>289155193.01956642</v>
       </c>
-      <c r="H213" s="78">
-        <f t="shared" si="57"/>
+      <c r="H296" s="78">
+        <f t="shared" si="67"/>
         <v>329468951.61290324</v>
       </c>
     </row>
-    <row r="214" spans="2:8">
-      <c r="B214" s="63"/>
-    </row>
-    <row r="216" spans="2:8">
-      <c r="B216" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C216" s="119"/>
-      <c r="D216" s="119">
+    <row r="297" spans="2:8">
+      <c r="B297" s="63"/>
+    </row>
+    <row r="299" spans="2:8">
+      <c r="B299" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="C299" s="119"/>
+      <c r="D299" s="119">
         <v>25</v>
       </c>
-      <c r="E216" s="119"/>
-      <c r="F216" s="119"/>
-      <c r="G216" s="119"/>
-      <c r="H216" s="119"/>
-    </row>
-    <row r="217" spans="2:8">
-      <c r="B217" s="118"/>
-      <c r="C217" s="119"/>
-      <c r="D217" s="119" t="s">
+      <c r="E299" s="119"/>
+      <c r="F299" s="119"/>
+      <c r="G299" s="119"/>
+      <c r="H299" s="119"/>
+    </row>
+    <row r="300" spans="2:8">
+      <c r="B300" s="118"/>
+      <c r="C300" s="119"/>
+      <c r="D300" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="E217" s="119" t="s">
+      <c r="E300" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="119" t="s">
+      <c r="F300" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="G217" s="119" t="s">
+      <c r="G300" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H217" s="119" t="s">
+      <c r="H300" s="119" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="2:8">
-      <c r="B218" s="119" t="s">
-        <v>95</v>
-      </c>
-      <c r="C218" s="119"/>
-      <c r="D218" s="96">
+    <row r="301" spans="2:8">
+      <c r="B301" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="C301" s="119"/>
+      <c r="D301" s="96">
         <f>D139</f>
         <v>670727458.91999984</v>
       </c>
-      <c r="E218" s="96">
-        <f t="shared" ref="E218:G218" si="58">E139</f>
+      <c r="E301" s="96">
+        <f t="shared" ref="E301:G301" si="68">E139</f>
         <v>624457974.81000006</v>
       </c>
-      <c r="F218" s="96">
-        <f t="shared" si="58"/>
+      <c r="F301" s="96">
+        <f t="shared" si="68"/>
         <v>584562273.33000004</v>
       </c>
-      <c r="G218" s="96">
-        <f t="shared" si="58"/>
+      <c r="G301" s="96">
+        <f t="shared" si="68"/>
         <v>531107972.76000023</v>
       </c>
-      <c r="H218" s="96">
+      <c r="H301" s="96">
         <f>H139</f>
         <v>948035782.07040036</v>
       </c>
     </row>
-    <row r="219" spans="2:8">
-      <c r="B219" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="C219" s="119"/>
-      <c r="D219" s="96">
+    <row r="302" spans="2:8">
+      <c r="B302" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" s="119"/>
+      <c r="D302" s="96">
         <f>D149</f>
         <v>666360000</v>
       </c>
-      <c r="E219" s="96">
-        <f t="shared" ref="E219:G219" si="59">E149</f>
+      <c r="E302" s="96">
+        <f t="shared" ref="E302:G302" si="69">E149</f>
         <v>694826100</v>
       </c>
-      <c r="F219" s="96">
-        <f t="shared" si="59"/>
+      <c r="F302" s="96">
+        <f t="shared" si="69"/>
         <v>724607045.99999988</v>
       </c>
-      <c r="G219" s="96">
-        <f t="shared" si="59"/>
+      <c r="G302" s="96">
+        <f t="shared" si="69"/>
         <v>755767452.1724999</v>
       </c>
-      <c r="H219" s="96">
+      <c r="H302" s="96">
         <f>H149</f>
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="220" spans="2:8">
-      <c r="B220" s="119" t="s">
+    <row r="303" spans="2:8">
+      <c r="B303" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C303" s="119"/>
+      <c r="D303" s="96">
+        <f>D296</f>
+        <v>266820000</v>
+      </c>
+      <c r="E303" s="96">
+        <f t="shared" ref="E303:H303" si="70">E296</f>
+        <v>273502123.21522999</v>
+      </c>
+      <c r="F303" s="96">
+        <f t="shared" si="70"/>
+        <v>281082359.86250663</v>
+      </c>
+      <c r="G303" s="96">
+        <f t="shared" si="70"/>
+        <v>289155193.01956642</v>
+      </c>
+      <c r="H303" s="96">
+        <f t="shared" si="70"/>
+        <v>329468951.61290324</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8">
+      <c r="B304" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C304" s="119"/>
+      <c r="D304" s="96">
+        <f>SUM(D301:D303)*($D$299/100)</f>
+        <v>400976864.72999996</v>
+      </c>
+      <c r="E304" s="96">
+        <f t="shared" ref="E304:H304" si="71">SUM(E301:E303)*($D$299/100)</f>
+        <v>398196549.50630748</v>
+      </c>
+      <c r="F304" s="96">
+        <f t="shared" si="71"/>
+        <v>397562919.79812664</v>
+      </c>
+      <c r="G304" s="96">
+        <f t="shared" si="71"/>
+        <v>394007654.48801661</v>
+      </c>
+      <c r="H304" s="96">
+        <f t="shared" si="71"/>
+        <v>516469999.04078829</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8">
+      <c r="B305" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C220" s="119"/>
-      <c r="D220" s="96">
-        <f>D213</f>
-        <v>266820000</v>
-      </c>
-      <c r="E220" s="96">
-        <f t="shared" ref="E220:H220" si="60">E213</f>
-        <v>273502123.21522999</v>
-      </c>
-      <c r="F220" s="96">
-        <f t="shared" si="60"/>
-        <v>281082359.86250663</v>
-      </c>
-      <c r="G220" s="96">
-        <f t="shared" si="60"/>
-        <v>289155193.01956642</v>
-      </c>
-      <c r="H220" s="96">
-        <f t="shared" si="60"/>
-        <v>329468951.61290324</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8">
-      <c r="B221" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="C221" s="119"/>
-      <c r="D221" s="96">
-        <f>SUM(D218:D220)*($D$216/100)</f>
-        <v>400976864.72999996</v>
-      </c>
-      <c r="E221" s="96">
-        <f t="shared" ref="E221:H221" si="61">SUM(E218:E220)*($D$216/100)</f>
-        <v>398196549.50630748</v>
-      </c>
-      <c r="F221" s="96">
-        <f t="shared" si="61"/>
-        <v>397562919.79812664</v>
-      </c>
-      <c r="G221" s="96">
-        <f t="shared" si="61"/>
-        <v>394007654.48801661</v>
-      </c>
-      <c r="H221" s="96">
-        <f t="shared" si="61"/>
-        <v>516469999.04078829</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8">
-      <c r="B222" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C222" s="40"/>
-      <c r="D222" s="41">
-        <f>SUM(D218:D221)</f>
+      <c r="C305" s="40"/>
+      <c r="D305" s="41">
+        <f>SUM(D301:D304)</f>
         <v>2004884323.6499999</v>
       </c>
-      <c r="E222" s="41">
-        <f>SUM(E218:E221)</f>
+      <c r="E305" s="41">
+        <f>SUM(E301:E304)</f>
         <v>1990982747.5315375</v>
       </c>
-      <c r="F222" s="41">
-        <f>SUM(F218:F221)</f>
+      <c r="F305" s="41">
+        <f>SUM(F301:F304)</f>
         <v>1987814598.9906332</v>
       </c>
-      <c r="G222" s="41">
-        <f>SUM(G218:G221)</f>
+      <c r="G305" s="41">
+        <f>SUM(G301:G304)</f>
         <v>1970038272.440083</v>
       </c>
-      <c r="H222" s="41">
-        <f>SUM(H218:H221)</f>
+      <c r="H305" s="41">
+        <f>SUM(H301:H304)</f>
         <v>2582349995.2039413</v>
       </c>
     </row>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -21,7 +21,7 @@
     <author>Usuario</author>
   </authors>
   <commentList>
-    <comment ref="D279" authorId="0">
+    <comment ref="D209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="100">
   <si>
     <t>Demanda</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Tabla de Reinversiones</t>
   </si>
   <si>
-    <t>Año 0</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -347,25 +344,13 @@
     <t>Costos Totales</t>
   </si>
   <si>
-    <t>Calculo de depreciación año 1</t>
-  </si>
-  <si>
-    <t>Calculo de depreciación año 2</t>
-  </si>
-  <si>
-    <t>Calculo de depreciación año 3</t>
-  </si>
-  <si>
-    <t>Calculo de depreciación año 4</t>
-  </si>
-  <si>
-    <t>Calculo de depreciación año 5</t>
-  </si>
-  <si>
-    <t>Depreciacion</t>
-  </si>
-  <si>
-    <t>valor Desecho</t>
+    <t>Compradas</t>
+  </si>
+  <si>
+    <t>Calculo de depreciación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Años </t>
   </si>
 </sst>
 </file>
@@ -860,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -931,15 +916,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -984,6 +963,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,12 +975,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1011,10 +989,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R305"/>
+  <dimension ref="A2:R235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1326,8 +1304,10 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1772,10 +1752,10 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="117"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="34" t="s">
@@ -1914,10 +1894,10 @@
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="117"/>
+      <c r="C35" s="116"/>
       <c r="H35" s="42"/>
     </row>
     <row r="36" spans="2:8">
@@ -2061,10 +2041,10 @@
       <c r="H41" s="43"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="117"/>
+      <c r="C42" s="116"/>
       <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8">
@@ -2205,10 +2185,10 @@
       <c r="H49" s="42"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="117"/>
+      <c r="C50" s="116"/>
       <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:8">
@@ -2349,10 +2329,10 @@
       <c r="H57" s="42"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="117"/>
+      <c r="C58" s="116"/>
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="2:8">
@@ -2488,42 +2468,42 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="113" t="s">
+      <c r="C67" s="114"/>
+      <c r="D67" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113" t="s">
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="109" t="s">
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="110"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="109" t="s">
+      <c r="K67" s="111"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="110"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="109" t="s">
+      <c r="N67" s="111"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="112"/>
     </row>
     <row r="68" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B68" s="94" t="s">
+      <c r="B68" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="95"/>
-      <c r="D68" s="98" t="s">
+      <c r="C68" s="93"/>
+      <c r="D68" s="96" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="44" t="s">
@@ -2574,13 +2554,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="31"/>
-      <c r="D69" s="80">
+      <c r="D69" s="78">
         <v>2</v>
       </c>
       <c r="E69" s="33">
         <v>1</v>
       </c>
-      <c r="F69" s="96">
+      <c r="F69" s="94">
         <f>$H$30*D69*E69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2590,7 +2570,7 @@
       <c r="H69" s="33">
         <v>1</v>
       </c>
-      <c r="I69" s="96">
+      <c r="I69" s="94">
         <f>$H$30*G69*H69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2600,7 +2580,7 @@
       <c r="K69" s="33">
         <v>1</v>
       </c>
-      <c r="L69" s="96">
+      <c r="L69" s="94">
         <f>$H$30*J69*K69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2610,7 +2590,7 @@
       <c r="N69" s="33">
         <v>1</v>
       </c>
-      <c r="O69" s="96">
+      <c r="O69" s="94">
         <f>$H$30*M69*N69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2620,7 +2600,7 @@
       <c r="Q69" s="33">
         <v>1</v>
       </c>
-      <c r="R69" s="96">
+      <c r="R69" s="94">
         <f>$H$30*P69*Q69</f>
         <v>6102988.0999999996</v>
       </c>
@@ -2630,13 +2610,13 @@
         <v>23</v>
       </c>
       <c r="C70" s="56"/>
-      <c r="D70" s="80">
+      <c r="D70" s="78">
         <v>2</v>
       </c>
       <c r="E70" s="33">
         <v>1</v>
       </c>
-      <c r="F70" s="96">
+      <c r="F70" s="94">
         <f>$H$37*D70*E70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2646,7 +2626,7 @@
       <c r="H70" s="33">
         <v>1</v>
       </c>
-      <c r="I70" s="96">
+      <c r="I70" s="94">
         <f>$H$37*G70*H70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2656,7 +2636,7 @@
       <c r="K70" s="33">
         <v>1</v>
       </c>
-      <c r="L70" s="96">
+      <c r="L70" s="94">
         <f>$H$37*J70*K70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2666,7 +2646,7 @@
       <c r="N70" s="33">
         <v>1</v>
       </c>
-      <c r="O70" s="96">
+      <c r="O70" s="94">
         <f>$H$37*M70*N70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2676,7 +2656,7 @@
       <c r="Q70" s="33">
         <v>1</v>
       </c>
-      <c r="R70" s="96">
+      <c r="R70" s="94">
         <f>$H$37*P70*Q70</f>
         <v>6343895.5250000004</v>
       </c>
@@ -2686,13 +2666,13 @@
         <v>24</v>
       </c>
       <c r="C71" s="56"/>
-      <c r="D71" s="80">
+      <c r="D71" s="78">
         <v>2</v>
       </c>
       <c r="E71" s="33">
         <v>1</v>
       </c>
-      <c r="F71" s="96">
+      <c r="F71" s="94">
         <f>$H$44*D71*E71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2702,7 +2682,7 @@
       <c r="H71" s="33">
         <v>1</v>
       </c>
-      <c r="I71" s="96">
+      <c r="I71" s="94">
         <f>$H$44*G71*H71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2712,7 +2692,7 @@
       <c r="K71" s="33">
         <v>1</v>
       </c>
-      <c r="L71" s="96">
+      <c r="L71" s="94">
         <f>$H$44*J71*K71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2722,7 +2702,7 @@
       <c r="N71" s="33">
         <v>1</v>
       </c>
-      <c r="O71" s="96">
+      <c r="O71" s="94">
         <f>$H$44*M71*N71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2732,7 +2712,7 @@
       <c r="Q71" s="33">
         <v>1</v>
       </c>
-      <c r="R71" s="96">
+      <c r="R71" s="94">
         <f>$H$44*P71*Q71</f>
         <v>5781778.2000000002</v>
       </c>
@@ -2742,13 +2722,13 @@
         <v>25</v>
       </c>
       <c r="C72" s="56"/>
-      <c r="D72" s="80">
+      <c r="D72" s="78">
         <v>2</v>
       </c>
       <c r="E72" s="33">
         <v>1</v>
       </c>
-      <c r="F72" s="96">
+      <c r="F72" s="94">
         <f>$H$52*D72*E72</f>
         <v>5219660.875</v>
       </c>
@@ -2758,7 +2738,7 @@
       <c r="H72" s="33">
         <v>1</v>
       </c>
-      <c r="I72" s="96">
+      <c r="I72" s="94">
         <f>$H$52*G72*H72</f>
         <v>5219660.875</v>
       </c>
@@ -2768,7 +2748,7 @@
       <c r="K72" s="33">
         <v>1</v>
       </c>
-      <c r="L72" s="96">
+      <c r="L72" s="94">
         <f>$H$52*J72*K72</f>
         <v>5219660.875</v>
       </c>
@@ -2778,7 +2758,7 @@
       <c r="N72" s="33">
         <v>1</v>
       </c>
-      <c r="O72" s="96">
+      <c r="O72" s="94">
         <f>$H$52*M72*N72</f>
         <v>5219660.875</v>
       </c>
@@ -2788,7 +2768,7 @@
       <c r="Q72" s="33">
         <v>1</v>
       </c>
-      <c r="R72" s="96">
+      <c r="R72" s="94">
         <f>$H$52*P72*Q72</f>
         <v>5219660.875</v>
       </c>
@@ -2798,13 +2778,13 @@
         <v>26</v>
       </c>
       <c r="C73" s="56"/>
-      <c r="D73" s="80">
+      <c r="D73" s="78">
         <v>2</v>
       </c>
       <c r="E73" s="46">
         <v>1</v>
       </c>
-      <c r="F73" s="97">
+      <c r="F73" s="95">
         <f>$H$60*D73*E73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2814,7 +2794,7 @@
       <c r="H73" s="46">
         <v>1</v>
       </c>
-      <c r="I73" s="97">
+      <c r="I73" s="95">
         <f>$H$60*G73*H73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2824,7 +2804,7 @@
       <c r="K73" s="46">
         <v>1</v>
       </c>
-      <c r="L73" s="97">
+      <c r="L73" s="95">
         <f>$H$60*J73*K73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2834,7 +2814,7 @@
       <c r="N73" s="46">
         <v>1</v>
       </c>
-      <c r="O73" s="97">
+      <c r="O73" s="95">
         <f>$H$60*M73*N73</f>
         <v>5540870.7750000004</v>
       </c>
@@ -2844,14 +2824,14 @@
       <c r="Q73" s="46">
         <v>1</v>
       </c>
-      <c r="R73" s="97">
+      <c r="R73" s="95">
         <f>$H$60*P73*Q73</f>
         <v>5540870.7750000004</v>
       </c>
     </row>
     <row r="74" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B74" s="94" t="s">
-        <v>81</v>
+      <c r="B74" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
@@ -2887,42 +2867,42 @@
     </row>
     <row r="75" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="76" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="115"/>
-      <c r="D76" s="113" t="s">
+      <c r="C76" s="114"/>
+      <c r="D76" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113" t="s">
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="109" t="s">
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="110"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="109" t="s">
+      <c r="K76" s="111"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="110"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="109" t="s">
+      <c r="N76" s="111"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="110"/>
-      <c r="R76" s="111"/>
+      <c r="Q76" s="111"/>
+      <c r="R76" s="112"/>
     </row>
     <row r="77" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B77" s="94" t="s">
+      <c r="B77" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="95"/>
-      <c r="D77" s="98" t="s">
+      <c r="C77" s="93"/>
+      <c r="D77" s="96" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="44" t="s">
@@ -2973,53 +2953,53 @@
         <v>22</v>
       </c>
       <c r="C78" s="31"/>
-      <c r="D78" s="80">
+      <c r="D78" s="78">
         <v>2</v>
       </c>
       <c r="E78" s="33">
         <v>1</v>
       </c>
-      <c r="F78" s="96">
+      <c r="F78" s="94">
         <f>$H$31*D78*E78</f>
         <v>6246587.8200000003</v>
       </c>
-      <c r="G78" s="80">
+      <c r="G78" s="78">
         <v>2</v>
       </c>
       <c r="H78" s="33">
         <v>1</v>
       </c>
-      <c r="I78" s="96">
+      <c r="I78" s="94">
         <f>$H$31*G78*H78</f>
         <v>6246587.8200000003</v>
       </c>
-      <c r="J78" s="80">
+      <c r="J78" s="78">
         <v>2</v>
       </c>
       <c r="K78" s="33">
         <v>1</v>
       </c>
-      <c r="L78" s="96">
+      <c r="L78" s="94">
         <f>$H$31*J78*K78</f>
         <v>6246587.8200000003</v>
       </c>
-      <c r="M78" s="80">
+      <c r="M78" s="78">
         <v>2</v>
       </c>
       <c r="N78" s="33">
         <v>1</v>
       </c>
-      <c r="O78" s="96">
+      <c r="O78" s="94">
         <f>$H$31*M78*N78</f>
         <v>6246587.8200000003</v>
       </c>
-      <c r="P78" s="80">
+      <c r="P78" s="78">
         <v>2</v>
       </c>
       <c r="Q78" s="33">
         <v>1</v>
       </c>
-      <c r="R78" s="96">
+      <c r="R78" s="94">
         <f>$H$31*P78*Q78</f>
         <v>6246587.8200000003</v>
       </c>
@@ -3029,53 +3009,53 @@
         <v>23</v>
       </c>
       <c r="C79" s="56"/>
-      <c r="D79" s="80">
+      <c r="D79" s="78">
         <v>2</v>
       </c>
       <c r="E79" s="33">
         <v>1</v>
       </c>
-      <c r="F79" s="96">
+      <c r="F79" s="94">
         <f>$H$38*D79*E79</f>
         <v>6493163.6550000003</v>
       </c>
-      <c r="G79" s="80">
+      <c r="G79" s="78">
         <v>2</v>
       </c>
       <c r="H79" s="33">
         <v>1</v>
       </c>
-      <c r="I79" s="96">
+      <c r="I79" s="94">
         <f>$H$38*G79*H79</f>
         <v>6493163.6550000003</v>
       </c>
-      <c r="J79" s="80">
+      <c r="J79" s="78">
         <v>2</v>
       </c>
       <c r="K79" s="33">
         <v>1</v>
       </c>
-      <c r="L79" s="96">
+      <c r="L79" s="94">
         <f>$H$38*J79*K79</f>
         <v>6493163.6550000003</v>
       </c>
-      <c r="M79" s="80">
+      <c r="M79" s="78">
         <v>2</v>
       </c>
       <c r="N79" s="33">
         <v>1</v>
       </c>
-      <c r="O79" s="96">
+      <c r="O79" s="94">
         <f>$H$38*M79*N79</f>
         <v>6493163.6550000003</v>
       </c>
-      <c r="P79" s="80">
+      <c r="P79" s="78">
         <v>2</v>
       </c>
       <c r="Q79" s="33">
         <v>1</v>
       </c>
-      <c r="R79" s="96">
+      <c r="R79" s="94">
         <f>$H$38*P79*Q79</f>
         <v>6493163.6550000003</v>
       </c>
@@ -3085,53 +3065,53 @@
         <v>24</v>
       </c>
       <c r="C80" s="56"/>
-      <c r="D80" s="80">
+      <c r="D80" s="78">
         <v>2</v>
       </c>
       <c r="E80" s="33">
         <v>1</v>
       </c>
-      <c r="F80" s="96">
+      <c r="F80" s="94">
         <f>$H$45*D80*E80</f>
         <v>5917820.04</v>
       </c>
-      <c r="G80" s="80">
+      <c r="G80" s="78">
         <v>2</v>
       </c>
       <c r="H80" s="33">
         <v>1</v>
       </c>
-      <c r="I80" s="96">
+      <c r="I80" s="94">
         <f>$H$45*G80*H80</f>
         <v>5917820.04</v>
       </c>
-      <c r="J80" s="80">
+      <c r="J80" s="78">
         <v>2</v>
       </c>
       <c r="K80" s="33">
         <v>1</v>
       </c>
-      <c r="L80" s="96">
+      <c r="L80" s="94">
         <f>$H$45*J80*K80</f>
         <v>5917820.04</v>
       </c>
-      <c r="M80" s="80">
+      <c r="M80" s="78">
         <v>2</v>
       </c>
       <c r="N80" s="33">
         <v>1</v>
       </c>
-      <c r="O80" s="96">
+      <c r="O80" s="94">
         <f>$H$45*M80*N80</f>
         <v>5917820.04</v>
       </c>
-      <c r="P80" s="80">
+      <c r="P80" s="78">
         <v>2</v>
       </c>
       <c r="Q80" s="33">
         <v>1</v>
       </c>
-      <c r="R80" s="96">
+      <c r="R80" s="94">
         <f>$H$45*P80*Q80</f>
         <v>5917820.04</v>
       </c>
@@ -3141,53 +3121,53 @@
         <v>25</v>
       </c>
       <c r="C81" s="56"/>
-      <c r="D81" s="80">
+      <c r="D81" s="78">
         <v>2</v>
       </c>
       <c r="E81" s="33">
         <v>1</v>
       </c>
-      <c r="F81" s="96">
+      <c r="F81" s="94">
         <f>$H$53*D81*E81</f>
         <v>5342476.4249999998</v>
       </c>
-      <c r="G81" s="80">
+      <c r="G81" s="78">
         <v>2</v>
       </c>
       <c r="H81" s="33">
         <v>1</v>
       </c>
-      <c r="I81" s="96">
+      <c r="I81" s="94">
         <f>$H$53*G81*H81</f>
         <v>5342476.4249999998</v>
       </c>
-      <c r="J81" s="80">
+      <c r="J81" s="78">
         <v>2</v>
       </c>
       <c r="K81" s="33">
         <v>1</v>
       </c>
-      <c r="L81" s="96">
+      <c r="L81" s="94">
         <f>$H$53*J81*K81</f>
         <v>5342476.4249999998</v>
       </c>
-      <c r="M81" s="80">
+      <c r="M81" s="78">
         <v>2</v>
       </c>
       <c r="N81" s="33">
         <v>1</v>
       </c>
-      <c r="O81" s="96">
+      <c r="O81" s="94">
         <f>$H$53*M81*N81</f>
         <v>5342476.4249999998</v>
       </c>
-      <c r="P81" s="80">
+      <c r="P81" s="78">
         <v>2</v>
       </c>
       <c r="Q81" s="33">
         <v>1</v>
       </c>
-      <c r="R81" s="96">
+      <c r="R81" s="94">
         <f>$H$53*P81*Q81</f>
         <v>5342476.4249999998</v>
       </c>
@@ -3197,60 +3177,60 @@
         <v>26</v>
       </c>
       <c r="C82" s="56"/>
-      <c r="D82" s="93">
+      <c r="D82" s="91">
         <v>2</v>
       </c>
       <c r="E82" s="46">
         <v>1</v>
       </c>
-      <c r="F82" s="97">
+      <c r="F82" s="95">
         <f>$H$61*D82*E82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="G82" s="93">
+      <c r="G82" s="91">
         <v>2</v>
       </c>
       <c r="H82" s="46">
         <v>1</v>
       </c>
-      <c r="I82" s="97">
+      <c r="I82" s="95">
         <f>$H$61*G82*H82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="J82" s="93">
+      <c r="J82" s="91">
         <v>2</v>
       </c>
       <c r="K82" s="46">
         <v>1</v>
       </c>
-      <c r="L82" s="97">
+      <c r="L82" s="95">
         <f>$H$61*J82*K82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="M82" s="93">
+      <c r="M82" s="91">
         <v>2</v>
       </c>
       <c r="N82" s="46">
         <v>1</v>
       </c>
-      <c r="O82" s="97">
+      <c r="O82" s="95">
         <f>$H$61*M82*N82</f>
         <v>5671244.2050000001</v>
       </c>
-      <c r="P82" s="93">
+      <c r="P82" s="91">
         <v>2</v>
       </c>
       <c r="Q82" s="46">
         <v>1</v>
       </c>
-      <c r="R82" s="97">
+      <c r="R82" s="95">
         <f>$H$61*P82*Q82</f>
         <v>5671244.2050000001</v>
       </c>
     </row>
     <row r="83" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B83" s="94" t="s">
-        <v>81</v>
+      <c r="B83" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -3286,42 +3266,42 @@
     </row>
     <row r="84" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="85" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B85" s="114" t="s">
+      <c r="B85" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="113" t="s">
+      <c r="C85" s="114"/>
+      <c r="D85" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113" t="s">
+      <c r="E85" s="109"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="109" t="s">
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="110"/>
-      <c r="L85" s="111"/>
-      <c r="M85" s="109" t="s">
+      <c r="K85" s="111"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="N85" s="110"/>
-      <c r="O85" s="111"/>
-      <c r="P85" s="109" t="s">
+      <c r="N85" s="111"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q85" s="110"/>
-      <c r="R85" s="111"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="112"/>
     </row>
     <row r="86" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="95"/>
-      <c r="D86" s="98" t="s">
+      <c r="C86" s="93"/>
+      <c r="D86" s="96" t="s">
         <v>36</v>
       </c>
       <c r="E86" s="44" t="s">
@@ -3372,54 +3352,54 @@
         <v>22</v>
       </c>
       <c r="C87" s="31"/>
-      <c r="D87" s="80">
+      <c r="D87" s="78">
         <v>2</v>
       </c>
       <c r="E87" s="33">
         <v>1</v>
       </c>
-      <c r="F87" s="96">
+      <c r="F87" s="94">
         <f>$H$32*D87*E87</f>
         <v>5959388.3799999999</v>
       </c>
-      <c r="G87" s="80">
+      <c r="G87" s="78">
         <v>2</v>
       </c>
       <c r="H87" s="33">
         <f>E87+0</f>
         <v>1</v>
       </c>
-      <c r="I87" s="96">
+      <c r="I87" s="94">
         <f>$H$32*G87*H87</f>
         <v>5959388.3799999999</v>
       </c>
-      <c r="J87" s="80">
+      <c r="J87" s="78">
         <v>2</v>
       </c>
       <c r="K87" s="33">
         <v>1</v>
       </c>
-      <c r="L87" s="96">
+      <c r="L87" s="94">
         <f>$H$32*J87*K87</f>
         <v>5959388.3799999999</v>
       </c>
-      <c r="M87" s="80">
+      <c r="M87" s="78">
         <v>2</v>
       </c>
       <c r="N87" s="33">
         <v>2</v>
       </c>
-      <c r="O87" s="96">
+      <c r="O87" s="94">
         <f>$H$32*M87*N87</f>
         <v>11918776.76</v>
       </c>
-      <c r="P87" s="80">
+      <c r="P87" s="78">
         <v>2</v>
       </c>
       <c r="Q87" s="33">
         <v>2</v>
       </c>
-      <c r="R87" s="96">
+      <c r="R87" s="94">
         <f>$H$32*P87*Q87</f>
         <v>11918776.76</v>
       </c>
@@ -3429,54 +3409,54 @@
         <v>23</v>
       </c>
       <c r="C88" s="56"/>
-      <c r="D88" s="80">
+      <c r="D88" s="78">
         <v>2</v>
       </c>
       <c r="E88" s="33">
         <v>1</v>
       </c>
-      <c r="F88" s="96">
+      <c r="F88" s="94">
         <f>$H$39*D88*E88</f>
         <v>6194627.3949999996</v>
       </c>
-      <c r="G88" s="80">
+      <c r="G88" s="78">
         <v>2</v>
       </c>
       <c r="H88" s="33">
         <f t="shared" ref="H88:H90" si="24">E88+0</f>
         <v>1</v>
       </c>
-      <c r="I88" s="96">
+      <c r="I88" s="94">
         <f>$H$39*G88*H88</f>
         <v>6194627.3949999996</v>
       </c>
-      <c r="J88" s="80">
+      <c r="J88" s="78">
         <v>2</v>
       </c>
       <c r="K88" s="33">
         <v>1</v>
       </c>
-      <c r="L88" s="96">
+      <c r="L88" s="94">
         <f>$H$39*J88*K88</f>
         <v>6194627.3949999996</v>
       </c>
-      <c r="M88" s="80">
+      <c r="M88" s="78">
         <v>2</v>
       </c>
       <c r="N88" s="33">
         <v>1</v>
       </c>
-      <c r="O88" s="96">
+      <c r="O88" s="94">
         <f>$H$39*M88*N88</f>
         <v>6194627.3949999996</v>
       </c>
-      <c r="P88" s="80">
+      <c r="P88" s="78">
         <v>2</v>
       </c>
       <c r="Q88" s="33">
         <v>2</v>
       </c>
-      <c r="R88" s="96">
+      <c r="R88" s="94">
         <f>$H$39*P88*Q88</f>
         <v>12389254.789999999</v>
       </c>
@@ -3486,54 +3466,54 @@
         <v>24</v>
       </c>
       <c r="C89" s="56"/>
-      <c r="D89" s="80">
+      <c r="D89" s="78">
         <v>2</v>
       </c>
       <c r="E89" s="33">
         <v>1</v>
       </c>
-      <c r="F89" s="96">
+      <c r="F89" s="94">
         <f>$H$46*D89*E89</f>
         <v>5645736.3600000003</v>
       </c>
-      <c r="G89" s="80">
+      <c r="G89" s="78">
         <v>2</v>
       </c>
       <c r="H89" s="33">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="I89" s="96">
+      <c r="I89" s="94">
         <f>$H$46*G89*H89</f>
         <v>5645736.3600000003</v>
       </c>
-      <c r="J89" s="80">
+      <c r="J89" s="78">
         <v>2</v>
       </c>
       <c r="K89" s="33">
         <v>2</v>
       </c>
-      <c r="L89" s="96">
+      <c r="L89" s="94">
         <f>$H$46*J89*K89</f>
         <v>11291472.720000001</v>
       </c>
-      <c r="M89" s="80">
+      <c r="M89" s="78">
         <v>2</v>
       </c>
       <c r="N89" s="33">
         <v>2</v>
       </c>
-      <c r="O89" s="96">
+      <c r="O89" s="94">
         <f>$H$46*M89*N89</f>
         <v>11291472.720000001</v>
       </c>
-      <c r="P89" s="80">
+      <c r="P89" s="78">
         <v>2</v>
       </c>
       <c r="Q89" s="33">
         <v>2</v>
       </c>
-      <c r="R89" s="96">
+      <c r="R89" s="94">
         <f>$H$46*P89*Q89</f>
         <v>11291472.720000001</v>
       </c>
@@ -3543,54 +3523,54 @@
         <v>25</v>
       </c>
       <c r="C90" s="56"/>
-      <c r="D90" s="80">
+      <c r="D90" s="78">
         <v>2</v>
       </c>
       <c r="E90" s="33">
         <v>2</v>
       </c>
-      <c r="F90" s="96">
+      <c r="F90" s="94">
         <f>$H$54*D90*E90</f>
         <v>10193690.65</v>
       </c>
-      <c r="G90" s="80">
+      <c r="G90" s="78">
         <v>2</v>
       </c>
       <c r="H90" s="33">
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="I90" s="96">
+      <c r="I90" s="94">
         <f>$H$54*G90*H90</f>
         <v>10193690.65</v>
       </c>
-      <c r="J90" s="80">
+      <c r="J90" s="78">
         <v>2</v>
       </c>
       <c r="K90" s="33">
         <v>2</v>
       </c>
-      <c r="L90" s="96">
+      <c r="L90" s="94">
         <f>$H$54*J90*K90</f>
         <v>10193690.65</v>
       </c>
-      <c r="M90" s="80">
+      <c r="M90" s="78">
         <v>2</v>
       </c>
       <c r="N90" s="33">
         <v>2</v>
       </c>
-      <c r="O90" s="96">
+      <c r="O90" s="94">
         <f>$H$54*M90*N90</f>
         <v>10193690.65</v>
       </c>
-      <c r="P90" s="80">
+      <c r="P90" s="78">
         <v>2</v>
       </c>
       <c r="Q90" s="33">
         <v>2</v>
       </c>
-      <c r="R90" s="96">
+      <c r="R90" s="94">
         <f>$H$54*P90*Q90</f>
         <v>10193690.65</v>
       </c>
@@ -3600,61 +3580,61 @@
         <v>26</v>
       </c>
       <c r="C91" s="56"/>
-      <c r="D91" s="93">
+      <c r="D91" s="91">
         <v>2</v>
       </c>
       <c r="E91" s="46">
         <v>1</v>
       </c>
-      <c r="F91" s="97">
+      <c r="F91" s="95">
         <f>$H$62*D91*E91</f>
         <v>5410497.3449999997</v>
       </c>
-      <c r="G91" s="93">
+      <c r="G91" s="91">
         <v>2</v>
       </c>
       <c r="H91" s="33">
         <f>E91+1</f>
         <v>2</v>
       </c>
-      <c r="I91" s="97">
+      <c r="I91" s="95">
         <f>$H$62*G91*H91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="J91" s="93">
+      <c r="J91" s="91">
         <v>2</v>
       </c>
       <c r="K91" s="33">
         <v>2</v>
       </c>
-      <c r="L91" s="97">
+      <c r="L91" s="95">
         <f>$H$62*J91*K91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="M91" s="93">
+      <c r="M91" s="91">
         <v>2</v>
       </c>
       <c r="N91" s="46">
         <v>2</v>
       </c>
-      <c r="O91" s="97">
+      <c r="O91" s="95">
         <f>$H$62*M91*N91</f>
         <v>10820994.689999999</v>
       </c>
-      <c r="P91" s="93">
+      <c r="P91" s="91">
         <v>2</v>
       </c>
       <c r="Q91" s="46">
         <v>2</v>
       </c>
-      <c r="R91" s="97">
+      <c r="R91" s="95">
         <f>$H$62*P91*Q91</f>
         <v>10820994.689999999</v>
       </c>
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B92" s="94" t="s">
-        <v>81</v>
+      <c r="B92" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
@@ -3690,42 +3670,42 @@
     </row>
     <row r="93" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="94" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B94" s="114" t="s">
+      <c r="B94" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="115"/>
-      <c r="D94" s="113" t="s">
+      <c r="C94" s="114"/>
+      <c r="D94" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="113"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="113" t="s">
+      <c r="E94" s="109"/>
+      <c r="F94" s="109"/>
+      <c r="G94" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="113"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="109" t="s">
+      <c r="H94" s="109"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="110"/>
-      <c r="L94" s="111"/>
-      <c r="M94" s="109" t="s">
+      <c r="K94" s="111"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="N94" s="110"/>
-      <c r="O94" s="111"/>
-      <c r="P94" s="109" t="s">
+      <c r="N94" s="111"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q94" s="110"/>
-      <c r="R94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="112"/>
     </row>
     <row r="95" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B95" s="94" t="s">
+      <c r="B95" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="95"/>
-      <c r="D95" s="98" t="s">
+      <c r="C95" s="93"/>
+      <c r="D95" s="96" t="s">
         <v>36</v>
       </c>
       <c r="E95" s="44" t="s">
@@ -3776,110 +3756,110 @@
         <v>22</v>
       </c>
       <c r="C96" s="31"/>
-      <c r="D96" s="80">
+      <c r="D96" s="78">
         <v>2</v>
       </c>
       <c r="E96" s="33">
         <v>1</v>
       </c>
-      <c r="F96" s="96">
+      <c r="F96" s="94">
         <f>$H$33*D96*E96</f>
         <v>6390187.54</v>
       </c>
-      <c r="G96" s="80">
+      <c r="G96" s="78">
         <v>2</v>
       </c>
       <c r="H96" s="33">
         <v>1</v>
       </c>
-      <c r="I96" s="96">
+      <c r="I96" s="94">
         <f>$H$33*G96*H96</f>
         <v>6390187.54</v>
       </c>
-      <c r="J96" s="80">
+      <c r="J96" s="78">
         <v>2</v>
       </c>
       <c r="K96" s="33">
         <v>1</v>
       </c>
-      <c r="L96" s="96">
+      <c r="L96" s="94">
         <f>$H$33*J96*K96</f>
         <v>6390187.54</v>
       </c>
-      <c r="M96" s="80">
+      <c r="M96" s="78">
         <v>2</v>
       </c>
       <c r="N96" s="33">
         <v>1</v>
       </c>
-      <c r="O96" s="96">
+      <c r="O96" s="94">
         <f>$H$33*M96*N96</f>
         <v>6390187.54</v>
       </c>
-      <c r="P96" s="80">
+      <c r="P96" s="78">
         <v>2</v>
       </c>
       <c r="Q96" s="33">
         <v>1</v>
       </c>
-      <c r="R96" s="96">
+      <c r="R96" s="94">
         <f>$H$33*P96*Q96</f>
         <v>6390187.54</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="99"/>
+      <c r="A97" s="97"/>
       <c r="B97" s="61" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="56"/>
-      <c r="D97" s="80">
+      <c r="D97" s="78">
         <v>2</v>
       </c>
       <c r="E97" s="33">
         <v>1</v>
       </c>
-      <c r="F97" s="96">
+      <c r="F97" s="94">
         <f>$H$40*D97*E97</f>
         <v>6642431.7850000001</v>
       </c>
-      <c r="G97" s="80">
+      <c r="G97" s="78">
         <v>2</v>
       </c>
       <c r="H97" s="33">
         <v>1</v>
       </c>
-      <c r="I97" s="96">
+      <c r="I97" s="94">
         <f>$H$40*G97*H97</f>
         <v>6642431.7850000001</v>
       </c>
-      <c r="J97" s="80">
+      <c r="J97" s="78">
         <v>2</v>
       </c>
       <c r="K97" s="33">
         <v>1</v>
       </c>
-      <c r="L97" s="96">
+      <c r="L97" s="94">
         <f>$H$40*J97*K97</f>
         <v>6642431.7850000001</v>
       </c>
-      <c r="M97" s="80">
+      <c r="M97" s="78">
         <v>2</v>
       </c>
       <c r="N97" s="33">
         <v>1</v>
       </c>
-      <c r="O97" s="96">
+      <c r="O97" s="94">
         <f>$H$40*M97*N97</f>
         <v>6642431.7850000001</v>
       </c>
-      <c r="P97" s="80">
+      <c r="P97" s="78">
         <v>2</v>
       </c>
       <c r="Q97" s="33">
         <v>1</v>
       </c>
-      <c r="R97" s="96">
+      <c r="R97" s="94">
         <f>$H$40*P97*Q97</f>
         <v>6642431.7850000001</v>
       </c>
@@ -3889,53 +3869,53 @@
         <v>24</v>
       </c>
       <c r="C98" s="56"/>
-      <c r="D98" s="80">
+      <c r="D98" s="78">
         <v>2</v>
       </c>
       <c r="E98" s="33">
         <v>1</v>
       </c>
-      <c r="F98" s="96">
+      <c r="F98" s="94">
         <f>$H$47*D98*E98</f>
         <v>6053861.8799999999</v>
       </c>
-      <c r="G98" s="80">
+      <c r="G98" s="78">
         <v>2</v>
       </c>
       <c r="H98" s="33">
         <v>1</v>
       </c>
-      <c r="I98" s="96">
+      <c r="I98" s="94">
         <f>$H$47*G98*H98</f>
         <v>6053861.8799999999</v>
       </c>
-      <c r="J98" s="80">
+      <c r="J98" s="78">
         <v>2</v>
       </c>
       <c r="K98" s="33">
         <v>1</v>
       </c>
-      <c r="L98" s="96">
+      <c r="L98" s="94">
         <f>$H$47*J98*K98</f>
         <v>6053861.8799999999</v>
       </c>
-      <c r="M98" s="80">
+      <c r="M98" s="78">
         <v>2</v>
       </c>
       <c r="N98" s="33">
         <v>1</v>
       </c>
-      <c r="O98" s="96">
+      <c r="O98" s="94">
         <f>$H$47*M98*N98</f>
         <v>6053861.8799999999</v>
       </c>
-      <c r="P98" s="80">
+      <c r="P98" s="78">
         <v>2</v>
       </c>
       <c r="Q98" s="33">
         <v>1</v>
       </c>
-      <c r="R98" s="96">
+      <c r="R98" s="94">
         <f>$H$47*P98*Q98</f>
         <v>6053861.8799999999</v>
       </c>
@@ -3945,53 +3925,53 @@
         <v>25</v>
       </c>
       <c r="C99" s="56"/>
-      <c r="D99" s="80">
+      <c r="D99" s="78">
         <v>2</v>
       </c>
       <c r="E99" s="33">
         <v>1</v>
       </c>
-      <c r="F99" s="96">
+      <c r="F99" s="94">
         <f>$H$55*D99*E99</f>
         <v>5465291.9749999996</v>
       </c>
-      <c r="G99" s="80">
+      <c r="G99" s="78">
         <v>2</v>
       </c>
       <c r="H99" s="33">
         <v>1</v>
       </c>
-      <c r="I99" s="96">
+      <c r="I99" s="94">
         <f>$H$55*G99*H99</f>
         <v>5465291.9749999996</v>
       </c>
-      <c r="J99" s="80">
+      <c r="J99" s="78">
         <v>2</v>
       </c>
       <c r="K99" s="33">
         <v>1</v>
       </c>
-      <c r="L99" s="96">
+      <c r="L99" s="94">
         <f>$H$55*J99*K99</f>
         <v>5465291.9749999996</v>
       </c>
-      <c r="M99" s="80">
+      <c r="M99" s="78">
         <v>2</v>
       </c>
       <c r="N99" s="33">
         <v>1</v>
       </c>
-      <c r="O99" s="96">
+      <c r="O99" s="94">
         <f>$H$55*M99*N99</f>
         <v>5465291.9749999996</v>
       </c>
-      <c r="P99" s="80">
+      <c r="P99" s="78">
         <v>2</v>
       </c>
       <c r="Q99" s="33">
         <v>1</v>
       </c>
-      <c r="R99" s="96">
+      <c r="R99" s="94">
         <f>$H$55*P99*Q99</f>
         <v>5465291.9749999996</v>
       </c>
@@ -4001,60 +3981,60 @@
         <v>26</v>
       </c>
       <c r="C100" s="56"/>
-      <c r="D100" s="93">
+      <c r="D100" s="91">
         <v>2</v>
       </c>
       <c r="E100" s="46">
         <v>1</v>
       </c>
-      <c r="F100" s="97">
+      <c r="F100" s="95">
         <f>$H$63*D100*E100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="G100" s="93">
+      <c r="G100" s="91">
         <v>2</v>
       </c>
       <c r="H100" s="46">
         <v>1</v>
       </c>
-      <c r="I100" s="97">
+      <c r="I100" s="95">
         <f>$H$63*G100*H100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="J100" s="93">
+      <c r="J100" s="91">
         <v>2</v>
       </c>
       <c r="K100" s="46">
         <v>1</v>
       </c>
-      <c r="L100" s="97">
+      <c r="L100" s="95">
         <f>$H$63*J100*K100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="M100" s="93">
+      <c r="M100" s="91">
         <v>2</v>
       </c>
       <c r="N100" s="46">
         <v>1</v>
       </c>
-      <c r="O100" s="97">
+      <c r="O100" s="95">
         <f>$H$63*M100*N100</f>
         <v>5801617.6349999998</v>
       </c>
-      <c r="P100" s="93">
+      <c r="P100" s="91">
         <v>2</v>
       </c>
       <c r="Q100" s="46">
         <v>1</v>
       </c>
-      <c r="R100" s="97">
+      <c r="R100" s="95">
         <f>$H$63*P100*Q100</f>
         <v>5801617.6349999998</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B101" s="94" t="s">
-        <v>81</v>
+      <c r="B101" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
@@ -4089,34 +4069,34 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="112" t="s">
+      <c r="B104" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="112"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="112"/>
-      <c r="F104" s="112"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="B105" s="112"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="112"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="B106" s="112"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="112"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="B107" s="112"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="112"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
+      <c r="F107" s="117"/>
     </row>
     <row r="108" spans="1:18">
       <c r="B108" s="47"/>
@@ -4298,21 +4278,21 @@
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J121" s="99"/>
+        <v>82</v>
+      </c>
+      <c r="J121" s="97"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="28"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="108" t="s">
-        <v>90</v>
+      <c r="B123" s="106" t="s">
+        <v>89</v>
       </c>
       <c r="C123" s="40"/>
       <c r="D123" s="40">
@@ -4336,15 +4316,15 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="106" t="s">
+      <c r="B126" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="93"/>
-      <c r="D126" s="105" t="s">
+      <c r="C126" s="91"/>
+      <c r="D126" s="103" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="40" t="s">
@@ -4361,10 +4341,10 @@
       </c>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="100" t="s">
+      <c r="B127" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="93"/>
+      <c r="C127" s="91"/>
       <c r="D127" s="5">
         <f>(D$111-C$12)*$F$4</f>
         <v>1886711743.75</v>
@@ -4387,10 +4367,10 @@
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="101" t="s">
+      <c r="B128" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="102"/>
+      <c r="C128" s="100"/>
       <c r="D128" s="5">
         <f>(D$112-C$13)*$F$5</f>
         <v>1481104961.2499998</v>
@@ -4413,10 +4393,10 @@
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="101" t="s">
+      <c r="B129" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="102"/>
+      <c r="C129" s="100"/>
       <c r="D129" s="5">
         <f>(D$113-C$14)*$F$6</f>
         <v>11022212.249999726</v>
@@ -4439,10 +4419,10 @@
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="103" t="s">
+      <c r="B130" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="104"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="5">
         <f>(D$114-C$15)*$F$7</f>
         <v>2210556573.7499995</v>
@@ -4465,41 +4445,41 @@
       </c>
     </row>
     <row r="131" spans="2:8">
-      <c r="D131" s="107">
+      <c r="D131" s="105">
         <f>SUM(D127:D130)</f>
         <v>5589395490.999999</v>
       </c>
-      <c r="E131" s="107">
+      <c r="E131" s="105">
         <f>SUM(E127:E130)</f>
         <v>5203816456.750001</v>
       </c>
-      <c r="F131" s="107">
+      <c r="F131" s="105">
         <f>SUM(F127:F130)</f>
         <v>4871352277.750001</v>
       </c>
-      <c r="G131" s="107">
+      <c r="G131" s="105">
         <f>SUM(G127:G130)</f>
         <v>4425899773.0000019</v>
       </c>
-      <c r="H131" s="107">
+      <c r="H131" s="105">
         <f>SUM(H127:H130)</f>
         <v>7900298183.9200039</v>
       </c>
     </row>
     <row r="133" spans="2:8">
       <c r="B133" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D133">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="93"/>
-      <c r="D134" s="105" t="s">
+      <c r="C134" s="91"/>
+      <c r="D134" s="103" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="40" t="s">
@@ -4516,10 +4496,10 @@
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="100" t="s">
+      <c r="B135" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="93"/>
+      <c r="C135" s="91"/>
       <c r="D135" s="5">
         <f>$D127*($D$133/100)</f>
         <v>226405409.25</v>
@@ -4542,10 +4522,10 @@
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="101" t="s">
+      <c r="B136" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="102"/>
+      <c r="C136" s="100"/>
       <c r="D136" s="5">
         <f>D$128*($D$133/100)</f>
         <v>177732595.34999996</v>
@@ -4568,10 +4548,10 @@
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="101" t="s">
+      <c r="B137" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="102"/>
+      <c r="C137" s="100"/>
       <c r="D137" s="5">
         <f>D$129*($D$133/100)</f>
         <v>1322665.4699999671</v>
@@ -4594,10 +4574,10 @@
       </c>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="103" t="s">
+      <c r="B138" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="104"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="5">
         <f>D$130*($D$133/100)</f>
         <v>265266788.84999993</v>
@@ -4621,7 +4601,7 @@
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C139" s="32"/>
       <c r="D139" s="37">
@@ -4683,7 +4663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:16">
       <c r="B145" s="39" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4689,7 @@
         <v>131678264.32171868</v>
       </c>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:16">
       <c r="B146" s="39" t="s">
         <v>6</v>
       </c>
@@ -4735,7 +4715,7 @@
         <v>151995035.03906244</v>
       </c>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:16">
       <c r="B147" s="39" t="s">
         <v>7</v>
       </c>
@@ -4761,7 +4741,7 @@
         <v>304271120.94946867</v>
       </c>
     </row>
-    <row r="148" spans="2:14" ht="15.75" thickBot="1">
+    <row r="148" spans="2:16" ht="15.75" thickBot="1">
       <c r="B148" s="39" t="s">
         <v>8</v>
       </c>
@@ -4787,7 +4767,7 @@
         <v>200430842.16960004</v>
       </c>
     </row>
-    <row r="149" spans="2:14" ht="15.75" thickBot="1">
+    <row r="149" spans="2:16" ht="15.75" thickBot="1">
       <c r="B149" s="52" t="s">
         <v>43</v>
       </c>
@@ -4813,7 +4793,7 @@
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:16">
       <c r="B152" s="42" t="s">
         <v>98</v>
       </c>
@@ -4821,11 +4801,8 @@
       <c r="H152" s="62">
         <v>15</v>
       </c>
-      <c r="L152" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" ht="15.75" thickBot="1">
+    </row>
+    <row r="153" spans="2:16" ht="15.75" thickBot="1">
       <c r="D153" s="40" t="s">
         <v>34</v>
       </c>
@@ -4844,14 +4821,26 @@
       <c r="I153" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="M153" t="s">
-        <v>57</v>
-      </c>
-      <c r="N153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14">
+      <c r="K153" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L153" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M153" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N153" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O153" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="P153" s="118" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16">
       <c r="B154" s="58" t="s">
         <v>22</v>
       </c>
@@ -4877,18 +4866,18 @@
         <f>(F154-H154)/G154</f>
         <v>8500000</v>
       </c>
-      <c r="L154" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M154" s="73">
-        <f>N154*I154</f>
-        <v>85000000</v>
-      </c>
-      <c r="N154" s="74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14">
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <f>SUM(K154:O154)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16">
       <c r="B155" s="59" t="s">
         <v>23</v>
       </c>
@@ -4914,18 +4903,18 @@
         <f t="shared" ref="I155:I159" si="39">(F155-H155)/G155</f>
         <v>14166666.666666666</v>
       </c>
-      <c r="L155" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M155" s="75">
-        <f>N155*I155</f>
-        <v>141666666.66666666</v>
-      </c>
-      <c r="N155" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14">
+      <c r="K155">
+        <v>4</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <f t="shared" ref="P155:P158" si="40">SUM(K155:O155)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16">
       <c r="B156" s="59" t="s">
         <v>24</v>
       </c>
@@ -4951,55 +4940,52 @@
         <f t="shared" si="39"/>
         <v>7366666.666666667</v>
       </c>
-      <c r="L156" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="M156" s="75">
-        <f>N156*I156</f>
-        <v>73666666.666666672</v>
-      </c>
-      <c r="N156" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14">
+      <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16">
       <c r="B157" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C157" s="32"/>
       <c r="D157" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="5">
         <v>180000000</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="37"/>
-        <v>360000000</v>
+        <v>180000000</v>
       </c>
       <c r="G157" s="5">
         <v>15</v>
       </c>
       <c r="H157" s="5">
         <f t="shared" si="38"/>
-        <v>54000000</v>
+        <v>27000000</v>
       </c>
       <c r="I157" s="5">
         <f t="shared" si="39"/>
-        <v>20400000</v>
-      </c>
-      <c r="L157" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M157" s="75">
-        <f>N157*I157</f>
-        <v>204000000</v>
-      </c>
-      <c r="N157" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14">
+        <v>10200000</v>
+      </c>
+      <c r="K157">
+        <v>5</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16">
       <c r="B158" s="59" t="s">
         <v>26</v>
       </c>
@@ -5025,18 +5011,18 @@
         <f t="shared" si="39"/>
         <v>5100000</v>
       </c>
-      <c r="L158" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M158" s="75">
-        <f>N158*I158</f>
-        <v>51000000</v>
-      </c>
-      <c r="N158" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" ht="15.75" thickBot="1">
+      <c r="K158">
+        <v>4</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" ht="15.75" thickBot="1">
       <c r="B159" s="63" t="s">
         <v>45</v>
       </c>
@@ -5062,18 +5048,11 @@
         <f t="shared" si="39"/>
         <v>5950000</v>
       </c>
-      <c r="L159" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="M159" s="76">
-        <f>N159*I159</f>
-        <v>267750000</v>
-      </c>
-      <c r="N159" s="27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" ht="15.75" thickBot="1">
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" ht="15.75" thickBot="1">
       <c r="B160" s="52"/>
       <c r="C160" s="53" t="s">
         <v>50</v>
@@ -5082,2508 +5061,1739 @@
       <c r="E160" s="53"/>
       <c r="F160" s="54">
         <f>SUM(F154:F159)</f>
-        <v>1330000000</v>
+        <v>1150000000</v>
       </c>
       <c r="G160" s="53"/>
       <c r="H160" s="65">
         <f>SUM(H154:H159)</f>
-        <v>199500000</v>
+        <v>172500000</v>
       </c>
       <c r="I160" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="L160" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="M160" s="78">
-        <f>SUM(M154:M159)</f>
-        <v>823083333.33333325</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14">
+      <c r="K160" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L160" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M160" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N160" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O160" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15">
       <c r="H161" s="61">
         <v>0</v>
       </c>
       <c r="I161" s="56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="162" spans="2:14" ht="15.75" thickBot="1">
+      <c r="K161" s="105">
+        <f>K154*I154</f>
+        <v>34000000</v>
+      </c>
+      <c r="L161" s="105"/>
+      <c r="M161" s="105"/>
+      <c r="N161" s="105">
+        <f>N154*I154</f>
+        <v>8500000</v>
+      </c>
+      <c r="O161" s="105"/>
+    </row>
+    <row r="162" spans="2:15" ht="15.75" thickBot="1">
       <c r="H162" s="66">
         <f>(H160+H161)</f>
-        <v>199500000</v>
+        <v>172500000</v>
       </c>
       <c r="I162" s="57"/>
-    </row>
-    <row r="165" spans="2:14">
-      <c r="B165" s="42" t="s">
+      <c r="K162" s="105">
+        <f t="shared" ref="K162:K165" si="41">K155*I155</f>
+        <v>56666666.666666664</v>
+      </c>
+      <c r="L162" s="105"/>
+      <c r="M162" s="105"/>
+      <c r="N162" s="105"/>
+      <c r="O162" s="105">
+        <f>O155*I155</f>
+        <v>14166666.666666666</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" ht="15.75" thickBot="1">
+      <c r="E163" t="s">
+        <v>63</v>
+      </c>
+      <c r="K163" s="105">
+        <f t="shared" si="41"/>
+        <v>29466666.666666668</v>
+      </c>
+      <c r="L163" s="105"/>
+      <c r="M163" s="105">
+        <f>M156*I156</f>
+        <v>7366666.666666667</v>
+      </c>
+      <c r="N163" s="105"/>
+      <c r="O163" s="105"/>
+    </row>
+    <row r="164" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B164" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C165" s="42"/>
-      <c r="H165" s="62">
-        <v>15</v>
-      </c>
-      <c r="L165" t="s">
+      <c r="C164" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F164" t="s">
+        <v>56</v>
+      </c>
+      <c r="G164" t="s">
+        <v>57</v>
+      </c>
+      <c r="K164" s="105">
+        <f t="shared" si="41"/>
+        <v>51000000</v>
+      </c>
+      <c r="L164" s="105"/>
+      <c r="M164" s="105"/>
+      <c r="N164" s="105"/>
+      <c r="O164" s="105"/>
+    </row>
+    <row r="165" spans="2:15">
+      <c r="B165" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="5">
+        <f>SUM($I$154:$I$159)</f>
+        <v>51283333.333333328</v>
+      </c>
+      <c r="E165" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F165" s="71">
+        <f>G165*I154</f>
+        <v>85000000</v>
+      </c>
+      <c r="G165" s="72">
+        <v>10</v>
+      </c>
+      <c r="K165" s="105">
+        <f t="shared" si="41"/>
+        <v>20400000</v>
+      </c>
+      <c r="L165" s="105">
+        <f>I158*L158</f>
+        <v>5100000</v>
+      </c>
+      <c r="M165" s="105"/>
+      <c r="N165" s="105"/>
+      <c r="O165" s="105"/>
+    </row>
+    <row r="166" spans="2:15">
+      <c r="B166" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="5">
+        <f t="shared" ref="C166:C169" si="42">SUM($I$154:$I$159)</f>
+        <v>51283333.333333328</v>
+      </c>
+      <c r="E166" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F166" s="73">
+        <f t="shared" ref="F166:F170" si="43">G166*I155</f>
+        <v>141666666.66666666</v>
+      </c>
+      <c r="G166" s="24">
+        <v>10</v>
+      </c>
+      <c r="K166" s="105">
+        <f>K159*I159</f>
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15">
+      <c r="B167" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="5">
+        <f t="shared" si="42"/>
+        <v>51283333.333333328</v>
+      </c>
+      <c r="E167" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F167" s="73">
+        <f t="shared" si="43"/>
+        <v>73666666.666666672</v>
+      </c>
+      <c r="G167" s="24">
+        <v>10</v>
+      </c>
+      <c r="K167" s="105">
+        <f>SUM(K161:K166)</f>
+        <v>197483333.33333331</v>
+      </c>
+      <c r="L167" s="105">
+        <f>SUM(L161:L165)+K167</f>
+        <v>202583333.33333331</v>
+      </c>
+      <c r="M167" s="105">
+        <f>SUM(M161:M165)+L167</f>
+        <v>209949999.99999997</v>
+      </c>
+      <c r="N167" s="105">
+        <f>SUM(N161:N165)+M167</f>
+        <v>218449999.99999997</v>
+      </c>
+      <c r="O167" s="105">
+        <f>SUM(O161:O165)+N167</f>
+        <v>232616666.66666663</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15">
+      <c r="B168" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="5">
+        <f t="shared" si="42"/>
+        <v>51283333.333333328</v>
+      </c>
+      <c r="E168" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="73">
+        <f t="shared" si="43"/>
+        <v>102000000</v>
+      </c>
+      <c r="G168" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15">
+      <c r="B169" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="5">
+        <f t="shared" si="42"/>
+        <v>51283333.333333328</v>
+      </c>
+      <c r="E169" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F169" s="73">
+        <f t="shared" si="43"/>
+        <v>51000000</v>
+      </c>
+      <c r="G169" s="24">
+        <v>10</v>
+      </c>
+      <c r="K169" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L169" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M169" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N169" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O169" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="E170" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" s="74">
+        <f t="shared" si="43"/>
+        <v>267750000</v>
+      </c>
+      <c r="G170" s="27">
+        <v>45</v>
+      </c>
+      <c r="K170" s="105">
+        <v>10</v>
+      </c>
+      <c r="L170" s="105"/>
+      <c r="M170" s="105"/>
+      <c r="N170" s="105">
+        <v>13</v>
+      </c>
+      <c r="O170" s="105"/>
+    </row>
+    <row r="171" spans="2:15" ht="15.75" thickBot="1">
+      <c r="E171" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F171" s="76">
+        <f>SUM(F165:F170)</f>
+        <v>721083333.33333325</v>
+      </c>
+      <c r="K171" s="105">
+        <v>10</v>
+      </c>
+      <c r="L171" s="105"/>
+      <c r="M171" s="105"/>
+      <c r="N171" s="105"/>
+      <c r="O171" s="105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15">
+      <c r="B172" t="s">
+        <v>54</v>
+      </c>
+      <c r="K172" s="105">
+        <v>10</v>
+      </c>
+      <c r="L172" s="105"/>
+      <c r="M172" s="105">
+        <v>12</v>
+      </c>
+      <c r="N172" s="105"/>
+      <c r="O172" s="105"/>
+    </row>
+    <row r="173" spans="2:15" ht="15.75" thickBot="1">
+      <c r="D173" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K173" s="105">
+        <v>10</v>
+      </c>
+      <c r="L173" s="105"/>
+      <c r="M173" s="105"/>
+      <c r="N173" s="105"/>
+      <c r="O173" s="105"/>
+    </row>
+    <row r="174" spans="2:15">
+      <c r="B174" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="30"/>
+      <c r="D174" s="5">
+        <f>E154*K154</f>
+        <v>600000000</v>
+      </c>
+      <c r="E174" s="68">
+        <f>$E$154*L154</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="68">
+        <f>$E154*M154</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="68">
+        <f>$E154*N154</f>
+        <v>150000000</v>
+      </c>
+      <c r="H174" s="68">
+        <f>$E154*O154</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="105">
+        <v>10</v>
+      </c>
+      <c r="L174" s="105">
+        <v>11</v>
+      </c>
+      <c r="M174" s="105"/>
+      <c r="N174" s="105"/>
+      <c r="O174" s="105"/>
+    </row>
+    <row r="175" spans="2:15">
+      <c r="B175" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="32"/>
+      <c r="D175" s="5">
+        <f t="shared" ref="D175:D179" si="44">E155*K155</f>
+        <v>1000000000</v>
+      </c>
+      <c r="E175" s="68">
+        <f t="shared" ref="E175:E179" si="45">E155*L155</f>
+        <v>0</v>
+      </c>
+      <c r="F175" s="68">
+        <f t="shared" ref="F175:H179" si="46">$E155*M155</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H175" s="68">
+        <f>$E155*O155</f>
+        <v>250000000</v>
+      </c>
+      <c r="K175" s="105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15">
+      <c r="B176" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="D176" s="5">
+        <f t="shared" si="44"/>
+        <v>520000000</v>
+      </c>
+      <c r="E176" s="68">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="68">
+        <f t="shared" si="46"/>
+        <v>130000000</v>
+      </c>
+      <c r="G176" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15">
+      <c r="B177" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="32"/>
+      <c r="D177" s="5">
+        <f t="shared" si="44"/>
+        <v>900000000</v>
+      </c>
+      <c r="E177" s="68">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G177" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15">
+      <c r="B178" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="D178" s="5">
+        <f t="shared" si="44"/>
+        <v>360000000</v>
+      </c>
+      <c r="E178" s="68">
+        <f t="shared" si="45"/>
+        <v>90000000</v>
+      </c>
+      <c r="F178" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H178" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B179" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="D179" s="5">
+        <f t="shared" si="44"/>
+        <v>350000000</v>
+      </c>
+      <c r="E179" s="68">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H179" s="68">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" ht="15.75" thickBot="1">
+      <c r="C180" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180" s="70">
+        <f>SUM(D174:D179)</f>
+        <v>3730000000</v>
+      </c>
+      <c r="E180" s="70">
+        <f t="shared" ref="E180:H180" si="47">SUM(E174:E179)</f>
+        <v>90000000</v>
+      </c>
+      <c r="F180" s="70">
+        <f t="shared" si="47"/>
+        <v>130000000</v>
+      </c>
+      <c r="G180" s="70">
+        <f t="shared" si="47"/>
+        <v>150000000</v>
+      </c>
+      <c r="H180" s="70">
+        <f t="shared" si="47"/>
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15">
+      <c r="D181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15">
+      <c r="B183" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" ht="15.75" thickBot="1">
+      <c r="D184" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" s="67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15">
+      <c r="B185" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="30"/>
+      <c r="D185" s="5">
+        <f>D174*($H$152/100)</f>
+        <v>90000000</v>
+      </c>
+      <c r="E185" s="5">
+        <f t="shared" ref="E185:H185" si="48">E174*($H$152/100)</f>
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <f t="shared" si="48"/>
+        <v>22500000</v>
+      </c>
+      <c r="H185" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15">
+      <c r="B186" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="32"/>
+      <c r="D186" s="5">
+        <f t="shared" ref="D186:H190" si="49">D175*($H$152/100)</f>
+        <v>150000000</v>
+      </c>
+      <c r="E186" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <f t="shared" si="49"/>
+        <v>37500000</v>
+      </c>
+      <c r="K186" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L186" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M186" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N186" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O186" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15">
+      <c r="B187" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="D187" s="5">
+        <f t="shared" si="49"/>
+        <v>78000000</v>
+      </c>
+      <c r="E187" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" si="49"/>
+        <v>19500000</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="105">
+        <f>K170*I154*K154</f>
+        <v>340000000</v>
+      </c>
+      <c r="L187" s="105">
+        <f>L170*L154*I154</f>
+        <v>0</v>
+      </c>
+      <c r="M187" s="105">
+        <f>M170*I154*M154</f>
+        <v>0</v>
+      </c>
+      <c r="N187" s="105">
+        <f>N170*I154*N154</f>
+        <v>110500000</v>
+      </c>
+      <c r="O187" s="105">
+        <f>O170*O154*I154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15">
+      <c r="B188" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="32"/>
+      <c r="D188" s="5">
+        <f t="shared" si="49"/>
+        <v>135000000</v>
+      </c>
+      <c r="E188" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G188" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H188" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="105">
+        <f>K171*I155*K155</f>
+        <v>566666666.66666663</v>
+      </c>
+      <c r="L188" s="105">
+        <f>L171*L155*I155</f>
+        <v>0</v>
+      </c>
+      <c r="M188" s="105">
+        <f>M171*I155*M155</f>
+        <v>0</v>
+      </c>
+      <c r="N188" s="105">
+        <f>N171*I155*N155</f>
+        <v>0</v>
+      </c>
+      <c r="O188" s="105">
+        <f>O171*O155*I155</f>
+        <v>198333333.33333331</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15">
+      <c r="B189" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="32"/>
+      <c r="D189" s="5">
+        <f t="shared" si="49"/>
+        <v>54000000</v>
+      </c>
+      <c r="E189" s="5">
+        <f t="shared" si="49"/>
+        <v>13500000</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G189" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="105">
+        <f>K172*I156*K156</f>
+        <v>294666666.66666669</v>
+      </c>
+      <c r="L189" s="105">
+        <f>L172*L156*I156</f>
+        <v>0</v>
+      </c>
+      <c r="M189" s="105">
+        <f>M172*I156*M156</f>
+        <v>88400000</v>
+      </c>
+      <c r="N189" s="105">
+        <f>N172*I156*N156</f>
+        <v>0</v>
+      </c>
+      <c r="O189" s="105">
+        <f>O172*O156*I156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B190" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="32"/>
+      <c r="D190" s="5">
+        <f t="shared" si="49"/>
+        <v>52500000</v>
+      </c>
+      <c r="E190" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="105">
+        <f>K173*I157*K157</f>
+        <v>510000000</v>
+      </c>
+      <c r="L190" s="105">
+        <f>L173*L157*I157</f>
+        <v>0</v>
+      </c>
+      <c r="M190" s="105">
+        <f>M173*I157*M157</f>
+        <v>0</v>
+      </c>
+      <c r="N190" s="105">
+        <f>N173*I157*N157</f>
+        <v>0</v>
+      </c>
+      <c r="O190" s="105">
+        <f>O173*O157*I157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" ht="15.75" thickBot="1">
+      <c r="C191" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D191" s="70">
+        <f>SUM(D185:D190)</f>
+        <v>559500000</v>
+      </c>
+      <c r="E191" s="70">
+        <f t="shared" ref="E191:H191" si="50">SUM(E185:E190)</f>
+        <v>13500000</v>
+      </c>
+      <c r="F191" s="70">
+        <f t="shared" si="50"/>
+        <v>19500000</v>
+      </c>
+      <c r="G191" s="70">
+        <f t="shared" si="50"/>
+        <v>22500000</v>
+      </c>
+      <c r="H191" s="70">
+        <f t="shared" si="50"/>
+        <v>37500000</v>
+      </c>
+      <c r="K191" s="105">
+        <f>K174*I158*K158</f>
+        <v>204000000</v>
+      </c>
+      <c r="L191" s="105">
+        <f>L174*L158*I158</f>
+        <v>56100000</v>
+      </c>
+      <c r="M191" s="105">
+        <f>M174*I158*M158</f>
+        <v>0</v>
+      </c>
+      <c r="N191" s="105">
+        <f>N174*I158*N158</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="105">
+        <f>O174*O158*I158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15">
+      <c r="K192" s="105">
+        <f>K175*K159*I159</f>
+        <v>238000000</v>
+      </c>
+      <c r="L192" s="105">
+        <f>L175*L159*J159</f>
+        <v>0</v>
+      </c>
+      <c r="M192" s="105">
+        <f>M175*M159*K159</f>
+        <v>0</v>
+      </c>
+      <c r="N192" s="105">
+        <f>N175*N159*L159</f>
+        <v>0</v>
+      </c>
+      <c r="O192" s="105">
+        <f>O175*O159*M159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16">
+      <c r="C193" s="32"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="37"/>
+      <c r="I193" s="37"/>
+      <c r="K193" s="105">
+        <f>SUM(K187:K192)</f>
+        <v>2153333333.333333</v>
+      </c>
+      <c r="L193" s="105">
+        <f>SUM(L187:L192)</f>
+        <v>56100000</v>
+      </c>
+      <c r="M193" s="105">
+        <f>SUM(M187:M192)</f>
+        <v>88400000</v>
+      </c>
+      <c r="N193" s="105">
+        <f>SUM(N187:N192)</f>
+        <v>110500000</v>
+      </c>
+      <c r="O193" s="105">
+        <f>SUM(O187:O191)</f>
+        <v>198333333.33333331</v>
+      </c>
+      <c r="P193" s="105">
+        <f>SUM(K193:O193)</f>
+        <v>2606666666.6666665</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16">
+      <c r="B195" s="82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16">
+      <c r="B196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16">
+      <c r="B197" t="s">
+        <v>87</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16">
+      <c r="B198" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B199" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C199" s="80"/>
+      <c r="D199" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16">
+      <c r="B200" s="58" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="166" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D166" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E166" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F166" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G166" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H166" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I166" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M166" t="s">
-        <v>57</v>
-      </c>
-      <c r="N166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14">
-      <c r="B167" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C167" s="30"/>
-      <c r="D167" s="5">
-        <v>1</v>
-      </c>
-      <c r="E167" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="F167" s="5">
-        <f>(E167*D167)</f>
-        <v>150000000</v>
-      </c>
-      <c r="G167" s="5">
-        <v>15</v>
-      </c>
-      <c r="H167" s="5">
-        <f>(F167*($H$152/100))</f>
-        <v>22500000</v>
-      </c>
-      <c r="I167" s="5">
-        <f>(F167-H167)/G167</f>
-        <v>8500000</v>
-      </c>
-      <c r="L167" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M167" s="73"/>
-      <c r="N167" s="74"/>
-    </row>
-    <row r="168" spans="2:14">
-      <c r="B168" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C168" s="32"/>
-      <c r="D168" s="5">
-        <v>1</v>
-      </c>
-      <c r="E168" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F168" s="5">
-        <f t="shared" ref="F168:F172" si="40">(E168*D168)</f>
-        <v>250000000</v>
-      </c>
-      <c r="G168" s="5">
-        <v>15</v>
-      </c>
-      <c r="H168" s="5">
-        <f t="shared" ref="H168:H172" si="41">(F168*($H$152/100))</f>
-        <v>37500000</v>
-      </c>
-      <c r="I168" s="5">
-        <f t="shared" ref="I168:I172" si="42">(F168-H168)/G168</f>
-        <v>14166666.666666666</v>
-      </c>
-      <c r="L168" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M168" s="75"/>
-      <c r="N168" s="24"/>
-    </row>
-    <row r="169" spans="2:14">
-      <c r="B169" s="59" t="s">
+      <c r="C200" s="31"/>
+      <c r="D200" s="78">
+        <f>$C$198*SUM(E69,E78,E87,E96)</f>
+        <v>8</v>
+      </c>
+      <c r="E200" s="78">
+        <f>$C$198*SUM(H69,H78,H87,H96)</f>
+        <v>8</v>
+      </c>
+      <c r="F200" s="78">
+        <f>$C$198*SUM(K69,K78,K87,K96)</f>
+        <v>8</v>
+      </c>
+      <c r="G200" s="78">
+        <f>$C$198*SUM(N69,N78,N87,N96)</f>
+        <v>10</v>
+      </c>
+      <c r="H200" s="78">
+        <f>$C$198*SUM(Q69,Q78,Q87,Q96)</f>
+        <v>10</v>
+      </c>
+      <c r="I200" s="5">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16">
+      <c r="B201" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" s="56"/>
+      <c r="D201" s="78">
+        <f>$C$198*SUM(E70,E79,E88,E97)</f>
+        <v>8</v>
+      </c>
+      <c r="E201" s="78">
+        <f t="shared" ref="E201:E204" si="51">$C$198*SUM(H70,H79,H88,H97)</f>
+        <v>8</v>
+      </c>
+      <c r="F201" s="78">
+        <f t="shared" ref="F201:F204" si="52">$C$198*SUM(K70,K79,K88,K97)</f>
+        <v>8</v>
+      </c>
+      <c r="G201" s="78">
+        <f t="shared" ref="G201:G204" si="53">$C$198*SUM(N70,N79,N88,N97)</f>
+        <v>8</v>
+      </c>
+      <c r="H201" s="78">
+        <f>$C$198*SUM(Q70,Q79,Q88,Q97)</f>
+        <v>10</v>
+      </c>
+      <c r="I201" s="5">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
+      <c r="B202" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C202" s="56"/>
+      <c r="D202" s="78">
+        <f>$C$198*SUM(E71,E80,E89,E98)</f>
+        <v>8</v>
+      </c>
+      <c r="E202" s="78">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="F202" s="78">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="G202" s="78">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="H202" s="78">
+        <f>$C$198*SUM(Q71,Q80,Q89,Q98)</f>
+        <v>10</v>
+      </c>
+      <c r="I202" s="5">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
+      <c r="B203" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C203" s="56"/>
+      <c r="D203" s="78">
+        <f>$C$198*SUM(E72,E81,E90,E99)</f>
+        <v>10</v>
+      </c>
+      <c r="E203" s="78">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="F203" s="78">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="G203" s="78">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="H203" s="78">
+        <f>$C$198*SUM(Q72,Q81,Q90,Q99)</f>
+        <v>10</v>
+      </c>
+      <c r="I203" s="5">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16">
+      <c r="B204" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C204" s="56"/>
+      <c r="D204" s="78">
+        <f>$C$198*SUM(E73,E82,E91,E100)</f>
+        <v>8</v>
+      </c>
+      <c r="E204" s="78">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="F204" s="78">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="G204" s="78">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="H204" s="78">
+        <f>$C$198*SUM(Q73,Q82,Q91,Q100)</f>
+        <v>10</v>
+      </c>
+      <c r="I204" s="5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
+      <c r="B205" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C205" s="56"/>
+      <c r="D205" s="86">
+        <f>D206*$E$197</f>
         <v>24</v>
       </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="5">
-        <v>1</v>
-      </c>
-      <c r="E169" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="F169" s="5">
-        <f t="shared" si="40"/>
-        <v>130000000</v>
-      </c>
-      <c r="G169" s="5">
-        <v>15</v>
-      </c>
-      <c r="H169" s="5">
-        <f t="shared" si="41"/>
-        <v>19500000</v>
-      </c>
-      <c r="I169" s="5">
-        <f t="shared" si="42"/>
-        <v>7366666.666666667</v>
-      </c>
-      <c r="L169" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="M169" s="75"/>
-      <c r="N169" s="24"/>
-    </row>
-    <row r="170" spans="2:14">
-      <c r="B170" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" s="32"/>
-      <c r="D170" s="5">
-        <v>2</v>
-      </c>
-      <c r="E170" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="F170" s="5">
-        <f t="shared" si="40"/>
-        <v>360000000</v>
-      </c>
-      <c r="G170" s="5">
-        <v>15</v>
-      </c>
-      <c r="H170" s="5">
-        <f t="shared" si="41"/>
-        <v>54000000</v>
-      </c>
-      <c r="I170" s="5">
-        <f t="shared" si="42"/>
-        <v>20400000</v>
-      </c>
-      <c r="L170" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M170" s="75"/>
-      <c r="N170" s="24"/>
-    </row>
-    <row r="171" spans="2:14">
-      <c r="B171" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C171" s="32"/>
-      <c r="D171" s="5">
-        <v>2</v>
-      </c>
-      <c r="E171" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="F171" s="5">
-        <f t="shared" si="40"/>
-        <v>180000000</v>
-      </c>
-      <c r="G171" s="5">
-        <v>15</v>
-      </c>
-      <c r="H171" s="5">
-        <f t="shared" si="41"/>
-        <v>27000000</v>
-      </c>
-      <c r="I171" s="5">
-        <f t="shared" si="42"/>
-        <v>10200000</v>
-      </c>
-      <c r="L171" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M171" s="75">
-        <f>N171*I171</f>
-        <v>112200000</v>
-      </c>
-      <c r="N171" s="121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B172" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C172" s="32"/>
-      <c r="D172" s="35">
-        <v>1</v>
-      </c>
-      <c r="E172" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="F172" s="35">
-        <f t="shared" si="40"/>
-        <v>350000000</v>
-      </c>
-      <c r="G172" s="35">
-        <v>50</v>
-      </c>
-      <c r="H172" s="35">
-        <f t="shared" si="41"/>
-        <v>52500000</v>
-      </c>
-      <c r="I172" s="5">
-        <f t="shared" si="42"/>
-        <v>5950000</v>
-      </c>
-      <c r="J172" s="107"/>
-      <c r="L172" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="M172" s="76"/>
-      <c r="N172" s="27"/>
-    </row>
-    <row r="173" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B173" s="52"/>
-      <c r="C173" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D173" s="53"/>
-      <c r="E173" s="53"/>
-      <c r="F173" s="54">
-        <f>SUM(F167:F172)</f>
-        <v>1420000000</v>
-      </c>
-      <c r="G173" s="53"/>
-      <c r="H173" s="65">
-        <f>SUM(H167:H172)</f>
-        <v>213000000</v>
-      </c>
-      <c r="I173" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L173" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="M173" s="78">
-        <f>SUM(M167:M172)</f>
-        <v>112200000</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14">
-      <c r="H174" s="61">
-        <v>0</v>
-      </c>
-      <c r="I174" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" ht="15.75" thickBot="1">
-      <c r="H175" s="66">
-        <f>(H173+H174)</f>
-        <v>213000000</v>
-      </c>
-      <c r="I175" s="57"/>
-    </row>
-    <row r="176" spans="2:14">
-      <c r="H176" s="37"/>
-      <c r="I176" s="32"/>
-    </row>
-    <row r="177" spans="2:14">
-      <c r="H177" s="37"/>
-      <c r="I177" s="32"/>
-    </row>
-    <row r="178" spans="2:14">
-      <c r="B178" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C178" s="42"/>
-      <c r="H178" s="62">
-        <v>15</v>
-      </c>
-      <c r="L178" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D179" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F179" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G179" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H179" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I179" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M179" t="s">
-        <v>57</v>
-      </c>
-      <c r="N179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14">
-      <c r="B180" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="30"/>
-      <c r="D180" s="5">
-        <v>1</v>
-      </c>
-      <c r="E180" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="F180" s="5">
-        <f>(E180*D180)</f>
-        <v>150000000</v>
-      </c>
-      <c r="G180" s="5">
-        <v>15</v>
-      </c>
-      <c r="H180" s="5">
-        <f>(F180*($H$152/100))</f>
-        <v>22500000</v>
-      </c>
-      <c r="I180" s="5">
-        <f>(F180-H180)/G180</f>
-        <v>8500000</v>
-      </c>
-      <c r="L180" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M180" s="73"/>
-      <c r="N180" s="74"/>
-    </row>
-    <row r="181" spans="2:14">
-      <c r="B181" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="32"/>
-      <c r="D181" s="5">
-        <v>1</v>
-      </c>
-      <c r="E181" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F181" s="5">
-        <f t="shared" ref="F181:F185" si="43">(E181*D181)</f>
-        <v>250000000</v>
-      </c>
-      <c r="G181" s="5">
-        <v>15</v>
-      </c>
-      <c r="H181" s="5">
-        <f t="shared" ref="H181:H185" si="44">(F181*($H$152/100))</f>
-        <v>37500000</v>
-      </c>
-      <c r="I181" s="5">
-        <f t="shared" ref="I181:I185" si="45">(F181-H181)/G181</f>
-        <v>14166666.666666666</v>
-      </c>
-      <c r="L181" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M181" s="75"/>
-      <c r="N181" s="24"/>
-    </row>
-    <row r="182" spans="2:14">
-      <c r="B182" s="59" t="s">
+      <c r="E205" s="86">
+        <f t="shared" ref="E205:H205" si="54">E206*$E$197</f>
         <v>24</v>
       </c>
-      <c r="C182" s="32"/>
-      <c r="D182" s="5">
-        <v>2</v>
-      </c>
-      <c r="E182" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="F182" s="5">
-        <f t="shared" si="43"/>
-        <v>260000000</v>
-      </c>
-      <c r="G182" s="5">
-        <v>15</v>
-      </c>
-      <c r="H182" s="5">
-        <f t="shared" si="44"/>
-        <v>39000000</v>
-      </c>
-      <c r="I182" s="5">
-        <f t="shared" si="45"/>
-        <v>14733333.333333334</v>
-      </c>
-      <c r="L182" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="M182" s="75">
-        <f>N182*I182</f>
-        <v>176800000</v>
-      </c>
-      <c r="N182" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14">
-      <c r="B183" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="5">
-        <v>2</v>
-      </c>
-      <c r="E183" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="F183" s="5">
-        <f t="shared" si="43"/>
-        <v>360000000</v>
-      </c>
-      <c r="G183" s="5">
-        <v>15</v>
-      </c>
-      <c r="H183" s="5">
-        <f t="shared" si="44"/>
-        <v>54000000</v>
-      </c>
-      <c r="I183" s="5">
-        <f t="shared" si="45"/>
-        <v>20400000</v>
-      </c>
-      <c r="L183" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M183" s="75"/>
-      <c r="N183" s="24"/>
-    </row>
-    <row r="184" spans="2:14">
-      <c r="B184" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="32"/>
-      <c r="D184" s="5">
-        <v>2</v>
-      </c>
-      <c r="E184" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="F184" s="5">
-        <f t="shared" si="43"/>
-        <v>180000000</v>
-      </c>
-      <c r="G184" s="5">
-        <v>15</v>
-      </c>
-      <c r="H184" s="5">
-        <f t="shared" si="44"/>
-        <v>27000000</v>
-      </c>
-      <c r="I184" s="5">
-        <f t="shared" si="45"/>
-        <v>10200000</v>
-      </c>
-      <c r="L184" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M184" s="75"/>
-      <c r="N184" s="24"/>
-    </row>
-    <row r="185" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B185" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185" s="32"/>
-      <c r="D185" s="35">
-        <v>1</v>
-      </c>
-      <c r="E185" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="F185" s="35">
-        <f t="shared" si="43"/>
-        <v>350000000</v>
-      </c>
-      <c r="G185" s="35">
-        <v>50</v>
-      </c>
-      <c r="H185" s="35">
-        <f t="shared" si="44"/>
-        <v>52500000</v>
-      </c>
-      <c r="I185" s="5">
-        <f t="shared" si="45"/>
-        <v>5950000</v>
-      </c>
-      <c r="L185" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="M185" s="76"/>
-      <c r="N185" s="27"/>
-    </row>
-    <row r="186" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B186" s="52"/>
-      <c r="C186" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D186" s="53"/>
-      <c r="E186" s="53"/>
-      <c r="F186" s="54">
-        <f>SUM(F180:F185)</f>
-        <v>1550000000</v>
-      </c>
-      <c r="G186" s="53"/>
-      <c r="H186" s="65">
-        <f>SUM(H180:H185)</f>
-        <v>232500000</v>
-      </c>
-      <c r="I186" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L186" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="M186" s="78">
-        <f>SUM(M180:M185)</f>
-        <v>176800000</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14">
-      <c r="H187" s="61">
-        <v>0</v>
-      </c>
-      <c r="I187" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" ht="15.75" thickBot="1">
-      <c r="H188" s="66">
-        <f>(H186+H187)</f>
-        <v>232500000</v>
-      </c>
-      <c r="I188" s="57"/>
-    </row>
-    <row r="189" spans="2:14">
-      <c r="H189" s="37"/>
-      <c r="I189" s="32"/>
-    </row>
-    <row r="190" spans="2:14">
-      <c r="H190" s="37"/>
-      <c r="I190" s="32"/>
-    </row>
-    <row r="191" spans="2:14">
-      <c r="B191" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C191" s="42"/>
-      <c r="H191" s="62">
-        <v>15</v>
-      </c>
-      <c r="L191" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D192" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E192" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F192" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G192" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H192" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I192" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M192" t="s">
-        <v>57</v>
-      </c>
-      <c r="N192" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14">
-      <c r="B193" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" s="30"/>
-      <c r="D193" s="5">
-        <v>2</v>
-      </c>
-      <c r="E193" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="F193" s="5">
-        <f>(E193*D193)</f>
-        <v>300000000</v>
-      </c>
-      <c r="G193" s="5">
-        <v>15</v>
-      </c>
-      <c r="H193" s="5">
-        <f>(F193*($H$152/100))</f>
-        <v>45000000</v>
-      </c>
-      <c r="I193" s="5">
-        <f>(F193-H193)/G193</f>
-        <v>17000000</v>
-      </c>
-      <c r="L193" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M193" s="73">
-        <f>N193*I193</f>
-        <v>221000000</v>
-      </c>
-      <c r="N193" s="74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14">
-      <c r="B194" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C194" s="32"/>
-      <c r="D194" s="5">
-        <v>1</v>
-      </c>
-      <c r="E194" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F194" s="5">
-        <f t="shared" ref="F194:F198" si="46">(E194*D194)</f>
-        <v>250000000</v>
-      </c>
-      <c r="G194" s="5">
-        <v>15</v>
-      </c>
-      <c r="H194" s="5">
-        <f t="shared" ref="H194:H198" si="47">(F194*($H$152/100))</f>
-        <v>37500000</v>
-      </c>
-      <c r="I194" s="5">
-        <f t="shared" ref="I194:I198" si="48">(F194-H194)/G194</f>
-        <v>14166666.666666666</v>
-      </c>
-      <c r="L194" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M194" s="75"/>
-      <c r="N194" s="24"/>
-    </row>
-    <row r="195" spans="2:14">
-      <c r="B195" s="59" t="s">
+      <c r="F205" s="86">
+        <f t="shared" si="54"/>
         <v>24</v>
       </c>
-      <c r="C195" s="32"/>
-      <c r="D195" s="5">
-        <v>2</v>
-      </c>
-      <c r="E195" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="F195" s="5">
-        <f t="shared" si="46"/>
-        <v>260000000</v>
-      </c>
-      <c r="G195" s="5">
-        <v>15</v>
-      </c>
-      <c r="H195" s="5">
-        <f t="shared" si="47"/>
-        <v>39000000</v>
-      </c>
-      <c r="I195" s="5">
-        <f t="shared" si="48"/>
-        <v>14733333.333333334</v>
-      </c>
-      <c r="L195" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="M195" s="75"/>
-      <c r="N195" s="24"/>
-    </row>
-    <row r="196" spans="2:14">
-      <c r="B196" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C196" s="32"/>
-      <c r="D196" s="5">
-        <v>2</v>
-      </c>
-      <c r="E196" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="F196" s="5">
-        <f t="shared" si="46"/>
-        <v>360000000</v>
-      </c>
-      <c r="G196" s="5">
-        <v>15</v>
-      </c>
-      <c r="H196" s="5">
-        <f t="shared" si="47"/>
-        <v>54000000</v>
-      </c>
-      <c r="I196" s="5">
-        <f t="shared" si="48"/>
-        <v>20400000</v>
-      </c>
-      <c r="L196" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M196" s="75"/>
-      <c r="N196" s="24"/>
-    </row>
-    <row r="197" spans="2:14">
-      <c r="B197" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C197" s="32"/>
-      <c r="D197" s="5">
-        <v>2</v>
-      </c>
-      <c r="E197" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="F197" s="5">
-        <f t="shared" si="46"/>
-        <v>180000000</v>
-      </c>
-      <c r="G197" s="5">
-        <v>15</v>
-      </c>
-      <c r="H197" s="5">
-        <f t="shared" si="47"/>
-        <v>27000000</v>
-      </c>
-      <c r="I197" s="5">
-        <f t="shared" si="48"/>
-        <v>10200000</v>
-      </c>
-      <c r="L197" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M197" s="75"/>
-      <c r="N197" s="24"/>
-    </row>
-    <row r="198" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B198" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C198" s="32"/>
-      <c r="D198" s="35">
-        <v>1</v>
-      </c>
-      <c r="E198" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="F198" s="35">
-        <f t="shared" si="46"/>
-        <v>350000000</v>
-      </c>
-      <c r="G198" s="35">
-        <v>50</v>
-      </c>
-      <c r="H198" s="35">
-        <f t="shared" si="47"/>
-        <v>52500000</v>
-      </c>
-      <c r="I198" s="5">
-        <f t="shared" si="48"/>
-        <v>5950000</v>
-      </c>
-      <c r="L198" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="M198" s="76"/>
-      <c r="N198" s="27"/>
-    </row>
-    <row r="199" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B199" s="52"/>
-      <c r="C199" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D199" s="53"/>
-      <c r="E199" s="53"/>
-      <c r="F199" s="54">
-        <f>SUM(F193:F198)</f>
-        <v>1700000000</v>
-      </c>
-      <c r="G199" s="53"/>
-      <c r="H199" s="65">
-        <f>SUM(H193:H198)</f>
-        <v>255000000</v>
-      </c>
-      <c r="I199" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L199" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="M199" s="78">
-        <f>SUM(M193:M198)</f>
-        <v>221000000</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14">
-      <c r="H200" s="61">
-        <v>0</v>
-      </c>
-      <c r="I200" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" ht="15.75" thickBot="1">
-      <c r="H201" s="66">
-        <f>(H199+H200)</f>
-        <v>255000000</v>
-      </c>
-      <c r="I201" s="57"/>
-    </row>
-    <row r="202" spans="2:14">
-      <c r="H202" s="37"/>
-      <c r="I202" s="32"/>
-    </row>
-    <row r="203" spans="2:14">
-      <c r="H203" s="37"/>
-      <c r="I203" s="32"/>
-    </row>
-    <row r="204" spans="2:14">
-      <c r="H204" s="37"/>
-      <c r="I204" s="32"/>
-    </row>
-    <row r="205" spans="2:14">
-      <c r="B205" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C205" s="42"/>
-      <c r="H205" s="62">
-        <v>15</v>
-      </c>
-      <c r="L205" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D206" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E206" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F206" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G206" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="H206" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="I206" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="M206" t="s">
-        <v>57</v>
-      </c>
-      <c r="N206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14">
-      <c r="B207" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="30"/>
-      <c r="D207" s="5">
-        <v>2</v>
-      </c>
-      <c r="E207" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="F207" s="5">
-        <f>(E207*D207)</f>
-        <v>300000000</v>
-      </c>
-      <c r="G207" s="5">
-        <v>15</v>
-      </c>
-      <c r="H207" s="5">
-        <f>(F207*($H$152/100))</f>
-        <v>45000000</v>
-      </c>
-      <c r="I207" s="5">
-        <f>(F207-H207)/G207</f>
-        <v>17000000</v>
-      </c>
-      <c r="L207" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M207" s="73"/>
-      <c r="N207" s="74"/>
-    </row>
-    <row r="208" spans="2:14">
-      <c r="B208" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C208" s="32"/>
-      <c r="D208" s="5">
-        <v>2</v>
-      </c>
-      <c r="E208" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F208" s="5">
-        <f t="shared" ref="F208:F212" si="49">(E208*D208)</f>
-        <v>500000000</v>
-      </c>
-      <c r="G208" s="5">
-        <v>15</v>
-      </c>
-      <c r="H208" s="5">
-        <f t="shared" ref="H208:H212" si="50">(F208*($H$152/100))</f>
-        <v>75000000</v>
-      </c>
-      <c r="I208" s="5">
-        <f t="shared" ref="I208:I212" si="51">(F208-H208)/G208</f>
-        <v>28333333.333333332</v>
-      </c>
-      <c r="L208" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M208" s="75">
-        <f>N208*I209</f>
-        <v>206266666.66666669</v>
-      </c>
-      <c r="N208" s="24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14">
-      <c r="B209" s="59" t="s">
+      <c r="G205" s="86">
+        <f t="shared" si="54"/>
         <v>24</v>
       </c>
-      <c r="C209" s="32"/>
-      <c r="D209" s="5">
-        <v>2</v>
-      </c>
-      <c r="E209" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="49"/>
-        <v>260000000</v>
-      </c>
-      <c r="G209" s="5">
-        <v>15</v>
-      </c>
-      <c r="H209" s="5">
-        <f t="shared" si="50"/>
-        <v>39000000</v>
-      </c>
-      <c r="I209" s="5">
-        <f t="shared" si="51"/>
-        <v>14733333.333333334</v>
-      </c>
-      <c r="L209" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="M209" s="75"/>
-      <c r="N209" s="24"/>
-    </row>
-    <row r="210" spans="2:14">
-      <c r="B210" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C210" s="32"/>
-      <c r="D210" s="5">
-        <v>2</v>
-      </c>
-      <c r="E210" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="F210" s="5">
-        <f t="shared" si="49"/>
-        <v>360000000</v>
-      </c>
-      <c r="G210" s="5">
-        <v>15</v>
-      </c>
-      <c r="H210" s="5">
-        <f t="shared" si="50"/>
-        <v>54000000</v>
-      </c>
-      <c r="I210" s="5">
-        <f t="shared" si="51"/>
-        <v>20400000</v>
-      </c>
-      <c r="L210" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M210" s="75"/>
-      <c r="N210" s="24"/>
-    </row>
-    <row r="211" spans="2:14">
-      <c r="B211" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C211" s="32"/>
-      <c r="D211" s="5">
-        <v>2</v>
-      </c>
-      <c r="E211" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="F211" s="5">
-        <f t="shared" si="49"/>
-        <v>180000000</v>
-      </c>
-      <c r="G211" s="5">
-        <v>15</v>
-      </c>
-      <c r="H211" s="5">
-        <f t="shared" si="50"/>
-        <v>27000000</v>
-      </c>
-      <c r="I211" s="5">
-        <f t="shared" si="51"/>
-        <v>10200000</v>
-      </c>
-      <c r="L211" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M211" s="75"/>
-      <c r="N211" s="24"/>
-    </row>
-    <row r="212" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B212" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C212" s="32"/>
-      <c r="D212" s="35">
-        <v>1</v>
-      </c>
-      <c r="E212" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="F212" s="35">
-        <f t="shared" si="49"/>
-        <v>350000000</v>
-      </c>
-      <c r="G212" s="35">
-        <v>50</v>
-      </c>
-      <c r="H212" s="35">
-        <f t="shared" si="50"/>
-        <v>52500000</v>
-      </c>
-      <c r="I212" s="5">
-        <f t="shared" si="51"/>
-        <v>5950000</v>
-      </c>
-      <c r="L212" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="M212" s="76"/>
-      <c r="N212" s="27"/>
-    </row>
-    <row r="213" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B213" s="52"/>
-      <c r="C213" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="54">
-        <f>SUM(F207:F212)</f>
-        <v>1950000000</v>
-      </c>
-      <c r="G213" s="53"/>
-      <c r="H213" s="65">
-        <f>SUM(H207:H212)</f>
-        <v>292500000</v>
-      </c>
-      <c r="I213" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="L213" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="M213" s="78">
-        <f>SUM(M207:M212)</f>
-        <v>206266666.66666669</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14">
-      <c r="H214" s="61">
-        <v>0</v>
-      </c>
-      <c r="I214" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" ht="15.75" thickBot="1">
-      <c r="H215" s="66">
-        <f>(H213+H214)</f>
-        <v>292500000</v>
-      </c>
-      <c r="I215" s="57"/>
-    </row>
-    <row r="216" spans="2:14">
-      <c r="H216" s="37"/>
-      <c r="I216" s="32"/>
-    </row>
-    <row r="217" spans="2:14">
-      <c r="H217" s="37"/>
-      <c r="I217" s="32"/>
-    </row>
-    <row r="218" spans="2:14">
-      <c r="H218" s="37"/>
-      <c r="I218" s="32"/>
-    </row>
-    <row r="219" spans="2:14">
-      <c r="B219" s="33"/>
-      <c r="C219" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E219" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G219" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H219" s="37"/>
-      <c r="I219" s="32"/>
-    </row>
-    <row r="220" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B220" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C220" s="5">
-        <f>SUM(I154:I159)</f>
-        <v>61483333.333333328</v>
-      </c>
-      <c r="D220" s="5">
-        <f>SUM(I167:I172)</f>
-        <v>66583333.333333328</v>
-      </c>
-      <c r="E220" s="5">
-        <f>SUM(I180:I185)</f>
-        <v>73950000</v>
-      </c>
-      <c r="F220" s="5">
-        <f>SUM(I193:I198)</f>
-        <v>82450000</v>
-      </c>
-      <c r="G220" s="5">
-        <f>SUM(I207:I212)</f>
-        <v>96616666.666666657</v>
-      </c>
-      <c r="H220" s="37">
-        <f>SUM(C220:G220)</f>
-        <v>381083333.33333325</v>
-      </c>
-      <c r="I220" s="32"/>
-    </row>
-    <row r="221" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B221" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C221" s="78">
-        <f>M160</f>
-        <v>823083333.33333325</v>
-      </c>
-      <c r="D221" s="5">
-        <f>M173</f>
-        <v>112200000</v>
-      </c>
-      <c r="E221" s="5">
-        <f>M186</f>
-        <v>176800000</v>
-      </c>
-      <c r="F221" s="5">
-        <f>M199</f>
-        <v>221000000</v>
-      </c>
-      <c r="G221" s="5">
-        <f>M213</f>
-        <v>206266666.66666669</v>
-      </c>
-      <c r="H221" s="37">
-        <f>SUM(C221:G221)</f>
-        <v>1539350000</v>
-      </c>
-      <c r="I221" s="32"/>
-    </row>
-    <row r="222" spans="2:14">
-      <c r="B222" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C222" s="5">
-        <f>H162</f>
-        <v>199500000</v>
-      </c>
-      <c r="D222" s="5">
-        <f>H175</f>
-        <v>213000000</v>
-      </c>
-      <c r="E222" s="5">
-        <f>H188</f>
-        <v>232500000</v>
-      </c>
-      <c r="F222" s="5">
-        <f>H201</f>
-        <v>255000000</v>
-      </c>
-      <c r="G222" s="5">
-        <f>H215</f>
-        <v>292500000</v>
-      </c>
-      <c r="H222" s="37">
-        <f>SUM(C222:G222)</f>
-        <v>1192500000</v>
-      </c>
-      <c r="I222" s="32"/>
-    </row>
-    <row r="223" spans="2:14">
-      <c r="H223" s="120"/>
-      <c r="I223" s="32"/>
-    </row>
-    <row r="224" spans="2:14">
-      <c r="H224" s="37"/>
-      <c r="I224" s="32"/>
-    </row>
-    <row r="225" spans="2:9">
-      <c r="H225" s="37"/>
-      <c r="I225" s="32"/>
-    </row>
-    <row r="226" spans="2:9">
-      <c r="H226" s="37"/>
-      <c r="I226" s="32"/>
-    </row>
-    <row r="227" spans="2:9">
-      <c r="H227" s="37"/>
-      <c r="I227" s="32"/>
-    </row>
-    <row r="228" spans="2:9">
-      <c r="H228" s="37"/>
-      <c r="I228" s="32"/>
-    </row>
-    <row r="229" spans="2:9">
-      <c r="H229" s="37"/>
-      <c r="I229" s="32"/>
-    </row>
-    <row r="230" spans="2:9">
-      <c r="H230" s="37"/>
-      <c r="I230" s="32"/>
-    </row>
-    <row r="234" spans="2:9">
-      <c r="B234" s="32"/>
-      <c r="C234" s="32"/>
-    </row>
-    <row r="236" spans="2:9">
-      <c r="B236" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D237" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E237" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F237" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H237" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I237" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9">
-      <c r="B238" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="30"/>
-      <c r="D238" s="5">
-        <v>150000000</v>
-      </c>
-      <c r="E238" s="69"/>
-      <c r="F238" s="69"/>
-      <c r="G238" s="69"/>
-      <c r="H238" s="69">
-        <f>D238</f>
-        <v>150000000</v>
-      </c>
-      <c r="I238" s="69"/>
-    </row>
-    <row r="239" spans="2:9">
-      <c r="B239" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="32"/>
-      <c r="D239" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="E239" s="69"/>
-      <c r="F239" s="69"/>
-      <c r="G239" s="69"/>
-      <c r="I239" s="69">
-        <f>D239</f>
-        <v>250000000</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9">
-      <c r="B240" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C240" s="32"/>
-      <c r="D240" s="5">
-        <v>130000000</v>
-      </c>
-      <c r="E240" s="69"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69">
-        <f>D240</f>
-        <v>130000000</v>
-      </c>
-      <c r="H240" s="69"/>
-      <c r="I240" s="69"/>
-    </row>
-    <row r="241" spans="2:9">
-      <c r="B241" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C241" s="32"/>
-      <c r="D241" s="5">
-        <v>180000000</v>
-      </c>
-      <c r="E241" s="69">
-        <f>D241</f>
-        <v>180000000</v>
-      </c>
-      <c r="F241" s="69"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="69"/>
-      <c r="I241" s="69"/>
-    </row>
-    <row r="242" spans="2:9">
-      <c r="B242" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C242" s="32"/>
-      <c r="D242" s="5">
-        <v>90000000</v>
-      </c>
-      <c r="E242" s="69"/>
-      <c r="F242" s="69">
-        <f>D242</f>
-        <v>90000000</v>
-      </c>
-      <c r="G242" s="69"/>
-      <c r="H242" s="69"/>
-      <c r="I242" s="69"/>
-    </row>
-    <row r="243" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B243" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C243" s="32"/>
-      <c r="D243" s="35">
-        <v>350000000</v>
-      </c>
-      <c r="E243" s="70"/>
-      <c r="F243" s="70"/>
-      <c r="G243" s="70"/>
-      <c r="H243" s="70"/>
-      <c r="I243" s="70"/>
-    </row>
-    <row r="244" spans="2:9" ht="15.75" thickBot="1">
-      <c r="C244" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D244" s="72">
-        <f>SUM(D238:D243)</f>
-        <v>1150000000</v>
-      </c>
-      <c r="E244" s="72">
-        <f t="shared" ref="E244:I244" si="52">SUM(E238:E243)</f>
-        <v>180000000</v>
-      </c>
-      <c r="F244" s="72">
-        <f t="shared" si="52"/>
-        <v>90000000</v>
-      </c>
-      <c r="G244" s="72">
-        <f t="shared" si="52"/>
-        <v>130000000</v>
-      </c>
-      <c r="H244" s="72">
-        <f t="shared" si="52"/>
-        <v>150000000</v>
-      </c>
-      <c r="I244" s="72">
-        <f t="shared" si="52"/>
-        <v>250000000</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9">
-      <c r="C245" s="32"/>
-      <c r="D245" s="37"/>
-      <c r="E245" s="37"/>
-      <c r="F245" s="37"/>
-      <c r="G245" s="37"/>
-      <c r="H245" s="37"/>
-      <c r="I245" s="37"/>
-    </row>
-    <row r="246" spans="2:9">
-      <c r="C246" s="32"/>
-      <c r="D246" s="37"/>
-      <c r="E246" s="37"/>
-      <c r="F246" s="37"/>
-      <c r="G246" s="37"/>
-      <c r="H246" s="37"/>
-      <c r="I246" s="37"/>
-    </row>
-    <row r="247" spans="2:9">
-      <c r="C247" s="32"/>
-      <c r="D247" s="37"/>
-      <c r="E247" s="37"/>
-      <c r="F247" s="37"/>
-      <c r="G247" s="37"/>
-      <c r="H247" s="37"/>
-      <c r="I247" s="37"/>
-    </row>
-    <row r="248" spans="2:9">
-      <c r="C248" s="32"/>
-      <c r="D248" s="37"/>
-      <c r="E248" s="37"/>
-      <c r="F248" s="37"/>
-      <c r="G248" s="37"/>
-      <c r="H248" s="37"/>
-      <c r="I248" s="37"/>
-    </row>
-    <row r="249" spans="2:9">
-      <c r="C249" s="32"/>
-      <c r="D249" s="37"/>
-      <c r="E249" s="37"/>
-      <c r="F249" s="37"/>
-      <c r="G249" s="37"/>
-      <c r="H249" s="37"/>
-      <c r="I249" s="37"/>
-    </row>
-    <row r="250" spans="2:9">
-      <c r="C250" s="32"/>
-      <c r="D250" s="37"/>
-      <c r="E250" s="37"/>
-      <c r="F250" s="37"/>
-      <c r="G250" s="37"/>
-      <c r="H250" s="37"/>
-      <c r="I250" s="37"/>
-    </row>
-    <row r="251" spans="2:9">
-      <c r="C251" s="32"/>
-      <c r="D251" s="37"/>
-      <c r="E251" s="37"/>
-      <c r="F251" s="37"/>
-      <c r="G251" s="37"/>
-      <c r="H251" s="37"/>
-      <c r="I251" s="37"/>
-    </row>
-    <row r="252" spans="2:9">
-      <c r="C252" s="32"/>
-      <c r="D252" s="37"/>
-      <c r="E252" s="37"/>
-      <c r="F252" s="37"/>
-      <c r="G252" s="37"/>
-      <c r="H252" s="37"/>
-      <c r="I252" s="37"/>
-    </row>
-    <row r="253" spans="2:9">
-      <c r="C253" s="32"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="37"/>
-      <c r="F253" s="37"/>
-      <c r="G253" s="37"/>
-      <c r="H253" s="37"/>
-      <c r="I253" s="37"/>
-    </row>
-    <row r="254" spans="2:9">
-      <c r="C254" s="32"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
-      <c r="F254" s="37"/>
-      <c r="G254" s="37"/>
-      <c r="H254" s="37"/>
-      <c r="I254" s="37"/>
-    </row>
-    <row r="255" spans="2:9">
-      <c r="C255" s="32"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
-      <c r="F255" s="37"/>
-      <c r="G255" s="37"/>
-      <c r="H255" s="37"/>
-      <c r="I255" s="37"/>
-    </row>
-    <row r="256" spans="2:9">
-      <c r="C256" s="32"/>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
-      <c r="F256" s="37"/>
-      <c r="G256" s="37"/>
-      <c r="H256" s="37"/>
-      <c r="I256" s="37"/>
-    </row>
-    <row r="257" spans="2:9">
-      <c r="C257" s="32"/>
-      <c r="D257" s="37"/>
-      <c r="E257" s="37"/>
-      <c r="F257" s="37"/>
-      <c r="G257" s="37"/>
-      <c r="H257" s="37"/>
-      <c r="I257" s="37"/>
-    </row>
-    <row r="258" spans="2:9">
-      <c r="C258" s="32"/>
-      <c r="D258" s="37"/>
-      <c r="E258" s="37"/>
-      <c r="F258" s="37"/>
-      <c r="G258" s="37"/>
-      <c r="H258" s="37"/>
-      <c r="I258" s="37"/>
-    </row>
-    <row r="259" spans="2:9">
-      <c r="C259" s="32"/>
-      <c r="D259" s="37"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="37"/>
-      <c r="G259" s="37"/>
-      <c r="H259" s="37"/>
-      <c r="I259" s="37"/>
-    </row>
-    <row r="260" spans="2:9">
-      <c r="C260" s="32"/>
-      <c r="D260" s="37"/>
-      <c r="E260" s="37"/>
-      <c r="F260" s="37"/>
-      <c r="G260" s="37"/>
-      <c r="H260" s="37"/>
-      <c r="I260" s="37"/>
-    </row>
-    <row r="261" spans="2:9">
-      <c r="C261" s="32"/>
-      <c r="D261" s="37"/>
-      <c r="E261" s="37"/>
-      <c r="F261" s="37"/>
-      <c r="G261" s="37"/>
-      <c r="H261" s="37"/>
-      <c r="I261" s="37"/>
-    </row>
-    <row r="262" spans="2:9">
-      <c r="C262" s="32"/>
-      <c r="D262" s="37"/>
-      <c r="E262" s="37"/>
-      <c r="F262" s="37"/>
-      <c r="G262" s="37"/>
-      <c r="H262" s="37"/>
-      <c r="I262" s="37"/>
-    </row>
-    <row r="263" spans="2:9">
-      <c r="C263" s="32"/>
-      <c r="D263" s="37"/>
-      <c r="E263" s="37"/>
-      <c r="F263" s="37"/>
-      <c r="G263" s="37"/>
-      <c r="H263" s="37"/>
-      <c r="I263" s="37"/>
-    </row>
-    <row r="265" spans="2:9">
-      <c r="B265" s="84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9">
-      <c r="B266" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9">
-      <c r="B267" t="s">
-        <v>88</v>
-      </c>
-      <c r="E267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9">
-      <c r="B268" t="s">
-        <v>86</v>
-      </c>
-      <c r="C268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B269" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C269" s="82"/>
-      <c r="D269" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E269" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F269" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G269" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H269" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I269" s="85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9">
-      <c r="B270" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C270" s="31"/>
-      <c r="D270" s="80">
-        <f>$C$268*SUM(E69,E78,E87,E96)</f>
+      <c r="H205" s="86">
+        <f t="shared" si="54"/>
+        <v>30</v>
+      </c>
+      <c r="I205" s="5">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B206" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="57"/>
+      <c r="D206" s="86">
+        <f>$C$198*D123</f>
         <v>8</v>
       </c>
-      <c r="E270" s="80">
-        <f>$C$268*SUM(H69,H78,H87,H96)</f>
+      <c r="E206" s="86">
+        <f t="shared" ref="E206:H206" si="55">$C$198*E123</f>
         <v>8</v>
       </c>
-      <c r="F270" s="80">
-        <f>$C$268*SUM(K69,K78,K87,K96)</f>
+      <c r="F206" s="86">
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
-      <c r="G270" s="80">
-        <f>$C$268*SUM(N69,N78,N87,N96)</f>
-        <v>10</v>
-      </c>
-      <c r="H270" s="80">
-        <f>$C$268*SUM(Q69,Q78,Q87,Q96)</f>
-        <v>10</v>
-      </c>
-      <c r="I270" s="5">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9">
-      <c r="B271" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C271" s="56"/>
-      <c r="D271" s="80">
-        <f>$C$268*SUM(E70,E79,E88,E97)</f>
+      <c r="G206" s="86">
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
-      <c r="E271" s="80">
-        <f t="shared" ref="E271:E274" si="53">$C$268*SUM(H70,H79,H88,H97)</f>
-        <v>8</v>
-      </c>
-      <c r="F271" s="80">
-        <f t="shared" ref="F271:F274" si="54">$C$268*SUM(K70,K79,K88,K97)</f>
-        <v>8</v>
-      </c>
-      <c r="G271" s="80">
-        <f t="shared" ref="G271:G274" si="55">$C$268*SUM(N70,N79,N88,N97)</f>
-        <v>8</v>
-      </c>
-      <c r="H271" s="80">
-        <f>$C$268*SUM(Q70,Q79,Q88,Q97)</f>
-        <v>10</v>
-      </c>
-      <c r="I271" s="5">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9">
-      <c r="B272" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C272" s="56"/>
-      <c r="D272" s="80">
-        <f>$C$268*SUM(E71,E80,E89,E98)</f>
-        <v>8</v>
-      </c>
-      <c r="E272" s="80">
-        <f t="shared" si="53"/>
-        <v>8</v>
-      </c>
-      <c r="F272" s="80">
-        <f t="shared" si="54"/>
-        <v>10</v>
-      </c>
-      <c r="G272" s="80">
+      <c r="H206" s="86">
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
-      <c r="H272" s="80">
-        <f>$C$268*SUM(Q71,Q80,Q89,Q98)</f>
+      <c r="I206" s="5">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
+      <c r="B207" s="36"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="37"/>
+    </row>
+    <row r="208" spans="2:16">
+      <c r="B208" s="82"/>
+      <c r="D208">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B209" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209" s="80"/>
+      <c r="D209" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E209" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F209" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="G209" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" s="77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" s="31"/>
+      <c r="D210" s="86">
+        <f>I200*($D$208/100)</f>
+        <v>36250</v>
+      </c>
+      <c r="E210" s="5">
+        <f>(E$115*D210)/D$115</f>
+        <v>36647.772342675831</v>
+      </c>
+      <c r="F210" s="5">
+        <f t="shared" ref="F210" si="56">(F$115*E210)/E$115</f>
+        <v>37178.135466243613</v>
+      </c>
+      <c r="G210" s="5">
+        <f t="shared" ref="G210:H210" si="57">(G$115*F210)/F$115</f>
+        <v>37575.907808919445</v>
+      </c>
+      <c r="H210" s="5">
+        <f t="shared" si="57"/>
+        <v>44338.037634408611</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="B211" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" s="56"/>
+      <c r="D211" s="86">
+        <f t="shared" ref="D211:D214" si="58">I201*($D$208/100)</f>
+        <v>43750</v>
+      </c>
+      <c r="E211" s="5">
+        <f t="shared" ref="E211:F215" si="59">(E$115*D211)/D$115</f>
+        <v>44230.070068746696</v>
+      </c>
+      <c r="F211" s="5">
+        <f t="shared" si="59"/>
+        <v>44870.163493742293</v>
+      </c>
+      <c r="G211" s="5">
+        <f t="shared" ref="G211:H211" si="60">(G$115*F211)/F$115</f>
+        <v>45350.233562488989</v>
+      </c>
+      <c r="H211" s="5">
+        <f t="shared" si="60"/>
+        <v>53511.424731182808</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="B212" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="56"/>
+      <c r="D212" s="86">
+        <f t="shared" si="58"/>
+        <v>33750</v>
+      </c>
+      <c r="E212" s="5">
+        <f t="shared" si="59"/>
+        <v>34120.339767318881</v>
+      </c>
+      <c r="F212" s="5">
+        <f t="shared" si="59"/>
+        <v>34614.126123744056</v>
+      </c>
+      <c r="G212" s="5">
+        <f t="shared" ref="G212:H212" si="61">(G$115*F212)/F$115</f>
+        <v>34984.465891062937</v>
+      </c>
+      <c r="H212" s="5">
+        <f t="shared" si="61"/>
+        <v>41280.241935483886</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="B213" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="56"/>
+      <c r="D213" s="86">
+        <f t="shared" si="58"/>
+        <v>32500</v>
+      </c>
+      <c r="E213" s="5">
+        <f t="shared" si="59"/>
+        <v>32856.623479640402</v>
+      </c>
+      <c r="F213" s="5">
+        <f t="shared" si="59"/>
+        <v>33332.121452494277</v>
+      </c>
+      <c r="G213" s="5">
+        <f t="shared" ref="G213:H213" si="62">(G$115*F213)/F$115</f>
+        <v>33688.744932134679</v>
+      </c>
+      <c r="H213" s="5">
+        <f t="shared" si="62"/>
+        <v>39751.34408602152</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B214" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" s="57"/>
+      <c r="D214" s="87">
+        <f t="shared" si="58"/>
+        <v>30000</v>
+      </c>
+      <c r="E214" s="35">
+        <f t="shared" si="59"/>
+        <v>30329.190904283445</v>
+      </c>
+      <c r="F214" s="35">
+        <f t="shared" si="59"/>
+        <v>30768.112109994712</v>
+      </c>
+      <c r="G214" s="35">
+        <f t="shared" ref="G214:H215" si="63">(G$115*F214)/F$115</f>
+        <v>31097.303014278161</v>
+      </c>
+      <c r="H214" s="35">
+        <f t="shared" si="63"/>
+        <v>36693.54838709678</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D215" s="88">
+        <f>SUM(D210:D214)</f>
+        <v>176250</v>
+      </c>
+      <c r="E215" s="89">
+        <f t="shared" si="59"/>
+        <v>178183.99656266527</v>
+      </c>
+      <c r="F215" s="89">
+        <f t="shared" si="59"/>
+        <v>180762.65864621897</v>
+      </c>
+      <c r="G215" s="89">
+        <f t="shared" si="63"/>
+        <v>182696.65520888424</v>
+      </c>
+      <c r="H215" s="90">
+        <f t="shared" si="63"/>
+        <v>215574.59677419363</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B218" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I272" s="5">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9">
-      <c r="B273" s="59" t="s">
+      <c r="F218" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="B219" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C219" s="30"/>
+      <c r="D219" s="5">
+        <f t="shared" ref="D219:H223" si="64">D200*($I200+D210)*12</f>
+        <v>31320000</v>
+      </c>
+      <c r="E219" s="5">
+        <f t="shared" si="64"/>
+        <v>31358186.14489688</v>
+      </c>
+      <c r="F219" s="5">
+        <f t="shared" si="64"/>
+        <v>31409101.004759386</v>
+      </c>
+      <c r="G219" s="5">
+        <f t="shared" si="64"/>
+        <v>39309108.937070332</v>
+      </c>
+      <c r="H219" s="5">
+        <f t="shared" si="64"/>
+        <v>40120564.516129032</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="B220" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C220" s="32"/>
+      <c r="D220" s="5">
+        <f t="shared" si="64"/>
+        <v>37800000</v>
+      </c>
+      <c r="E220" s="5">
+        <f t="shared" si="64"/>
+        <v>37846086.726599678</v>
+      </c>
+      <c r="F220" s="5">
+        <f t="shared" si="64"/>
+        <v>37907535.695399262</v>
+      </c>
+      <c r="G220" s="5">
+        <f t="shared" si="64"/>
+        <v>37953622.42199894</v>
+      </c>
+      <c r="H220" s="5">
+        <f t="shared" si="64"/>
+        <v>48421370.967741936</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="B221" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C221" s="32"/>
+      <c r="D221" s="5">
+        <f t="shared" si="64"/>
+        <v>29160000</v>
+      </c>
+      <c r="E221" s="5">
+        <f t="shared" si="64"/>
+        <v>29195552.617662609</v>
+      </c>
+      <c r="F221" s="5">
+        <f t="shared" si="64"/>
+        <v>36553695.134849288</v>
+      </c>
+      <c r="G221" s="5">
+        <f t="shared" si="64"/>
+        <v>36598135.906927556</v>
+      </c>
+      <c r="H221" s="5">
+        <f t="shared" si="64"/>
+        <v>37353629.032258064</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="B222" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="32"/>
+      <c r="D222" s="5">
+        <f t="shared" si="64"/>
+        <v>35100000</v>
+      </c>
+      <c r="E222" s="5">
+        <f t="shared" si="64"/>
+        <v>35142794.817556843</v>
+      </c>
+      <c r="F222" s="5">
+        <f t="shared" si="64"/>
+        <v>35199854.574299313</v>
+      </c>
+      <c r="G222" s="5">
+        <f t="shared" si="64"/>
+        <v>35242649.391856164</v>
+      </c>
+      <c r="H222" s="5">
+        <f t="shared" si="64"/>
+        <v>35970161.290322587</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="B223" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C273" s="56"/>
-      <c r="D273" s="80">
-        <f>$C$268*SUM(E72,E81,E90,E99)</f>
+      <c r="C223" s="32"/>
+      <c r="D223" s="5">
+        <f t="shared" si="64"/>
+        <v>25920000</v>
+      </c>
+      <c r="E223" s="5">
+        <f t="shared" si="64"/>
+        <v>32439502.908514012</v>
+      </c>
+      <c r="F223" s="5">
+        <f t="shared" si="64"/>
+        <v>32492173.453199364</v>
+      </c>
+      <c r="G223" s="5">
+        <f t="shared" si="64"/>
+        <v>32531676.36171338</v>
+      </c>
+      <c r="H223" s="5">
+        <f t="shared" si="64"/>
+        <v>33203225.806451611</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="B224" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C224" s="32"/>
+      <c r="D224" s="5">
+        <f t="shared" ref="D224:H225" si="65">D205*$I205*12</f>
+        <v>54720000</v>
+      </c>
+      <c r="E224" s="5">
+        <f t="shared" si="65"/>
+        <v>54720000</v>
+      </c>
+      <c r="F224" s="5">
+        <f t="shared" si="65"/>
+        <v>54720000</v>
+      </c>
+      <c r="G224" s="5">
+        <f t="shared" si="65"/>
+        <v>54720000</v>
+      </c>
+      <c r="H224" s="5">
+        <f t="shared" si="65"/>
+        <v>68400000</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B225" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C225" s="32"/>
+      <c r="D225" s="35">
+        <f t="shared" si="65"/>
+        <v>52800000</v>
+      </c>
+      <c r="E225" s="35">
+        <f t="shared" si="65"/>
+        <v>52800000</v>
+      </c>
+      <c r="F225" s="35">
+        <f t="shared" si="65"/>
+        <v>52800000</v>
+      </c>
+      <c r="G225" s="35">
+        <f t="shared" si="65"/>
+        <v>52800000</v>
+      </c>
+      <c r="H225" s="35">
+        <f t="shared" si="65"/>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B226" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C226" s="84"/>
+      <c r="D226" s="85">
+        <f>SUM(D219:D225)</f>
+        <v>266820000</v>
+      </c>
+      <c r="E226" s="85">
+        <f>SUM(E219:E225)</f>
+        <v>273502123.21522999</v>
+      </c>
+      <c r="F226" s="85">
+        <f t="shared" ref="F226:H226" si="66">SUM(F219:F225)</f>
+        <v>281082359.86250663</v>
+      </c>
+      <c r="G226" s="85">
+        <f t="shared" si="66"/>
+        <v>289155193.01956642</v>
+      </c>
+      <c r="H226" s="76">
+        <f t="shared" si="66"/>
+        <v>329468951.61290324</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8">
+      <c r="B227" s="63"/>
+    </row>
+    <row r="229" spans="2:8">
+      <c r="B229" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C229" s="108"/>
+      <c r="D229" s="108">
+        <v>25</v>
+      </c>
+      <c r="E229" s="108"/>
+      <c r="F229" s="108"/>
+      <c r="G229" s="108"/>
+      <c r="H229" s="108"/>
+    </row>
+    <row r="230" spans="2:8">
+      <c r="B230" s="107"/>
+      <c r="C230" s="108"/>
+      <c r="D230" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E273" s="80">
-        <f t="shared" si="53"/>
-        <v>10</v>
-      </c>
-      <c r="F273" s="80">
-        <f t="shared" si="54"/>
-        <v>10</v>
-      </c>
-      <c r="G273" s="80">
-        <f t="shared" si="55"/>
-        <v>10</v>
-      </c>
-      <c r="H273" s="80">
-        <f>$C$268*SUM(Q72,Q81,Q90,Q99)</f>
-        <v>10</v>
-      </c>
-      <c r="I273" s="5">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9">
-      <c r="B274" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C274" s="56"/>
-      <c r="D274" s="80">
-        <f>$C$268*SUM(E73,E82,E91,E100)</f>
-        <v>8</v>
-      </c>
-      <c r="E274" s="80">
-        <f t="shared" si="53"/>
-        <v>10</v>
-      </c>
-      <c r="F274" s="80">
-        <f t="shared" si="54"/>
-        <v>10</v>
-      </c>
-      <c r="G274" s="80">
-        <f t="shared" si="55"/>
-        <v>10</v>
-      </c>
-      <c r="H274" s="80">
-        <f>$C$268*SUM(Q73,Q82,Q91,Q100)</f>
-        <v>10</v>
-      </c>
-      <c r="I274" s="5">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="275" spans="2:9">
-      <c r="B275" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C275" s="56"/>
-      <c r="D275" s="88">
-        <f>D276*$E$267</f>
-        <v>24</v>
-      </c>
-      <c r="E275" s="88">
-        <f t="shared" ref="E275:H275" si="56">E276*$E$267</f>
-        <v>24</v>
-      </c>
-      <c r="F275" s="88">
-        <f t="shared" si="56"/>
-        <v>24</v>
-      </c>
-      <c r="G275" s="88">
-        <f t="shared" si="56"/>
-        <v>24</v>
-      </c>
-      <c r="H275" s="88">
-        <f t="shared" si="56"/>
-        <v>30</v>
-      </c>
-      <c r="I275" s="5">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="276" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B276" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C276" s="57"/>
-      <c r="D276" s="88">
-        <f>$C$268*D123</f>
-        <v>8</v>
-      </c>
-      <c r="E276" s="88">
-        <f t="shared" ref="E276:H276" si="57">$C$268*E123</f>
-        <v>8</v>
-      </c>
-      <c r="F276" s="88">
-        <f t="shared" si="57"/>
-        <v>8</v>
-      </c>
-      <c r="G276" s="88">
-        <f t="shared" si="57"/>
-        <v>8</v>
-      </c>
-      <c r="H276" s="88">
-        <f t="shared" si="57"/>
-        <v>10</v>
-      </c>
-      <c r="I276" s="5">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="277" spans="2:9">
-      <c r="B277" s="36"/>
-      <c r="C277" s="32"/>
-      <c r="D277" s="32"/>
-      <c r="E277" s="32"/>
-      <c r="F277" s="32"/>
-      <c r="G277" s="32"/>
-      <c r="H277" s="32"/>
-      <c r="I277" s="37"/>
-    </row>
-    <row r="278" spans="2:9">
-      <c r="B278" s="84"/>
-      <c r="D278">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="279" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B279" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C279" s="82"/>
-      <c r="D279" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="E279" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F279" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G279" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="H279" s="79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="280" spans="2:9">
-      <c r="B280" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C280" s="31"/>
-      <c r="D280" s="88">
-        <f>I270*($D$278/100)</f>
-        <v>36250</v>
-      </c>
-      <c r="E280" s="5">
-        <f>(E$115*D280)/D$115</f>
-        <v>36647.772342675831</v>
-      </c>
-      <c r="F280" s="5">
-        <f t="shared" ref="F280" si="58">(F$115*E280)/E$115</f>
-        <v>37178.135466243613</v>
-      </c>
-      <c r="G280" s="5">
-        <f t="shared" ref="G280:H280" si="59">(G$115*F280)/F$115</f>
-        <v>37575.907808919445</v>
-      </c>
-      <c r="H280" s="5">
-        <f t="shared" si="59"/>
-        <v>44338.037634408611</v>
-      </c>
-    </row>
-    <row r="281" spans="2:9">
-      <c r="B281" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C281" s="56"/>
-      <c r="D281" s="88">
-        <f t="shared" ref="D281:D284" si="60">I271*($D$278/100)</f>
-        <v>43750</v>
-      </c>
-      <c r="E281" s="5">
-        <f t="shared" ref="E281:F285" si="61">(E$115*D281)/D$115</f>
-        <v>44230.070068746696</v>
-      </c>
-      <c r="F281" s="5">
-        <f t="shared" si="61"/>
-        <v>44870.163493742293</v>
-      </c>
-      <c r="G281" s="5">
-        <f t="shared" ref="G281:H281" si="62">(G$115*F281)/F$115</f>
-        <v>45350.233562488989</v>
-      </c>
-      <c r="H281" s="5">
-        <f t="shared" si="62"/>
-        <v>53511.424731182808</v>
-      </c>
-    </row>
-    <row r="282" spans="2:9">
-      <c r="B282" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C282" s="56"/>
-      <c r="D282" s="88">
-        <f t="shared" si="60"/>
-        <v>33750</v>
-      </c>
-      <c r="E282" s="5">
-        <f t="shared" si="61"/>
-        <v>34120.339767318881</v>
-      </c>
-      <c r="F282" s="5">
-        <f t="shared" si="61"/>
-        <v>34614.126123744056</v>
-      </c>
-      <c r="G282" s="5">
-        <f t="shared" ref="G282:H282" si="63">(G$115*F282)/F$115</f>
-        <v>34984.465891062937</v>
-      </c>
-      <c r="H282" s="5">
-        <f t="shared" si="63"/>
-        <v>41280.241935483886</v>
-      </c>
-    </row>
-    <row r="283" spans="2:9">
-      <c r="B283" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C283" s="56"/>
-      <c r="D283" s="88">
-        <f t="shared" si="60"/>
-        <v>32500</v>
-      </c>
-      <c r="E283" s="5">
-        <f t="shared" si="61"/>
-        <v>32856.623479640402</v>
-      </c>
-      <c r="F283" s="5">
-        <f t="shared" si="61"/>
-        <v>33332.121452494277</v>
-      </c>
-      <c r="G283" s="5">
-        <f t="shared" ref="G283:H283" si="64">(G$115*F283)/F$115</f>
-        <v>33688.744932134679</v>
-      </c>
-      <c r="H283" s="5">
-        <f t="shared" si="64"/>
-        <v>39751.34408602152</v>
-      </c>
-    </row>
-    <row r="284" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B284" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C284" s="57"/>
-      <c r="D284" s="89">
-        <f t="shared" si="60"/>
-        <v>30000</v>
-      </c>
-      <c r="E284" s="35">
-        <f t="shared" si="61"/>
-        <v>30329.190904283445</v>
-      </c>
-      <c r="F284" s="35">
-        <f t="shared" si="61"/>
-        <v>30768.112109994712</v>
-      </c>
-      <c r="G284" s="35">
-        <f t="shared" ref="G284:H285" si="65">(G$115*F284)/F$115</f>
-        <v>31097.303014278161</v>
-      </c>
-      <c r="H284" s="35">
-        <f t="shared" si="65"/>
-        <v>36693.54838709678</v>
-      </c>
-    </row>
-    <row r="285" spans="2:9" ht="15.75" thickBot="1">
-      <c r="D285" s="90">
-        <f>SUM(D280:D284)</f>
-        <v>176250</v>
-      </c>
-      <c r="E285" s="91">
-        <f t="shared" si="61"/>
-        <v>178183.99656266527</v>
-      </c>
-      <c r="F285" s="91">
-        <f t="shared" si="61"/>
-        <v>180762.65864621897</v>
-      </c>
-      <c r="G285" s="91">
-        <f t="shared" si="65"/>
-        <v>182696.65520888424</v>
-      </c>
-      <c r="H285" s="92">
-        <f t="shared" si="65"/>
-        <v>215574.59677419363</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B288" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D288" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F288" s="79" t="s">
+      <c r="F230" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="G288" s="79" t="s">
+      <c r="G230" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="H288" s="79" t="s">
+      <c r="H230" s="108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="2:8">
-      <c r="B289" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C289" s="30"/>
-      <c r="D289" s="5">
-        <f>D270*($I270+D280)*12</f>
-        <v>31320000</v>
-      </c>
-      <c r="E289" s="5">
-        <f>E270*($I270+E280)*12</f>
-        <v>31358186.14489688</v>
-      </c>
-      <c r="F289" s="5">
-        <f>F270*($I270+F280)*12</f>
-        <v>31409101.004759386</v>
-      </c>
-      <c r="G289" s="5">
-        <f>G270*($I270+G280)*12</f>
-        <v>39309108.937070332</v>
-      </c>
-      <c r="H289" s="5">
-        <f>H270*($I270+H280)*12</f>
-        <v>40120564.516129032</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8">
-      <c r="B290" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C290" s="32"/>
-      <c r="D290" s="5">
-        <f>D271*($I271+D281)*12</f>
-        <v>37800000</v>
-      </c>
-      <c r="E290" s="5">
-        <f>E271*($I271+E281)*12</f>
-        <v>37846086.726599678</v>
-      </c>
-      <c r="F290" s="5">
-        <f>F271*($I271+F281)*12</f>
-        <v>37907535.695399262</v>
-      </c>
-      <c r="G290" s="5">
-        <f>G271*($I271+G281)*12</f>
-        <v>37953622.42199894</v>
-      </c>
-      <c r="H290" s="5">
-        <f>H271*($I271+H281)*12</f>
-        <v>48421370.967741936</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8">
-      <c r="B291" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C291" s="32"/>
-      <c r="D291" s="5">
-        <f>D272*($I272+D282)*12</f>
-        <v>29160000</v>
-      </c>
-      <c r="E291" s="5">
-        <f>E272*($I272+E282)*12</f>
-        <v>29195552.617662609</v>
-      </c>
-      <c r="F291" s="5">
-        <f>F272*($I272+F282)*12</f>
-        <v>36553695.134849288</v>
-      </c>
-      <c r="G291" s="5">
-        <f>G272*($I272+G282)*12</f>
-        <v>36598135.906927556</v>
-      </c>
-      <c r="H291" s="5">
-        <f>H272*($I272+H282)*12</f>
-        <v>37353629.032258064</v>
-      </c>
-    </row>
-    <row r="292" spans="2:8">
-      <c r="B292" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C292" s="32"/>
-      <c r="D292" s="5">
-        <f>D273*($I273+D283)*12</f>
-        <v>35100000</v>
-      </c>
-      <c r="E292" s="5">
-        <f>E273*($I273+E283)*12</f>
-        <v>35142794.817556843</v>
-      </c>
-      <c r="F292" s="5">
-        <f>F273*($I273+F283)*12</f>
-        <v>35199854.574299313</v>
-      </c>
-      <c r="G292" s="5">
-        <f>G273*($I273+G283)*12</f>
-        <v>35242649.391856164</v>
-      </c>
-      <c r="H292" s="5">
-        <f>H273*($I273+H283)*12</f>
-        <v>35970161.290322587</v>
-      </c>
-    </row>
-    <row r="293" spans="2:8">
-      <c r="B293" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C293" s="32"/>
-      <c r="D293" s="5">
-        <f>D274*($I274+D284)*12</f>
-        <v>25920000</v>
-      </c>
-      <c r="E293" s="5">
-        <f>E274*($I274+E284)*12</f>
-        <v>32439502.908514012</v>
-      </c>
-      <c r="F293" s="5">
-        <f>F274*($I274+F284)*12</f>
-        <v>32492173.453199364</v>
-      </c>
-      <c r="G293" s="5">
-        <f>G274*($I274+G284)*12</f>
-        <v>32531676.36171338</v>
-      </c>
-      <c r="H293" s="5">
-        <f>H274*($I274+H284)*12</f>
-        <v>33203225.806451611</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8">
-      <c r="B294" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="32"/>
-      <c r="D294" s="5">
-        <f t="shared" ref="D294:H295" si="66">D275*$I275*12</f>
-        <v>54720000</v>
-      </c>
-      <c r="E294" s="5">
-        <f t="shared" si="66"/>
-        <v>54720000</v>
-      </c>
-      <c r="F294" s="5">
-        <f t="shared" si="66"/>
-        <v>54720000</v>
-      </c>
-      <c r="G294" s="5">
-        <f t="shared" si="66"/>
-        <v>54720000</v>
-      </c>
-      <c r="H294" s="5">
-        <f t="shared" si="66"/>
-        <v>68400000</v>
-      </c>
-    </row>
-    <row r="295" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B295" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C295" s="32"/>
-      <c r="D295" s="35">
-        <f t="shared" si="66"/>
-        <v>52800000</v>
-      </c>
-      <c r="E295" s="35">
-        <f t="shared" si="66"/>
-        <v>52800000</v>
-      </c>
-      <c r="F295" s="35">
-        <f t="shared" si="66"/>
-        <v>52800000</v>
-      </c>
-      <c r="G295" s="35">
-        <f t="shared" si="66"/>
-        <v>52800000</v>
-      </c>
-      <c r="H295" s="35">
-        <f t="shared" si="66"/>
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="296" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B296" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C296" s="86"/>
-      <c r="D296" s="87">
-        <f>SUM(D289:D295)</f>
-        <v>266820000</v>
-      </c>
-      <c r="E296" s="87">
-        <f>SUM(E289:E295)</f>
-        <v>273502123.21522999</v>
-      </c>
-      <c r="F296" s="87">
-        <f t="shared" ref="F296:H296" si="67">SUM(F289:F295)</f>
-        <v>281082359.86250663</v>
-      </c>
-      <c r="G296" s="87">
-        <f t="shared" si="67"/>
-        <v>289155193.01956642</v>
-      </c>
-      <c r="H296" s="78">
-        <f t="shared" si="67"/>
-        <v>329468951.61290324</v>
-      </c>
-    </row>
-    <row r="297" spans="2:8">
-      <c r="B297" s="63"/>
-    </row>
-    <row r="299" spans="2:8">
-      <c r="B299" s="118" t="s">
+    <row r="231" spans="2:8">
+      <c r="B231" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C299" s="119"/>
-      <c r="D299" s="119">
-        <v>25</v>
-      </c>
-      <c r="E299" s="119"/>
-      <c r="F299" s="119"/>
-      <c r="G299" s="119"/>
-      <c r="H299" s="119"/>
-    </row>
-    <row r="300" spans="2:8">
-      <c r="B300" s="118"/>
-      <c r="C300" s="119"/>
-      <c r="D300" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E300" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F300" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G300" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H300" s="119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="2:8">
-      <c r="B301" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C301" s="119"/>
-      <c r="D301" s="96">
+      <c r="C231" s="108"/>
+      <c r="D231" s="94">
         <f>D139</f>
         <v>670727458.91999984</v>
       </c>
-      <c r="E301" s="96">
-        <f t="shared" ref="E301:G301" si="68">E139</f>
+      <c r="E231" s="94">
+        <f t="shared" ref="E231:G231" si="67">E139</f>
         <v>624457974.81000006</v>
       </c>
-      <c r="F301" s="96">
-        <f t="shared" si="68"/>
+      <c r="F231" s="94">
+        <f t="shared" si="67"/>
         <v>584562273.33000004</v>
       </c>
-      <c r="G301" s="96">
-        <f t="shared" si="68"/>
+      <c r="G231" s="94">
+        <f t="shared" si="67"/>
         <v>531107972.76000023</v>
       </c>
-      <c r="H301" s="96">
+      <c r="H231" s="94">
         <f>H139</f>
         <v>948035782.07040036</v>
       </c>
     </row>
-    <row r="302" spans="2:8">
-      <c r="B302" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C302" s="119"/>
-      <c r="D302" s="96">
+    <row r="232" spans="2:8">
+      <c r="B232" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" s="108"/>
+      <c r="D232" s="94">
         <f>D149</f>
         <v>666360000</v>
       </c>
-      <c r="E302" s="96">
-        <f t="shared" ref="E302:G302" si="69">E149</f>
+      <c r="E232" s="94">
+        <f t="shared" ref="E232:G232" si="68">E149</f>
         <v>694826100</v>
       </c>
-      <c r="F302" s="96">
-        <f t="shared" si="69"/>
+      <c r="F232" s="94">
+        <f t="shared" si="68"/>
         <v>724607045.99999988</v>
       </c>
-      <c r="G302" s="96">
-        <f t="shared" si="69"/>
+      <c r="G232" s="94">
+        <f t="shared" si="68"/>
         <v>755767452.1724999</v>
       </c>
-      <c r="H302" s="96">
+      <c r="H232" s="94">
         <f>H149</f>
         <v>788375262.47984982</v>
       </c>
     </row>
-    <row r="303" spans="2:8">
-      <c r="B303" s="119" t="s">
+    <row r="233" spans="2:8">
+      <c r="B233" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C233" s="108"/>
+      <c r="D233" s="94">
+        <f>D226</f>
+        <v>266820000</v>
+      </c>
+      <c r="E233" s="94">
+        <f t="shared" ref="E233:H233" si="69">E226</f>
+        <v>273502123.21522999</v>
+      </c>
+      <c r="F233" s="94">
+        <f t="shared" si="69"/>
+        <v>281082359.86250663</v>
+      </c>
+      <c r="G233" s="94">
+        <f t="shared" si="69"/>
+        <v>289155193.01956642</v>
+      </c>
+      <c r="H233" s="94">
+        <f t="shared" si="69"/>
+        <v>329468951.61290324</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8">
+      <c r="B234" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="C303" s="119"/>
-      <c r="D303" s="96">
-        <f>D296</f>
-        <v>266820000</v>
-      </c>
-      <c r="E303" s="96">
-        <f t="shared" ref="E303:H303" si="70">E296</f>
-        <v>273502123.21522999</v>
-      </c>
-      <c r="F303" s="96">
+      <c r="C234" s="108"/>
+      <c r="D234" s="94">
+        <f>SUM(D231:D233)*($D$229/100)</f>
+        <v>400976864.72999996</v>
+      </c>
+      <c r="E234" s="94">
+        <f t="shared" ref="E234:H234" si="70">SUM(E231:E233)*($D$229/100)</f>
+        <v>398196549.50630748</v>
+      </c>
+      <c r="F234" s="94">
         <f t="shared" si="70"/>
-        <v>281082359.86250663</v>
-      </c>
-      <c r="G303" s="96">
+        <v>397562919.79812664</v>
+      </c>
+      <c r="G234" s="94">
         <f t="shared" si="70"/>
-        <v>289155193.01956642</v>
-      </c>
-      <c r="H303" s="96">
+        <v>394007654.48801661</v>
+      </c>
+      <c r="H234" s="94">
         <f t="shared" si="70"/>
-        <v>329468951.61290324</v>
-      </c>
-    </row>
-    <row r="304" spans="2:8">
-      <c r="B304" s="119" t="s">
+        <v>516469999.04078829</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="B235" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C304" s="119"/>
-      <c r="D304" s="96">
-        <f>SUM(D301:D303)*($D$299/100)</f>
-        <v>400976864.72999996</v>
-      </c>
-      <c r="E304" s="96">
-        <f t="shared" ref="E304:H304" si="71">SUM(E301:E303)*($D$299/100)</f>
-        <v>398196549.50630748</v>
-      </c>
-      <c r="F304" s="96">
-        <f t="shared" si="71"/>
-        <v>397562919.79812664</v>
-      </c>
-      <c r="G304" s="96">
-        <f t="shared" si="71"/>
-        <v>394007654.48801661</v>
-      </c>
-      <c r="H304" s="96">
-        <f t="shared" si="71"/>
-        <v>516469999.04078829</v>
-      </c>
-    </row>
-    <row r="305" spans="2:8">
-      <c r="B305" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C305" s="40"/>
-      <c r="D305" s="41">
-        <f>SUM(D301:D304)</f>
+      <c r="C235" s="40"/>
+      <c r="D235" s="41">
+        <f>SUM(D231:D234)</f>
         <v>2004884323.6499999</v>
       </c>
-      <c r="E305" s="41">
-        <f>SUM(E301:E304)</f>
+      <c r="E235" s="41">
+        <f>SUM(E231:E234)</f>
         <v>1990982747.5315375</v>
       </c>
-      <c r="F305" s="41">
-        <f>SUM(F301:F304)</f>
+      <c r="F235" s="41">
+        <f>SUM(F231:F234)</f>
         <v>1987814598.9906332</v>
       </c>
-      <c r="G305" s="41">
-        <f>SUM(G301:G304)</f>
+      <c r="G235" s="41">
+        <f>SUM(G231:G234)</f>
         <v>1970038272.440083</v>
       </c>
-      <c r="H305" s="41">
-        <f>SUM(H301:H304)</f>
+      <c r="H235" s="41">
+        <f>SUM(H231:H234)</f>
         <v>2582349995.2039413</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:O94"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B58:C58"/>
     <mergeCell ref="P67:R67"/>
     <mergeCell ref="P76:R76"/>
     <mergeCell ref="P85:R85"/>
@@ -7600,6 +6810,20 @@
     <mergeCell ref="M76:O76"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:O94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sigset/documentos/prueba 3.xlsx
+++ b/sigset/documentos/prueba 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18735" windowHeight="8385" tabRatio="736" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18735" windowHeight="8385" tabRatio="736" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="FCN Puro" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="FCN EN 70% SENS DDA " sheetId="12" r:id="rId8"/>
     <sheet name="FCN EO DDA SENS DDA 70%" sheetId="17" r:id="rId9"/>
     <sheet name="FCN EP DDA SENS DDA 70%" sheetId="18" r:id="rId10"/>
-    <sheet name="Hoja1" sheetId="19" r:id="rId11"/>
+    <sheet name="Analisis" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" iterate="1" iterateDelta="1"/>
 </workbook>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="193">
   <si>
     <t>Demanda</t>
   </si>
@@ -903,12 +903,65 @@
   <si>
     <t>FLUJO DE CAJA NETO ESCENARIO OPTIMISTA 70% FINANCIAMIENTO SENSIBILIZACION DEMANDA</t>
   </si>
+  <si>
+    <t>Variables Financieras</t>
+  </si>
+  <si>
+    <t>FCN Puro</t>
+  </si>
+  <si>
+    <t>FCN EN 70%</t>
+  </si>
+  <si>
+    <t>FCN EO DDA 70%</t>
+  </si>
+  <si>
+    <t>FCN EP DDA 70%</t>
+  </si>
+  <si>
+    <t>FCN EN 40%</t>
+  </si>
+  <si>
+    <t>FCN EO DDA 40%</t>
+  </si>
+  <si>
+    <t>FCN EP DDA 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCN EN 70% SENS DDA </t>
+  </si>
+  <si>
+    <t>FCN EO DDA SENS DDA 70%</t>
+  </si>
+  <si>
+    <t>FCN EP DDA SENS DDA 70%</t>
+  </si>
+  <si>
+    <t>Se puede apreciar que el proyecto en todas las condiciones analizadas en los flujos de caja el valor de la variable VAN nunca es menor a cero, incluso dentro de un escenario pesimista con disminución de demanda el van logra ser altamente positivo para todos casos.</t>
+  </si>
+  <si>
+    <t>Con el anterior grafico se puede concluir que para todos lo escenarios en todos lo flujo el inversionista ganara ampliamente mas de lo que estima, es decir la tasa interna de retorno siempre será superior a lo pedido por la tasa de descuento.</t>
+  </si>
+  <si>
+    <t>Como se puede apreciar en el grafico la recuperación de la inversión se logra al primer año en los distintos escenarios, exceptuando los flujos sensibilizados que demuestran que la cantidad para lograr la recuperación de la inversión aumento, aun así es el menor al tiempo del proyecto.</t>
+  </si>
+  <si>
+    <t>Como se puede apreciar dentro del grafico todos los valores de la variable RBC muestras cifras superiores a 1, es decir, que los ingresos son superiores a los egresos aplicado en distintos escenarios.</t>
+  </si>
+  <si>
+    <t>Conclusión</t>
+  </si>
+  <si>
+    <t>Conclusión.
+Luego de realizar todos los flujos de cajas se ha llegado a la conclusión que desde todos escenarios aquí analizados el proyecto es rentable y obtienen ganancias considerables para todos los casos inclusive los escenarios pesimistas. 
+En la sensibilización que se realizo con la variables de demanda, se puede apreciar que a pesar de que se decremento en un alto porcentaje para los  tres escenarios del flujo de caja con financiamiento de 70% aun así logra ser rentable para el inversionista porque cumple con tasa de descuento y la recuperación sigue siendo menor a los 5 años del proyecto.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1067,37 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1707,7 +1791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2001,7 +2085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2011,6 +2095,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2025,12 +2115,36 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2038,6 +2152,747 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analisis!$A$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analisis!$A$144,Analisis!$A$151,Analisis!$A$158,Analisis!$A$165,Analisis!$A$172,Analisis!$E$144,Analisis!$E$151)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FCN Puro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FCN EN 70%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FCN EO DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FCN EP DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FCN EN 40%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FCN EO DDA 40%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FCN EP DDA 40%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analisis!$B$145,Analisis!$B$152,Analisis!$B$159,Analisis!$B$166,Analisis!$B$173,Analisis!$F$145,Analisis!$F$152)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40250742631.153931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40677897810.415977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52291926053.613152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27141856155.466404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40494831305.01796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52078430263.135574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26958789650.06839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="89054208"/>
+        <c:axId val="89142784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89054208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89142784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89142784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Valor en pesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89054208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TIR</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analisis!$A$144,Analisis!$A$151,Analisis!$A$158,Analisis!$A$165,Analisis!$A$172,Analisis!$E$144,Analisis!$E$151)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FCN Puro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FCN EN 70%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FCN EO DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FCN EP DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FCN EN 40%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FCN EO DDA 40%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FCN EP DDA 40%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analisis!$B$146,Analisis!$B$153,Analisis!$B$160,Analisis!$B$167,Analisis!$B$174,Analisis!$F$146,Analisis!$F$153)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9585996775007124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2361941474223599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9527416751572044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2338324120942774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.753622360877495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1169850901016085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2518449149193649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tasa Descuento</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analisis!$B$149,Analisis!$B$156,Analisis!$B$163,Analisis!$B$170,Analisis!$B$177,Analisis!$F$149,Analisis!$F$156)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="113151360"/>
+        <c:axId val="114185344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113151360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114185344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114185344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113151360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analisis!$A$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analisis!$A$144,Analisis!$A$151,Analisis!$A$158,Analisis!$A$165,Analisis!$A$172,Analisis!$E$144,Analisis!$E$151,Analisis!$E$158,Analisis!$E$165,Analisis!$E$172)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>FCN Puro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FCN EN 70%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FCN EO DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FCN EP DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FCN EN 40%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FCN EO DDA 40%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FCN EP DDA 40%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FCN EN 70% SENS DDA </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FCN EO DDA SENS DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FCN EP DDA SENS DDA 70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analisis!$D$147,Analisis!$D$154,Analisis!$D$161,Analisis!$D$168,Analisis!$D$175,Analisis!$H$147,Analisis!$H$154,Analisis!$H$161,Analisis!$H$168,Analisis!$H$175)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="106319872"/>
+        <c:axId val="106322944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106319872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106322944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106322944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Años</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106319872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analisis!$A$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Analisis!$A$144,Analisis!$A$151,Analisis!$A$158,Analisis!$A$165,Analisis!$A$172,Analisis!$E$144,Analisis!$E$151)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FCN Puro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FCN EN 70%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FCN EO DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FCN EP DDA 70%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FCN EN 40%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FCN EO DDA 40%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FCN EP DDA 40%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Analisis!$B$148,Analisis!$B$155,Analisis!$B$162,Analisis!$B$169,Analisis!$B$176,Analisis!$F$148,Analisis!$F$155)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.8681700750642314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8681700750642314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.065248210710815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5065943805010704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8681700750642314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.065248210710815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5065943805010704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="110576000"/>
+        <c:axId val="114890240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110576000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114890240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114890240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110576000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2328,7 +3183,7 @@
   <dimension ref="A2:R316"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2354,15 +3209,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="201" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
     </row>
     <row r="3" spans="2:9" ht="13.5" thickBot="1">
       <c r="B3" s="55"/>
@@ -2935,7 +3790,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" ht="13.5" thickBot="1">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1">
       <c r="B29" s="8" t="s">
         <v>136</v>
       </c>
@@ -2946,7 +3801,9 @@
       <c r="D29" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="214">
+        <v>1</v>
+      </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -2956,7 +3813,7 @@
       <c r="B30" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="31">
         <f>SUM(E7:I7)/-SUM(E12:I12)</f>
         <v>8.8681700750642314</v>
       </c>
@@ -3422,10 +4279,10 @@
     </row>
     <row r="56" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="57" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B57" s="207" t="s">
+      <c r="B57" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="208"/>
+      <c r="C57" s="210"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="51" t="s">
@@ -3564,10 +4421,10 @@
       <c r="H63" s="56"/>
     </row>
     <row r="64" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B64" s="207" t="s">
+      <c r="B64" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="208"/>
+      <c r="C64" s="210"/>
       <c r="H64" s="56"/>
     </row>
     <row r="65" spans="2:8">
@@ -3711,10 +4568,10 @@
       <c r="H70" s="59"/>
     </row>
     <row r="71" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="208"/>
+      <c r="C71" s="210"/>
       <c r="H71" s="56"/>
     </row>
     <row r="72" spans="2:8">
@@ -3855,10 +4712,10 @@
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="208"/>
+      <c r="C79" s="210"/>
       <c r="H79" s="56"/>
     </row>
     <row r="80" spans="2:8">
@@ -3999,10 +4856,10 @@
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B87" s="207" t="s">
+      <c r="B87" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="208"/>
+      <c r="C87" s="210"/>
       <c r="H87" s="56"/>
     </row>
     <row r="88" spans="2:18">
@@ -4138,20 +4995,20 @@
     </row>
     <row r="94" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="95" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B95" s="205" t="s">
+      <c r="B95" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="206"/>
-      <c r="D95" s="201" t="s">
+      <c r="C95" s="208"/>
+      <c r="D95" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="201"/>
-      <c r="F95" s="201"/>
-      <c r="G95" s="201" t="s">
+      <c r="E95" s="206"/>
+      <c r="F95" s="206"/>
+      <c r="G95" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="201"/>
-      <c r="I95" s="201"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="206"/>
       <c r="J95" s="202" t="s">
         <v>11</v>
       </c>
@@ -4537,20 +5394,20 @@
     </row>
     <row r="103" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="104" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B104" s="205" t="s">
+      <c r="B104" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="206"/>
-      <c r="D104" s="201" t="s">
+      <c r="C104" s="208"/>
+      <c r="D104" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="201"/>
-      <c r="F104" s="201"/>
-      <c r="G104" s="201" t="s">
+      <c r="E104" s="206"/>
+      <c r="F104" s="206"/>
+      <c r="G104" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H104" s="201"/>
-      <c r="I104" s="201"/>
+      <c r="H104" s="206"/>
+      <c r="I104" s="206"/>
       <c r="J104" s="202" t="s">
         <v>11</v>
       </c>
@@ -4936,20 +5793,20 @@
     </row>
     <row r="112" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="113" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B113" s="205" t="s">
+      <c r="B113" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="206"/>
-      <c r="D113" s="201" t="s">
+      <c r="C113" s="208"/>
+      <c r="D113" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="201"/>
-      <c r="F113" s="201"/>
-      <c r="G113" s="201" t="s">
+      <c r="E113" s="206"/>
+      <c r="F113" s="206"/>
+      <c r="G113" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="201"/>
-      <c r="I113" s="201"/>
+      <c r="H113" s="206"/>
+      <c r="I113" s="206"/>
       <c r="J113" s="202" t="s">
         <v>11</v>
       </c>
@@ -5340,20 +6197,20 @@
     </row>
     <row r="121" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="122" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B122" s="205" t="s">
+      <c r="B122" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C122" s="206"/>
-      <c r="D122" s="201" t="s">
+      <c r="C122" s="208"/>
+      <c r="D122" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="201"/>
-      <c r="F122" s="201"/>
-      <c r="G122" s="201" t="s">
+      <c r="E122" s="206"/>
+      <c r="F122" s="206"/>
+      <c r="G122" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H122" s="201"/>
-      <c r="I122" s="201"/>
+      <c r="H122" s="206"/>
+      <c r="I122" s="206"/>
       <c r="J122" s="202" t="s">
         <v>11</v>
       </c>
@@ -5739,34 +6596,34 @@
       </c>
     </row>
     <row r="131" spans="2:18">
-      <c r="B131" s="210" t="s">
+      <c r="B131" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="210"/>
-      <c r="D131" s="210"/>
-      <c r="E131" s="210"/>
-      <c r="F131" s="210"/>
+      <c r="C131" s="205"/>
+      <c r="D131" s="205"/>
+      <c r="E131" s="205"/>
+      <c r="F131" s="205"/>
     </row>
     <row r="132" spans="2:18">
-      <c r="B132" s="210"/>
-      <c r="C132" s="210"/>
-      <c r="D132" s="210"/>
-      <c r="E132" s="210"/>
-      <c r="F132" s="210"/>
+      <c r="B132" s="205"/>
+      <c r="C132" s="205"/>
+      <c r="D132" s="205"/>
+      <c r="E132" s="205"/>
+      <c r="F132" s="205"/>
     </row>
     <row r="133" spans="2:18">
-      <c r="B133" s="210"/>
-      <c r="C133" s="210"/>
-      <c r="D133" s="210"/>
-      <c r="E133" s="210"/>
-      <c r="F133" s="210"/>
+      <c r="B133" s="205"/>
+      <c r="C133" s="205"/>
+      <c r="D133" s="205"/>
+      <c r="E133" s="205"/>
+      <c r="F133" s="205"/>
     </row>
     <row r="134" spans="2:18">
-      <c r="B134" s="210"/>
-      <c r="C134" s="210"/>
-      <c r="D134" s="210"/>
-      <c r="E134" s="210"/>
-      <c r="F134" s="210"/>
+      <c r="B134" s="205"/>
+      <c r="C134" s="205"/>
+      <c r="D134" s="205"/>
+      <c r="E134" s="205"/>
+      <c r="F134" s="205"/>
     </row>
     <row r="135" spans="2:18">
       <c r="B135" s="75"/>
@@ -9259,6 +10116,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="P122:R122"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B87:C87"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="P95:R95"/>
     <mergeCell ref="P104:R104"/>
@@ -9275,21 +10147,6 @@
     <mergeCell ref="J104:L104"/>
     <mergeCell ref="M104:O104"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="P122:R122"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="D113:F113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9301,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -9328,15 +10185,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="2:9">
       <c r="G2" s="13" t="s">
@@ -10005,7 +10862,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="216">
+        <v>3</v>
+      </c>
       <c r="F33" s="58"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -10015,7 +10874,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>1.3576232692866017</v>
       </c>
@@ -10824,10 +11683,10 @@
     </row>
     <row r="79" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="80" spans="2:7" ht="13.5" thickBot="1">
-      <c r="B80" s="207" t="s">
+      <c r="B80" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="208"/>
+      <c r="C80" s="210"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="51" t="s">
@@ -10966,10 +11825,10 @@
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B87" s="207" t="s">
+      <c r="B87" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="208"/>
+      <c r="C87" s="210"/>
       <c r="H87" s="56"/>
     </row>
     <row r="88" spans="2:8">
@@ -11113,10 +11972,10 @@
       <c r="H93" s="59"/>
     </row>
     <row r="94" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B94" s="207" t="s">
+      <c r="B94" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="208"/>
+      <c r="C94" s="210"/>
       <c r="H94" s="56"/>
     </row>
     <row r="95" spans="2:8">
@@ -11257,10 +12116,10 @@
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B102" s="207" t="s">
+      <c r="B102" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="208"/>
+      <c r="C102" s="210"/>
       <c r="H102" s="56"/>
     </row>
     <row r="103" spans="2:8">
@@ -11401,10 +12260,10 @@
       <c r="H109" s="56"/>
     </row>
     <row r="110" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B110" s="207" t="s">
+      <c r="B110" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="208"/>
+      <c r="C110" s="210"/>
       <c r="H110" s="56"/>
     </row>
     <row r="111" spans="2:8">
@@ -11540,20 +12399,20 @@
     </row>
     <row r="117" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="118" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B118" s="205" t="s">
+      <c r="B118" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="206"/>
-      <c r="D118" s="201" t="s">
+      <c r="C118" s="208"/>
+      <c r="D118" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="201"/>
-      <c r="F118" s="201"/>
-      <c r="G118" s="201" t="s">
+      <c r="E118" s="206"/>
+      <c r="F118" s="206"/>
+      <c r="G118" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="201"/>
-      <c r="I118" s="201"/>
+      <c r="H118" s="206"/>
+      <c r="I118" s="206"/>
       <c r="J118" s="202" t="s">
         <v>11</v>
       </c>
@@ -11939,20 +12798,20 @@
     </row>
     <row r="126" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="127" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B127" s="205" t="s">
+      <c r="B127" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="206"/>
-      <c r="D127" s="201" t="s">
+      <c r="C127" s="208"/>
+      <c r="D127" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-      <c r="G127" s="201" t="s">
+      <c r="E127" s="206"/>
+      <c r="F127" s="206"/>
+      <c r="G127" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H127" s="201"/>
-      <c r="I127" s="201"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="206"/>
       <c r="J127" s="202" t="s">
         <v>11</v>
       </c>
@@ -12338,20 +13197,20 @@
     </row>
     <row r="135" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="136" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B136" s="205" t="s">
+      <c r="B136" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="206"/>
-      <c r="D136" s="201" t="s">
+      <c r="C136" s="208"/>
+      <c r="D136" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="201"/>
-      <c r="F136" s="201"/>
-      <c r="G136" s="201" t="s">
+      <c r="E136" s="206"/>
+      <c r="F136" s="206"/>
+      <c r="G136" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H136" s="201"/>
-      <c r="I136" s="201"/>
+      <c r="H136" s="206"/>
+      <c r="I136" s="206"/>
       <c r="J136" s="202" t="s">
         <v>11</v>
       </c>
@@ -12742,20 +13601,20 @@
     </row>
     <row r="144" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="145" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B145" s="205" t="s">
+      <c r="B145" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="206"/>
-      <c r="D145" s="201" t="s">
+      <c r="C145" s="208"/>
+      <c r="D145" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E145" s="201"/>
-      <c r="F145" s="201"/>
-      <c r="G145" s="201" t="s">
+      <c r="E145" s="206"/>
+      <c r="F145" s="206"/>
+      <c r="G145" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H145" s="201"/>
-      <c r="I145" s="201"/>
+      <c r="H145" s="206"/>
+      <c r="I145" s="206"/>
       <c r="J145" s="202" t="s">
         <v>11</v>
       </c>
@@ -13141,34 +14000,34 @@
       </c>
     </row>
     <row r="154" spans="1:18">
-      <c r="B154" s="210" t="s">
+      <c r="B154" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="210"/>
-      <c r="D154" s="210"/>
-      <c r="E154" s="210"/>
-      <c r="F154" s="210"/>
+      <c r="C154" s="205"/>
+      <c r="D154" s="205"/>
+      <c r="E154" s="205"/>
+      <c r="F154" s="205"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="B155" s="210"/>
-      <c r="C155" s="210"/>
-      <c r="D155" s="210"/>
-      <c r="E155" s="210"/>
-      <c r="F155" s="210"/>
+      <c r="B155" s="205"/>
+      <c r="C155" s="205"/>
+      <c r="D155" s="205"/>
+      <c r="E155" s="205"/>
+      <c r="F155" s="205"/>
     </row>
     <row r="156" spans="1:18">
-      <c r="B156" s="210"/>
-      <c r="C156" s="210"/>
-      <c r="D156" s="210"/>
-      <c r="E156" s="210"/>
-      <c r="F156" s="210"/>
+      <c r="B156" s="205"/>
+      <c r="C156" s="205"/>
+      <c r="D156" s="205"/>
+      <c r="E156" s="205"/>
+      <c r="F156" s="205"/>
     </row>
     <row r="157" spans="1:18">
-      <c r="B157" s="210"/>
-      <c r="C157" s="210"/>
-      <c r="D157" s="210"/>
-      <c r="E157" s="210"/>
-      <c r="F157" s="210"/>
+      <c r="B157" s="205"/>
+      <c r="C157" s="205"/>
+      <c r="D157" s="205"/>
+      <c r="E157" s="205"/>
+      <c r="F157" s="205"/>
     </row>
     <row r="158" spans="1:18">
       <c r="B158" s="196"/>
@@ -16832,12 +17691,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B154:F157"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="M145:O145"/>
+    <mergeCell ref="P145:R145"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="P136:R136"/>
     <mergeCell ref="P127:R127"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="D118:F118"/>
@@ -16850,19 +17716,12 @@
     <mergeCell ref="G127:I127"/>
     <mergeCell ref="J127:L127"/>
     <mergeCell ref="M127:O127"/>
-    <mergeCell ref="M145:O145"/>
-    <mergeCell ref="P145:R145"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:O136"/>
-    <mergeCell ref="P136:R136"/>
-    <mergeCell ref="B154:F157"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B102:C102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16872,30 +17731,1704 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" style="218" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="201" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="212" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1">
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="213"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="213"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="213"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="D24" s="219"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" customHeight="1">
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="211"/>
+      <c r="K40" s="211"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="217"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="212" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="217"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="217"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="212"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="217"/>
+      <c r="K43" s="217"/>
+      <c r="L43" s="217"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="212"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="212"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="212"/>
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+    </row>
+    <row r="60" spans="5:12">
+      <c r="F60" s="222"/>
+      <c r="G60" s="222"/>
+      <c r="H60" s="222"/>
+      <c r="I60" s="222"/>
+      <c r="J60" s="222"/>
+      <c r="K60" s="222"/>
+      <c r="L60" s="222"/>
+    </row>
+    <row r="61" spans="5:12">
+      <c r="E61" s="222"/>
+      <c r="F61" s="222"/>
+      <c r="G61" s="222"/>
+      <c r="H61" s="222"/>
+      <c r="I61" s="222"/>
+      <c r="J61" s="222"/>
+      <c r="K61" s="222"/>
+      <c r="L61" s="222"/>
+    </row>
+    <row r="62" spans="5:12">
+      <c r="E62" s="222"/>
+      <c r="F62" s="222"/>
+      <c r="G62" s="222"/>
+      <c r="H62" s="222"/>
+      <c r="I62" s="222"/>
+      <c r="J62" s="222"/>
+      <c r="K62" s="222"/>
+      <c r="L62" s="222"/>
+    </row>
+    <row r="63" spans="5:12">
+      <c r="E63" s="222"/>
+      <c r="F63" s="222"/>
+      <c r="G63" s="222"/>
+      <c r="H63" s="222"/>
+      <c r="I63" s="222"/>
+      <c r="J63" s="222"/>
+      <c r="K63" s="222"/>
+      <c r="L63" s="222"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="212" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="212"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="212"/>
+      <c r="G65" s="212"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="212"/>
+      <c r="C66" s="212"/>
+      <c r="D66" s="212"/>
+      <c r="E66" s="212"/>
+      <c r="F66" s="212"/>
+      <c r="G66" s="212"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="212"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="212"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="212"/>
+      <c r="G67" s="212"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="212"/>
+      <c r="C68" s="212"/>
+      <c r="D68" s="212"/>
+      <c r="E68" s="212"/>
+      <c r="F68" s="212"/>
+      <c r="G68" s="212"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="212"/>
+      <c r="C69" s="212"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="212"/>
+      <c r="F69" s="212"/>
+      <c r="G69" s="212"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="212"/>
+      <c r="C70" s="212"/>
+      <c r="D70" s="212"/>
+      <c r="E70" s="212"/>
+      <c r="F70" s="212"/>
+      <c r="G70" s="212"/>
+    </row>
+    <row r="79" spans="2:12" ht="15" customHeight="1">
+      <c r="F79" s="222"/>
+      <c r="G79" s="222"/>
+      <c r="H79" s="222"/>
+      <c r="I79" s="222"/>
+      <c r="J79" s="222"/>
+      <c r="K79" s="222"/>
+      <c r="L79" s="222"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="E80" s="222"/>
+      <c r="F80" s="222"/>
+      <c r="G80" s="222"/>
+      <c r="H80" s="222"/>
+      <c r="I80" s="222"/>
+      <c r="J80" s="222"/>
+      <c r="K80" s="222"/>
+      <c r="L80" s="222"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="E81" s="222"/>
+      <c r="F81" s="222"/>
+      <c r="G81" s="222"/>
+      <c r="H81" s="222"/>
+      <c r="I81" s="222"/>
+      <c r="J81" s="222"/>
+      <c r="K81" s="222"/>
+      <c r="L81" s="222"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="E82" s="222"/>
+      <c r="F82" s="222"/>
+      <c r="G82" s="222"/>
+      <c r="H82" s="222"/>
+      <c r="I82" s="222"/>
+      <c r="J82" s="222"/>
+      <c r="K82" s="222"/>
+      <c r="L82" s="222"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="15" customHeight="1">
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="222"/>
+      <c r="I85" s="222"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
+      <c r="L85" s="222"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="222"/>
+      <c r="H86" s="222"/>
+      <c r="I86" s="222"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
+      <c r="L86" s="222"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="E87" s="222"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="212" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="212"/>
+      <c r="D88" s="212"/>
+      <c r="E88" s="212"/>
+      <c r="F88" s="212"/>
+      <c r="G88" s="212"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="222"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="212"/>
+      <c r="C89" s="212"/>
+      <c r="D89" s="212"/>
+      <c r="E89" s="212"/>
+      <c r="F89" s="212"/>
+      <c r="G89" s="212"/>
+      <c r="H89" s="222"/>
+      <c r="I89" s="222"/>
+      <c r="J89" s="222"/>
+      <c r="K89" s="222"/>
+      <c r="L89" s="222"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="212"/>
+      <c r="C90" s="212"/>
+      <c r="D90" s="212"/>
+      <c r="E90" s="212"/>
+      <c r="F90" s="212"/>
+      <c r="G90" s="212"/>
+      <c r="H90" s="222"/>
+      <c r="I90" s="222"/>
+      <c r="J90" s="222"/>
+      <c r="K90" s="222"/>
+      <c r="L90" s="222"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="212"/>
+      <c r="C91" s="212"/>
+      <c r="D91" s="212"/>
+      <c r="E91" s="212"/>
+      <c r="F91" s="212"/>
+      <c r="G91" s="212"/>
+      <c r="H91" s="222"/>
+      <c r="I91" s="222"/>
+      <c r="J91" s="222"/>
+      <c r="K91" s="222"/>
+      <c r="L91" s="222"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="212"/>
+      <c r="C92" s="212"/>
+      <c r="D92" s="212"/>
+      <c r="E92" s="212"/>
+      <c r="F92" s="212"/>
+      <c r="G92" s="212"/>
+      <c r="H92" s="222"/>
+      <c r="I92" s="222"/>
+      <c r="J92" s="222"/>
+      <c r="K92" s="222"/>
+      <c r="L92" s="222"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
+      <c r="F93" s="212"/>
+      <c r="G93" s="212"/>
+      <c r="H93" s="222"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="222"/>
+      <c r="K93" s="222"/>
+      <c r="L93" s="222"/>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="E94" s="222"/>
+      <c r="F94" s="222"/>
+      <c r="G94" s="222"/>
+      <c r="H94" s="222"/>
+      <c r="I94" s="222"/>
+      <c r="J94" s="222"/>
+      <c r="K94" s="222"/>
+      <c r="L94" s="222"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="E95" s="222"/>
+      <c r="F95" s="222"/>
+      <c r="G95" s="222"/>
+      <c r="H95" s="222"/>
+      <c r="I95" s="222"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="222"/>
+      <c r="L95" s="222"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="E96" s="222"/>
+      <c r="F96" s="222"/>
+      <c r="G96" s="222"/>
+      <c r="H96" s="222"/>
+      <c r="I96" s="222"/>
+      <c r="J96" s="222"/>
+      <c r="K96" s="222"/>
+      <c r="L96" s="222"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="222"/>
+      <c r="E97" s="222"/>
+      <c r="F97" s="222"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
+      <c r="J97" s="222"/>
+      <c r="K97" s="222"/>
+      <c r="L97" s="222"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="212"/>
+      <c r="D98" s="212"/>
+      <c r="E98" s="212"/>
+      <c r="F98" s="212"/>
+      <c r="G98" s="212"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
+      <c r="J98" s="222"/>
+      <c r="K98" s="222"/>
+      <c r="L98" s="222"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="212"/>
+      <c r="C99" s="212"/>
+      <c r="D99" s="212"/>
+      <c r="E99" s="212"/>
+      <c r="F99" s="212"/>
+      <c r="G99" s="212"/>
+      <c r="H99" s="222"/>
+      <c r="I99" s="222"/>
+      <c r="J99" s="222"/>
+      <c r="K99" s="222"/>
+      <c r="L99" s="222"/>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="212"/>
+      <c r="C100" s="212"/>
+      <c r="D100" s="212"/>
+      <c r="E100" s="212"/>
+      <c r="F100" s="212"/>
+      <c r="G100" s="212"/>
+      <c r="H100" s="222"/>
+      <c r="I100" s="222"/>
+      <c r="J100" s="222"/>
+      <c r="K100" s="222"/>
+      <c r="L100" s="222"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="212"/>
+      <c r="C101" s="212"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="212"/>
+      <c r="F101" s="212"/>
+      <c r="G101" s="212"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="222"/>
+      <c r="J101" s="222"/>
+      <c r="K101" s="222"/>
+      <c r="L101" s="222"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="212"/>
+      <c r="C102" s="212"/>
+      <c r="D102" s="212"/>
+      <c r="E102" s="212"/>
+      <c r="F102" s="212"/>
+      <c r="G102" s="212"/>
+      <c r="H102" s="222"/>
+      <c r="I102" s="222"/>
+      <c r="J102" s="222"/>
+      <c r="K102" s="222"/>
+      <c r="L102" s="222"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="212"/>
+      <c r="C103" s="212"/>
+      <c r="D103" s="212"/>
+      <c r="E103" s="212"/>
+      <c r="F103" s="212"/>
+      <c r="G103" s="212"/>
+      <c r="H103" s="222"/>
+      <c r="I103" s="222"/>
+      <c r="J103" s="222"/>
+      <c r="K103" s="222"/>
+      <c r="L103" s="222"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="212"/>
+      <c r="C104" s="212"/>
+      <c r="D104" s="212"/>
+      <c r="E104" s="212"/>
+      <c r="F104" s="212"/>
+      <c r="G104" s="212"/>
+      <c r="H104" s="222"/>
+      <c r="I104" s="222"/>
+      <c r="J104" s="222"/>
+      <c r="K104" s="222"/>
+      <c r="L104" s="222"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="212"/>
+      <c r="C105" s="212"/>
+      <c r="D105" s="212"/>
+      <c r="E105" s="212"/>
+      <c r="F105" s="212"/>
+      <c r="G105" s="212"/>
+      <c r="H105" s="222"/>
+      <c r="I105" s="222"/>
+      <c r="J105" s="222"/>
+      <c r="K105" s="222"/>
+      <c r="L105" s="222"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="212"/>
+      <c r="C106" s="212"/>
+      <c r="D106" s="212"/>
+      <c r="E106" s="212"/>
+      <c r="F106" s="212"/>
+      <c r="G106" s="212"/>
+      <c r="H106" s="222"/>
+      <c r="I106" s="222"/>
+      <c r="J106" s="222"/>
+      <c r="K106" s="222"/>
+      <c r="L106" s="222"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="212"/>
+      <c r="C107" s="212"/>
+      <c r="D107" s="212"/>
+      <c r="E107" s="212"/>
+      <c r="F107" s="212"/>
+      <c r="G107" s="212"/>
+      <c r="H107" s="222"/>
+      <c r="I107" s="222"/>
+      <c r="J107" s="222"/>
+      <c r="K107" s="222"/>
+      <c r="L107" s="222"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="212"/>
+      <c r="C108" s="212"/>
+      <c r="D108" s="212"/>
+      <c r="E108" s="212"/>
+      <c r="F108" s="212"/>
+      <c r="G108" s="212"/>
+      <c r="H108" s="222"/>
+      <c r="I108" s="222"/>
+      <c r="J108" s="222"/>
+      <c r="K108" s="222"/>
+      <c r="L108" s="222"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="212"/>
+      <c r="C109" s="212"/>
+      <c r="D109" s="212"/>
+      <c r="E109" s="212"/>
+      <c r="F109" s="212"/>
+      <c r="G109" s="212"/>
+      <c r="H109" s="222"/>
+      <c r="I109" s="222"/>
+      <c r="J109" s="222"/>
+      <c r="K109" s="222"/>
+      <c r="L109" s="222"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="212"/>
+      <c r="C110" s="212"/>
+      <c r="D110" s="212"/>
+      <c r="E110" s="212"/>
+      <c r="F110" s="212"/>
+      <c r="G110" s="212"/>
+      <c r="H110" s="222"/>
+      <c r="I110" s="222"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="222"/>
+      <c r="L110" s="222"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="212"/>
+      <c r="C111" s="212"/>
+      <c r="D111" s="212"/>
+      <c r="E111" s="212"/>
+      <c r="F111" s="212"/>
+      <c r="G111" s="212"/>
+      <c r="H111" s="222"/>
+      <c r="I111" s="222"/>
+      <c r="J111" s="222"/>
+      <c r="K111" s="222"/>
+      <c r="L111" s="222"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="212"/>
+      <c r="C112" s="212"/>
+      <c r="D112" s="212"/>
+      <c r="E112" s="212"/>
+      <c r="F112" s="212"/>
+      <c r="G112" s="212"/>
+      <c r="H112" s="222"/>
+      <c r="I112" s="222"/>
+      <c r="J112" s="222"/>
+      <c r="K112" s="222"/>
+      <c r="L112" s="222"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="212"/>
+      <c r="C113" s="212"/>
+      <c r="D113" s="212"/>
+      <c r="E113" s="212"/>
+      <c r="F113" s="212"/>
+      <c r="G113" s="212"/>
+      <c r="H113" s="222"/>
+      <c r="I113" s="222"/>
+      <c r="J113" s="222"/>
+      <c r="K113" s="222"/>
+      <c r="L113" s="222"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="212"/>
+      <c r="C114" s="212"/>
+      <c r="D114" s="212"/>
+      <c r="E114" s="212"/>
+      <c r="F114" s="212"/>
+      <c r="G114" s="212"/>
+      <c r="H114" s="222"/>
+      <c r="I114" s="222"/>
+      <c r="J114" s="222"/>
+      <c r="K114" s="222"/>
+      <c r="L114" s="222"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="212"/>
+      <c r="C115" s="212"/>
+      <c r="D115" s="212"/>
+      <c r="E115" s="212"/>
+      <c r="F115" s="212"/>
+      <c r="G115" s="212"/>
+      <c r="H115" s="222"/>
+      <c r="I115" s="222"/>
+      <c r="J115" s="222"/>
+      <c r="K115" s="222"/>
+      <c r="L115" s="222"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="212"/>
+      <c r="C116" s="212"/>
+      <c r="D116" s="212"/>
+      <c r="E116" s="212"/>
+      <c r="F116" s="212"/>
+      <c r="G116" s="212"/>
+      <c r="H116" s="222"/>
+      <c r="I116" s="222"/>
+      <c r="J116" s="222"/>
+      <c r="K116" s="222"/>
+      <c r="L116" s="222"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="212"/>
+      <c r="C117" s="212"/>
+      <c r="D117" s="212"/>
+      <c r="E117" s="212"/>
+      <c r="F117" s="212"/>
+      <c r="G117" s="212"/>
+      <c r="H117" s="222"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="222"/>
+      <c r="K117" s="222"/>
+      <c r="L117" s="222"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="212"/>
+      <c r="C118" s="212"/>
+      <c r="D118" s="212"/>
+      <c r="E118" s="212"/>
+      <c r="F118" s="212"/>
+      <c r="G118" s="212"/>
+      <c r="H118" s="222"/>
+      <c r="I118" s="222"/>
+      <c r="J118" s="222"/>
+      <c r="K118" s="222"/>
+      <c r="L118" s="222"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="212"/>
+      <c r="C119" s="212"/>
+      <c r="D119" s="212"/>
+      <c r="E119" s="212"/>
+      <c r="F119" s="212"/>
+      <c r="G119" s="212"/>
+      <c r="H119" s="222"/>
+      <c r="I119" s="222"/>
+      <c r="J119" s="222"/>
+      <c r="K119" s="222"/>
+      <c r="L119" s="222"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" s="212"/>
+      <c r="C120" s="212"/>
+      <c r="D120" s="212"/>
+      <c r="E120" s="212"/>
+      <c r="F120" s="212"/>
+      <c r="G120" s="212"/>
+      <c r="H120" s="222"/>
+      <c r="I120" s="222"/>
+      <c r="J120" s="222"/>
+      <c r="K120" s="222"/>
+      <c r="L120" s="222"/>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121" s="222"/>
+      <c r="E121" s="222"/>
+      <c r="F121" s="222"/>
+      <c r="G121" s="222"/>
+      <c r="H121" s="222"/>
+      <c r="I121" s="222"/>
+      <c r="J121" s="222"/>
+      <c r="K121" s="222"/>
+      <c r="L121" s="222"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="222"/>
+      <c r="E122" s="222"/>
+      <c r="F122" s="222"/>
+      <c r="G122" s="222"/>
+      <c r="H122" s="222"/>
+      <c r="I122" s="222"/>
+      <c r="J122" s="222"/>
+      <c r="K122" s="222"/>
+      <c r="L122" s="222"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="222"/>
+      <c r="E123" s="222"/>
+      <c r="F123" s="222"/>
+      <c r="G123" s="222"/>
+      <c r="H123" s="222"/>
+      <c r="I123" s="222"/>
+      <c r="J123" s="222"/>
+      <c r="K123" s="222"/>
+      <c r="L123" s="222"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="222"/>
+      <c r="E124" s="222"/>
+      <c r="F124" s="222"/>
+      <c r="G124" s="222"/>
+      <c r="H124" s="222"/>
+      <c r="I124" s="222"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="222"/>
+      <c r="L124" s="222"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="222"/>
+      <c r="E125" s="222"/>
+      <c r="F125" s="222"/>
+      <c r="G125" s="222"/>
+      <c r="H125" s="222"/>
+      <c r="I125" s="222"/>
+      <c r="J125" s="222"/>
+      <c r="K125" s="222"/>
+      <c r="L125" s="222"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="222"/>
+      <c r="E126" s="222"/>
+      <c r="F126" s="222"/>
+      <c r="G126" s="222"/>
+      <c r="H126" s="222"/>
+      <c r="I126" s="222"/>
+      <c r="J126" s="222"/>
+      <c r="K126" s="222"/>
+      <c r="L126" s="222"/>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="222"/>
+      <c r="E127" s="222"/>
+      <c r="F127" s="222"/>
+      <c r="G127" s="222"/>
+      <c r="H127" s="222"/>
+      <c r="I127" s="222"/>
+      <c r="J127" s="222"/>
+      <c r="K127" s="222"/>
+      <c r="L127" s="222"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="222"/>
+      <c r="E128" s="222"/>
+      <c r="F128" s="222"/>
+      <c r="G128" s="222"/>
+      <c r="H128" s="222"/>
+      <c r="I128" s="222"/>
+      <c r="J128" s="222"/>
+      <c r="K128" s="222"/>
+      <c r="L128" s="222"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="B129" s="222"/>
+      <c r="E129" s="222"/>
+      <c r="F129" s="222"/>
+      <c r="G129" s="222"/>
+      <c r="H129" s="222"/>
+      <c r="I129" s="222"/>
+      <c r="J129" s="222"/>
+      <c r="K129" s="222"/>
+      <c r="L129" s="222"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="B130" s="222"/>
+      <c r="E130" s="222"/>
+      <c r="F130" s="222"/>
+      <c r="G130" s="222"/>
+      <c r="H130" s="222"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="222"/>
+      <c r="L130" s="222"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="B131" s="222"/>
+      <c r="E131" s="222"/>
+      <c r="F131" s="222"/>
+      <c r="G131" s="222"/>
+      <c r="H131" s="222"/>
+      <c r="I131" s="222"/>
+      <c r="J131" s="222"/>
+      <c r="K131" s="222"/>
+      <c r="L131" s="222"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="B132" s="222"/>
+      <c r="E132" s="222"/>
+      <c r="F132" s="222"/>
+      <c r="G132" s="222"/>
+      <c r="H132" s="222"/>
+      <c r="I132" s="222"/>
+      <c r="J132" s="222"/>
+      <c r="K132" s="222"/>
+      <c r="L132" s="222"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="B133" s="222"/>
+      <c r="E133" s="222"/>
+      <c r="F133" s="222"/>
+      <c r="G133" s="222"/>
+      <c r="H133" s="222"/>
+      <c r="I133" s="222"/>
+      <c r="J133" s="222"/>
+      <c r="K133" s="222"/>
+      <c r="L133" s="222"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="B134" s="222"/>
+      <c r="E134" s="222"/>
+      <c r="F134" s="222"/>
+      <c r="G134" s="222"/>
+      <c r="H134" s="222"/>
+      <c r="I134" s="222"/>
+      <c r="J134" s="222"/>
+      <c r="K134" s="222"/>
+      <c r="L134" s="222"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="B135" s="222"/>
+      <c r="E135" s="222"/>
+      <c r="F135" s="222"/>
+      <c r="G135" s="222"/>
+      <c r="H135" s="222"/>
+      <c r="I135" s="222"/>
+      <c r="J135" s="222"/>
+      <c r="K135" s="222"/>
+      <c r="L135" s="222"/>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="B136" s="222"/>
+      <c r="E136" s="222"/>
+      <c r="F136" s="222"/>
+      <c r="G136" s="222"/>
+      <c r="H136" s="222"/>
+      <c r="I136" s="222"/>
+      <c r="J136" s="222"/>
+      <c r="K136" s="222"/>
+      <c r="L136" s="222"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="B137" s="222"/>
+      <c r="E137" s="222"/>
+      <c r="F137" s="222"/>
+      <c r="G137" s="222"/>
+      <c r="H137" s="222"/>
+      <c r="I137" s="222"/>
+      <c r="J137" s="222"/>
+      <c r="K137" s="222"/>
+      <c r="L137" s="222"/>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="B138" s="222"/>
+      <c r="E138" s="222"/>
+      <c r="F138" s="222"/>
+      <c r="G138" s="222"/>
+      <c r="H138" s="222"/>
+      <c r="I138" s="222"/>
+      <c r="J138" s="222"/>
+      <c r="K138" s="222"/>
+      <c r="L138" s="222"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="B139" s="222"/>
+      <c r="E139" s="222"/>
+      <c r="F139" s="222"/>
+      <c r="G139" s="222"/>
+      <c r="H139" s="222"/>
+      <c r="I139" s="222"/>
+      <c r="J139" s="222"/>
+      <c r="K139" s="222"/>
+      <c r="L139" s="222"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="B140" s="222"/>
+      <c r="E140" s="222"/>
+      <c r="F140" s="222"/>
+      <c r="G140" s="222"/>
+      <c r="H140" s="222"/>
+      <c r="I140" s="222"/>
+      <c r="J140" s="222"/>
+      <c r="K140" s="222"/>
+      <c r="L140" s="222"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="B141" s="222"/>
+      <c r="E141" s="222"/>
+      <c r="F141" s="222"/>
+      <c r="G141" s="222"/>
+      <c r="H141" s="222"/>
+      <c r="I141" s="222"/>
+      <c r="J141" s="222"/>
+      <c r="K141" s="222"/>
+      <c r="L141" s="222"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="223" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="223" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="223"/>
+      <c r="C144" s="223"/>
+      <c r="D144" s="224"/>
+      <c r="E144" s="223" t="s">
+        <v>182</v>
+      </c>
+      <c r="F144" s="223"/>
+      <c r="G144" s="223"/>
+      <c r="H144" s="224"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="225" t="str">
+        <f>'FCN Puro'!B27</f>
+        <v>VAN</v>
+      </c>
+      <c r="B145" s="226">
+        <f>'FCN Puro'!C27</f>
+        <v>40250742631.153931</v>
+      </c>
+      <c r="C145" s="225"/>
+      <c r="E145" s="225" t="str">
+        <f>'FCN EO DDA 40%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="F145" s="226">
+        <f>'FCN EO DDA 40%'!C31</f>
+        <v>52078430263.135574</v>
+      </c>
+      <c r="G145" s="225"/>
+      <c r="H145" s="218"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="225" t="str">
+        <f>'FCN Puro'!B28</f>
+        <v>TIR</v>
+      </c>
+      <c r="B146" s="227">
+        <f>'FCN Puro'!C28</f>
+        <v>2.9585996775007124</v>
+      </c>
+      <c r="C146" s="225"/>
+      <c r="E146" s="225" t="str">
+        <f>'FCN EO DDA 40%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="F146" s="227">
+        <f>'FCN EO DDA 40%'!C32</f>
+        <v>5.1169850901016085</v>
+      </c>
+      <c r="G146" s="225"/>
+      <c r="H146" s="220"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="225" t="str">
+        <f>'FCN Puro'!B29</f>
+        <v>PRI</v>
+      </c>
+      <c r="B147" s="226">
+        <f>'FCN Puro'!C29</f>
+        <v>2.9173240691788651</v>
+      </c>
+      <c r="C147" s="225" t="str">
+        <f>'FCN Puro'!D29</f>
+        <v>Año 1</v>
+      </c>
+      <c r="D147" s="218">
+        <f>'FCN Puro'!E29</f>
+        <v>1</v>
+      </c>
+      <c r="E147" s="225" t="str">
+        <f>'FCN EO DDA 40%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="F147" s="226">
+        <f>'FCN EO DDA 40%'!C33</f>
+        <v>5.0628466663838338</v>
+      </c>
+      <c r="G147" s="225" t="str">
+        <f>'FCN EO DDA 40%'!D33</f>
+        <v>Año 1</v>
+      </c>
+      <c r="H147" s="218">
+        <f>'FCN EO DDA 40%'!E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="225" t="str">
+        <f>'FCN Puro'!B30</f>
+        <v>RBC</v>
+      </c>
+      <c r="B148" s="228">
+        <f>'FCN Puro'!C30</f>
+        <v>8.8681700750642314</v>
+      </c>
+      <c r="C148" s="225"/>
+      <c r="E148" s="225" t="str">
+        <f>'FCN EO DDA 40%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="F148" s="228">
+        <f>'FCN EO DDA 40%'!C34</f>
+        <v>10.065248210710815</v>
+      </c>
+      <c r="G148" s="225"/>
+      <c r="H148" s="218"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="225" t="str">
+        <f>'FCN Puro'!D27</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="B149" s="225">
+        <f>'FCN Puro'!E27/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="C149" s="225"/>
+      <c r="E149" s="225" t="str">
+        <f>'FCN EO DDA 40%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="F149" s="225">
+        <f>'FCN EO DDA 40%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="G149" s="225"/>
+      <c r="H149" s="218"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="H150" s="218"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="223"/>
+      <c r="C151" s="223"/>
+      <c r="D151" s="224"/>
+      <c r="E151" s="223" t="s">
+        <v>183</v>
+      </c>
+      <c r="F151" s="223"/>
+      <c r="G151" s="223"/>
+      <c r="H151" s="224"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="225" t="str">
+        <f>'FCN EN 70%'!B29</f>
+        <v>VAN</v>
+      </c>
+      <c r="B152" s="226">
+        <f>'FCN EN 70%'!C29</f>
+        <v>40677897810.415977</v>
+      </c>
+      <c r="C152" s="225"/>
+      <c r="E152" s="225" t="str">
+        <f>'FCN EP DDA 40%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="F152" s="226">
+        <f>'FCN EP DDA 40%'!C31</f>
+        <v>26958789650.06839</v>
+      </c>
+      <c r="G152" s="225"/>
+      <c r="H152" s="218"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="225" t="str">
+        <f>'FCN EN 70%'!B30</f>
+        <v>TIR</v>
+      </c>
+      <c r="B153" s="227">
+        <f>'FCN EN 70%'!C30</f>
+        <v>9.2361941474223599</v>
+      </c>
+      <c r="C153" s="225"/>
+      <c r="E153" s="225" t="str">
+        <f>'FCN EP DDA 40%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="F153" s="227">
+        <f>'FCN EP DDA 40%'!C32</f>
+        <v>3.2518449149193649</v>
+      </c>
+      <c r="G153" s="225"/>
+      <c r="H153" s="218"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="225" t="str">
+        <f>'FCN EN 70%'!B31</f>
+        <v>PRI</v>
+      </c>
+      <c r="B154" s="226">
+        <f>'FCN EN 70%'!C31</f>
+        <v>9.1920647699599485</v>
+      </c>
+      <c r="C154" s="225" t="str">
+        <f>'FCN EN 70%'!D31</f>
+        <v>Año 1</v>
+      </c>
+      <c r="D154" s="218">
+        <f>'FCN EN 70%'!E31</f>
+        <v>1</v>
+      </c>
+      <c r="E154" s="225" t="str">
+        <f>'FCN EP DDA 40%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="F154" s="226">
+        <f>'FCN EP DDA 40%'!C33</f>
+        <v>3.208444090351859</v>
+      </c>
+      <c r="G154" s="225" t="str">
+        <f>'FCN EP DDA 40%'!D33</f>
+        <v>Año 1</v>
+      </c>
+      <c r="H154" s="218">
+        <f>'FCN EP DDA 40%'!E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="225" t="str">
+        <f>'FCN EN 70%'!B32</f>
+        <v>RBC</v>
+      </c>
+      <c r="B155" s="228">
+        <f>'FCN EN 70%'!C32</f>
+        <v>8.8681700750642314</v>
+      </c>
+      <c r="C155" s="225"/>
+      <c r="E155" s="225" t="str">
+        <f>'FCN EP DDA 40%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="F155" s="228">
+        <f>'FCN EP DDA 40%'!C34</f>
+        <v>5.5065943805010704</v>
+      </c>
+      <c r="G155" s="225"/>
+      <c r="H155" s="218"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="225" t="str">
+        <f>'FCN EN 70%'!H29</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="B156" s="225">
+        <f>'FCN EN 70%'!I29/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="C156" s="225"/>
+      <c r="E156" s="225" t="str">
+        <f>'FCN EP DDA 40%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="F156" s="225">
+        <f>'FCN EP DDA 40%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="G156" s="225"/>
+      <c r="H156" s="218"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="H157" s="218"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="223"/>
+      <c r="C158" s="223"/>
+      <c r="D158" s="224"/>
+      <c r="E158" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="F158" s="223"/>
+      <c r="H158" s="218"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="225" t="str">
+        <f>'FCN EO DDA 70%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="B159" s="226">
+        <f>'FCN EO DDA 70%'!C31</f>
+        <v>52291926053.613152</v>
+      </c>
+      <c r="C159" s="225"/>
+      <c r="E159" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="F159" s="226">
+        <f>'FCN EN 70% SENS DDA '!C31</f>
+        <v>0.44638204574584961</v>
+      </c>
+      <c r="G159" s="225"/>
+      <c r="H159" s="218"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="225" t="str">
+        <f>'FCN EO DDA 70%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="B160" s="227">
+        <f>'FCN EO DDA 70%'!C32</f>
+        <v>9.9527416751572044</v>
+      </c>
+      <c r="C160" s="225"/>
+      <c r="D160" s="219"/>
+      <c r="E160" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="F160" s="227">
+        <f>'FCN EN 70% SENS DDA '!C32</f>
+        <v>0.12000000013046434</v>
+      </c>
+      <c r="G160" s="225"/>
+      <c r="H160" s="218"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="225" t="str">
+        <f>'FCN EO DDA 70%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="B161" s="226">
+        <f>'FCN EO DDA 70%'!C33</f>
+        <v>9.8975438496378381</v>
+      </c>
+      <c r="C161" s="225" t="str">
+        <f>'FCN EO DDA 70%'!D33</f>
+        <v>Año 1</v>
+      </c>
+      <c r="D161" s="218">
+        <f>'FCN EO DDA 70%'!E33</f>
+        <v>1</v>
+      </c>
+      <c r="E161" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="F161" s="226">
+        <f>'FCN EN 70% SENS DDA '!C33</f>
+        <v>0.58589467760561764</v>
+      </c>
+      <c r="G161" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!D33</f>
+        <v>Año 3</v>
+      </c>
+      <c r="H161" s="218">
+        <f>'FCN EN 70% SENS DDA '!E33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="225" t="str">
+        <f>'FCN EO DDA 70%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="B162" s="228">
+        <f>'FCN EO DDA 70%'!C34</f>
+        <v>10.065248210710815</v>
+      </c>
+      <c r="C162" s="225"/>
+      <c r="D162" s="219"/>
+      <c r="E162" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="F162" s="228">
+        <f>'FCN EN 70% SENS DDA '!C34</f>
+        <v>1.3576232692866017</v>
+      </c>
+      <c r="G162" s="225"/>
+      <c r="H162" s="218"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="225" t="str">
+        <f>'FCN EO DDA 70%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="B163" s="225">
+        <f>'FCN EO DDA 70%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="C163" s="225"/>
+      <c r="D163" s="219"/>
+      <c r="E163" s="225" t="str">
+        <f>'FCN EN 70% SENS DDA '!H31</f>
+        <v>Tasa de descuento</v>
+      </c>
+      <c r="F163" s="225">
+        <f>'FCN EN 70% SENS DDA '!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="G163" s="225"/>
+      <c r="H163" s="218"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" s="223"/>
+      <c r="D165" s="219"/>
+      <c r="E165" s="223" t="s">
+        <v>185</v>
+      </c>
+      <c r="F165" s="223"/>
+      <c r="H165" s="218"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="225" t="str">
+        <f>'FCN EP DDA 70%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="B166" s="226">
+        <f>'FCN EP DDA 70%'!C31</f>
+        <v>27141856155.466404</v>
+      </c>
+      <c r="C166" s="225"/>
+      <c r="D166" s="219"/>
+      <c r="E166" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="F166" s="226">
+        <f>'FCN EO DDA SENS DDA 70%'!C31</f>
+        <v>4.0837287902832031E-2</v>
+      </c>
+      <c r="G166" s="225"/>
+      <c r="H166" s="218"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="225" t="str">
+        <f>'FCN EP DDA 70%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="B167" s="227">
+        <f>'FCN EP DDA 70%'!C32</f>
+        <v>6.2338324120942774</v>
+      </c>
+      <c r="C167" s="225"/>
+      <c r="E167" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="F167" s="227">
+        <f>'FCN EO DDA SENS DDA 70%'!C32</f>
+        <v>0.12000000000773869</v>
+      </c>
+      <c r="G167" s="225"/>
+      <c r="H167" s="218"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="225" t="str">
+        <f>'FCN EP DDA 70%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="B168" s="226">
+        <f>'FCN EP DDA 70%'!C33</f>
+        <v>6.1887386975738874</v>
+      </c>
+      <c r="C168" s="225" t="str">
+        <f>'FCN EP DDA 70%'!D33</f>
+        <v>Año 1</v>
+      </c>
+      <c r="D168" s="218">
+        <f>'FCN EP DDA 70%'!E33</f>
+        <v>1</v>
+      </c>
+      <c r="E168" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="F168" s="226">
+        <f>'FCN EO DDA SENS DDA 70%'!C33</f>
+        <v>0.54211705994748793</v>
+      </c>
+      <c r="G168" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!D33</f>
+        <v>Año 4</v>
+      </c>
+      <c r="H168" s="218">
+        <f>'FCN EO DDA SENS DDA 70%'!E33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="225" t="str">
+        <f>'FCN EP DDA 70%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="B169" s="228">
+        <f>'FCN EP DDA 70%'!C34</f>
+        <v>5.5065943805010704</v>
+      </c>
+      <c r="C169" s="225"/>
+      <c r="E169" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="F169" s="228">
+        <f>'FCN EO DDA SENS DDA 70%'!C34</f>
+        <v>1.3235507088199965</v>
+      </c>
+      <c r="G169" s="225"/>
+      <c r="H169" s="218"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="225" t="str">
+        <f>'FCN EP DDA 70%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="B170" s="225">
+        <f>'FCN EP DDA 70%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="C170" s="225"/>
+      <c r="E170" s="225" t="str">
+        <f>'FCN EO DDA SENS DDA 70%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="F170" s="225">
+        <f>'FCN EO DDA SENS DDA 70%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="G170" s="225"/>
+      <c r="H170" s="218"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="H171" s="218"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="223" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="223"/>
+      <c r="E172" s="223" t="s">
+        <v>186</v>
+      </c>
+      <c r="F172" s="223"/>
+      <c r="H172" s="218"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="225" t="str">
+        <f>'FCN EN 40%'!B29</f>
+        <v>VAN</v>
+      </c>
+      <c r="B173" s="226">
+        <f>'FCN EN 40%'!C29</f>
+        <v>40494831305.01796</v>
+      </c>
+      <c r="C173" s="225"/>
+      <c r="E173" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!B31</f>
+        <v>VAN</v>
+      </c>
+      <c r="F173" s="226">
+        <f>'FCN EP DDA SENS DDA 70%'!C31</f>
+        <v>0.44638204574584961</v>
+      </c>
+      <c r="G173" s="225"/>
+      <c r="H173" s="218"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="225" t="str">
+        <f>'FCN EN 40%'!B30</f>
+        <v>TIR</v>
+      </c>
+      <c r="B174" s="227">
+        <f>'FCN EN 40%'!C30</f>
+        <v>4.753622360877495</v>
+      </c>
+      <c r="C174" s="225"/>
+      <c r="E174" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!B32</f>
+        <v>TIR</v>
+      </c>
+      <c r="F174" s="227">
+        <f>'FCN EP DDA SENS DDA 70%'!C32</f>
+        <v>0.12000000013046434</v>
+      </c>
+      <c r="G174" s="225"/>
+      <c r="H174" s="218"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="225" t="str">
+        <f>'FCN EN 40%'!B31</f>
+        <v>PRI</v>
+      </c>
+      <c r="B175" s="226">
+        <f>'FCN EN 40%'!C31</f>
+        <v>4.7101071265448882</v>
+      </c>
+      <c r="C175" s="225" t="str">
+        <f>'FCN EN 40%'!D31</f>
+        <v>Año 1</v>
+      </c>
+      <c r="D175" s="218">
+        <f>'FCN EN 40%'!E31</f>
+        <v>1</v>
+      </c>
+      <c r="E175" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!B33</f>
+        <v>PRI</v>
+      </c>
+      <c r="F175" s="226">
+        <f>'FCN EP DDA SENS DDA 70%'!C33</f>
+        <v>0.58589467760561764</v>
+      </c>
+      <c r="G175" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!D33</f>
+        <v>Año 3</v>
+      </c>
+      <c r="H175" s="218">
+        <f>'FCN EP DDA SENS DDA 70%'!E33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="225" t="str">
+        <f>'FCN EN 40%'!B32</f>
+        <v>RBC</v>
+      </c>
+      <c r="B176" s="228">
+        <f>'FCN EN 40%'!C32</f>
+        <v>8.8681700750642314</v>
+      </c>
+      <c r="C176" s="225"/>
+      <c r="E176" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!B34</f>
+        <v>RBC</v>
+      </c>
+      <c r="F176" s="228">
+        <f>'FCN EP DDA SENS DDA 70%'!C34</f>
+        <v>1.3576232692866017</v>
+      </c>
+      <c r="G176" s="225"/>
+      <c r="H176" s="218"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="225" t="str">
+        <f>'FCN EN 40%'!H29</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="B177" s="225">
+        <f>'FCN EN 40%'!I29/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="C177" s="225"/>
+      <c r="E177" s="225" t="str">
+        <f>'FCN EP DDA SENS DDA 70%'!H31</f>
+        <v>Tasa Descuento</v>
+      </c>
+      <c r="F177" s="225">
+        <f>'FCN EP DDA SENS DDA 70%'!I31/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="G177" s="225"/>
+      <c r="H177" s="218"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B98:G120"/>
+    <mergeCell ref="B18:G23"/>
+    <mergeCell ref="B42:H46"/>
+    <mergeCell ref="B65:G70"/>
+    <mergeCell ref="B88:G93"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LSebastián Aburto - Rumina Morales&amp;CAnálisis Flujos de Caja</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16903,8 +19436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J287" sqref="J287"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -16930,15 +19463,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="2:9" ht="13.5" thickBot="1">
       <c r="B2" s="55"/>
@@ -17588,7 +20121,9 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="215">
+        <v>1</v>
+      </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -17598,7 +20133,7 @@
       <c r="B32" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="221">
         <f>SUM(E6:I6)/-SUM(E11:I11)</f>
         <v>8.8681700750642314</v>
       </c>
@@ -18058,10 +20593,10 @@
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B60" s="207" t="s">
+      <c r="B60" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="208"/>
+      <c r="C60" s="210"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="51" t="s">
@@ -18200,10 +20735,10 @@
       <c r="H66" s="56"/>
     </row>
     <row r="67" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="208"/>
+      <c r="C67" s="210"/>
       <c r="H67" s="56"/>
     </row>
     <row r="68" spans="2:8">
@@ -18347,10 +20882,10 @@
       <c r="H73" s="59"/>
     </row>
     <row r="74" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B74" s="207" t="s">
+      <c r="B74" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="208"/>
+      <c r="C74" s="210"/>
       <c r="H74" s="56"/>
     </row>
     <row r="75" spans="2:8">
@@ -18491,10 +21026,10 @@
       <c r="H81" s="56"/>
     </row>
     <row r="82" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B82" s="207" t="s">
+      <c r="B82" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="208"/>
+      <c r="C82" s="210"/>
       <c r="H82" s="56"/>
     </row>
     <row r="83" spans="2:8">
@@ -18635,10 +21170,10 @@
       <c r="H89" s="56"/>
     </row>
     <row r="90" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B90" s="207" t="s">
+      <c r="B90" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="208"/>
+      <c r="C90" s="210"/>
       <c r="H90" s="56"/>
     </row>
     <row r="91" spans="2:8">
@@ -18774,20 +21309,20 @@
     </row>
     <row r="97" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="98" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B98" s="205" t="s">
+      <c r="B98" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="206"/>
-      <c r="D98" s="201" t="s">
+      <c r="C98" s="208"/>
+      <c r="D98" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="201"/>
-      <c r="F98" s="201"/>
-      <c r="G98" s="201" t="s">
+      <c r="E98" s="206"/>
+      <c r="F98" s="206"/>
+      <c r="G98" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H98" s="201"/>
-      <c r="I98" s="201"/>
+      <c r="H98" s="206"/>
+      <c r="I98" s="206"/>
       <c r="J98" s="202" t="s">
         <v>11</v>
       </c>
@@ -19173,20 +21708,20 @@
     </row>
     <row r="106" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="107" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B107" s="205" t="s">
+      <c r="B107" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="206"/>
-      <c r="D107" s="201" t="s">
+      <c r="C107" s="208"/>
+      <c r="D107" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="201"/>
-      <c r="F107" s="201"/>
-      <c r="G107" s="201" t="s">
+      <c r="E107" s="206"/>
+      <c r="F107" s="206"/>
+      <c r="G107" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="201"/>
-      <c r="I107" s="201"/>
+      <c r="H107" s="206"/>
+      <c r="I107" s="206"/>
       <c r="J107" s="202" t="s">
         <v>11</v>
       </c>
@@ -19572,20 +22107,20 @@
     </row>
     <row r="115" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="116" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B116" s="205" t="s">
+      <c r="B116" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="206"/>
-      <c r="D116" s="201" t="s">
+      <c r="C116" s="208"/>
+      <c r="D116" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="201"/>
-      <c r="F116" s="201"/>
-      <c r="G116" s="201" t="s">
+      <c r="E116" s="206"/>
+      <c r="F116" s="206"/>
+      <c r="G116" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="201"/>
-      <c r="I116" s="201"/>
+      <c r="H116" s="206"/>
+      <c r="I116" s="206"/>
       <c r="J116" s="202" t="s">
         <v>11</v>
       </c>
@@ -19976,20 +22511,20 @@
     </row>
     <row r="124" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="125" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B125" s="205" t="s">
+      <c r="B125" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="206"/>
-      <c r="D125" s="201" t="s">
+      <c r="C125" s="208"/>
+      <c r="D125" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="201"/>
-      <c r="F125" s="201"/>
-      <c r="G125" s="201" t="s">
+      <c r="E125" s="206"/>
+      <c r="F125" s="206"/>
+      <c r="G125" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H125" s="201"/>
-      <c r="I125" s="201"/>
+      <c r="H125" s="206"/>
+      <c r="I125" s="206"/>
       <c r="J125" s="202" t="s">
         <v>11</v>
       </c>
@@ -20375,34 +22910,34 @@
       </c>
     </row>
     <row r="134" spans="2:18">
-      <c r="B134" s="210" t="s">
+      <c r="B134" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C134" s="210"/>
-      <c r="D134" s="210"/>
-      <c r="E134" s="210"/>
-      <c r="F134" s="210"/>
+      <c r="C134" s="205"/>
+      <c r="D134" s="205"/>
+      <c r="E134" s="205"/>
+      <c r="F134" s="205"/>
     </row>
     <row r="135" spans="2:18">
-      <c r="B135" s="210"/>
-      <c r="C135" s="210"/>
-      <c r="D135" s="210"/>
-      <c r="E135" s="210"/>
-      <c r="F135" s="210"/>
+      <c r="B135" s="205"/>
+      <c r="C135" s="205"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="205"/>
+      <c r="F135" s="205"/>
     </row>
     <row r="136" spans="2:18">
-      <c r="B136" s="210"/>
-      <c r="C136" s="210"/>
-      <c r="D136" s="210"/>
-      <c r="E136" s="210"/>
-      <c r="F136" s="210"/>
+      <c r="B136" s="205"/>
+      <c r="C136" s="205"/>
+      <c r="D136" s="205"/>
+      <c r="E136" s="205"/>
+      <c r="F136" s="205"/>
     </row>
     <row r="137" spans="2:18">
-      <c r="B137" s="210"/>
-      <c r="C137" s="210"/>
-      <c r="D137" s="210"/>
-      <c r="E137" s="210"/>
-      <c r="F137" s="210"/>
+      <c r="B137" s="205"/>
+      <c r="C137" s="205"/>
+      <c r="D137" s="205"/>
+      <c r="E137" s="205"/>
+      <c r="F137" s="205"/>
     </row>
     <row r="138" spans="2:18">
       <c r="B138" s="75"/>
@@ -24057,12 +26592,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B134:F137"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="P125:R125"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:R116"/>
     <mergeCell ref="P107:R107"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="D98:F98"/>
@@ -24075,19 +26617,12 @@
     <mergeCell ref="G107:I107"/>
     <mergeCell ref="J107:L107"/>
     <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:R125"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="P116:R116"/>
-    <mergeCell ref="B134:F137"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -24099,8 +26634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -24126,15 +26661,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="2:9">
       <c r="H3" s="13" t="s">
@@ -24786,7 +27321,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="215">
+        <v>1</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -24796,7 +27333,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>10.065248210710815</v>
       </c>
@@ -25425,10 +27962,10 @@
     </row>
     <row r="70" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="71" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="208"/>
+      <c r="C71" s="210"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="51" t="s">
@@ -25567,10 +28104,10 @@
       <c r="H77" s="56"/>
     </row>
     <row r="78" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B78" s="207" t="s">
+      <c r="B78" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="208"/>
+      <c r="C78" s="210"/>
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8">
@@ -25714,10 +28251,10 @@
       <c r="H84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B85" s="207" t="s">
+      <c r="B85" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="208"/>
+      <c r="C85" s="210"/>
       <c r="H85" s="56"/>
     </row>
     <row r="86" spans="2:8">
@@ -25858,10 +28395,10 @@
       <c r="H92" s="56"/>
     </row>
     <row r="93" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B93" s="207" t="s">
+      <c r="B93" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="208"/>
+      <c r="C93" s="210"/>
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8">
@@ -26002,10 +28539,10 @@
       <c r="H100" s="56"/>
     </row>
     <row r="101" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B101" s="207" t="s">
+      <c r="B101" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="208"/>
+      <c r="C101" s="210"/>
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:18">
@@ -26141,20 +28678,20 @@
     </row>
     <row r="108" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="109" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B109" s="205" t="s">
+      <c r="B109" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="206"/>
-      <c r="D109" s="201" t="s">
+      <c r="C109" s="208"/>
+      <c r="D109" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="201"/>
-      <c r="F109" s="201"/>
-      <c r="G109" s="201" t="s">
+      <c r="E109" s="206"/>
+      <c r="F109" s="206"/>
+      <c r="G109" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H109" s="201"/>
-      <c r="I109" s="201"/>
+      <c r="H109" s="206"/>
+      <c r="I109" s="206"/>
       <c r="J109" s="202" t="s">
         <v>11</v>
       </c>
@@ -26540,20 +29077,20 @@
     </row>
     <row r="117" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="118" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B118" s="205" t="s">
+      <c r="B118" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="206"/>
-      <c r="D118" s="201" t="s">
+      <c r="C118" s="208"/>
+      <c r="D118" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="201"/>
-      <c r="F118" s="201"/>
-      <c r="G118" s="201" t="s">
+      <c r="E118" s="206"/>
+      <c r="F118" s="206"/>
+      <c r="G118" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="201"/>
-      <c r="I118" s="201"/>
+      <c r="H118" s="206"/>
+      <c r="I118" s="206"/>
       <c r="J118" s="202" t="s">
         <v>11</v>
       </c>
@@ -26939,20 +29476,20 @@
     </row>
     <row r="126" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="127" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B127" s="205" t="s">
+      <c r="B127" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="206"/>
-      <c r="D127" s="201" t="s">
+      <c r="C127" s="208"/>
+      <c r="D127" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-      <c r="G127" s="201" t="s">
+      <c r="E127" s="206"/>
+      <c r="F127" s="206"/>
+      <c r="G127" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H127" s="201"/>
-      <c r="I127" s="201"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="206"/>
       <c r="J127" s="202" t="s">
         <v>11</v>
       </c>
@@ -27342,20 +29879,20 @@
     </row>
     <row r="135" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="136" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B136" s="205" t="s">
+      <c r="B136" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="206"/>
-      <c r="D136" s="201" t="s">
+      <c r="C136" s="208"/>
+      <c r="D136" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="201"/>
-      <c r="F136" s="201"/>
-      <c r="G136" s="201" t="s">
+      <c r="E136" s="206"/>
+      <c r="F136" s="206"/>
+      <c r="G136" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H136" s="201"/>
-      <c r="I136" s="201"/>
+      <c r="H136" s="206"/>
+      <c r="I136" s="206"/>
       <c r="J136" s="202" t="s">
         <v>11</v>
       </c>
@@ -27741,34 +30278,34 @@
       </c>
     </row>
     <row r="145" spans="2:8">
-      <c r="B145" s="210" t="s">
+      <c r="B145" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C145" s="210"/>
-      <c r="D145" s="210"/>
-      <c r="E145" s="210"/>
-      <c r="F145" s="210"/>
+      <c r="C145" s="205"/>
+      <c r="D145" s="205"/>
+      <c r="E145" s="205"/>
+      <c r="F145" s="205"/>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="210"/>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
-      <c r="F146" s="210"/>
+      <c r="B146" s="205"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="210"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
+      <c r="B147" s="205"/>
+      <c r="C147" s="205"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="205"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="210"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
-      <c r="F148" s="210"/>
+      <c r="B148" s="205"/>
+      <c r="C148" s="205"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="205"/>
+      <c r="F148" s="205"/>
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="75"/>
@@ -31434,12 +33971,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B145:F148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="P136:R136"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="P127:R127"/>
     <mergeCell ref="P118:R118"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="D109:F109"/>
@@ -31452,19 +33996,12 @@
     <mergeCell ref="G118:I118"/>
     <mergeCell ref="J118:L118"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M136:O136"/>
-    <mergeCell ref="P136:R136"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:L127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="P127:R127"/>
-    <mergeCell ref="B145:F148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -31476,8 +34013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -31503,15 +34040,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="2:9">
       <c r="H3" s="13" t="s">
@@ -32169,7 +34706,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="216">
+        <v>1</v>
+      </c>
       <c r="F33" s="58"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -32179,7 +34718,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>5.5065943805010704</v>
       </c>
@@ -32825,10 +35364,10 @@
     </row>
     <row r="71" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="72" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B72" s="207" t="s">
+      <c r="B72" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="208"/>
+      <c r="C72" s="210"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="51" t="s">
@@ -32967,10 +35506,10 @@
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="208"/>
+      <c r="C79" s="210"/>
       <c r="H79" s="56"/>
     </row>
     <row r="80" spans="2:8">
@@ -33114,10 +35653,10 @@
       <c r="H85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="208"/>
+      <c r="C86" s="210"/>
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8">
@@ -33258,10 +35797,10 @@
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B94" s="207" t="s">
+      <c r="B94" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="208"/>
+      <c r="C94" s="210"/>
       <c r="H94" s="56"/>
     </row>
     <row r="95" spans="2:8">
@@ -33402,10 +35941,10 @@
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B102" s="207" t="s">
+      <c r="B102" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="208"/>
+      <c r="C102" s="210"/>
       <c r="H102" s="56"/>
     </row>
     <row r="103" spans="2:18">
@@ -33541,20 +36080,20 @@
     </row>
     <row r="109" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="110" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="206"/>
-      <c r="D110" s="201" t="s">
+      <c r="C110" s="208"/>
+      <c r="D110" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="201"/>
-      <c r="F110" s="201"/>
-      <c r="G110" s="201" t="s">
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="201"/>
-      <c r="I110" s="201"/>
+      <c r="H110" s="206"/>
+      <c r="I110" s="206"/>
       <c r="J110" s="202" t="s">
         <v>11</v>
       </c>
@@ -33940,20 +36479,20 @@
     </row>
     <row r="118" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="119" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B119" s="205" t="s">
+      <c r="B119" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="206"/>
-      <c r="D119" s="201" t="s">
+      <c r="C119" s="208"/>
+      <c r="D119" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="201"/>
-      <c r="F119" s="201"/>
-      <c r="G119" s="201" t="s">
+      <c r="E119" s="206"/>
+      <c r="F119" s="206"/>
+      <c r="G119" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="201"/>
-      <c r="I119" s="201"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="206"/>
       <c r="J119" s="202" t="s">
         <v>11</v>
       </c>
@@ -34339,20 +36878,20 @@
     </row>
     <row r="127" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="128" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B128" s="205" t="s">
+      <c r="B128" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="206"/>
-      <c r="D128" s="201" t="s">
+      <c r="C128" s="208"/>
+      <c r="D128" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="201"/>
-      <c r="F128" s="201"/>
-      <c r="G128" s="201" t="s">
+      <c r="E128" s="206"/>
+      <c r="F128" s="206"/>
+      <c r="G128" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="201"/>
-      <c r="I128" s="201"/>
+      <c r="H128" s="206"/>
+      <c r="I128" s="206"/>
       <c r="J128" s="202" t="s">
         <v>11</v>
       </c>
@@ -34743,20 +37282,20 @@
     </row>
     <row r="136" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="137" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B137" s="205" t="s">
+      <c r="B137" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="206"/>
-      <c r="D137" s="201" t="s">
+      <c r="C137" s="208"/>
+      <c r="D137" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="201"/>
-      <c r="F137" s="201"/>
-      <c r="G137" s="201" t="s">
+      <c r="E137" s="206"/>
+      <c r="F137" s="206"/>
+      <c r="G137" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H137" s="201"/>
-      <c r="I137" s="201"/>
+      <c r="H137" s="206"/>
+      <c r="I137" s="206"/>
       <c r="J137" s="202" t="s">
         <v>11</v>
       </c>
@@ -35142,34 +37681,34 @@
       </c>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="210" t="s">
+      <c r="B146" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
-      <c r="F146" s="210"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="210"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
+      <c r="B147" s="205"/>
+      <c r="C147" s="205"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="205"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="210"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
-      <c r="F148" s="210"/>
+      <c r="B148" s="205"/>
+      <c r="C148" s="205"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="205"/>
+      <c r="F148" s="205"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="210"/>
-      <c r="C149" s="210"/>
-      <c r="D149" s="210"/>
-      <c r="E149" s="210"/>
-      <c r="F149" s="210"/>
+      <c r="B149" s="205"/>
+      <c r="C149" s="205"/>
+      <c r="D149" s="205"/>
+      <c r="E149" s="205"/>
+      <c r="F149" s="205"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="75"/>
@@ -38833,12 +41372,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B146:F149"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="P137:R137"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:R128"/>
     <mergeCell ref="P119:R119"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="D110:F110"/>
@@ -38851,19 +41397,12 @@
     <mergeCell ref="G119:I119"/>
     <mergeCell ref="J119:L119"/>
     <mergeCell ref="M119:O119"/>
-    <mergeCell ref="M137:O137"/>
-    <mergeCell ref="P137:R137"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:R128"/>
-    <mergeCell ref="B146:F149"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -38876,7 +41415,7 @@
   <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -38902,15 +41441,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="2:9" ht="13.5" thickBot="1">
       <c r="B2" s="55"/>
@@ -39560,7 +42099,9 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="215">
+        <v>1</v>
+      </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -39570,7 +42111,7 @@
       <c r="B32" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="221">
         <f>SUM(E6:I6)/-SUM(E11:I11)</f>
         <v>8.8681700750642314</v>
       </c>
@@ -40030,10 +42571,10 @@
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B60" s="207" t="s">
+      <c r="B60" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="208"/>
+      <c r="C60" s="210"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="51" t="s">
@@ -40172,10 +42713,10 @@
       <c r="H66" s="56"/>
     </row>
     <row r="67" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="208"/>
+      <c r="C67" s="210"/>
       <c r="H67" s="56"/>
     </row>
     <row r="68" spans="2:8">
@@ -40319,10 +42860,10 @@
       <c r="H73" s="59"/>
     </row>
     <row r="74" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B74" s="207" t="s">
+      <c r="B74" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="208"/>
+      <c r="C74" s="210"/>
       <c r="H74" s="56"/>
     </row>
     <row r="75" spans="2:8">
@@ -40463,10 +43004,10 @@
       <c r="H81" s="56"/>
     </row>
     <row r="82" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B82" s="207" t="s">
+      <c r="B82" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="208"/>
+      <c r="C82" s="210"/>
       <c r="H82" s="56"/>
     </row>
     <row r="83" spans="2:8">
@@ -40607,10 +43148,10 @@
       <c r="H89" s="56"/>
     </row>
     <row r="90" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B90" s="207" t="s">
+      <c r="B90" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="208"/>
+      <c r="C90" s="210"/>
       <c r="H90" s="56"/>
     </row>
     <row r="91" spans="2:8">
@@ -40746,20 +43287,20 @@
     </row>
     <row r="97" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="98" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B98" s="205" t="s">
+      <c r="B98" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="206"/>
-      <c r="D98" s="201" t="s">
+      <c r="C98" s="208"/>
+      <c r="D98" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="201"/>
-      <c r="F98" s="201"/>
-      <c r="G98" s="201" t="s">
+      <c r="E98" s="206"/>
+      <c r="F98" s="206"/>
+      <c r="G98" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H98" s="201"/>
-      <c r="I98" s="201"/>
+      <c r="H98" s="206"/>
+      <c r="I98" s="206"/>
       <c r="J98" s="202" t="s">
         <v>11</v>
       </c>
@@ -41145,20 +43686,20 @@
     </row>
     <row r="106" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="107" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B107" s="205" t="s">
+      <c r="B107" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="206"/>
-      <c r="D107" s="201" t="s">
+      <c r="C107" s="208"/>
+      <c r="D107" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="201"/>
-      <c r="F107" s="201"/>
-      <c r="G107" s="201" t="s">
+      <c r="E107" s="206"/>
+      <c r="F107" s="206"/>
+      <c r="G107" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="201"/>
-      <c r="I107" s="201"/>
+      <c r="H107" s="206"/>
+      <c r="I107" s="206"/>
       <c r="J107" s="202" t="s">
         <v>11</v>
       </c>
@@ -41544,20 +44085,20 @@
     </row>
     <row r="115" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="116" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B116" s="205" t="s">
+      <c r="B116" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="206"/>
-      <c r="D116" s="201" t="s">
+      <c r="C116" s="208"/>
+      <c r="D116" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="201"/>
-      <c r="F116" s="201"/>
-      <c r="G116" s="201" t="s">
+      <c r="E116" s="206"/>
+      <c r="F116" s="206"/>
+      <c r="G116" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="201"/>
-      <c r="I116" s="201"/>
+      <c r="H116" s="206"/>
+      <c r="I116" s="206"/>
       <c r="J116" s="202" t="s">
         <v>11</v>
       </c>
@@ -41948,20 +44489,20 @@
     </row>
     <row r="124" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="125" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B125" s="205" t="s">
+      <c r="B125" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="206"/>
-      <c r="D125" s="201" t="s">
+      <c r="C125" s="208"/>
+      <c r="D125" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="201"/>
-      <c r="F125" s="201"/>
-      <c r="G125" s="201" t="s">
+      <c r="E125" s="206"/>
+      <c r="F125" s="206"/>
+      <c r="G125" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H125" s="201"/>
-      <c r="I125" s="201"/>
+      <c r="H125" s="206"/>
+      <c r="I125" s="206"/>
       <c r="J125" s="202" t="s">
         <v>11</v>
       </c>
@@ -42347,34 +44888,34 @@
       </c>
     </row>
     <row r="134" spans="2:18">
-      <c r="B134" s="210" t="s">
+      <c r="B134" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C134" s="210"/>
-      <c r="D134" s="210"/>
-      <c r="E134" s="210"/>
-      <c r="F134" s="210"/>
+      <c r="C134" s="205"/>
+      <c r="D134" s="205"/>
+      <c r="E134" s="205"/>
+      <c r="F134" s="205"/>
     </row>
     <row r="135" spans="2:18">
-      <c r="B135" s="210"/>
-      <c r="C135" s="210"/>
-      <c r="D135" s="210"/>
-      <c r="E135" s="210"/>
-      <c r="F135" s="210"/>
+      <c r="B135" s="205"/>
+      <c r="C135" s="205"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="205"/>
+      <c r="F135" s="205"/>
     </row>
     <row r="136" spans="2:18">
-      <c r="B136" s="210"/>
-      <c r="C136" s="210"/>
-      <c r="D136" s="210"/>
-      <c r="E136" s="210"/>
-      <c r="F136" s="210"/>
+      <c r="B136" s="205"/>
+      <c r="C136" s="205"/>
+      <c r="D136" s="205"/>
+      <c r="E136" s="205"/>
+      <c r="F136" s="205"/>
     </row>
     <row r="137" spans="2:18">
-      <c r="B137" s="210"/>
-      <c r="C137" s="210"/>
-      <c r="D137" s="210"/>
-      <c r="E137" s="210"/>
-      <c r="F137" s="210"/>
+      <c r="B137" s="205"/>
+      <c r="C137" s="205"/>
+      <c r="D137" s="205"/>
+      <c r="E137" s="205"/>
+      <c r="F137" s="205"/>
     </row>
     <row r="138" spans="2:18">
       <c r="B138" s="196"/>
@@ -46029,12 +48570,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B134:F137"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="P125:R125"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:R116"/>
     <mergeCell ref="P107:R107"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="D98:F98"/>
@@ -46047,19 +48595,12 @@
     <mergeCell ref="G107:I107"/>
     <mergeCell ref="J107:L107"/>
     <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:R125"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="P116:R116"/>
-    <mergeCell ref="B134:F137"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -46072,7 +48613,7 @@
   <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -46098,15 +48639,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="2:9">
       <c r="H3" s="13" t="s">
@@ -46758,7 +49299,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="215">
+        <v>1</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -46768,7 +49311,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>10.065248210710815</v>
       </c>
@@ -47397,10 +49940,10 @@
     </row>
     <row r="70" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="71" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B71" s="207" t="s">
+      <c r="B71" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="208"/>
+      <c r="C71" s="210"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="51" t="s">
@@ -47539,10 +50082,10 @@
       <c r="H77" s="56"/>
     </row>
     <row r="78" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B78" s="207" t="s">
+      <c r="B78" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="208"/>
+      <c r="C78" s="210"/>
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8">
@@ -47686,10 +50229,10 @@
       <c r="H84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B85" s="207" t="s">
+      <c r="B85" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="208"/>
+      <c r="C85" s="210"/>
       <c r="H85" s="56"/>
     </row>
     <row r="86" spans="2:8">
@@ -47830,10 +50373,10 @@
       <c r="H92" s="56"/>
     </row>
     <row r="93" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B93" s="207" t="s">
+      <c r="B93" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="208"/>
+      <c r="C93" s="210"/>
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8">
@@ -47974,10 +50517,10 @@
       <c r="H100" s="56"/>
     </row>
     <row r="101" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B101" s="207" t="s">
+      <c r="B101" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="208"/>
+      <c r="C101" s="210"/>
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:18">
@@ -48113,20 +50656,20 @@
     </row>
     <row r="108" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="109" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B109" s="205" t="s">
+      <c r="B109" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="206"/>
-      <c r="D109" s="201" t="s">
+      <c r="C109" s="208"/>
+      <c r="D109" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="201"/>
-      <c r="F109" s="201"/>
-      <c r="G109" s="201" t="s">
+      <c r="E109" s="206"/>
+      <c r="F109" s="206"/>
+      <c r="G109" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H109" s="201"/>
-      <c r="I109" s="201"/>
+      <c r="H109" s="206"/>
+      <c r="I109" s="206"/>
       <c r="J109" s="202" t="s">
         <v>11</v>
       </c>
@@ -48512,20 +51055,20 @@
     </row>
     <row r="117" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="118" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B118" s="205" t="s">
+      <c r="B118" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="206"/>
-      <c r="D118" s="201" t="s">
+      <c r="C118" s="208"/>
+      <c r="D118" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="201"/>
-      <c r="F118" s="201"/>
-      <c r="G118" s="201" t="s">
+      <c r="E118" s="206"/>
+      <c r="F118" s="206"/>
+      <c r="G118" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H118" s="201"/>
-      <c r="I118" s="201"/>
+      <c r="H118" s="206"/>
+      <c r="I118" s="206"/>
       <c r="J118" s="202" t="s">
         <v>11</v>
       </c>
@@ -48911,20 +51454,20 @@
     </row>
     <row r="126" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="127" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B127" s="205" t="s">
+      <c r="B127" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="206"/>
-      <c r="D127" s="201" t="s">
+      <c r="C127" s="208"/>
+      <c r="D127" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-      <c r="G127" s="201" t="s">
+      <c r="E127" s="206"/>
+      <c r="F127" s="206"/>
+      <c r="G127" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H127" s="201"/>
-      <c r="I127" s="201"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="206"/>
       <c r="J127" s="202" t="s">
         <v>11</v>
       </c>
@@ -49314,20 +51857,20 @@
     </row>
     <row r="135" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="136" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B136" s="205" t="s">
+      <c r="B136" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="206"/>
-      <c r="D136" s="201" t="s">
+      <c r="C136" s="208"/>
+      <c r="D136" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="201"/>
-      <c r="F136" s="201"/>
-      <c r="G136" s="201" t="s">
+      <c r="E136" s="206"/>
+      <c r="F136" s="206"/>
+      <c r="G136" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H136" s="201"/>
-      <c r="I136" s="201"/>
+      <c r="H136" s="206"/>
+      <c r="I136" s="206"/>
       <c r="J136" s="202" t="s">
         <v>11</v>
       </c>
@@ -49713,34 +52256,34 @@
       </c>
     </row>
     <row r="145" spans="2:8">
-      <c r="B145" s="210" t="s">
+      <c r="B145" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C145" s="210"/>
-      <c r="D145" s="210"/>
-      <c r="E145" s="210"/>
-      <c r="F145" s="210"/>
+      <c r="C145" s="205"/>
+      <c r="D145" s="205"/>
+      <c r="E145" s="205"/>
+      <c r="F145" s="205"/>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="210"/>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
-      <c r="F146" s="210"/>
+      <c r="B146" s="205"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="210"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
+      <c r="B147" s="205"/>
+      <c r="C147" s="205"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="205"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="210"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
-      <c r="F148" s="210"/>
+      <c r="B148" s="205"/>
+      <c r="C148" s="205"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="205"/>
+      <c r="F148" s="205"/>
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="196"/>
@@ -53406,12 +55949,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B145:F148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="P136:R136"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="P127:R127"/>
     <mergeCell ref="P118:R118"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="D109:F109"/>
@@ -53424,19 +55974,12 @@
     <mergeCell ref="G118:I118"/>
     <mergeCell ref="J118:L118"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="M136:O136"/>
-    <mergeCell ref="P136:R136"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:L127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="P127:R127"/>
-    <mergeCell ref="B145:F148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -53449,7 +55992,7 @@
   <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -53475,15 +56018,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="2:9">
       <c r="H3" s="13" t="s">
@@ -54141,7 +56684,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="216">
+        <v>1</v>
+      </c>
       <c r="F33" s="58"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -54151,7 +56696,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>5.5065943805010704</v>
       </c>
@@ -54797,10 +57342,10 @@
     </row>
     <row r="71" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="72" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B72" s="207" t="s">
+      <c r="B72" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="208"/>
+      <c r="C72" s="210"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="51" t="s">
@@ -54939,10 +57484,10 @@
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="208"/>
+      <c r="C79" s="210"/>
       <c r="H79" s="56"/>
     </row>
     <row r="80" spans="2:8">
@@ -55086,10 +57631,10 @@
       <c r="H85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="208"/>
+      <c r="C86" s="210"/>
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8">
@@ -55230,10 +57775,10 @@
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B94" s="207" t="s">
+      <c r="B94" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="208"/>
+      <c r="C94" s="210"/>
       <c r="H94" s="56"/>
     </row>
     <row r="95" spans="2:8">
@@ -55374,10 +57919,10 @@
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B102" s="207" t="s">
+      <c r="B102" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="208"/>
+      <c r="C102" s="210"/>
       <c r="H102" s="56"/>
     </row>
     <row r="103" spans="2:18">
@@ -55513,20 +58058,20 @@
     </row>
     <row r="109" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="110" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="206"/>
-      <c r="D110" s="201" t="s">
+      <c r="C110" s="208"/>
+      <c r="D110" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="201"/>
-      <c r="F110" s="201"/>
-      <c r="G110" s="201" t="s">
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="201"/>
-      <c r="I110" s="201"/>
+      <c r="H110" s="206"/>
+      <c r="I110" s="206"/>
       <c r="J110" s="202" t="s">
         <v>11</v>
       </c>
@@ -55912,20 +58457,20 @@
     </row>
     <row r="118" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="119" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B119" s="205" t="s">
+      <c r="B119" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="206"/>
-      <c r="D119" s="201" t="s">
+      <c r="C119" s="208"/>
+      <c r="D119" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="201"/>
-      <c r="F119" s="201"/>
-      <c r="G119" s="201" t="s">
+      <c r="E119" s="206"/>
+      <c r="F119" s="206"/>
+      <c r="G119" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="201"/>
-      <c r="I119" s="201"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="206"/>
       <c r="J119" s="202" t="s">
         <v>11</v>
       </c>
@@ -56311,20 +58856,20 @@
     </row>
     <row r="127" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="128" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B128" s="205" t="s">
+      <c r="B128" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="206"/>
-      <c r="D128" s="201" t="s">
+      <c r="C128" s="208"/>
+      <c r="D128" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="201"/>
-      <c r="F128" s="201"/>
-      <c r="G128" s="201" t="s">
+      <c r="E128" s="206"/>
+      <c r="F128" s="206"/>
+      <c r="G128" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="201"/>
-      <c r="I128" s="201"/>
+      <c r="H128" s="206"/>
+      <c r="I128" s="206"/>
       <c r="J128" s="202" t="s">
         <v>11</v>
       </c>
@@ -56715,20 +59260,20 @@
     </row>
     <row r="136" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="137" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B137" s="205" t="s">
+      <c r="B137" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="206"/>
-      <c r="D137" s="201" t="s">
+      <c r="C137" s="208"/>
+      <c r="D137" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="201"/>
-      <c r="F137" s="201"/>
-      <c r="G137" s="201" t="s">
+      <c r="E137" s="206"/>
+      <c r="F137" s="206"/>
+      <c r="G137" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H137" s="201"/>
-      <c r="I137" s="201"/>
+      <c r="H137" s="206"/>
+      <c r="I137" s="206"/>
       <c r="J137" s="202" t="s">
         <v>11</v>
       </c>
@@ -57114,34 +59659,34 @@
       </c>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="210" t="s">
+      <c r="B146" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
-      <c r="F146" s="210"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="210"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
+      <c r="B147" s="205"/>
+      <c r="C147" s="205"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="205"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="210"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
-      <c r="F148" s="210"/>
+      <c r="B148" s="205"/>
+      <c r="C148" s="205"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="205"/>
+      <c r="F148" s="205"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="210"/>
-      <c r="C149" s="210"/>
-      <c r="D149" s="210"/>
-      <c r="E149" s="210"/>
-      <c r="F149" s="210"/>
+      <c r="B149" s="205"/>
+      <c r="C149" s="205"/>
+      <c r="D149" s="205"/>
+      <c r="E149" s="205"/>
+      <c r="F149" s="205"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="196"/>
@@ -60805,12 +63350,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B146:F149"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="P137:R137"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:R128"/>
     <mergeCell ref="P119:R119"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="D110:F110"/>
@@ -60823,19 +63375,12 @@
     <mergeCell ref="G119:I119"/>
     <mergeCell ref="J119:L119"/>
     <mergeCell ref="M119:O119"/>
-    <mergeCell ref="M137:O137"/>
-    <mergeCell ref="P137:R137"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:R128"/>
-    <mergeCell ref="B146:F149"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -60847,8 +63392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -60874,15 +63419,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="3" spans="2:9">
       <c r="G3" s="13" t="s">
@@ -61543,7 +64088,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="216">
+        <v>3</v>
+      </c>
       <c r="F33" s="58"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -61553,7 +64100,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>1.3576232692866017</v>
       </c>
@@ -62196,10 +64743,10 @@
     </row>
     <row r="71" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="72" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B72" s="207" t="s">
+      <c r="B72" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="208"/>
+      <c r="C72" s="210"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="51" t="s">
@@ -62338,10 +64885,10 @@
       <c r="H78" s="56"/>
     </row>
     <row r="79" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="208"/>
+      <c r="C79" s="210"/>
       <c r="H79" s="56"/>
     </row>
     <row r="80" spans="2:8">
@@ -62485,10 +65032,10 @@
       <c r="H85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="208"/>
+      <c r="C86" s="210"/>
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8">
@@ -62629,10 +65176,10 @@
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B94" s="207" t="s">
+      <c r="B94" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="208"/>
+      <c r="C94" s="210"/>
       <c r="H94" s="56"/>
     </row>
     <row r="95" spans="2:8">
@@ -62773,10 +65320,10 @@
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B102" s="207" t="s">
+      <c r="B102" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="208"/>
+      <c r="C102" s="210"/>
       <c r="H102" s="56"/>
     </row>
     <row r="103" spans="2:18">
@@ -62912,20 +65459,20 @@
     </row>
     <row r="109" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="110" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B110" s="205" t="s">
+      <c r="B110" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="206"/>
-      <c r="D110" s="201" t="s">
+      <c r="C110" s="208"/>
+      <c r="D110" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="201"/>
-      <c r="F110" s="201"/>
-      <c r="G110" s="201" t="s">
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="201"/>
-      <c r="I110" s="201"/>
+      <c r="H110" s="206"/>
+      <c r="I110" s="206"/>
       <c r="J110" s="202" t="s">
         <v>11</v>
       </c>
@@ -63311,20 +65858,20 @@
     </row>
     <row r="118" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="119" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B119" s="205" t="s">
+      <c r="B119" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="206"/>
-      <c r="D119" s="201" t="s">
+      <c r="C119" s="208"/>
+      <c r="D119" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="201"/>
-      <c r="F119" s="201"/>
-      <c r="G119" s="201" t="s">
+      <c r="E119" s="206"/>
+      <c r="F119" s="206"/>
+      <c r="G119" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H119" s="201"/>
-      <c r="I119" s="201"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="206"/>
       <c r="J119" s="202" t="s">
         <v>11</v>
       </c>
@@ -63710,20 +66257,20 @@
     </row>
     <row r="127" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="128" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B128" s="205" t="s">
+      <c r="B128" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="206"/>
-      <c r="D128" s="201" t="s">
+      <c r="C128" s="208"/>
+      <c r="D128" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="201"/>
-      <c r="F128" s="201"/>
-      <c r="G128" s="201" t="s">
+      <c r="E128" s="206"/>
+      <c r="F128" s="206"/>
+      <c r="G128" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="201"/>
-      <c r="I128" s="201"/>
+      <c r="H128" s="206"/>
+      <c r="I128" s="206"/>
       <c r="J128" s="202" t="s">
         <v>11</v>
       </c>
@@ -64114,20 +66661,20 @@
     </row>
     <row r="136" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="137" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B137" s="205" t="s">
+      <c r="B137" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="206"/>
-      <c r="D137" s="201" t="s">
+      <c r="C137" s="208"/>
+      <c r="D137" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="201"/>
-      <c r="F137" s="201"/>
-      <c r="G137" s="201" t="s">
+      <c r="E137" s="206"/>
+      <c r="F137" s="206"/>
+      <c r="G137" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H137" s="201"/>
-      <c r="I137" s="201"/>
+      <c r="H137" s="206"/>
+      <c r="I137" s="206"/>
       <c r="J137" s="202" t="s">
         <v>11</v>
       </c>
@@ -64513,34 +67060,34 @@
       </c>
     </row>
     <row r="146" spans="2:8">
-      <c r="B146" s="210" t="s">
+      <c r="B146" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C146" s="210"/>
-      <c r="D146" s="210"/>
-      <c r="E146" s="210"/>
-      <c r="F146" s="210"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="210"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="210"/>
-      <c r="E147" s="210"/>
-      <c r="F147" s="210"/>
+      <c r="B147" s="205"/>
+      <c r="C147" s="205"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="205"/>
+      <c r="F147" s="205"/>
     </row>
     <row r="148" spans="2:8">
-      <c r="B148" s="210"/>
-      <c r="C148" s="210"/>
-      <c r="D148" s="210"/>
-      <c r="E148" s="210"/>
-      <c r="F148" s="210"/>
+      <c r="B148" s="205"/>
+      <c r="C148" s="205"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="205"/>
+      <c r="F148" s="205"/>
     </row>
     <row r="149" spans="2:8">
-      <c r="B149" s="210"/>
-      <c r="C149" s="210"/>
-      <c r="D149" s="210"/>
-      <c r="E149" s="210"/>
-      <c r="F149" s="210"/>
+      <c r="B149" s="205"/>
+      <c r="C149" s="205"/>
+      <c r="D149" s="205"/>
+      <c r="E149" s="205"/>
+      <c r="F149" s="205"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="75"/>
@@ -68204,12 +70751,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B146:F149"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="P137:R137"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:R128"/>
     <mergeCell ref="P119:R119"/>
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="D110:F110"/>
@@ -68222,19 +70776,12 @@
     <mergeCell ref="G119:I119"/>
     <mergeCell ref="J119:L119"/>
     <mergeCell ref="M119:O119"/>
-    <mergeCell ref="M137:O137"/>
-    <mergeCell ref="P137:R137"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:L128"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:R128"/>
-    <mergeCell ref="B146:F149"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -68246,9 +70793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane ySplit="8325" topLeftCell="A30"/>
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C34" sqref="C34"/>
       <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -68275,15 +70822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="201" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="2:9">
       <c r="G2" s="13" t="s">
@@ -68946,7 +71493,9 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="215">
+        <v>4</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -68956,7 +71505,7 @@
       <c r="B34" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="221">
         <f>SUM(E8:I8)/-SUM(E13:I13)</f>
         <v>1.3235507088199965</v>
       </c>
@@ -69767,10 +72316,10 @@
     </row>
     <row r="78" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="79" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="208"/>
+      <c r="C79" s="210"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="51" t="s">
@@ -69909,10 +72458,10 @@
       <c r="H85" s="56"/>
     </row>
     <row r="86" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="208"/>
+      <c r="C86" s="210"/>
       <c r="H86" s="56"/>
     </row>
     <row r="87" spans="2:8">
@@ -70056,10 +72605,10 @@
       <c r="H92" s="59"/>
     </row>
     <row r="93" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B93" s="207" t="s">
+      <c r="B93" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="208"/>
+      <c r="C93" s="210"/>
       <c r="H93" s="56"/>
     </row>
     <row r="94" spans="2:8">
@@ -70200,10 +72749,10 @@
       <c r="H100" s="56"/>
     </row>
     <row r="101" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B101" s="207" t="s">
+      <c r="B101" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="208"/>
+      <c r="C101" s="210"/>
       <c r="H101" s="56"/>
     </row>
     <row r="102" spans="2:8">
@@ -70344,10 +72893,10 @@
       <c r="H108" s="56"/>
     </row>
     <row r="109" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B109" s="207" t="s">
+      <c r="B109" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="208"/>
+      <c r="C109" s="210"/>
       <c r="H109" s="56"/>
     </row>
     <row r="110" spans="2:8">
@@ -70483,20 +73032,20 @@
     </row>
     <row r="116" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="117" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B117" s="205" t="s">
+      <c r="B117" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="206"/>
-      <c r="D117" s="201" t="s">
+      <c r="C117" s="208"/>
+      <c r="D117" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="201"/>
-      <c r="F117" s="201"/>
-      <c r="G117" s="201" t="s">
+      <c r="E117" s="206"/>
+      <c r="F117" s="206"/>
+      <c r="G117" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H117" s="201"/>
-      <c r="I117" s="201"/>
+      <c r="H117" s="206"/>
+      <c r="I117" s="206"/>
       <c r="J117" s="202" t="s">
         <v>11</v>
       </c>
@@ -70882,20 +73431,20 @@
     </row>
     <row r="125" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="126" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B126" s="205" t="s">
+      <c r="B126" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="206"/>
-      <c r="D126" s="201" t="s">
+      <c r="C126" s="208"/>
+      <c r="D126" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="201"/>
-      <c r="F126" s="201"/>
-      <c r="G126" s="201" t="s">
+      <c r="E126" s="206"/>
+      <c r="F126" s="206"/>
+      <c r="G126" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H126" s="201"/>
-      <c r="I126" s="201"/>
+      <c r="H126" s="206"/>
+      <c r="I126" s="206"/>
       <c r="J126" s="202" t="s">
         <v>11</v>
       </c>
@@ -71281,20 +73830,20 @@
     </row>
     <row r="134" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="135" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B135" s="205" t="s">
+      <c r="B135" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="206"/>
-      <c r="D135" s="201" t="s">
+      <c r="C135" s="208"/>
+      <c r="D135" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="201"/>
-      <c r="F135" s="201"/>
-      <c r="G135" s="201" t="s">
+      <c r="E135" s="206"/>
+      <c r="F135" s="206"/>
+      <c r="G135" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H135" s="201"/>
-      <c r="I135" s="201"/>
+      <c r="H135" s="206"/>
+      <c r="I135" s="206"/>
       <c r="J135" s="202" t="s">
         <v>11</v>
       </c>
@@ -71684,20 +74233,20 @@
     </row>
     <row r="143" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="144" spans="2:18" ht="13.5" thickBot="1">
-      <c r="B144" s="205" t="s">
+      <c r="B144" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="206"/>
-      <c r="D144" s="201" t="s">
+      <c r="C144" s="208"/>
+      <c r="D144" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="201"/>
-      <c r="F144" s="201"/>
-      <c r="G144" s="201" t="s">
+      <c r="E144" s="206"/>
+      <c r="F144" s="206"/>
+      <c r="G144" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="H144" s="201"/>
-      <c r="I144" s="201"/>
+      <c r="H144" s="206"/>
+      <c r="I144" s="206"/>
       <c r="J144" s="202" t="s">
         <v>11</v>
       </c>
@@ -72083,34 +74632,34 @@
       </c>
     </row>
     <row r="153" spans="1:18">
-      <c r="B153" s="210" t="s">
+      <c r="B153" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="210"/>
-      <c r="D153" s="210"/>
-      <c r="E153" s="210"/>
-      <c r="F153" s="210"/>
+      <c r="C153" s="205"/>
+      <c r="D153" s="205"/>
+      <c r="E153" s="205"/>
+      <c r="F153" s="205"/>
     </row>
     <row r="154" spans="1:18">
-      <c r="B154" s="210"/>
-      <c r="C154" s="210"/>
-      <c r="D154" s="210"/>
-      <c r="E154" s="210"/>
-      <c r="F154" s="210"/>
+      <c r="B154" s="205"/>
+      <c r="C154" s="205"/>
+      <c r="D154" s="205"/>
+      <c r="E154" s="205"/>
+      <c r="F154" s="205"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="B155" s="210"/>
-      <c r="C155" s="210"/>
-      <c r="D155" s="210"/>
-      <c r="E155" s="210"/>
-      <c r="F155" s="210"/>
+      <c r="B155" s="205"/>
+      <c r="C155" s="205"/>
+      <c r="D155" s="205"/>
+      <c r="E155" s="205"/>
+      <c r="F155" s="205"/>
     </row>
     <row r="156" spans="1:18">
-      <c r="B156" s="210"/>
-      <c r="C156" s="210"/>
-      <c r="D156" s="210"/>
-      <c r="E156" s="210"/>
-      <c r="F156" s="210"/>
+      <c r="B156" s="205"/>
+      <c r="C156" s="205"/>
+      <c r="D156" s="205"/>
+      <c r="E156" s="205"/>
+      <c r="F156" s="205"/>
     </row>
     <row r="157" spans="1:18">
       <c r="B157" s="196"/>
@@ -75776,12 +78325,19 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B153:F156"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="M144:O144"/>
+    <mergeCell ref="P144:R144"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="P135:R135"/>
     <mergeCell ref="P126:R126"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:F117"/>
@@ -75794,19 +78350,12 @@
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="J126:L126"/>
     <mergeCell ref="M126:O126"/>
-    <mergeCell ref="M144:O144"/>
-    <mergeCell ref="P144:R144"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="M135:O135"/>
-    <mergeCell ref="P135:R135"/>
-    <mergeCell ref="B153:F156"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B101:C101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
